--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="8480" windowWidth="36800" windowHeight="20260" tabRatio="500"/>
+    <workbookView xWindow="3180" yWindow="6960" windowWidth="36800" windowHeight="20260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="281">
   <si>
     <t>Country</t>
   </si>
@@ -873,9 +873,6 @@
     <t>AZ</t>
   </si>
   <si>
-    <t>V1V2</t>
-  </si>
-  <si>
     <t>GCTTGTCTCAAAGATTAAGCC</t>
   </si>
   <si>
@@ -964,6 +961,15 @@
   </si>
   <si>
     <t>Multiplexed in</t>
+  </si>
+  <si>
+    <t>SSUFO4</t>
+  </si>
+  <si>
+    <t>SSUR22</t>
+  </si>
+  <si>
+    <t>V1V2 nSSU rDNA (18S rDNA)</t>
   </si>
 </sst>
 </file>
@@ -2305,10 +2311,10 @@
   </sheetPr>
   <dimension ref="A1:BZ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomLeft" activeCell="AL39" sqref="AL39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2349,7 +2355,7 @@
     <col min="36" max="36" width="10.33203125" style="15" customWidth="1"/>
     <col min="37" max="37" width="10.33203125" customWidth="1"/>
     <col min="38" max="38" width="11.5" customWidth="1"/>
-    <col min="39" max="39" width="11.33203125" customWidth="1"/>
+    <col min="39" max="39" width="28.33203125" customWidth="1"/>
     <col min="40" max="40" width="12.1640625" style="44" customWidth="1"/>
     <col min="41" max="41" width="32.83203125" style="1" customWidth="1"/>
     <col min="42" max="42" width="12.83203125" style="44" customWidth="1"/>
@@ -2503,7 +2509,7 @@
         <v>56</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N2" s="47"/>
       <c r="O2" s="48" t="s">
@@ -2712,7 +2718,7 @@
         <v>141</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N3" s="32" t="s">
         <v>49</v>
@@ -2756,13 +2762,13 @@
         <v>195</v>
       </c>
       <c r="AE3" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF3" s="20" t="s">
         <v>195</v>
       </c>
       <c r="AG3" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH3" s="16"/>
       <c r="AI3" s="63" t="s">
@@ -2773,19 +2779,19 @@
         <v>0.01</v>
       </c>
       <c r="AM3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN3" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN3" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP3" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -2807,6 +2813,12 @@
       </c>
       <c r="AX3" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ3">
+        <v>250</v>
+      </c>
+      <c r="BA3">
+        <v>250</v>
       </c>
       <c r="BC3" s="60"/>
       <c r="BD3" s="60"/>
@@ -2860,7 +2872,7 @@
         <v>142</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N4" s="32" t="s">
         <v>49</v>
@@ -2904,13 +2916,13 @@
         <v>196</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF4" s="20" t="s">
         <v>196</v>
       </c>
       <c r="AG4" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH4" s="16"/>
       <c r="AI4" s="63" t="s">
@@ -2921,19 +2933,19 @@
         <v>0.01</v>
       </c>
       <c r="AM4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN4" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO4" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN4" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AP4" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP4" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR4" t="s">
         <v>49</v>
@@ -2955,6 +2967,12 @@
       </c>
       <c r="AX4" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ4">
+        <v>250</v>
+      </c>
+      <c r="BA4">
+        <v>250</v>
       </c>
       <c r="BC4" s="60"/>
       <c r="BD4" s="60"/>
@@ -3008,7 +3026,7 @@
         <v>143</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N5" s="32" t="s">
         <v>49</v>
@@ -3052,13 +3070,13 @@
         <v>197</v>
       </c>
       <c r="AE5" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF5" s="20" t="s">
         <v>197</v>
       </c>
       <c r="AG5" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH5" s="16"/>
       <c r="AI5" s="63" t="s">
@@ -3069,19 +3087,19 @@
         <v>0.01</v>
       </c>
       <c r="AM5" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN5" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO5" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN5" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AP5" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP5" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR5" t="s">
         <v>49</v>
@@ -3103,6 +3121,12 @@
       </c>
       <c r="AX5" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ5">
+        <v>250</v>
+      </c>
+      <c r="BA5">
+        <v>250</v>
       </c>
       <c r="BC5" s="60"/>
       <c r="BD5" s="60"/>
@@ -3156,7 +3180,7 @@
         <v>144</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N6" s="32" t="s">
         <v>49</v>
@@ -3200,13 +3224,13 @@
         <v>198</v>
       </c>
       <c r="AE6" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF6" s="20" t="s">
         <v>198</v>
       </c>
       <c r="AG6" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH6" s="16"/>
       <c r="AI6" s="63" t="s">
@@ -3217,19 +3241,19 @@
         <v>0.01</v>
       </c>
       <c r="AM6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN6" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO6" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN6" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AP6" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP6" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR6" t="s">
         <v>49</v>
@@ -3251,6 +3275,12 @@
       </c>
       <c r="AX6" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ6">
+        <v>250</v>
+      </c>
+      <c r="BA6">
+        <v>250</v>
       </c>
       <c r="BC6" s="60"/>
       <c r="BD6" s="60"/>
@@ -3304,7 +3334,7 @@
         <v>145</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N7" s="32" t="s">
         <v>49</v>
@@ -3348,13 +3378,13 @@
         <v>199</v>
       </c>
       <c r="AE7" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF7" s="20" t="s">
         <v>199</v>
       </c>
       <c r="AG7" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH7" s="16"/>
       <c r="AI7" s="63" t="s">
@@ -3365,19 +3395,19 @@
         <v>0.01</v>
       </c>
       <c r="AM7" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN7" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO7" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN7" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AP7" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP7" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR7" t="s">
         <v>49</v>
@@ -3399,6 +3429,12 @@
       </c>
       <c r="AX7" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ7">
+        <v>250</v>
+      </c>
+      <c r="BA7">
+        <v>250</v>
       </c>
       <c r="BC7" s="60"/>
       <c r="BD7" s="60"/>
@@ -3452,7 +3488,7 @@
         <v>146</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N8" s="32" t="s">
         <v>49</v>
@@ -3496,13 +3532,13 @@
         <v>200</v>
       </c>
       <c r="AE8" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF8" s="20" t="s">
         <v>200</v>
       </c>
       <c r="AG8" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH8" s="16"/>
       <c r="AI8" s="63" t="s">
@@ -3513,19 +3549,19 @@
         <v>0.01</v>
       </c>
       <c r="AM8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN8" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO8" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN8" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AP8" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP8" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR8" t="s">
         <v>49</v>
@@ -3547,6 +3583,12 @@
       </c>
       <c r="AX8" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ8">
+        <v>250</v>
+      </c>
+      <c r="BA8">
+        <v>250</v>
       </c>
       <c r="BC8" s="60"/>
       <c r="BD8" s="60"/>
@@ -3600,7 +3642,7 @@
         <v>147</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N9" s="32" t="s">
         <v>49</v>
@@ -3644,13 +3686,13 @@
         <v>201</v>
       </c>
       <c r="AE9" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF9" s="20" t="s">
         <v>201</v>
       </c>
       <c r="AG9" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH9" s="16"/>
       <c r="AI9" s="63" t="s">
@@ -3661,19 +3703,19 @@
         <v>0.01</v>
       </c>
       <c r="AM9" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN9" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO9" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN9" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AP9" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP9" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR9" t="s">
         <v>49</v>
@@ -3695,6 +3737,12 @@
       </c>
       <c r="AX9" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ9">
+        <v>250</v>
+      </c>
+      <c r="BA9">
+        <v>250</v>
       </c>
       <c r="BC9" s="60"/>
       <c r="BD9" s="60"/>
@@ -3748,7 +3796,7 @@
         <v>148</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>49</v>
@@ -3792,13 +3840,13 @@
         <v>202</v>
       </c>
       <c r="AE10" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF10" s="20" t="s">
         <v>202</v>
       </c>
       <c r="AG10" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH10" s="16"/>
       <c r="AI10" s="63" t="s">
@@ -3809,19 +3857,19 @@
         <v>0.01</v>
       </c>
       <c r="AM10" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN10" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO10" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN10" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AP10" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP10" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR10" t="s">
         <v>49</v>
@@ -3843,6 +3891,12 @@
       </c>
       <c r="AX10" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ10">
+        <v>250</v>
+      </c>
+      <c r="BA10">
+        <v>250</v>
       </c>
       <c r="BC10" s="60"/>
       <c r="BD10" s="60"/>
@@ -3896,7 +3950,7 @@
         <v>149</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N11" s="32" t="s">
         <v>49</v>
@@ -3940,13 +3994,13 @@
         <v>203</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF11" s="20" t="s">
         <v>203</v>
       </c>
       <c r="AG11" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH11" s="16"/>
       <c r="AI11" s="63" t="s">
@@ -3957,19 +4011,19 @@
         <v>0.01</v>
       </c>
       <c r="AM11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN11" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO11" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN11" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AP11" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP11" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR11" t="s">
         <v>49</v>
@@ -3991,6 +4045,12 @@
       </c>
       <c r="AX11" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ11">
+        <v>250</v>
+      </c>
+      <c r="BA11">
+        <v>250</v>
       </c>
       <c r="BC11" s="60"/>
       <c r="BD11" s="60"/>
@@ -4044,7 +4104,7 @@
         <v>150</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N12" s="32" t="s">
         <v>49</v>
@@ -4088,13 +4148,13 @@
         <v>204</v>
       </c>
       <c r="AE12" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF12" s="20" t="s">
         <v>204</v>
       </c>
       <c r="AG12" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH12" s="16"/>
       <c r="AI12" s="63" t="s">
@@ -4105,19 +4165,19 @@
         <v>0.01</v>
       </c>
       <c r="AM12" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN12" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO12" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN12" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO12" s="1" t="s">
+      <c r="AP12" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP12" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR12" t="s">
         <v>49</v>
@@ -4139,6 +4199,12 @@
       </c>
       <c r="AX12" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ12">
+        <v>250</v>
+      </c>
+      <c r="BA12">
+        <v>250</v>
       </c>
       <c r="BC12" s="60"/>
       <c r="BD12" s="60"/>
@@ -4192,7 +4258,7 @@
         <v>151</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N13" s="32" t="s">
         <v>49</v>
@@ -4236,13 +4302,13 @@
         <v>205</v>
       </c>
       <c r="AE13" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF13" s="20" t="s">
         <v>205</v>
       </c>
       <c r="AG13" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AH13" s="16"/>
       <c r="AI13" s="63" t="s">
@@ -4253,19 +4319,19 @@
         <v>0.01</v>
       </c>
       <c r="AM13" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN13" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO13" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN13" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO13" s="1" t="s">
+      <c r="AP13" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP13" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR13" t="s">
         <v>49</v>
@@ -4287,6 +4353,12 @@
       </c>
       <c r="AX13" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ13">
+        <v>250</v>
+      </c>
+      <c r="BA13">
+        <v>250</v>
       </c>
       <c r="BC13" s="60"/>
       <c r="BD13" s="60"/>
@@ -4340,7 +4412,7 @@
         <v>152</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N14" s="32" t="s">
         <v>49</v>
@@ -4384,13 +4456,13 @@
         <v>206</v>
       </c>
       <c r="AE14" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF14" s="20" t="s">
         <v>206</v>
       </c>
       <c r="AG14" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AH14" s="16"/>
       <c r="AI14" s="63" t="s">
@@ -4401,19 +4473,19 @@
         <v>0.01</v>
       </c>
       <c r="AM14" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN14" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO14" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN14" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO14" s="1" t="s">
+      <c r="AP14" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP14" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR14" t="s">
         <v>49</v>
@@ -4435,6 +4507,12 @@
       </c>
       <c r="AX14" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ14">
+        <v>250</v>
+      </c>
+      <c r="BA14">
+        <v>250</v>
       </c>
       <c r="BC14" s="60"/>
       <c r="BD14" s="60"/>
@@ -4488,7 +4566,7 @@
         <v>153</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N15" s="32" t="s">
         <v>49</v>
@@ -4532,13 +4610,13 @@
         <v>207</v>
       </c>
       <c r="AE15" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF15" s="20" t="s">
         <v>207</v>
       </c>
       <c r="AG15" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH15" s="16"/>
       <c r="AI15" s="63" t="s">
@@ -4549,19 +4627,19 @@
         <v>0.01</v>
       </c>
       <c r="AM15" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN15" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO15" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN15" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO15" s="1" t="s">
+      <c r="AP15" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP15" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AR15" t="s">
         <v>49</v>
@@ -4583,6 +4661,12 @@
       </c>
       <c r="AX15" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ15">
+        <v>250</v>
+      </c>
+      <c r="BA15">
+        <v>250</v>
       </c>
       <c r="BC15" s="60"/>
       <c r="BD15" s="60"/>
@@ -4636,7 +4720,7 @@
         <v>154</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N16" s="32"/>
       <c r="O16" s="39"/>
@@ -4673,13 +4757,13 @@
         <v>208</v>
       </c>
       <c r="AE16" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF16" s="20" t="s">
         <v>208</v>
       </c>
       <c r="AG16" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH16" s="16"/>
       <c r="AI16" s="63" t="s">
@@ -4690,19 +4774,19 @@
         <v>0.01</v>
       </c>
       <c r="AM16" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN16" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO16" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN16" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO16" s="1" t="s">
+      <c r="AP16" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP16" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS16" t="s">
         <v>8</v>
@@ -4721,6 +4805,12 @@
       </c>
       <c r="AX16" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ16">
+        <v>250</v>
+      </c>
+      <c r="BA16">
+        <v>250</v>
       </c>
       <c r="BC16" s="60"/>
       <c r="BD16" s="60"/>
@@ -4774,7 +4864,7 @@
         <v>155</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N17" s="32"/>
       <c r="O17" s="39"/>
@@ -4811,13 +4901,13 @@
         <v>209</v>
       </c>
       <c r="AE17" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF17" s="20" t="s">
         <v>209</v>
       </c>
       <c r="AG17" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH17" s="16"/>
       <c r="AI17" s="63" t="s">
@@ -4828,19 +4918,19 @@
         <v>0.01</v>
       </c>
       <c r="AM17" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN17" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO17" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN17" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO17" s="1" t="s">
+      <c r="AP17" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP17" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS17" t="s">
         <v>8</v>
@@ -4859,6 +4949,12 @@
       </c>
       <c r="AX17" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ17">
+        <v>250</v>
+      </c>
+      <c r="BA17">
+        <v>250</v>
       </c>
       <c r="BC17" s="60"/>
       <c r="BD17" s="60"/>
@@ -4912,7 +5008,7 @@
         <v>156</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N18" s="32"/>
       <c r="O18" s="39"/>
@@ -4949,13 +5045,13 @@
         <v>210</v>
       </c>
       <c r="AE18" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF18" s="20" t="s">
         <v>210</v>
       </c>
       <c r="AG18" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH18" s="16"/>
       <c r="AI18" s="63" t="s">
@@ -4966,19 +5062,19 @@
         <v>0.01</v>
       </c>
       <c r="AM18" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN18" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO18" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN18" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO18" s="1" t="s">
+      <c r="AP18" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP18" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ18" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS18" t="s">
         <v>8</v>
@@ -4997,6 +5093,12 @@
       </c>
       <c r="AX18" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ18">
+        <v>250</v>
+      </c>
+      <c r="BA18">
+        <v>250</v>
       </c>
       <c r="BC18" s="60"/>
       <c r="BD18" s="60"/>
@@ -5050,7 +5152,7 @@
         <v>157</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N19" s="32"/>
       <c r="O19" s="39"/>
@@ -5087,13 +5189,13 @@
         <v>211</v>
       </c>
       <c r="AE19" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF19" s="20" t="s">
         <v>211</v>
       </c>
       <c r="AG19" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH19" s="16"/>
       <c r="AI19" s="63" t="s">
@@ -5104,19 +5206,19 @@
         <v>0.01</v>
       </c>
       <c r="AM19" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN19" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO19" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN19" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO19" s="1" t="s">
+      <c r="AP19" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP19" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ19" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS19" t="s">
         <v>8</v>
@@ -5135,6 +5237,12 @@
       </c>
       <c r="AX19" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ19">
+        <v>250</v>
+      </c>
+      <c r="BA19">
+        <v>250</v>
       </c>
       <c r="BC19" s="60"/>
       <c r="BD19" s="60"/>
@@ -5188,7 +5296,7 @@
         <v>158</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N20" s="32"/>
       <c r="O20" s="39"/>
@@ -5225,13 +5333,13 @@
         <v>212</v>
       </c>
       <c r="AE20" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF20" s="20" t="s">
         <v>212</v>
       </c>
       <c r="AG20" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH20" s="16"/>
       <c r="AI20" s="63" t="s">
@@ -5242,19 +5350,19 @@
         <v>0.01</v>
       </c>
       <c r="AM20" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN20" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN20" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO20" s="1" t="s">
+      <c r="AP20" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP20" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS20" t="s">
         <v>8</v>
@@ -5273,6 +5381,12 @@
       </c>
       <c r="AX20" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ20">
+        <v>250</v>
+      </c>
+      <c r="BA20">
+        <v>250</v>
       </c>
       <c r="BC20" s="60"/>
       <c r="BD20" s="60"/>
@@ -5326,7 +5440,7 @@
         <v>159</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N21" s="32"/>
       <c r="O21" s="39"/>
@@ -5363,13 +5477,13 @@
         <v>213</v>
       </c>
       <c r="AE21" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF21" s="20" t="s">
         <v>213</v>
       </c>
       <c r="AG21" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH21" s="16"/>
       <c r="AI21" s="63" t="s">
@@ -5380,19 +5494,19 @@
         <v>0.01</v>
       </c>
       <c r="AM21" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN21" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO21" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN21" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO21" s="1" t="s">
+      <c r="AP21" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP21" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ21" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS21" t="s">
         <v>8</v>
@@ -5411,6 +5525,12 @@
       </c>
       <c r="AX21" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ21">
+        <v>250</v>
+      </c>
+      <c r="BA21">
+        <v>250</v>
       </c>
       <c r="BC21" s="60"/>
       <c r="BD21" s="60"/>
@@ -5464,7 +5584,7 @@
         <v>160</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N22" s="32"/>
       <c r="O22" s="39"/>
@@ -5501,13 +5621,13 @@
         <v>214</v>
       </c>
       <c r="AE22" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF22" s="20" t="s">
         <v>214</v>
       </c>
       <c r="AG22" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH22" s="16"/>
       <c r="AI22" s="63" t="s">
@@ -5518,19 +5638,19 @@
         <v>0.01</v>
       </c>
       <c r="AM22" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN22" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO22" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN22" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO22" s="1" t="s">
+      <c r="AP22" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP22" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ22" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS22" t="s">
         <v>8</v>
@@ -5549,6 +5669,12 @@
       </c>
       <c r="AX22" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ22">
+        <v>250</v>
+      </c>
+      <c r="BA22">
+        <v>250</v>
       </c>
       <c r="BC22" s="60"/>
       <c r="BD22" s="60"/>
@@ -5602,7 +5728,7 @@
         <v>161</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N23" s="32"/>
       <c r="O23" s="39"/>
@@ -5639,13 +5765,13 @@
         <v>215</v>
       </c>
       <c r="AE23" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF23" s="20" t="s">
         <v>215</v>
       </c>
       <c r="AG23" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH23" s="16"/>
       <c r="AI23" s="63" t="s">
@@ -5656,19 +5782,19 @@
         <v>0.01</v>
       </c>
       <c r="AM23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN23" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO23" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN23" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO23" s="1" t="s">
+      <c r="AP23" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP23" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS23" t="s">
         <v>8</v>
@@ -5687,6 +5813,12 @@
       </c>
       <c r="AX23" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ23">
+        <v>250</v>
+      </c>
+      <c r="BA23">
+        <v>250</v>
       </c>
       <c r="BC23" s="60"/>
       <c r="BD23" s="60"/>
@@ -5740,7 +5872,7 @@
         <v>162</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N24" s="32"/>
       <c r="O24" s="39"/>
@@ -5777,13 +5909,13 @@
         <v>216</v>
       </c>
       <c r="AE24" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF24" s="20" t="s">
         <v>216</v>
       </c>
       <c r="AG24" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AH24" s="16"/>
       <c r="AI24" s="63" t="s">
@@ -5794,19 +5926,19 @@
         <v>0.01</v>
       </c>
       <c r="AM24" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN24" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO24" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN24" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO24" s="1" t="s">
+      <c r="AP24" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP24" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ24" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS24" t="s">
         <v>8</v>
@@ -5825,6 +5957,12 @@
       </c>
       <c r="AX24" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ24">
+        <v>250</v>
+      </c>
+      <c r="BA24">
+        <v>250</v>
       </c>
       <c r="BC24" s="60"/>
       <c r="BD24" s="60"/>
@@ -5878,7 +6016,7 @@
         <v>163</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N25" s="32"/>
       <c r="O25" s="39"/>
@@ -5915,13 +6053,13 @@
         <v>217</v>
       </c>
       <c r="AE25" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF25" s="20" t="s">
         <v>217</v>
       </c>
       <c r="AG25" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH25" s="16"/>
       <c r="AI25" s="63" t="s">
@@ -5932,19 +6070,19 @@
         <v>0.01</v>
       </c>
       <c r="AM25" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN25" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO25" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN25" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO25" s="1" t="s">
+      <c r="AP25" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP25" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ25" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS25" t="s">
         <v>8</v>
@@ -5963,6 +6101,12 @@
       </c>
       <c r="AX25" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ25">
+        <v>250</v>
+      </c>
+      <c r="BA25">
+        <v>250</v>
       </c>
       <c r="BC25" s="60"/>
       <c r="BD25" s="60"/>
@@ -6016,7 +6160,7 @@
         <v>164</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N26" s="32"/>
       <c r="O26" s="39"/>
@@ -6053,13 +6197,13 @@
         <v>218</v>
       </c>
       <c r="AE26" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF26" s="20" t="s">
         <v>218</v>
       </c>
       <c r="AG26" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH26" s="16"/>
       <c r="AI26" s="63" t="s">
@@ -6070,19 +6214,19 @@
         <v>0.01</v>
       </c>
       <c r="AM26" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN26" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO26" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN26" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO26" s="1" t="s">
+      <c r="AP26" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP26" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ26" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS26" t="s">
         <v>8</v>
@@ -6101,6 +6245,12 @@
       </c>
       <c r="AX26" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ26">
+        <v>250</v>
+      </c>
+      <c r="BA26">
+        <v>250</v>
       </c>
       <c r="BC26" s="60"/>
       <c r="BD26" s="60"/>
@@ -6154,7 +6304,7 @@
         <v>165</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N27" s="32"/>
       <c r="O27" s="39"/>
@@ -6191,13 +6341,13 @@
         <v>219</v>
       </c>
       <c r="AE27" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF27" s="20" t="s">
         <v>219</v>
       </c>
       <c r="AG27" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH27" s="16"/>
       <c r="AI27" s="63" t="s">
@@ -6208,19 +6358,19 @@
         <v>0.01</v>
       </c>
       <c r="AM27" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN27" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO27" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN27" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO27" s="1" t="s">
+      <c r="AP27" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP27" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ27" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS27" t="s">
         <v>8</v>
@@ -6239,6 +6389,12 @@
       </c>
       <c r="AX27" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ27">
+        <v>250</v>
+      </c>
+      <c r="BA27">
+        <v>250</v>
       </c>
       <c r="BC27" s="60"/>
       <c r="BD27" s="60"/>
@@ -6292,7 +6448,7 @@
         <v>166</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N28" s="32"/>
       <c r="O28" s="39"/>
@@ -6329,13 +6485,13 @@
         <v>220</v>
       </c>
       <c r="AE28" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF28" s="20" t="s">
         <v>220</v>
       </c>
       <c r="AG28" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH28" s="16"/>
       <c r="AI28" s="63" t="s">
@@ -6346,19 +6502,19 @@
         <v>0.01</v>
       </c>
       <c r="AM28" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN28" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO28" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN28" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO28" s="1" t="s">
+      <c r="AP28" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP28" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ28" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS28" t="s">
         <v>8</v>
@@ -6377,6 +6533,12 @@
       </c>
       <c r="AX28" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ28">
+        <v>250</v>
+      </c>
+      <c r="BA28">
+        <v>250</v>
       </c>
       <c r="BC28" s="60"/>
       <c r="BD28" s="60"/>
@@ -6430,7 +6592,7 @@
         <v>167</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N29" s="32"/>
       <c r="O29" s="39"/>
@@ -6467,13 +6629,13 @@
         <v>195</v>
       </c>
       <c r="AE29" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF29" s="20" t="s">
         <v>220</v>
       </c>
       <c r="AG29" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH29" s="16"/>
       <c r="AI29" s="63" t="s">
@@ -6484,19 +6646,19 @@
         <v>0.01</v>
       </c>
       <c r="AM29" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN29" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO29" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AN29" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO29" s="1" t="s">
+      <c r="AP29" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="AP29" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ29" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="AS29" t="s">
         <v>8</v>
@@ -6515,6 +6677,12 @@
       </c>
       <c r="AX29" t="s">
         <v>76</v>
+      </c>
+      <c r="AZ29">
+        <v>250</v>
+      </c>
+      <c r="BA29">
+        <v>250</v>
       </c>
       <c r="BC29" s="60"/>
       <c r="BD29" s="60"/>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="6960" windowWidth="36800" windowHeight="20260" tabRatio="500"/>
+    <workbookView xWindow="4360" yWindow="2140" windowWidth="37620" windowHeight="23840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="334">
   <si>
     <t>Country</t>
   </si>
@@ -714,84 +714,6 @@
     <t>Desalt SAL-HAD3c (failed)</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>AA</t>
   </si>
   <si>
@@ -970,6 +892,243 @@
   </si>
   <si>
     <t>V1V2 nSSU rDNA (18S rDNA)</t>
+  </si>
+  <si>
+    <t>Af</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>ACACACAC</t>
+  </si>
+  <si>
+    <t>Bf</t>
+  </si>
+  <si>
+    <t>Br</t>
+  </si>
+  <si>
+    <t>ACACTCTA</t>
+  </si>
+  <si>
+    <t>Cf</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>ACGCTCGC</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>ACGTGAGT</t>
+  </si>
+  <si>
+    <t>Ef</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>AGACACGA</t>
+  </si>
+  <si>
+    <t>Ff</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>AGATGTGA</t>
+  </si>
+  <si>
+    <t>Gf</t>
+  </si>
+  <si>
+    <t>Gr</t>
+  </si>
+  <si>
+    <t>AGCTATGT</t>
+  </si>
+  <si>
+    <t>Hf</t>
+  </si>
+  <si>
+    <t>Hr</t>
+  </si>
+  <si>
+    <t>AGCTGCAT</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>Ir</t>
+  </si>
+  <si>
+    <t>CACTATGC</t>
+  </si>
+  <si>
+    <t>Jf</t>
+  </si>
+  <si>
+    <t>Jr</t>
+  </si>
+  <si>
+    <t>CACTGCTA</t>
+  </si>
+  <si>
+    <t>Kf</t>
+  </si>
+  <si>
+    <t>Kr</t>
+  </si>
+  <si>
+    <t>CAGCTCTA</t>
+  </si>
+  <si>
+    <t>Lf</t>
+  </si>
+  <si>
+    <t>Lr</t>
+  </si>
+  <si>
+    <t>CGACTATA</t>
+  </si>
+  <si>
+    <t>Mf</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>CGATACAC</t>
+  </si>
+  <si>
+    <t>Nf</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>CGATGAGC</t>
+  </si>
+  <si>
+    <t>Of</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>GACTGAGT</t>
+  </si>
+  <si>
+    <t>Pf</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>GAGCACGT</t>
+  </si>
+  <si>
+    <t>Qf</t>
+  </si>
+  <si>
+    <t>Qr</t>
+  </si>
+  <si>
+    <t>GAGCGTGA</t>
+  </si>
+  <si>
+    <t>Rf</t>
+  </si>
+  <si>
+    <t>Rr</t>
+  </si>
+  <si>
+    <t>GAGTACTA</t>
+  </si>
+  <si>
+    <t>Sf</t>
+  </si>
+  <si>
+    <t>Sr</t>
+  </si>
+  <si>
+    <t>GAGTATAC</t>
+  </si>
+  <si>
+    <t>Tf</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>GCACGCGA</t>
+  </si>
+  <si>
+    <t>Uf</t>
+  </si>
+  <si>
+    <t>Ur</t>
+  </si>
+  <si>
+    <t>GCACTAGT</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>Vr</t>
+  </si>
+  <si>
+    <t>GCATGCTC</t>
+  </si>
+  <si>
+    <t>Wf</t>
+  </si>
+  <si>
+    <t>Wr</t>
+  </si>
+  <si>
+    <t>GCATGTAT</t>
+  </si>
+  <si>
+    <t>Xf</t>
+  </si>
+  <si>
+    <t>Xr</t>
+  </si>
+  <si>
+    <t>GCGCACTC</t>
+  </si>
+  <si>
+    <t>Yf</t>
+  </si>
+  <si>
+    <t>Yr</t>
+  </si>
+  <si>
+    <t>GCGCGATA</t>
+  </si>
+  <si>
+    <t>Zf</t>
+  </si>
+  <si>
+    <t>Zr</t>
+  </si>
+  <si>
+    <t>GCGTATGA</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1139,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1126,6 +1285,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1491,7 +1660,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1620,12 +1789,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="291">
     <cellStyle name="Excel Built-in Normal" xfId="267"/>
@@ -2311,17 +2482,17 @@
   </sheetPr>
   <dimension ref="A1:BZ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AL39" sqref="AL39"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="8" style="29" customWidth="1"/>
     <col min="4" max="4" width="27" style="29" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="12" customWidth="1"/>
@@ -2444,24 +2615,24 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
       <c r="BA1" s="10"/>
-      <c r="BC1" s="62" t="s">
+      <c r="BC1" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BH1" s="62" t="s">
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BH1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BO1" s="62" t="s">
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BO1" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="62"/>
+      <c r="BP1" s="64"/>
       <c r="BR1" s="8" t="s">
         <v>68</v>
       </c>
@@ -2509,7 +2680,7 @@
         <v>56</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="N2" s="47"/>
       <c r="O2" s="48" t="s">
@@ -2693,7 +2864,7 @@
       <c r="B3" s="24">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="29" t="s">
@@ -2718,7 +2889,7 @@
         <v>141</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N3" s="32" t="s">
         <v>49</v>
@@ -2758,40 +2929,40 @@
       <c r="AC3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE3" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF3" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG3" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="62" t="s">
         <v>195</v>
-      </c>
-      <c r="AE3" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF3" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG3" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="63" t="s">
-        <v>221</v>
       </c>
       <c r="AJ3" s="58"/>
       <c r="AK3" s="13">
         <v>0.01</v>
       </c>
       <c r="AM3" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN3" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP3" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -2847,8 +3018,8 @@
       <c r="B4" s="24">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>73</v>
+      <c r="C4" s="65" t="s">
+        <v>333</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>88</v>
@@ -2872,7 +3043,7 @@
         <v>142</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N4" s="32" t="s">
         <v>49</v>
@@ -2912,40 +3083,40 @@
       <c r="AC4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="20" t="s">
+      <c r="AD4" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE4" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF4" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG4" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="62" t="s">
         <v>196</v>
-      </c>
-      <c r="AE4" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF4" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG4" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="63" t="s">
-        <v>222</v>
       </c>
       <c r="AJ4" s="58"/>
       <c r="AK4" s="13">
         <v>0.01</v>
       </c>
       <c r="AM4" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN4" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP4" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR4" t="s">
         <v>49</v>
@@ -3001,7 +3172,7 @@
       <c r="B5" s="24">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="29" t="s">
@@ -3026,7 +3197,7 @@
         <v>143</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N5" s="32" t="s">
         <v>49</v>
@@ -3066,40 +3237,40 @@
       <c r="AC5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="20" t="s">
+      <c r="AD5" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE5" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF5" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG5" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="62" t="s">
         <v>197</v>
-      </c>
-      <c r="AE5" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="AF5" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG5" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="63" t="s">
-        <v>223</v>
       </c>
       <c r="AJ5"/>
       <c r="AK5" s="13">
         <v>0.01</v>
       </c>
       <c r="AM5" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN5" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP5" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR5" t="s">
         <v>49</v>
@@ -3155,7 +3326,7 @@
       <c r="B6" s="24">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -3180,7 +3351,7 @@
         <v>144</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N6" s="32" t="s">
         <v>49</v>
@@ -3220,40 +3391,40 @@
       <c r="AC6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="20" t="s">
+      <c r="AD6" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE6" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF6" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG6" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="62" t="s">
         <v>198</v>
-      </c>
-      <c r="AE6" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF6" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG6" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="63" t="s">
-        <v>224</v>
       </c>
       <c r="AJ6" s="58"/>
       <c r="AK6" s="13">
         <v>0.01</v>
       </c>
       <c r="AM6" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN6" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP6" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR6" t="s">
         <v>49</v>
@@ -3309,7 +3480,7 @@
       <c r="B7" s="24">
         <v>5</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="29" t="s">
@@ -3334,7 +3505,7 @@
         <v>145</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N7" s="32" t="s">
         <v>49</v>
@@ -3374,40 +3545,40 @@
       <c r="AC7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="20" t="s">
+      <c r="AD7" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE7" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF7" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG7" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="62" t="s">
         <v>199</v>
-      </c>
-      <c r="AE7" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF7" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG7" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="63" t="s">
-        <v>225</v>
       </c>
       <c r="AJ7" s="58"/>
       <c r="AK7" s="13">
         <v>0.01</v>
       </c>
       <c r="AM7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN7" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP7" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR7" t="s">
         <v>49</v>
@@ -3463,7 +3634,7 @@
       <c r="B8" s="24">
         <v>6</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -3488,7 +3659,7 @@
         <v>146</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N8" s="32" t="s">
         <v>49</v>
@@ -3528,40 +3699,40 @@
       <c r="AC8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="20" t="s">
+      <c r="AD8" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE8" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF8" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG8" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="62" t="s">
         <v>200</v>
-      </c>
-      <c r="AE8" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF8" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG8" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="63" t="s">
-        <v>226</v>
       </c>
       <c r="AJ8" s="58"/>
       <c r="AK8" s="13">
         <v>0.01</v>
       </c>
       <c r="AM8" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN8" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP8" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR8" t="s">
         <v>49</v>
@@ -3617,7 +3788,7 @@
       <c r="B9" s="24">
         <v>7</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -3642,7 +3813,7 @@
         <v>147</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N9" s="32" t="s">
         <v>49</v>
@@ -3682,40 +3853,40 @@
       <c r="AC9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="20" t="s">
+      <c r="AD9" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE9" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF9" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG9" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="62" t="s">
         <v>201</v>
-      </c>
-      <c r="AE9" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF9" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG9" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="63" t="s">
-        <v>227</v>
       </c>
       <c r="AJ9" s="58"/>
       <c r="AK9" s="13">
         <v>0.01</v>
       </c>
       <c r="AM9" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN9" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP9" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR9" t="s">
         <v>49</v>
@@ -3771,7 +3942,7 @@
       <c r="B10" s="24">
         <v>8</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -3796,7 +3967,7 @@
         <v>148</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>49</v>
@@ -3836,40 +4007,40 @@
       <c r="AC10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="20" t="s">
+      <c r="AD10" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE10" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF10" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG10" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="62" t="s">
         <v>202</v>
-      </c>
-      <c r="AE10" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF10" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG10" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="63" t="s">
-        <v>228</v>
       </c>
       <c r="AJ10" s="58"/>
       <c r="AK10" s="13">
         <v>0.01</v>
       </c>
       <c r="AM10" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN10" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP10" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR10" t="s">
         <v>49</v>
@@ -3925,7 +4096,7 @@
       <c r="B11" s="24">
         <v>9</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="29" t="s">
@@ -3950,7 +4121,7 @@
         <v>149</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N11" s="32" t="s">
         <v>49</v>
@@ -3990,40 +4161,40 @@
       <c r="AC11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="20" t="s">
+      <c r="AD11" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE11" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF11" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG11" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="62" t="s">
         <v>203</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF11" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG11" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="63" t="s">
-        <v>229</v>
       </c>
       <c r="AJ11" s="58"/>
       <c r="AK11" s="13">
         <v>0.01</v>
       </c>
       <c r="AM11" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN11" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP11" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR11" t="s">
         <v>49</v>
@@ -4079,7 +4250,7 @@
       <c r="B12" s="24">
         <v>10</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -4104,7 +4275,7 @@
         <v>150</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N12" s="32" t="s">
         <v>49</v>
@@ -4144,40 +4315,40 @@
       <c r="AC12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="20" t="s">
+      <c r="AD12" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE12" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF12" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG12" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="62" t="s">
         <v>204</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="AF12" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG12" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="63" t="s">
-        <v>230</v>
       </c>
       <c r="AJ12" s="58"/>
       <c r="AK12" s="13">
         <v>0.01</v>
       </c>
       <c r="AM12" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN12" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP12" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR12" t="s">
         <v>49</v>
@@ -4233,7 +4404,7 @@
       <c r="B13" s="24">
         <v>11</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="29" t="s">
@@ -4258,7 +4429,7 @@
         <v>151</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N13" s="32" t="s">
         <v>49</v>
@@ -4298,40 +4469,40 @@
       <c r="AC13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="20" t="s">
+      <c r="AD13" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE13" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF13" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG13" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="62" t="s">
         <v>205</v>
-      </c>
-      <c r="AE13" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF13" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG13" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="63" t="s">
-        <v>231</v>
       </c>
       <c r="AJ13" s="58"/>
       <c r="AK13" s="13">
         <v>0.01</v>
       </c>
       <c r="AM13" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN13" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP13" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR13" t="s">
         <v>49</v>
@@ -4387,7 +4558,7 @@
       <c r="B14" s="24">
         <v>12</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="29" t="s">
@@ -4412,7 +4583,7 @@
         <v>152</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N14" s="32" t="s">
         <v>49</v>
@@ -4452,40 +4623,40 @@
       <c r="AC14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" s="20" t="s">
+      <c r="AD14" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE14" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF14" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG14" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="AE14" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF14" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG14" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="63" t="s">
-        <v>232</v>
       </c>
       <c r="AJ14" s="58"/>
       <c r="AK14" s="13">
         <v>0.01</v>
       </c>
       <c r="AM14" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN14" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP14" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR14" t="s">
         <v>49</v>
@@ -4541,7 +4712,7 @@
       <c r="B15" s="24">
         <v>13</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="29" t="s">
@@ -4566,7 +4737,7 @@
         <v>153</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N15" s="32" t="s">
         <v>49</v>
@@ -4606,40 +4777,40 @@
       <c r="AC15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="20" t="s">
+      <c r="AD15" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE15" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF15" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG15" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="62" t="s">
         <v>207</v>
-      </c>
-      <c r="AE15" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF15" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="AG15" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="63" t="s">
-        <v>233</v>
       </c>
       <c r="AJ15" s="58"/>
       <c r="AK15" s="13">
         <v>0.01</v>
       </c>
       <c r="AM15" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN15" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP15" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AR15" t="s">
         <v>49</v>
@@ -4695,7 +4866,7 @@
       <c r="B16" s="24">
         <v>14</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="29" t="s">
@@ -4720,7 +4891,7 @@
         <v>154</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N16" s="32"/>
       <c r="O16" s="39"/>
@@ -4753,40 +4924,40 @@
         <v>81</v>
       </c>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="20" t="s">
+      <c r="AD16" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE16" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF16" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG16" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="62" t="s">
         <v>208</v>
-      </c>
-      <c r="AE16" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF16" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG16" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="63" t="s">
-        <v>234</v>
       </c>
       <c r="AJ16" s="58"/>
       <c r="AK16" s="13">
         <v>0.01</v>
       </c>
       <c r="AM16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN16" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP16" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS16" t="s">
         <v>8</v>
@@ -4839,7 +5010,7 @@
       <c r="B17" s="24">
         <v>15</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="29" t="s">
@@ -4864,7 +5035,7 @@
         <v>155</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N17" s="32"/>
       <c r="O17" s="39"/>
@@ -4897,40 +5068,40 @@
         <v>81</v>
       </c>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="20" t="s">
+      <c r="AD17" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE17" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF17" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG17" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="62" t="s">
         <v>209</v>
-      </c>
-      <c r="AE17" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF17" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG17" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="63" t="s">
-        <v>235</v>
       </c>
       <c r="AJ17" s="58"/>
       <c r="AK17" s="13">
         <v>0.01</v>
       </c>
       <c r="AM17" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN17" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP17" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS17" t="s">
         <v>8</v>
@@ -4983,7 +5154,7 @@
       <c r="B18" s="24">
         <v>16</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="29" t="s">
@@ -5008,7 +5179,7 @@
         <v>156</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N18" s="32"/>
       <c r="O18" s="39"/>
@@ -5041,40 +5212,40 @@
         <v>81</v>
       </c>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="20" t="s">
+      <c r="AD18" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE18" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF18" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG18" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="62" t="s">
         <v>210</v>
-      </c>
-      <c r="AE18" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF18" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG18" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="63" t="s">
-        <v>236</v>
       </c>
       <c r="AJ18" s="58"/>
       <c r="AK18" s="13">
         <v>0.01</v>
       </c>
       <c r="AM18" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN18" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP18" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS18" t="s">
         <v>8</v>
@@ -5127,7 +5298,7 @@
       <c r="B19" s="24">
         <v>17</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="29" t="s">
@@ -5152,7 +5323,7 @@
         <v>157</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N19" s="32"/>
       <c r="O19" s="39"/>
@@ -5185,40 +5356,40 @@
         <v>81</v>
       </c>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="20" t="s">
+      <c r="AD19" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE19" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF19" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG19" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="62" t="s">
         <v>211</v>
-      </c>
-      <c r="AE19" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF19" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG19" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="63" t="s">
-        <v>237</v>
       </c>
       <c r="AJ19" s="58"/>
       <c r="AK19" s="13">
         <v>0.01</v>
       </c>
       <c r="AM19" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN19" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP19" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS19" t="s">
         <v>8</v>
@@ -5271,7 +5442,7 @@
       <c r="B20" s="24">
         <v>18</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="29" t="s">
@@ -5296,7 +5467,7 @@
         <v>158</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N20" s="32"/>
       <c r="O20" s="39"/>
@@ -5329,40 +5500,40 @@
         <v>81</v>
       </c>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="20" t="s">
+      <c r="AD20" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE20" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF20" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG20" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="62" t="s">
         <v>212</v>
-      </c>
-      <c r="AE20" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF20" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG20" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="63" t="s">
-        <v>238</v>
       </c>
       <c r="AJ20" s="58"/>
       <c r="AK20" s="13">
         <v>0.01</v>
       </c>
       <c r="AM20" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN20" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP20" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS20" t="s">
         <v>8</v>
@@ -5415,8 +5586,8 @@
       <c r="B21" s="24">
         <v>19</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>73</v>
+      <c r="C21" s="65" t="s">
+        <v>333</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>105</v>
@@ -5440,7 +5611,7 @@
         <v>159</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N21" s="32"/>
       <c r="O21" s="39"/>
@@ -5473,40 +5644,40 @@
         <v>81</v>
       </c>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="20" t="s">
+      <c r="AD21" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE21" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF21" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG21" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="62" t="s">
         <v>213</v>
-      </c>
-      <c r="AE21" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF21" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG21" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="63" t="s">
-        <v>239</v>
       </c>
       <c r="AJ21" s="58"/>
       <c r="AK21" s="13">
         <v>0.01</v>
       </c>
       <c r="AM21" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN21" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP21" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS21" t="s">
         <v>8</v>
@@ -5559,7 +5730,7 @@
       <c r="B22" s="24">
         <v>20</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="29" t="s">
@@ -5584,7 +5755,7 @@
         <v>160</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N22" s="32"/>
       <c r="O22" s="39"/>
@@ -5617,40 +5788,40 @@
         <v>81</v>
       </c>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="20" t="s">
+      <c r="AD22" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE22" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF22" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG22" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="62" t="s">
         <v>214</v>
-      </c>
-      <c r="AE22" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF22" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG22" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="63" t="s">
-        <v>240</v>
       </c>
       <c r="AJ22" s="58"/>
       <c r="AK22" s="13">
         <v>0.01</v>
       </c>
       <c r="AM22" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN22" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP22" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS22" t="s">
         <v>8</v>
@@ -5703,7 +5874,7 @@
       <c r="B23" s="24">
         <v>21</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="29" t="s">
@@ -5728,7 +5899,7 @@
         <v>161</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N23" s="32"/>
       <c r="O23" s="39"/>
@@ -5761,40 +5932,40 @@
         <v>81</v>
       </c>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="20" t="s">
+      <c r="AD23" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE23" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF23" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG23" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="62" t="s">
         <v>215</v>
-      </c>
-      <c r="AE23" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF23" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG23" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="63" t="s">
-        <v>241</v>
       </c>
       <c r="AJ23" s="58"/>
       <c r="AK23" s="13">
         <v>0.01</v>
       </c>
       <c r="AM23" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN23" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP23" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS23" t="s">
         <v>8</v>
@@ -5847,7 +6018,7 @@
       <c r="B24" s="24">
         <v>22</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="29" t="s">
@@ -5872,7 +6043,7 @@
         <v>162</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N24" s="32"/>
       <c r="O24" s="39"/>
@@ -5905,40 +6076,40 @@
         <v>81</v>
       </c>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="20" t="s">
+      <c r="AD24" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE24" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF24" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG24" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="62" t="s">
         <v>216</v>
-      </c>
-      <c r="AE24" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF24" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG24" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="63" t="s">
-        <v>242</v>
       </c>
       <c r="AJ24" s="58"/>
       <c r="AK24" s="13">
         <v>0.01</v>
       </c>
       <c r="AM24" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN24" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP24" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS24" t="s">
         <v>8</v>
@@ -5991,7 +6162,7 @@
       <c r="B25" s="24">
         <v>23</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="29" t="s">
@@ -6016,7 +6187,7 @@
         <v>163</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N25" s="32"/>
       <c r="O25" s="39"/>
@@ -6049,40 +6220,40 @@
         <v>81</v>
       </c>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="20" t="s">
+      <c r="AD25" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE25" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF25" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG25" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="62" t="s">
         <v>217</v>
-      </c>
-      <c r="AE25" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF25" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG25" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="63" t="s">
-        <v>243</v>
       </c>
       <c r="AJ25" s="58"/>
       <c r="AK25" s="13">
         <v>0.01</v>
       </c>
       <c r="AM25" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN25" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP25" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS25" t="s">
         <v>8</v>
@@ -6135,8 +6306,8 @@
       <c r="B26" s="24">
         <v>24</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>73</v>
+      <c r="C26" s="65" t="s">
+        <v>333</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>110</v>
@@ -6160,7 +6331,7 @@
         <v>164</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N26" s="32"/>
       <c r="O26" s="39"/>
@@ -6193,40 +6364,40 @@
         <v>81</v>
       </c>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="20" t="s">
+      <c r="AD26" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE26" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF26" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG26" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="62" t="s">
         <v>218</v>
-      </c>
-      <c r="AE26" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF26" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG26" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="63" t="s">
-        <v>244</v>
       </c>
       <c r="AJ26" s="58"/>
       <c r="AK26" s="13">
         <v>0.01</v>
       </c>
       <c r="AM26" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN26" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP26" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS26" t="s">
         <v>8</v>
@@ -6279,7 +6450,7 @@
       <c r="B27" s="24">
         <v>25</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D27" s="29" t="s">
@@ -6304,7 +6475,7 @@
         <v>165</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N27" s="32"/>
       <c r="O27" s="39"/>
@@ -6337,40 +6508,40 @@
         <v>81</v>
       </c>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="20" t="s">
+      <c r="AD27" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE27" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF27" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG27" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="62" t="s">
         <v>219</v>
-      </c>
-      <c r="AE27" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF27" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG27" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="63" t="s">
-        <v>245</v>
       </c>
       <c r="AJ27" s="58"/>
       <c r="AK27" s="13">
         <v>0.01</v>
       </c>
       <c r="AM27" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN27" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP27" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS27" t="s">
         <v>8</v>
@@ -6423,8 +6594,8 @@
       <c r="B28" s="24">
         <v>26</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>73</v>
+      <c r="C28" s="65" t="s">
+        <v>333</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>112</v>
@@ -6448,7 +6619,7 @@
         <v>166</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N28" s="32"/>
       <c r="O28" s="39"/>
@@ -6481,40 +6652,40 @@
         <v>81</v>
       </c>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="20" t="s">
+      <c r="AD28" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE28" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF28" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG28" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="62" t="s">
         <v>220</v>
-      </c>
-      <c r="AE28" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF28" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG28" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="63" t="s">
-        <v>246</v>
       </c>
       <c r="AJ28" s="58"/>
       <c r="AK28" s="13">
         <v>0.01</v>
       </c>
       <c r="AM28" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN28" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP28" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS28" t="s">
         <v>8</v>
@@ -6567,8 +6738,8 @@
       <c r="B29" s="24">
         <v>27</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>73</v>
+      <c r="C29" s="65" t="s">
+        <v>333</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>113</v>
@@ -6592,7 +6763,7 @@
         <v>167</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N29" s="32"/>
       <c r="O29" s="39"/>
@@ -6625,40 +6796,40 @@
         <v>81</v>
       </c>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE29" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF29" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG29" s="20" t="s">
-        <v>275</v>
+      <c r="AD29" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE29" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF29" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG29" s="63" t="s">
+        <v>332</v>
       </c>
       <c r="AH29" s="16"/>
-      <c r="AI29" s="63" t="s">
-        <v>247</v>
+      <c r="AI29" s="62" t="s">
+        <v>221</v>
       </c>
       <c r="AJ29" s="58"/>
       <c r="AK29" s="13">
         <v>0.01</v>
       </c>
       <c r="AM29" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AN29" s="44" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AP29" s="44" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AS29" t="s">
         <v>8</v>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1139,7 +1139,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1197,11 +1197,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Menlo Regular"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1280,13 +1275,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Menlo Regular"/>
     </font>
@@ -1294,6 +1282,23 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1635,7 +1640,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1660,7 +1665,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1691,14 +1696,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1708,31 +1710,31 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1750,53 +1752,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="290"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="291">
     <cellStyle name="Excel Built-in Normal" xfId="267"/>
@@ -2482,40 +2488,40 @@
   </sheetPr>
   <dimension ref="A1:BZ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="AF37" sqref="AF37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8" style="29" customWidth="1"/>
-    <col min="4" max="4" width="27" style="29" customWidth="1"/>
+    <col min="3" max="3" width="8" style="28" customWidth="1"/>
+    <col min="4" max="4" width="27" style="28" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15" style="32" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="32" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="32" customWidth="1"/>
-    <col min="12" max="13" width="22" style="32" customWidth="1"/>
+    <col min="7" max="7" width="15" style="31" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="31" customWidth="1"/>
+    <col min="12" max="13" width="22" style="31" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="14" style="43" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="14" style="42" customWidth="1"/>
     <col min="17" max="18" width="16.83203125" customWidth="1"/>
     <col min="19" max="19" width="11.5" customWidth="1"/>
-    <col min="20" max="20" width="33" style="17" customWidth="1"/>
-    <col min="21" max="21" width="32.5" style="17" customWidth="1"/>
+    <col min="20" max="20" width="33" style="16" customWidth="1"/>
+    <col min="21" max="21" width="32.5" style="16" customWidth="1"/>
     <col min="22" max="22" width="9.83203125" customWidth="1"/>
-    <col min="23" max="23" width="25.5" style="35" customWidth="1"/>
-    <col min="24" max="24" width="20.1640625" style="17" customWidth="1"/>
-    <col min="25" max="25" width="22" style="20" customWidth="1"/>
-    <col min="26" max="26" width="17.83203125" style="35" customWidth="1"/>
-    <col min="27" max="27" width="21.5" style="17" customWidth="1"/>
-    <col min="28" max="28" width="27.6640625" style="21" customWidth="1"/>
+    <col min="23" max="23" width="25.5" style="34" customWidth="1"/>
+    <col min="24" max="24" width="20.1640625" style="16" customWidth="1"/>
+    <col min="25" max="25" width="22" style="19" customWidth="1"/>
+    <col min="26" max="26" width="17.83203125" style="34" customWidth="1"/>
+    <col min="27" max="27" width="21.5" style="16" customWidth="1"/>
+    <col min="28" max="28" width="27.6640625" style="20" customWidth="1"/>
     <col min="29" max="29" width="9.83203125" customWidth="1"/>
     <col min="30" max="30" width="11" customWidth="1"/>
     <col min="31" max="31" width="13.5" style="2" customWidth="1"/>
@@ -2527,9 +2533,9 @@
     <col min="37" max="37" width="10.33203125" customWidth="1"/>
     <col min="38" max="38" width="11.5" customWidth="1"/>
     <col min="39" max="39" width="28.33203125" customWidth="1"/>
-    <col min="40" max="40" width="12.1640625" style="44" customWidth="1"/>
+    <col min="40" max="40" width="12.1640625" style="43" customWidth="1"/>
     <col min="41" max="41" width="32.83203125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.83203125" style="44" customWidth="1"/>
+    <col min="42" max="42" width="12.83203125" style="43" customWidth="1"/>
     <col min="43" max="43" width="35.6640625" style="1" customWidth="1"/>
     <col min="44" max="44" width="10.1640625" customWidth="1"/>
     <col min="45" max="45" width="12.5" customWidth="1"/>
@@ -2548,21 +2554,21 @@
     <col min="60" max="60" width="15.5" customWidth="1"/>
     <col min="61" max="61" width="13.6640625" style="11" customWidth="1"/>
     <col min="62" max="62" width="13.1640625" style="11" customWidth="1"/>
-    <col min="63" max="63" width="12.5" style="17" customWidth="1"/>
-    <col min="64" max="64" width="26" style="17" customWidth="1"/>
-    <col min="65" max="65" width="31.33203125" style="17" customWidth="1"/>
+    <col min="63" max="63" width="12.5" style="16" customWidth="1"/>
+    <col min="64" max="64" width="26" style="16" customWidth="1"/>
+    <col min="65" max="65" width="31.33203125" style="16" customWidth="1"/>
     <col min="66" max="66" width="9" customWidth="1"/>
     <col min="67" max="67" width="16.5" customWidth="1"/>
     <col min="68" max="68" width="16" customWidth="1"/>
     <col min="69" max="69" width="9.5" customWidth="1"/>
-    <col min="70" max="70" width="11" style="23" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" style="23" customWidth="1"/>
-    <col min="72" max="72" width="14.33203125" style="23" customWidth="1"/>
-    <col min="73" max="73" width="12.6640625" style="23" customWidth="1"/>
-    <col min="74" max="74" width="13.6640625" style="23" customWidth="1"/>
-    <col min="75" max="75" width="15.33203125" style="23" customWidth="1"/>
-    <col min="76" max="76" width="15.5" style="23" customWidth="1"/>
-    <col min="77" max="77" width="14.6640625" style="23" customWidth="1"/>
+    <col min="70" max="70" width="11" style="22" customWidth="1"/>
+    <col min="71" max="71" width="11.6640625" style="22" customWidth="1"/>
+    <col min="72" max="72" width="14.33203125" style="22" customWidth="1"/>
+    <col min="73" max="73" width="12.6640625" style="22" customWidth="1"/>
+    <col min="74" max="74" width="13.6640625" style="22" customWidth="1"/>
+    <col min="75" max="75" width="15.33203125" style="22" customWidth="1"/>
+    <col min="76" max="76" width="15.5" style="22" customWidth="1"/>
+    <col min="77" max="77" width="14.6640625" style="22" customWidth="1"/>
     <col min="78" max="78" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2571,27 +2577,27 @@
         <v>49</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="9"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="18"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="18"/>
+      <c r="U1" s="17"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="17"/>
       <c r="AB1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="5"/>
@@ -2602,9 +2608,9 @@
       <c r="AJ1" s="14"/>
       <c r="AK1" s="3"/>
       <c r="AM1" s="8"/>
-      <c r="AN1" s="28"/>
+      <c r="AN1" s="27"/>
       <c r="AO1" s="9"/>
-      <c r="AP1" s="28"/>
+      <c r="AP1" s="27"/>
       <c r="AQ1" s="7"/>
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
@@ -2615,350 +2621,350 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
       <c r="BA1" s="10"/>
-      <c r="BC1" s="64" t="s">
+      <c r="BC1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BH1" s="64" t="s">
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BH1" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BO1" s="64" t="s">
+      <c r="BI1" s="62"/>
+      <c r="BJ1" s="62"/>
+      <c r="BK1" s="62"/>
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="62"/>
+      <c r="BO1" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="64"/>
+      <c r="BP1" s="62"/>
       <c r="BR1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="22"/>
-      <c r="BT1" s="22"/>
-      <c r="BU1" s="22"/>
-      <c r="BV1" s="22"/>
-      <c r="BW1" s="22"/>
-      <c r="BX1" s="22"/>
-      <c r="BY1" s="22"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
     </row>
-    <row r="2" spans="1:78" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:78" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="45" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="45" t="s">
+      <c r="S2" s="46"/>
+      <c r="T2" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="U2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="47"/>
-      <c r="W2" s="45" t="s">
+      <c r="V2" s="46"/>
+      <c r="W2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="X2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="45" t="s">
+      <c r="Y2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="Z2" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AB2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="45" t="s">
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AE2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" s="45" t="s">
+      <c r="AF2" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="45" t="s">
+      <c r="AI2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ2" s="49" t="s">
+      <c r="AJ2" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="45" t="s">
+      <c r="AK2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="45" t="s">
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="45" t="s">
+      <c r="AN2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="45" t="s">
+      <c r="AO2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="45" t="s">
+      <c r="AP2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="45" t="s">
+      <c r="AQ2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="45" t="s">
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="45" t="s">
+      <c r="AT2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AU2" s="45" t="s">
+      <c r="AU2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="45" t="s">
+      <c r="AV2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AW2" s="45" t="s">
+      <c r="AW2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AX2" s="45" t="s">
+      <c r="AX2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AY2" s="45" t="s">
+      <c r="AY2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="AZ2" s="45" t="s">
+      <c r="AZ2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BA2" s="45" t="s">
+      <c r="BA2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="51" t="s">
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="BD2" s="51" t="s">
+      <c r="BD2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="BE2" s="51" t="s">
+      <c r="BE2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="BF2" s="51" t="s">
+      <c r="BF2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="52" t="s">
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="BI2" s="52" t="s">
+      <c r="BI2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="52" t="s">
+      <c r="BJ2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="BK2" s="52" t="s">
+      <c r="BK2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="BL2" s="52" t="s">
+      <c r="BL2" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="BM2" s="52" t="s">
+      <c r="BM2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="53" t="s">
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="BP2" s="53" t="s">
+      <c r="BP2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="54" t="s">
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="BS2" s="54" t="s">
+      <c r="BS2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="BT2" s="54" t="s">
+      <c r="BT2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="BU2" s="54" t="s">
+      <c r="BU2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="BV2" s="54" t="s">
+      <c r="BV2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="BW2" s="54" t="s">
+      <c r="BW2" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="BX2" s="54" t="s">
+      <c r="BX2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="54" t="s">
+      <c r="BY2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="50"/>
+      <c r="BZ2" s="49"/>
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BM3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N3" s="32" t="s">
+      <c r="M3" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="20"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="19"/>
       <c r="S3" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V3" s="1"/>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="59" t="s">
+      <c r="Y3" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="Z3" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="59" t="s">
+      <c r="AB3" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="63" t="s">
+      <c r="AD3" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="AE3" s="63" t="s">
+      <c r="AE3" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="AF3" s="63" t="s">
+      <c r="AF3" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="AG3" s="63" t="s">
+      <c r="AG3" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="62" t="s">
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="13">
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="65">
         <v>0.01</v>
       </c>
       <c r="AM3" t="s">
         <v>254</v>
       </c>
-      <c r="AN3" s="44" t="s">
+      <c r="AN3" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP3" s="44" t="s">
+      <c r="AP3" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ3" s="1" t="s">
@@ -2991,16 +2997,16 @@
       <c r="BA3">
         <v>250</v>
       </c>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BH3" s="26"/>
-      <c r="BI3" s="27"/>
-      <c r="BJ3" s="27"/>
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="58"/>
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="58"/>
+      <c r="BH3" s="25"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
       <c r="BK3"/>
       <c r="BL3"/>
-      <c r="BM3" s="27"/>
+      <c r="BM3" s="26"/>
       <c r="BR3"/>
       <c r="BS3"/>
       <c r="BT3"/>
@@ -3015,104 +3021,104 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="M4" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N4" s="32" t="s">
+      <c r="M4" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N4" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="20"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="19"/>
       <c r="S4" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V4" s="1"/>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="59" t="s">
+      <c r="Y4" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="Z4" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AA4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB4" s="59" t="s">
+      <c r="AB4" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="63" t="s">
+      <c r="AD4" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="AE4" s="63" t="s">
+      <c r="AE4" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="AF4" s="63" t="s">
+      <c r="AF4" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="AG4" s="63" t="s">
+      <c r="AG4" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="62" t="s">
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="13">
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="65">
         <v>0.01</v>
       </c>
       <c r="AM4" t="s">
         <v>254</v>
       </c>
-      <c r="AN4" s="44" t="s">
+      <c r="AN4" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP4" s="44" t="s">
+      <c r="AP4" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ4" s="1" t="s">
@@ -3145,16 +3151,16 @@
       <c r="BA4">
         <v>250</v>
       </c>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="60"/>
-      <c r="BH4" s="26"/>
-      <c r="BI4" s="27"/>
-      <c r="BJ4" s="27"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="58"/>
+      <c r="BF4" s="58"/>
+      <c r="BH4" s="25"/>
+      <c r="BI4" s="26"/>
+      <c r="BJ4" s="26"/>
       <c r="BK4"/>
       <c r="BL4"/>
-      <c r="BM4" s="27"/>
+      <c r="BM4" s="26"/>
       <c r="BR4"/>
       <c r="BS4"/>
       <c r="BT4"/>
@@ -3169,104 +3175,104 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="M5" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N5" s="32" t="s">
+      <c r="M5" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="25"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="24"/>
       <c r="S5" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="U5" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V5" s="1"/>
-      <c r="W5" s="35" t="s">
+      <c r="W5" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="59" t="s">
+      <c r="Y5" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="35" t="s">
+      <c r="Z5" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="17" t="s">
+      <c r="AA5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB5" s="59" t="s">
+      <c r="AB5" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="63" t="s">
+      <c r="AD5" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="AE5" s="63" t="s">
+      <c r="AE5" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="AF5" s="63" t="s">
+      <c r="AF5" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="AG5" s="63" t="s">
+      <c r="AG5" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="62" t="s">
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="AJ5"/>
-      <c r="AK5" s="13">
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="65">
         <v>0.01</v>
       </c>
       <c r="AM5" t="s">
         <v>254</v>
       </c>
-      <c r="AN5" s="44" t="s">
+      <c r="AN5" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP5" s="44" t="s">
+      <c r="AP5" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ5" s="1" t="s">
@@ -3299,16 +3305,16 @@
       <c r="BA5">
         <v>250</v>
       </c>
-      <c r="BC5" s="60"/>
-      <c r="BD5" s="60"/>
-      <c r="BE5" s="60"/>
-      <c r="BF5" s="60"/>
-      <c r="BH5" s="26"/>
-      <c r="BI5" s="27"/>
-      <c r="BJ5" s="27"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="58"/>
+      <c r="BE5" s="58"/>
+      <c r="BF5" s="58"/>
+      <c r="BH5" s="25"/>
+      <c r="BI5" s="26"/>
+      <c r="BJ5" s="26"/>
       <c r="BK5"/>
       <c r="BL5"/>
-      <c r="BM5" s="27"/>
+      <c r="BM5" s="26"/>
       <c r="BR5"/>
       <c r="BS5"/>
       <c r="BT5"/>
@@ -3323,104 +3329,104 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>4</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N6" s="32" t="s">
+      <c r="M6" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N6" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="20"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="19"/>
       <c r="S6" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V6" s="1"/>
-      <c r="W6" s="35" t="s">
+      <c r="W6" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="59" t="s">
+      <c r="Y6" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z6" s="35" t="s">
+      <c r="Z6" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="59" t="s">
+      <c r="AB6" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="63" t="s">
+      <c r="AD6" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="AE6" s="63" t="s">
+      <c r="AE6" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="AF6" s="63" t="s">
+      <c r="AF6" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="AG6" s="63" t="s">
+      <c r="AG6" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="62" t="s">
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="AJ6" s="58"/>
-      <c r="AK6" s="13">
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="65">
         <v>0.01</v>
       </c>
       <c r="AM6" t="s">
         <v>254</v>
       </c>
-      <c r="AN6" s="44" t="s">
+      <c r="AN6" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP6" s="44" t="s">
+      <c r="AP6" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ6" s="1" t="s">
@@ -3453,16 +3459,16 @@
       <c r="BA6">
         <v>250</v>
       </c>
-      <c r="BC6" s="60"/>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="60"/>
-      <c r="BF6" s="60"/>
-      <c r="BH6" s="26"/>
-      <c r="BI6" s="27"/>
-      <c r="BJ6" s="27"/>
+      <c r="BC6" s="58"/>
+      <c r="BD6" s="58"/>
+      <c r="BE6" s="58"/>
+      <c r="BF6" s="58"/>
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="26"/>
+      <c r="BJ6" s="26"/>
       <c r="BK6"/>
       <c r="BL6"/>
-      <c r="BM6" s="27"/>
+      <c r="BM6" s="26"/>
       <c r="BR6"/>
       <c r="BS6"/>
       <c r="BT6"/>
@@ -3477,104 +3483,104 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>5</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="M7" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N7" s="32" t="s">
+      <c r="M7" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="20"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="19"/>
       <c r="S7" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="T7" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V7" s="1"/>
-      <c r="W7" s="35" t="s">
+      <c r="W7" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y7" s="59" t="s">
+      <c r="Y7" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z7" s="35" t="s">
+      <c r="Z7" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA7" s="17" t="s">
+      <c r="AA7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" s="59" t="s">
+      <c r="AB7" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="63" t="s">
+      <c r="AD7" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="AE7" s="63" t="s">
+      <c r="AE7" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="AF7" s="63" t="s">
+      <c r="AF7" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="AG7" s="63" t="s">
+      <c r="AG7" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="62" t="s">
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="AJ7" s="58"/>
-      <c r="AK7" s="13">
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="65">
         <v>0.01</v>
       </c>
       <c r="AM7" t="s">
         <v>254</v>
       </c>
-      <c r="AN7" s="44" t="s">
+      <c r="AN7" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP7" s="44" t="s">
+      <c r="AP7" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ7" s="1" t="s">
@@ -3607,16 +3613,16 @@
       <c r="BA7">
         <v>250</v>
       </c>
-      <c r="BC7" s="60"/>
-      <c r="BD7" s="60"/>
-      <c r="BE7" s="60"/>
-      <c r="BF7" s="60"/>
-      <c r="BH7" s="26"/>
-      <c r="BI7" s="27"/>
-      <c r="BJ7" s="27"/>
+      <c r="BC7" s="58"/>
+      <c r="BD7" s="58"/>
+      <c r="BE7" s="58"/>
+      <c r="BF7" s="58"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="26"/>
+      <c r="BJ7" s="26"/>
       <c r="BK7"/>
       <c r="BL7"/>
-      <c r="BM7" s="27"/>
+      <c r="BM7" s="26"/>
       <c r="BR7"/>
       <c r="BS7"/>
       <c r="BT7"/>
@@ -3631,104 +3637,104 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>6</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N8" s="32" t="s">
+      <c r="M8" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N8" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="25"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="24"/>
       <c r="S8" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="T8" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="U8" s="17" t="s">
+      <c r="U8" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V8" s="1"/>
-      <c r="W8" s="35" t="s">
+      <c r="W8" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="17" t="s">
+      <c r="X8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y8" s="59" t="s">
+      <c r="Y8" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="Z8" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA8" s="17" t="s">
+      <c r="AA8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB8" s="59" t="s">
+      <c r="AB8" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="63" t="s">
+      <c r="AD8" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="AE8" s="63" t="s">
+      <c r="AE8" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="AF8" s="63" t="s">
+      <c r="AF8" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="AG8" s="63" t="s">
+      <c r="AG8" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="62" t="s">
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="AJ8" s="58"/>
-      <c r="AK8" s="13">
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="65">
         <v>0.01</v>
       </c>
       <c r="AM8" t="s">
         <v>254</v>
       </c>
-      <c r="AN8" s="44" t="s">
+      <c r="AN8" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP8" s="44" t="s">
+      <c r="AP8" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ8" s="1" t="s">
@@ -3761,16 +3767,16 @@
       <c r="BA8">
         <v>250</v>
       </c>
-      <c r="BC8" s="60"/>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="60"/>
-      <c r="BF8" s="60"/>
-      <c r="BH8" s="26"/>
-      <c r="BI8" s="27"/>
-      <c r="BJ8" s="27"/>
+      <c r="BC8" s="58"/>
+      <c r="BD8" s="58"/>
+      <c r="BE8" s="58"/>
+      <c r="BF8" s="58"/>
+      <c r="BH8" s="25"/>
+      <c r="BI8" s="26"/>
+      <c r="BJ8" s="26"/>
       <c r="BK8"/>
       <c r="BL8"/>
-      <c r="BM8" s="27"/>
+      <c r="BM8" s="26"/>
       <c r="BR8"/>
       <c r="BS8"/>
       <c r="BT8"/>
@@ -3785,104 +3791,104 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>7</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="M9" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N9" s="32" t="s">
+      <c r="M9" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="20"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="19"/>
       <c r="S9" t="s">
         <v>49</v>
       </c>
-      <c r="T9" s="17" t="s">
+      <c r="T9" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="U9" s="17" t="s">
+      <c r="U9" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V9" s="1"/>
-      <c r="W9" s="35" t="s">
+      <c r="W9" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X9" s="17" t="s">
+      <c r="X9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y9" s="59" t="s">
+      <c r="Y9" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z9" s="35" t="s">
+      <c r="Z9" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="17" t="s">
+      <c r="AA9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB9" s="59" t="s">
+      <c r="AB9" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="63" t="s">
+      <c r="AD9" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="AE9" s="63" t="s">
+      <c r="AE9" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="AF9" s="63" t="s">
+      <c r="AF9" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="AG9" s="63" t="s">
+      <c r="AG9" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="62" t="s">
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="13">
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="65">
         <v>0.01</v>
       </c>
       <c r="AM9" t="s">
         <v>254</v>
       </c>
-      <c r="AN9" s="44" t="s">
+      <c r="AN9" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP9" s="44" t="s">
+      <c r="AP9" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ9" s="1" t="s">
@@ -3915,16 +3921,16 @@
       <c r="BA9">
         <v>250</v>
       </c>
-      <c r="BC9" s="60"/>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="60"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="27"/>
+      <c r="BC9" s="58"/>
+      <c r="BD9" s="58"/>
+      <c r="BE9" s="58"/>
+      <c r="BF9" s="58"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26"/>
       <c r="BK9"/>
       <c r="BL9"/>
-      <c r="BM9" s="27"/>
+      <c r="BM9" s="26"/>
       <c r="BR9"/>
       <c r="BS9"/>
       <c r="BT9"/>
@@ -3939,104 +3945,104 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>8</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="M10" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N10" s="32" t="s">
+      <c r="M10" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="20"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="19"/>
       <c r="S10" t="s">
         <v>49</v>
       </c>
-      <c r="T10" s="17" t="s">
+      <c r="T10" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="U10" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V10" s="1"/>
-      <c r="W10" s="35" t="s">
+      <c r="W10" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X10" s="17" t="s">
+      <c r="X10" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y10" s="59" t="s">
+      <c r="Y10" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="35" t="s">
+      <c r="Z10" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA10" s="17" t="s">
+      <c r="AA10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="59" t="s">
+      <c r="AB10" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="63" t="s">
+      <c r="AD10" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="AE10" s="63" t="s">
+      <c r="AE10" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="AF10" s="63" t="s">
+      <c r="AF10" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="AG10" s="63" t="s">
+      <c r="AG10" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="62" t="s">
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="13">
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="65">
         <v>0.01</v>
       </c>
       <c r="AM10" t="s">
         <v>254</v>
       </c>
-      <c r="AN10" s="44" t="s">
+      <c r="AN10" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO10" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP10" s="44" t="s">
+      <c r="AP10" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ10" s="1" t="s">
@@ -4069,16 +4075,16 @@
       <c r="BA10">
         <v>250</v>
       </c>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="60"/>
-      <c r="BE10" s="60"/>
-      <c r="BF10" s="60"/>
-      <c r="BH10" s="26"/>
-      <c r="BI10" s="27"/>
-      <c r="BJ10" s="27"/>
+      <c r="BC10" s="58"/>
+      <c r="BD10" s="58"/>
+      <c r="BE10" s="58"/>
+      <c r="BF10" s="58"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="26"/>
+      <c r="BJ10" s="26"/>
       <c r="BK10"/>
       <c r="BL10"/>
-      <c r="BM10" s="27"/>
+      <c r="BM10" s="26"/>
       <c r="BR10"/>
       <c r="BS10"/>
       <c r="BT10"/>
@@ -4093,104 +4099,104 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>9</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="M11" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N11" s="32" t="s">
+      <c r="M11" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="20"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="19"/>
       <c r="S11" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="17" t="s">
+      <c r="T11" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="U11" s="17" t="s">
+      <c r="U11" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V11" s="1"/>
-      <c r="W11" s="35" t="s">
+      <c r="W11" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X11" s="17" t="s">
+      <c r="X11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y11" s="59" t="s">
+      <c r="Y11" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z11" s="35" t="s">
+      <c r="Z11" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA11" s="17" t="s">
+      <c r="AA11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB11" s="59" t="s">
+      <c r="AB11" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="63" t="s">
+      <c r="AD11" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="AE11" s="63" t="s">
+      <c r="AE11" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="AF11" s="63" t="s">
+      <c r="AF11" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="AG11" s="63" t="s">
+      <c r="AG11" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="62" t="s">
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="13">
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="65">
         <v>0.01</v>
       </c>
       <c r="AM11" t="s">
         <v>254</v>
       </c>
-      <c r="AN11" s="44" t="s">
+      <c r="AN11" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP11" s="44" t="s">
+      <c r="AP11" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ11" s="1" t="s">
@@ -4223,16 +4229,16 @@
       <c r="BA11">
         <v>250</v>
       </c>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BH11" s="26"/>
-      <c r="BI11" s="27"/>
-      <c r="BJ11" s="27"/>
+      <c r="BC11" s="58"/>
+      <c r="BD11" s="58"/>
+      <c r="BE11" s="58"/>
+      <c r="BF11" s="58"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="26"/>
+      <c r="BJ11" s="26"/>
       <c r="BK11"/>
-      <c r="BL11" s="61"/>
-      <c r="BM11" s="27"/>
+      <c r="BL11" s="59"/>
+      <c r="BM11" s="26"/>
       <c r="BR11"/>
       <c r="BS11"/>
       <c r="BT11"/>
@@ -4247,104 +4253,104 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>10</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N12" s="32" t="s">
+      <c r="M12" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N12" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="25"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="24"/>
       <c r="S12" t="s">
         <v>49</v>
       </c>
-      <c r="T12" s="17" t="s">
+      <c r="T12" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="U12" s="17" t="s">
+      <c r="U12" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V12" s="1"/>
-      <c r="W12" s="35" t="s">
+      <c r="W12" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X12" s="17" t="s">
+      <c r="X12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="59" t="s">
+      <c r="Y12" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="35" t="s">
+      <c r="Z12" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="AA12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB12" s="59" t="s">
+      <c r="AB12" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="63" t="s">
+      <c r="AD12" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="AE12" s="63" t="s">
+      <c r="AE12" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="AF12" s="63" t="s">
+      <c r="AF12" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="AG12" s="63" t="s">
+      <c r="AG12" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="62" t="s">
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="13">
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="65">
         <v>0.01</v>
       </c>
       <c r="AM12" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="44" t="s">
+      <c r="AN12" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP12" s="44" t="s">
+      <c r="AP12" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ12" s="1" t="s">
@@ -4377,16 +4383,16 @@
       <c r="BA12">
         <v>250</v>
       </c>
-      <c r="BC12" s="60"/>
-      <c r="BD12" s="60"/>
-      <c r="BE12" s="60"/>
-      <c r="BF12" s="60"/>
-      <c r="BH12" s="26"/>
-      <c r="BI12" s="27"/>
-      <c r="BJ12" s="27"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="58"/>
+      <c r="BE12" s="58"/>
+      <c r="BF12" s="58"/>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="26"/>
+      <c r="BJ12" s="26"/>
       <c r="BK12"/>
-      <c r="BL12" s="61"/>
-      <c r="BM12" s="27"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="26"/>
       <c r="BR12"/>
       <c r="BS12"/>
       <c r="BT12"/>
@@ -4401,104 +4407,104 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>11</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N13" s="32" t="s">
+      <c r="M13" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="20"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="19"/>
       <c r="S13" t="s">
         <v>49</v>
       </c>
-      <c r="T13" s="17" t="s">
+      <c r="T13" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="U13" s="17" t="s">
+      <c r="U13" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V13" s="1"/>
-      <c r="W13" s="35" t="s">
+      <c r="W13" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X13" s="17" t="s">
+      <c r="X13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y13" s="59" t="s">
+      <c r="Y13" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z13" s="35" t="s">
+      <c r="Z13" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA13" s="17" t="s">
+      <c r="AA13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB13" s="59" t="s">
+      <c r="AB13" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="63" t="s">
+      <c r="AD13" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="AE13" s="63" t="s">
+      <c r="AE13" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="AF13" s="63" t="s">
+      <c r="AF13" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="AG13" s="63" t="s">
+      <c r="AG13" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="62" t="s">
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="13">
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="65">
         <v>0.01</v>
       </c>
       <c r="AM13" t="s">
         <v>254</v>
       </c>
-      <c r="AN13" s="44" t="s">
+      <c r="AN13" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO13" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP13" s="44" t="s">
+      <c r="AP13" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ13" s="1" t="s">
@@ -4531,16 +4537,16 @@
       <c r="BA13">
         <v>250</v>
       </c>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="60"/>
-      <c r="BE13" s="60"/>
-      <c r="BF13" s="60"/>
-      <c r="BH13" s="26"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="27"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="58"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="58"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="26"/>
+      <c r="BJ13" s="26"/>
       <c r="BK13"/>
-      <c r="BL13" s="61"/>
-      <c r="BM13" s="27"/>
+      <c r="BL13" s="59"/>
+      <c r="BM13" s="26"/>
       <c r="BR13"/>
       <c r="BS13"/>
       <c r="BT13"/>
@@ -4555,104 +4561,104 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>12</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>98</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="M14" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N14" s="32" t="s">
+      <c r="M14" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="20"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="19"/>
       <c r="S14" t="s">
         <v>49</v>
       </c>
-      <c r="T14" s="17" t="s">
+      <c r="T14" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="U14" s="17" t="s">
+      <c r="U14" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V14" s="1"/>
-      <c r="W14" s="35" t="s">
+      <c r="W14" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X14" s="17" t="s">
+      <c r="X14" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y14" s="59" t="s">
+      <c r="Y14" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z14" s="35" t="s">
+      <c r="Z14" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA14" s="17" t="s">
+      <c r="AA14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB14" s="59" t="s">
+      <c r="AB14" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" s="63" t="s">
+      <c r="AD14" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="AE14" s="63" t="s">
+      <c r="AE14" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="AF14" s="63" t="s">
+      <c r="AF14" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="AG14" s="63" t="s">
+      <c r="AG14" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="62" t="s">
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="13">
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="65">
         <v>0.01</v>
       </c>
       <c r="AM14" t="s">
         <v>254</v>
       </c>
-      <c r="AN14" s="44" t="s">
+      <c r="AN14" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO14" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP14" s="44" t="s">
+      <c r="AP14" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ14" s="1" t="s">
@@ -4685,16 +4691,16 @@
       <c r="BA14">
         <v>250</v>
       </c>
-      <c r="BC14" s="60"/>
-      <c r="BD14" s="60"/>
-      <c r="BE14" s="60"/>
-      <c r="BF14" s="60"/>
-      <c r="BH14" s="26"/>
-      <c r="BI14" s="27"/>
-      <c r="BJ14" s="27"/>
+      <c r="BC14" s="58"/>
+      <c r="BD14" s="58"/>
+      <c r="BE14" s="58"/>
+      <c r="BF14" s="58"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="26"/>
+      <c r="BJ14" s="26"/>
       <c r="BK14"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="27"/>
+      <c r="BL14" s="59"/>
+      <c r="BM14" s="26"/>
       <c r="BR14"/>
       <c r="BS14"/>
       <c r="BT14"/>
@@ -4709,104 +4715,104 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>13</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="M15" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N15" s="32" t="s">
+      <c r="M15" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N15" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="20"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="19"/>
       <c r="S15" t="s">
         <v>49</v>
       </c>
-      <c r="T15" s="17" t="s">
+      <c r="T15" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="U15" s="17" t="s">
+      <c r="U15" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V15" s="1"/>
-      <c r="W15" s="35" t="s">
+      <c r="W15" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X15" s="17" t="s">
+      <c r="X15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y15" s="59" t="s">
+      <c r="Y15" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z15" s="35" t="s">
+      <c r="Z15" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA15" s="17" t="s">
+      <c r="AA15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB15" s="59" t="s">
+      <c r="AB15" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="63" t="s">
+      <c r="AD15" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="AE15" s="63" t="s">
+      <c r="AE15" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="AF15" s="63" t="s">
+      <c r="AF15" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="AG15" s="63" t="s">
+      <c r="AG15" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="62" t="s">
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="13">
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="65">
         <v>0.01</v>
       </c>
       <c r="AM15" t="s">
         <v>254</v>
       </c>
-      <c r="AN15" s="44" t="s">
+      <c r="AN15" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP15" s="44" t="s">
+      <c r="AP15" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ15" s="1" t="s">
@@ -4839,16 +4845,16 @@
       <c r="BA15">
         <v>250</v>
       </c>
-      <c r="BC15" s="60"/>
-      <c r="BD15" s="60"/>
-      <c r="BE15" s="60"/>
-      <c r="BF15" s="60"/>
-      <c r="BH15" s="26"/>
-      <c r="BI15" s="27"/>
-      <c r="BJ15" s="27"/>
+      <c r="BC15" s="58"/>
+      <c r="BD15" s="58"/>
+      <c r="BE15" s="58"/>
+      <c r="BF15" s="58"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="26"/>
+      <c r="BJ15" s="26"/>
       <c r="BK15"/>
-      <c r="BL15" s="61"/>
-      <c r="BM15" s="27"/>
+      <c r="BL15" s="59"/>
+      <c r="BM15" s="26"/>
       <c r="BR15"/>
       <c r="BS15"/>
       <c r="BT15"/>
@@ -4863,97 +4869,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>14</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="20"/>
-      <c r="T16" s="17" t="s">
+      <c r="M16" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N16" s="31"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="19"/>
+      <c r="T16" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="U16" s="17" t="s">
+      <c r="U16" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V16" s="1"/>
-      <c r="W16" s="35" t="s">
+      <c r="W16" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X16" s="17" t="s">
+      <c r="X16" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y16" s="59" t="s">
+      <c r="Y16" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="Z16" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA16" s="17" t="s">
+      <c r="AA16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB16" s="59" t="s">
+      <c r="AB16" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="63" t="s">
+      <c r="AD16" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="AE16" s="63" t="s">
+      <c r="AE16" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="AF16" s="63" t="s">
+      <c r="AF16" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="AG16" s="63" t="s">
+      <c r="AG16" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="62" t="s">
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="13">
+      <c r="AJ16" s="64"/>
+      <c r="AK16" s="65">
         <v>0.01</v>
       </c>
       <c r="AM16" t="s">
         <v>254</v>
       </c>
-      <c r="AN16" s="44" t="s">
+      <c r="AN16" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP16" s="44" t="s">
+      <c r="AP16" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ16" s="1" t="s">
@@ -4983,16 +4989,16 @@
       <c r="BA16">
         <v>250</v>
       </c>
-      <c r="BC16" s="60"/>
-      <c r="BD16" s="60"/>
-      <c r="BE16" s="60"/>
-      <c r="BF16" s="60"/>
-      <c r="BH16" s="26"/>
-      <c r="BI16" s="27"/>
-      <c r="BJ16" s="27"/>
+      <c r="BC16" s="58"/>
+      <c r="BD16" s="58"/>
+      <c r="BE16" s="58"/>
+      <c r="BF16" s="58"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="26"/>
+      <c r="BJ16" s="26"/>
       <c r="BK16"/>
-      <c r="BL16" s="61"/>
-      <c r="BM16" s="27"/>
+      <c r="BL16" s="59"/>
+      <c r="BM16" s="26"/>
       <c r="BR16"/>
       <c r="BS16"/>
       <c r="BT16"/>
@@ -5007,97 +5013,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>15</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>101</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="M17" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="20"/>
-      <c r="T17" s="17" t="s">
+      <c r="M17" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N17" s="31"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="19"/>
+      <c r="T17" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="U17" s="17" t="s">
+      <c r="U17" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V17" s="1"/>
-      <c r="W17" s="35" t="s">
+      <c r="W17" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X17" s="17" t="s">
+      <c r="X17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y17" s="59" t="s">
+      <c r="Y17" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z17" s="35" t="s">
+      <c r="Z17" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA17" s="17" t="s">
+      <c r="AA17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB17" s="59" t="s">
+      <c r="AB17" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="63" t="s">
+      <c r="AD17" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="AE17" s="63" t="s">
+      <c r="AE17" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="AF17" s="63" t="s">
+      <c r="AF17" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="AG17" s="63" t="s">
+      <c r="AG17" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="62" t="s">
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="13">
+      <c r="AJ17" s="64"/>
+      <c r="AK17" s="65">
         <v>0.01</v>
       </c>
       <c r="AM17" t="s">
         <v>254</v>
       </c>
-      <c r="AN17" s="44" t="s">
+      <c r="AN17" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP17" s="44" t="s">
+      <c r="AP17" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ17" s="1" t="s">
@@ -5127,16 +5133,16 @@
       <c r="BA17">
         <v>250</v>
       </c>
-      <c r="BC17" s="60"/>
-      <c r="BD17" s="60"/>
-      <c r="BE17" s="60"/>
-      <c r="BF17" s="60"/>
-      <c r="BH17" s="26"/>
-      <c r="BI17" s="27"/>
-      <c r="BJ17" s="27"/>
+      <c r="BC17" s="58"/>
+      <c r="BD17" s="58"/>
+      <c r="BE17" s="58"/>
+      <c r="BF17" s="58"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="26"/>
+      <c r="BJ17" s="26"/>
       <c r="BK17"/>
-      <c r="BL17" s="61"/>
-      <c r="BM17" s="27"/>
+      <c r="BL17" s="59"/>
+      <c r="BM17" s="26"/>
       <c r="BR17"/>
       <c r="BS17"/>
       <c r="BT17"/>
@@ -5151,97 +5157,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>16</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="M18" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N18" s="32"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="20"/>
-      <c r="T18" s="17" t="s">
+      <c r="M18" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="19"/>
+      <c r="T18" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="U18" s="17" t="s">
+      <c r="U18" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V18" s="1"/>
-      <c r="W18" s="35" t="s">
+      <c r="W18" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="17" t="s">
+      <c r="X18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y18" s="59" t="s">
+      <c r="Y18" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z18" s="35" t="s">
+      <c r="Z18" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA18" s="17" t="s">
+      <c r="AA18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB18" s="59" t="s">
+      <c r="AB18" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="63" t="s">
+      <c r="AD18" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="AE18" s="63" t="s">
+      <c r="AE18" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="AF18" s="63" t="s">
+      <c r="AF18" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="AG18" s="63" t="s">
+      <c r="AG18" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="62" t="s">
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="13">
+      <c r="AJ18" s="64"/>
+      <c r="AK18" s="65">
         <v>0.01</v>
       </c>
       <c r="AM18" t="s">
         <v>254</v>
       </c>
-      <c r="AN18" s="44" t="s">
+      <c r="AN18" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO18" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP18" s="44" t="s">
+      <c r="AP18" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ18" s="1" t="s">
@@ -5271,16 +5277,16 @@
       <c r="BA18">
         <v>250</v>
       </c>
-      <c r="BC18" s="60"/>
-      <c r="BD18" s="60"/>
-      <c r="BE18" s="60"/>
-      <c r="BF18" s="60"/>
-      <c r="BH18" s="26"/>
-      <c r="BI18" s="27"/>
-      <c r="BJ18" s="27"/>
+      <c r="BC18" s="58"/>
+      <c r="BD18" s="58"/>
+      <c r="BE18" s="58"/>
+      <c r="BF18" s="58"/>
+      <c r="BH18" s="25"/>
+      <c r="BI18" s="26"/>
+      <c r="BJ18" s="26"/>
       <c r="BK18"/>
-      <c r="BL18" s="61"/>
-      <c r="BM18" s="27"/>
+      <c r="BL18" s="59"/>
+      <c r="BM18" s="26"/>
       <c r="BR18"/>
       <c r="BS18"/>
       <c r="BT18"/>
@@ -5295,97 +5301,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>17</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="M19" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N19" s="32"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="20"/>
-      <c r="T19" s="17" t="s">
+      <c r="M19" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="19"/>
+      <c r="T19" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="U19" s="17" t="s">
+      <c r="U19" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V19" s="1"/>
-      <c r="W19" s="35" t="s">
+      <c r="W19" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X19" s="17" t="s">
+      <c r="X19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y19" s="59" t="s">
+      <c r="Y19" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z19" s="35" t="s">
+      <c r="Z19" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA19" s="17" t="s">
+      <c r="AA19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB19" s="59" t="s">
+      <c r="AB19" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="63" t="s">
+      <c r="AD19" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="AE19" s="63" t="s">
+      <c r="AE19" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="AF19" s="63" t="s">
+      <c r="AF19" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="AG19" s="63" t="s">
+      <c r="AG19" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="62" t="s">
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="13">
+      <c r="AJ19" s="64"/>
+      <c r="AK19" s="65">
         <v>0.01</v>
       </c>
       <c r="AM19" t="s">
         <v>254</v>
       </c>
-      <c r="AN19" s="44" t="s">
+      <c r="AN19" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO19" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP19" s="44" t="s">
+      <c r="AP19" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ19" s="1" t="s">
@@ -5415,16 +5421,16 @@
       <c r="BA19">
         <v>250</v>
       </c>
-      <c r="BC19" s="60"/>
-      <c r="BD19" s="60"/>
-      <c r="BE19" s="60"/>
-      <c r="BF19" s="60"/>
-      <c r="BH19" s="26"/>
-      <c r="BI19" s="27"/>
-      <c r="BJ19" s="27"/>
+      <c r="BC19" s="58"/>
+      <c r="BD19" s="58"/>
+      <c r="BE19" s="58"/>
+      <c r="BF19" s="58"/>
+      <c r="BH19" s="25"/>
+      <c r="BI19" s="26"/>
+      <c r="BJ19" s="26"/>
       <c r="BK19"/>
       <c r="BL19"/>
-      <c r="BM19" s="27"/>
+      <c r="BM19" s="26"/>
       <c r="BR19"/>
       <c r="BS19"/>
       <c r="BT19"/>
@@ -5439,97 +5445,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>18</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>104</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="M20" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N20" s="32"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="20"/>
-      <c r="T20" s="17" t="s">
+      <c r="M20" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="19"/>
+      <c r="T20" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="U20" s="17" t="s">
+      <c r="U20" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V20" s="1"/>
-      <c r="W20" s="35" t="s">
+      <c r="W20" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X20" s="17" t="s">
+      <c r="X20" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y20" s="59" t="s">
+      <c r="Y20" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="35" t="s">
+      <c r="Z20" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA20" s="17" t="s">
+      <c r="AA20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB20" s="59" t="s">
+      <c r="AB20" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="63" t="s">
+      <c r="AD20" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="AE20" s="63" t="s">
+      <c r="AE20" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="AF20" s="63" t="s">
+      <c r="AF20" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="AG20" s="63" t="s">
+      <c r="AG20" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="62" t="s">
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="13">
+      <c r="AJ20" s="64"/>
+      <c r="AK20" s="65">
         <v>0.01</v>
       </c>
       <c r="AM20" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="44" t="s">
+      <c r="AN20" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO20" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP20" s="44" t="s">
+      <c r="AP20" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ20" s="1" t="s">
@@ -5559,16 +5565,16 @@
       <c r="BA20">
         <v>250</v>
       </c>
-      <c r="BC20" s="60"/>
-      <c r="BD20" s="60"/>
-      <c r="BE20" s="60"/>
-      <c r="BF20" s="60"/>
-      <c r="BH20" s="26"/>
-      <c r="BI20" s="27"/>
-      <c r="BJ20" s="27"/>
+      <c r="BC20" s="58"/>
+      <c r="BD20" s="58"/>
+      <c r="BE20" s="58"/>
+      <c r="BF20" s="58"/>
+      <c r="BH20" s="25"/>
+      <c r="BI20" s="26"/>
+      <c r="BJ20" s="26"/>
       <c r="BK20"/>
       <c r="BL20"/>
-      <c r="BM20" s="27"/>
+      <c r="BM20" s="26"/>
       <c r="BR20"/>
       <c r="BS20"/>
       <c r="BT20"/>
@@ -5583,97 +5589,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>19</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="L21" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="M21" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N21" s="32"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="20"/>
-      <c r="T21" s="17" t="s">
+      <c r="M21" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="19"/>
+      <c r="T21" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="U21" s="17" t="s">
+      <c r="U21" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V21" s="1"/>
-      <c r="W21" s="35" t="s">
+      <c r="W21" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X21" s="17" t="s">
+      <c r="X21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y21" s="59" t="s">
+      <c r="Y21" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z21" s="35" t="s">
+      <c r="Z21" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA21" s="17" t="s">
+      <c r="AA21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB21" s="59" t="s">
+      <c r="AB21" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="63" t="s">
+      <c r="AD21" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="AE21" s="63" t="s">
+      <c r="AE21" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="AF21" s="63" t="s">
+      <c r="AF21" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="AG21" s="63" t="s">
+      <c r="AG21" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="62" t="s">
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="13">
+      <c r="AJ21" s="64"/>
+      <c r="AK21" s="65">
         <v>0.01</v>
       </c>
       <c r="AM21" t="s">
         <v>254</v>
       </c>
-      <c r="AN21" s="44" t="s">
+      <c r="AN21" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO21" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP21" s="44" t="s">
+      <c r="AP21" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ21" s="1" t="s">
@@ -5703,16 +5709,16 @@
       <c r="BA21">
         <v>250</v>
       </c>
-      <c r="BC21" s="60"/>
-      <c r="BD21" s="60"/>
-      <c r="BE21" s="60"/>
-      <c r="BF21" s="60"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="27"/>
-      <c r="BJ21" s="27"/>
+      <c r="BC21" s="58"/>
+      <c r="BD21" s="58"/>
+      <c r="BE21" s="58"/>
+      <c r="BF21" s="58"/>
+      <c r="BH21" s="25"/>
+      <c r="BI21" s="26"/>
+      <c r="BJ21" s="26"/>
       <c r="BK21"/>
       <c r="BL21"/>
-      <c r="BM21" s="27"/>
+      <c r="BM21" s="26"/>
       <c r="BR21"/>
       <c r="BS21"/>
       <c r="BT21"/>
@@ -5727,97 +5733,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>20</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>106</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="M22" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N22" s="32"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="20"/>
-      <c r="T22" s="17" t="s">
+      <c r="M22" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="19"/>
+      <c r="T22" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="U22" s="17" t="s">
+      <c r="U22" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V22" s="1"/>
-      <c r="W22" s="35" t="s">
+      <c r="W22" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X22" s="17" t="s">
+      <c r="X22" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y22" s="59" t="s">
+      <c r="Y22" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z22" s="35" t="s">
+      <c r="Z22" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA22" s="17" t="s">
+      <c r="AA22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB22" s="59" t="s">
+      <c r="AB22" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="63" t="s">
+      <c r="AD22" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="AE22" s="63" t="s">
+      <c r="AE22" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="AF22" s="63" t="s">
+      <c r="AF22" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="AG22" s="63" t="s">
+      <c r="AG22" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="62" t="s">
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="13">
+      <c r="AJ22" s="64"/>
+      <c r="AK22" s="65">
         <v>0.01</v>
       </c>
       <c r="AM22" t="s">
         <v>254</v>
       </c>
-      <c r="AN22" s="44" t="s">
+      <c r="AN22" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO22" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP22" s="44" t="s">
+      <c r="AP22" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ22" s="1" t="s">
@@ -5847,16 +5853,16 @@
       <c r="BA22">
         <v>250</v>
       </c>
-      <c r="BC22" s="60"/>
-      <c r="BD22" s="60"/>
-      <c r="BE22" s="60"/>
-      <c r="BF22" s="60"/>
-      <c r="BH22" s="26"/>
-      <c r="BI22" s="27"/>
-      <c r="BJ22" s="27"/>
+      <c r="BC22" s="58"/>
+      <c r="BD22" s="58"/>
+      <c r="BE22" s="58"/>
+      <c r="BF22" s="58"/>
+      <c r="BH22" s="25"/>
+      <c r="BI22" s="26"/>
+      <c r="BJ22" s="26"/>
       <c r="BK22"/>
       <c r="BL22"/>
-      <c r="BM22" s="27"/>
+      <c r="BM22" s="26"/>
       <c r="BR22"/>
       <c r="BS22"/>
       <c r="BT22"/>
@@ -5871,97 +5877,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>21</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="M23" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N23" s="32"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="20"/>
-      <c r="T23" s="17" t="s">
+      <c r="M23" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="19"/>
+      <c r="T23" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="U23" s="17" t="s">
+      <c r="U23" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V23" s="1"/>
-      <c r="W23" s="35" t="s">
+      <c r="W23" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X23" s="17" t="s">
+      <c r="X23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y23" s="59" t="s">
+      <c r="Y23" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z23" s="35" t="s">
+      <c r="Z23" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA23" s="17" t="s">
+      <c r="AA23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB23" s="59" t="s">
+      <c r="AB23" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="63" t="s">
+      <c r="AD23" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="AE23" s="63" t="s">
+      <c r="AE23" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="AF23" s="63" t="s">
+      <c r="AF23" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="AG23" s="63" t="s">
+      <c r="AG23" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="62" t="s">
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="13">
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="65">
         <v>0.01</v>
       </c>
       <c r="AM23" t="s">
         <v>254</v>
       </c>
-      <c r="AN23" s="44" t="s">
+      <c r="AN23" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP23" s="44" t="s">
+      <c r="AP23" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ23" s="1" t="s">
@@ -5991,16 +5997,16 @@
       <c r="BA23">
         <v>250</v>
       </c>
-      <c r="BC23" s="60"/>
-      <c r="BD23" s="60"/>
-      <c r="BE23" s="60"/>
-      <c r="BF23" s="60"/>
-      <c r="BH23" s="26"/>
-      <c r="BI23" s="27"/>
-      <c r="BJ23" s="27"/>
+      <c r="BC23" s="58"/>
+      <c r="BD23" s="58"/>
+      <c r="BE23" s="58"/>
+      <c r="BF23" s="58"/>
+      <c r="BH23" s="25"/>
+      <c r="BI23" s="26"/>
+      <c r="BJ23" s="26"/>
       <c r="BK23"/>
       <c r="BL23"/>
-      <c r="BM23" s="27"/>
+      <c r="BM23" s="26"/>
       <c r="BR23"/>
       <c r="BS23"/>
       <c r="BT23"/>
@@ -6015,97 +6021,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>22</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="28" t="s">
         <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="20"/>
-      <c r="T24" s="17" t="s">
+      <c r="M24" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N24" s="31"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="19"/>
+      <c r="T24" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="U24" s="17" t="s">
+      <c r="U24" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V24" s="1"/>
-      <c r="W24" s="35" t="s">
+      <c r="W24" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X24" s="17" t="s">
+      <c r="X24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y24" s="59" t="s">
+      <c r="Y24" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z24" s="35" t="s">
+      <c r="Z24" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA24" s="17" t="s">
+      <c r="AA24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB24" s="59" t="s">
+      <c r="AB24" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="63" t="s">
+      <c r="AD24" s="60" t="s">
         <v>318</v>
       </c>
-      <c r="AE24" s="63" t="s">
+      <c r="AE24" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="AF24" s="63" t="s">
+      <c r="AF24" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="AG24" s="63" t="s">
+      <c r="AG24" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="62" t="s">
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="AJ24" s="58"/>
-      <c r="AK24" s="13">
+      <c r="AJ24" s="64"/>
+      <c r="AK24" s="65">
         <v>0.01</v>
       </c>
       <c r="AM24" t="s">
         <v>254</v>
       </c>
-      <c r="AN24" s="44" t="s">
+      <c r="AN24" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO24" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP24" s="44" t="s">
+      <c r="AP24" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ24" s="1" t="s">
@@ -6135,16 +6141,16 @@
       <c r="BA24">
         <v>250</v>
       </c>
-      <c r="BC24" s="60"/>
-      <c r="BD24" s="60"/>
-      <c r="BE24" s="60"/>
-      <c r="BF24" s="60"/>
-      <c r="BH24" s="26"/>
-      <c r="BI24" s="27"/>
-      <c r="BJ24" s="27"/>
+      <c r="BC24" s="58"/>
+      <c r="BD24" s="58"/>
+      <c r="BE24" s="58"/>
+      <c r="BF24" s="58"/>
+      <c r="BH24" s="25"/>
+      <c r="BI24" s="26"/>
+      <c r="BJ24" s="26"/>
       <c r="BK24"/>
       <c r="BL24"/>
-      <c r="BM24" s="27"/>
+      <c r="BM24" s="26"/>
       <c r="BR24"/>
       <c r="BS24"/>
       <c r="BT24"/>
@@ -6159,97 +6165,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>23</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="28" t="s">
         <v>109</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="32" t="s">
+      <c r="K25" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="L25" s="32" t="s">
+      <c r="L25" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="M25" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N25" s="32"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="20"/>
-      <c r="T25" s="17" t="s">
+      <c r="M25" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N25" s="31"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="19"/>
+      <c r="T25" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="U25" s="17" t="s">
+      <c r="U25" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V25" s="1"/>
-      <c r="W25" s="35" t="s">
+      <c r="W25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X25" s="17" t="s">
+      <c r="X25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y25" s="59" t="s">
+      <c r="Y25" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z25" s="35" t="s">
+      <c r="Z25" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA25" s="17" t="s">
+      <c r="AA25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB25" s="59" t="s">
+      <c r="AB25" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="63" t="s">
+      <c r="AD25" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="AE25" s="63" t="s">
+      <c r="AE25" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="AF25" s="63" t="s">
+      <c r="AF25" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="AG25" s="63" t="s">
+      <c r="AG25" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="62" t="s">
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="13">
+      <c r="AJ25" s="64"/>
+      <c r="AK25" s="65">
         <v>0.01</v>
       </c>
       <c r="AM25" t="s">
         <v>254</v>
       </c>
-      <c r="AN25" s="44" t="s">
+      <c r="AN25" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO25" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP25" s="44" t="s">
+      <c r="AP25" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ25" s="1" t="s">
@@ -6279,16 +6285,16 @@
       <c r="BA25">
         <v>250</v>
       </c>
-      <c r="BC25" s="60"/>
-      <c r="BD25" s="60"/>
-      <c r="BE25" s="60"/>
-      <c r="BF25" s="60"/>
-      <c r="BH25" s="26"/>
-      <c r="BI25" s="27"/>
-      <c r="BJ25" s="27"/>
+      <c r="BC25" s="58"/>
+      <c r="BD25" s="58"/>
+      <c r="BE25" s="58"/>
+      <c r="BF25" s="58"/>
+      <c r="BH25" s="25"/>
+      <c r="BI25" s="26"/>
+      <c r="BJ25" s="26"/>
       <c r="BK25"/>
       <c r="BL25"/>
-      <c r="BM25" s="27"/>
+      <c r="BM25" s="26"/>
       <c r="BR25"/>
       <c r="BS25"/>
       <c r="BT25"/>
@@ -6303,97 +6309,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>24</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="28" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="M26" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N26" s="32"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="20"/>
-      <c r="T26" s="17" t="s">
+      <c r="M26" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N26" s="31"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="19"/>
+      <c r="T26" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="U26" s="17" t="s">
+      <c r="U26" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V26" s="1"/>
-      <c r="W26" s="35" t="s">
+      <c r="W26" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X26" s="17" t="s">
+      <c r="X26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y26" s="59" t="s">
+      <c r="Y26" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z26" s="35" t="s">
+      <c r="Z26" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA26" s="17" t="s">
+      <c r="AA26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB26" s="59" t="s">
+      <c r="AB26" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="63" t="s">
+      <c r="AD26" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="AE26" s="63" t="s">
+      <c r="AE26" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="AF26" s="63" t="s">
+      <c r="AF26" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="AG26" s="63" t="s">
+      <c r="AG26" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="62" t="s">
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="13">
+      <c r="AJ26" s="64"/>
+      <c r="AK26" s="65">
         <v>0.01</v>
       </c>
       <c r="AM26" t="s">
         <v>254</v>
       </c>
-      <c r="AN26" s="44" t="s">
+      <c r="AN26" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO26" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP26" s="44" t="s">
+      <c r="AP26" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ26" s="1" t="s">
@@ -6423,16 +6429,16 @@
       <c r="BA26">
         <v>250</v>
       </c>
-      <c r="BC26" s="60"/>
-      <c r="BD26" s="60"/>
-      <c r="BE26" s="60"/>
-      <c r="BF26" s="60"/>
-      <c r="BH26" s="26"/>
-      <c r="BI26" s="27"/>
-      <c r="BJ26" s="27"/>
+      <c r="BC26" s="58"/>
+      <c r="BD26" s="58"/>
+      <c r="BE26" s="58"/>
+      <c r="BF26" s="58"/>
+      <c r="BH26" s="25"/>
+      <c r="BI26" s="26"/>
+      <c r="BJ26" s="26"/>
       <c r="BK26"/>
       <c r="BL26"/>
-      <c r="BM26" s="27"/>
+      <c r="BM26" s="26"/>
       <c r="BR26"/>
       <c r="BS26"/>
       <c r="BT26"/>
@@ -6447,97 +6453,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>25</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>111</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="M27" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="20"/>
-      <c r="T27" s="17" t="s">
+      <c r="M27" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N27" s="31"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="19"/>
+      <c r="T27" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="U27" s="17" t="s">
+      <c r="U27" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V27" s="1"/>
-      <c r="W27" s="35" t="s">
+      <c r="W27" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="17" t="s">
+      <c r="X27" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y27" s="59" t="s">
+      <c r="Y27" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z27" s="35" t="s">
+      <c r="Z27" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA27" s="17" t="s">
+      <c r="AA27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB27" s="59" t="s">
+      <c r="AB27" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="63" t="s">
+      <c r="AD27" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="AE27" s="63" t="s">
+      <c r="AE27" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="AF27" s="63" t="s">
+      <c r="AF27" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="AG27" s="63" t="s">
+      <c r="AG27" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="62" t="s">
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="AJ27" s="58"/>
-      <c r="AK27" s="13">
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="65">
         <v>0.01</v>
       </c>
       <c r="AM27" t="s">
         <v>254</v>
       </c>
-      <c r="AN27" s="44" t="s">
+      <c r="AN27" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO27" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP27" s="44" t="s">
+      <c r="AP27" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ27" s="1" t="s">
@@ -6567,16 +6573,16 @@
       <c r="BA27">
         <v>250</v>
       </c>
-      <c r="BC27" s="60"/>
-      <c r="BD27" s="60"/>
-      <c r="BE27" s="60"/>
-      <c r="BF27" s="60"/>
-      <c r="BH27" s="26"/>
-      <c r="BI27" s="27"/>
-      <c r="BJ27" s="27"/>
+      <c r="BC27" s="58"/>
+      <c r="BD27" s="58"/>
+      <c r="BE27" s="58"/>
+      <c r="BF27" s="58"/>
+      <c r="BH27" s="25"/>
+      <c r="BI27" s="26"/>
+      <c r="BJ27" s="26"/>
       <c r="BK27"/>
       <c r="BL27"/>
-      <c r="BM27" s="27"/>
+      <c r="BM27" s="26"/>
       <c r="BR27"/>
       <c r="BS27"/>
       <c r="BT27"/>
@@ -6591,97 +6597,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>26</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="L28" s="32" t="s">
+      <c r="L28" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="M28" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N28" s="32"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="20"/>
-      <c r="T28" s="17" t="s">
+      <c r="M28" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N28" s="31"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="19"/>
+      <c r="T28" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="U28" s="17" t="s">
+      <c r="U28" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V28" s="1"/>
-      <c r="W28" s="35" t="s">
+      <c r="W28" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X28" s="17" t="s">
+      <c r="X28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y28" s="59" t="s">
+      <c r="Y28" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z28" s="35" t="s">
+      <c r="Z28" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA28" s="17" t="s">
+      <c r="AA28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB28" s="59" t="s">
+      <c r="AB28" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="63" t="s">
+      <c r="AD28" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="AE28" s="63" t="s">
+      <c r="AE28" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="AF28" s="63" t="s">
+      <c r="AF28" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="AG28" s="63" t="s">
+      <c r="AG28" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="62" t="s">
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="AJ28" s="58"/>
-      <c r="AK28" s="13">
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="65">
         <v>0.01</v>
       </c>
       <c r="AM28" t="s">
         <v>254</v>
       </c>
-      <c r="AN28" s="44" t="s">
+      <c r="AN28" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO28" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP28" s="44" t="s">
+      <c r="AP28" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ28" s="1" t="s">
@@ -6711,16 +6717,16 @@
       <c r="BA28">
         <v>250</v>
       </c>
-      <c r="BC28" s="60"/>
-      <c r="BD28" s="60"/>
-      <c r="BE28" s="60"/>
-      <c r="BF28" s="60"/>
-      <c r="BH28" s="26"/>
-      <c r="BI28" s="27"/>
-      <c r="BJ28" s="27"/>
+      <c r="BC28" s="58"/>
+      <c r="BD28" s="58"/>
+      <c r="BE28" s="58"/>
+      <c r="BF28" s="58"/>
+      <c r="BH28" s="25"/>
+      <c r="BI28" s="26"/>
+      <c r="BJ28" s="26"/>
       <c r="BK28"/>
       <c r="BL28"/>
-      <c r="BM28" s="27"/>
+      <c r="BM28" s="26"/>
       <c r="BR28"/>
       <c r="BS28"/>
       <c r="BT28"/>
@@ -6735,97 +6741,97 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>27</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>113</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="M29" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="N29" s="32"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="20"/>
-      <c r="T29" s="17" t="s">
+      <c r="M29" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N29" s="31"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="19"/>
+      <c r="T29" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="U29" s="17" t="s">
+      <c r="U29" s="16" t="s">
         <v>82</v>
       </c>
       <c r="V29" s="1"/>
-      <c r="W29" s="35" t="s">
+      <c r="W29" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X29" s="17" t="s">
+      <c r="X29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y29" s="59" t="s">
+      <c r="Y29" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Z29" s="35" t="s">
+      <c r="Z29" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA29" s="17" t="s">
+      <c r="AA29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB29" s="59" t="s">
+      <c r="AB29" s="57" t="s">
         <v>81</v>
       </c>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="63" t="s">
+      <c r="AD29" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="AE29" s="63" t="s">
+      <c r="AE29" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="AF29" s="63" t="s">
+      <c r="AF29" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="AG29" s="63" t="s">
+      <c r="AG29" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="62" t="s">
+      <c r="AH29" s="60"/>
+      <c r="AI29" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="AJ29" s="58"/>
-      <c r="AK29" s="13">
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="65">
         <v>0.01</v>
       </c>
       <c r="AM29" t="s">
         <v>254</v>
       </c>
-      <c r="AN29" s="44" t="s">
+      <c r="AN29" s="43" t="s">
         <v>252</v>
       </c>
       <c r="AO29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP29" s="44" t="s">
+      <c r="AP29" s="43" t="s">
         <v>253</v>
       </c>
       <c r="AQ29" s="1" t="s">
@@ -6855,16 +6861,16 @@
       <c r="BA29">
         <v>250</v>
       </c>
-      <c r="BC29" s="60"/>
-      <c r="BD29" s="60"/>
-      <c r="BE29" s="60"/>
-      <c r="BF29" s="60"/>
-      <c r="BH29" s="26"/>
-      <c r="BI29" s="27"/>
-      <c r="BJ29" s="27"/>
+      <c r="BC29" s="58"/>
+      <c r="BD29" s="58"/>
+      <c r="BE29" s="58"/>
+      <c r="BF29" s="58"/>
+      <c r="BH29" s="25"/>
+      <c r="BI29" s="26"/>
+      <c r="BJ29" s="26"/>
       <c r="BK29"/>
       <c r="BL29"/>
-      <c r="BM29" s="27"/>
+      <c r="BM29" s="26"/>
       <c r="BR29"/>
       <c r="BS29"/>
       <c r="BT29"/>
@@ -6942,9 +6948,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -6962,24 +6978,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
@@ -6989,14 +6995,6 @@
     <mergeCell ref="BO1:BP1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="AJ3:AJ29">
-    <cfRule type="containsBlanks" dxfId="4" priority="9" stopIfTrue="1">
-      <formula>LEN(TRIM(AJ3))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
-      <formula>0.02</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A3:A1048576">
     <cfRule type="iconSet" priority="8">
       <iconSet showValue="0">

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="2140" windowWidth="37620" windowHeight="23840" tabRatio="500"/>
+    <workbookView xWindow="900" yWindow="940" windowWidth="26720" windowHeight="20520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="348">
   <si>
     <t>Country</t>
   </si>
@@ -1130,16 +1130,57 @@
   <si>
     <t>no</t>
   </si>
+  <si>
+    <t>Time of sampling (optional)</t>
+  </si>
+  <si>
+    <t>13:01:15</t>
+  </si>
+  <si>
+    <t>12:15:24</t>
+  </si>
+  <si>
+    <t>16:47:16</t>
+  </si>
+  <si>
+    <t>05:44:00</t>
+  </si>
+  <si>
+    <t>07:42:42</t>
+  </si>
+  <si>
+    <t>09:15:36</t>
+  </si>
+  <si>
+    <t>07:35:15</t>
+  </si>
+  <si>
+    <t>06:34:58</t>
+  </si>
+  <si>
+    <t>09:52:02</t>
+  </si>
+  <si>
+    <t>Boat name (vessel)</t>
+  </si>
+  <si>
+    <t>Dingui</t>
+  </si>
+  <si>
+    <t>MedEx</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1300,6 +1341,21 @@
       <color rgb="FF000000"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1372,7 +1428,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="291">
+  <cellStyleXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1664,8 +1720,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1711,7 +1769,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1792,9 +1849,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1803,8 +1857,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="291"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="291">
+  <cellStyles count="293">
     <cellStyle name="Excel Built-in Normal" xfId="267"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1961,6 +2022,7 @@
     <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2096,8 +2158,9 @@
     <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="290" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="291"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
       <font>
         <color auto="1"/>
@@ -2126,28 +2189,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2486,40 +2527,40 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ51"/>
+  <dimension ref="A1:CB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AF37" sqref="AF37"/>
+      <selection pane="bottomLeft" activeCell="BM25" sqref="BM25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8" style="28" customWidth="1"/>
-    <col min="4" max="4" width="27" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8" style="27" customWidth="1"/>
+    <col min="4" max="4" width="27" style="27" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15" style="31" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="31" customWidth="1"/>
-    <col min="12" max="13" width="22" style="31" customWidth="1"/>
+    <col min="7" max="7" width="15" style="30" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="30" customWidth="1"/>
+    <col min="12" max="13" width="22" style="30" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="14" style="42" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" style="38" customWidth="1"/>
+    <col min="16" max="16" width="14" style="41" customWidth="1"/>
     <col min="17" max="18" width="16.83203125" customWidth="1"/>
     <col min="19" max="19" width="11.5" customWidth="1"/>
     <col min="20" max="20" width="33" style="16" customWidth="1"/>
     <col min="21" max="21" width="32.5" style="16" customWidth="1"/>
     <col min="22" max="22" width="9.83203125" customWidth="1"/>
-    <col min="23" max="23" width="25.5" style="34" customWidth="1"/>
+    <col min="23" max="23" width="25.5" style="33" customWidth="1"/>
     <col min="24" max="24" width="20.1640625" style="16" customWidth="1"/>
     <col min="25" max="25" width="22" style="19" customWidth="1"/>
-    <col min="26" max="26" width="17.83203125" style="34" customWidth="1"/>
+    <col min="26" max="26" width="17.83203125" style="33" customWidth="1"/>
     <col min="27" max="27" width="21.5" style="16" customWidth="1"/>
     <col min="28" max="28" width="27.6640625" style="20" customWidth="1"/>
     <col min="29" max="29" width="9.83203125" customWidth="1"/>
@@ -2533,9 +2574,9 @@
     <col min="37" max="37" width="10.33203125" customWidth="1"/>
     <col min="38" max="38" width="11.5" customWidth="1"/>
     <col min="39" max="39" width="28.33203125" customWidth="1"/>
-    <col min="40" max="40" width="12.1640625" style="43" customWidth="1"/>
+    <col min="40" max="40" width="12.1640625" style="42" customWidth="1"/>
     <col min="41" max="41" width="32.83203125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.83203125" style="43" customWidth="1"/>
+    <col min="42" max="42" width="12.83203125" style="42" customWidth="1"/>
     <col min="43" max="43" width="35.6640625" style="1" customWidth="1"/>
     <col min="44" max="44" width="10.1640625" customWidth="1"/>
     <col min="45" max="45" width="12.5" customWidth="1"/>
@@ -2551,52 +2592,52 @@
     <col min="55" max="57" width="19.83203125" customWidth="1"/>
     <col min="58" max="58" width="20.83203125" customWidth="1"/>
     <col min="59" max="59" width="8.6640625" customWidth="1"/>
-    <col min="60" max="60" width="15.5" customWidth="1"/>
-    <col min="61" max="61" width="13.6640625" style="11" customWidth="1"/>
-    <col min="62" max="62" width="13.1640625" style="11" customWidth="1"/>
-    <col min="63" max="63" width="12.5" style="16" customWidth="1"/>
-    <col min="64" max="64" width="26" style="16" customWidth="1"/>
-    <col min="65" max="65" width="31.33203125" style="16" customWidth="1"/>
-    <col min="66" max="66" width="9" customWidth="1"/>
-    <col min="67" max="67" width="16.5" customWidth="1"/>
-    <col min="68" max="68" width="16" customWidth="1"/>
-    <col min="69" max="69" width="9.5" customWidth="1"/>
-    <col min="70" max="70" width="11" style="22" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" style="22" customWidth="1"/>
-    <col min="72" max="72" width="14.33203125" style="22" customWidth="1"/>
-    <col min="73" max="73" width="12.6640625" style="22" customWidth="1"/>
-    <col min="74" max="74" width="13.6640625" style="22" customWidth="1"/>
-    <col min="75" max="75" width="15.33203125" style="22" customWidth="1"/>
-    <col min="76" max="76" width="15.5" style="22" customWidth="1"/>
-    <col min="77" max="77" width="14.6640625" style="22" customWidth="1"/>
-    <col min="78" max="78" width="9.6640625" customWidth="1"/>
+    <col min="60" max="61" width="15.5" customWidth="1"/>
+    <col min="62" max="62" width="13.6640625" style="11" customWidth="1"/>
+    <col min="63" max="63" width="13.1640625" style="11" customWidth="1"/>
+    <col min="64" max="64" width="12.5" style="16" customWidth="1"/>
+    <col min="65" max="65" width="26" style="16" customWidth="1"/>
+    <col min="66" max="66" width="31.33203125" style="16" customWidth="1"/>
+    <col min="67" max="67" width="9" customWidth="1"/>
+    <col min="68" max="68" width="16.5" customWidth="1"/>
+    <col min="69" max="69" width="16" customWidth="1"/>
+    <col min="70" max="70" width="9.5" customWidth="1"/>
+    <col min="71" max="72" width="11" style="22" customWidth="1"/>
+    <col min="73" max="73" width="11.6640625" style="22" customWidth="1"/>
+    <col min="74" max="74" width="14.33203125" style="22" customWidth="1"/>
+    <col min="75" max="75" width="12.6640625" style="22" customWidth="1"/>
+    <col min="76" max="76" width="13.6640625" style="22" customWidth="1"/>
+    <col min="77" max="77" width="15.33203125" style="22" customWidth="1"/>
+    <col min="78" max="78" width="15.5" style="22" customWidth="1"/>
+    <col min="79" max="79" width="14.6640625" style="22" customWidth="1"/>
+    <col min="80" max="80" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="9"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="40"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="39"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="17"/>
-      <c r="W1" s="33"/>
+      <c r="W1" s="32"/>
       <c r="X1" s="17"/>
       <c r="Y1" s="18"/>
-      <c r="Z1" s="35"/>
+      <c r="Z1" s="34"/>
       <c r="AA1" s="17"/>
       <c r="AB1" s="3"/>
       <c r="AD1" s="3"/>
@@ -2608,9 +2649,9 @@
       <c r="AJ1" s="14"/>
       <c r="AK1" s="3"/>
       <c r="AM1" s="8"/>
-      <c r="AN1" s="27"/>
+      <c r="AN1" s="26"/>
       <c r="AO1" s="9"/>
-      <c r="AP1" s="27"/>
+      <c r="AP1" s="26"/>
       <c r="AQ1" s="7"/>
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
@@ -2621,288 +2662,296 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
       <c r="BA1" s="10"/>
-      <c r="BC1" s="62" t="s">
+      <c r="BC1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BH1" s="62" t="s">
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BH1" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BO1" s="62" t="s">
+      <c r="BI1" s="65"/>
+      <c r="BJ1" s="65"/>
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BP1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="62"/>
-      <c r="BR1" s="8" t="s">
+      <c r="BQ1" s="65"/>
+      <c r="BS1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="21"/>
+      <c r="BT1" s="8"/>
       <c r="BU1" s="21"/>
       <c r="BV1" s="21"/>
       <c r="BW1" s="21"/>
       <c r="BX1" s="21"/>
       <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
     </row>
-    <row r="2" spans="1:78" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:80" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="44" t="s">
+      <c r="S2" s="45"/>
+      <c r="T2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="46"/>
-      <c r="W2" s="44" t="s">
+      <c r="V2" s="45"/>
+      <c r="W2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="Z2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="44" t="s">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AE2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AG2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AH2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AJ2" s="48" t="s">
+      <c r="AJ2" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="44" t="s">
+      <c r="AK2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="44" t="s">
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="44" t="s">
+      <c r="AN2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="44" t="s">
+      <c r="AO2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="44" t="s">
+      <c r="AP2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="44" t="s">
+      <c r="AQ2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="44" t="s">
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="44" t="s">
+      <c r="AT2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AU2" s="44" t="s">
+      <c r="AU2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="44" t="s">
+      <c r="AV2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AW2" s="44" t="s">
+      <c r="AW2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="AX2" s="44" t="s">
+      <c r="AX2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="AY2" s="44" t="s">
+      <c r="AY2" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="AZ2" s="44" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="BA2" s="44" t="s">
+      <c r="BA2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="50" t="s">
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="BD2" s="50" t="s">
+      <c r="BD2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="BE2" s="50" t="s">
+      <c r="BE2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="BF2" s="50" t="s">
+      <c r="BF2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="51" t="s">
+      <c r="BG2" s="48"/>
+      <c r="BH2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="BI2" s="51" t="s">
+      <c r="BI2" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="BJ2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="51" t="s">
+      <c r="BK2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="BK2" s="51" t="s">
+      <c r="BL2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="BL2" s="51" t="s">
+      <c r="BM2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="BM2" s="51" t="s">
+      <c r="BN2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="52" t="s">
+      <c r="BO2" s="48"/>
+      <c r="BP2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="BP2" s="52" t="s">
+      <c r="BQ2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="53" t="s">
+      <c r="BR2" s="48"/>
+      <c r="BS2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="BS2" s="53" t="s">
+      <c r="BT2" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="BU2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="BT2" s="53" t="s">
+      <c r="BV2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="BU2" s="53" t="s">
+      <c r="BW2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="BV2" s="53" t="s">
+      <c r="BX2" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="BW2" s="53" t="s">
+      <c r="BY2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="BX2" s="53" t="s">
+      <c r="BZ2" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="53" t="s">
+      <c r="CA2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="49"/>
+      <c r="CB2" s="48"/>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BM3,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BN3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N3" s="31" t="s">
+      <c r="M3" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="55"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="54"/>
       <c r="R3" s="19"/>
       <c r="S3" t="s">
         <v>49</v>
@@ -2914,57 +2963,57 @@
         <v>82</v>
       </c>
       <c r="V3" s="1"/>
-      <c r="W3" s="34" t="s">
+      <c r="W3" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="Y3" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="57" t="s">
+      <c r="AB3" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="60" t="s">
+      <c r="AD3" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="AE3" s="60" t="s">
+      <c r="AE3" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="AF3" s="60" t="s">
+      <c r="AF3" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="AG3" s="60" t="s">
+      <c r="AG3" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="63" t="s">
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="65">
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="63">
         <v>0.01</v>
       </c>
       <c r="AM3" t="s">
         <v>254</v>
       </c>
-      <c r="AN3" s="43" t="s">
+      <c r="AN3" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP3" s="43" t="s">
+      <c r="AP3" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ3" s="1" t="s">
@@ -2997,66 +3046,78 @@
       <c r="BA3">
         <v>250</v>
       </c>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="58"/>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="58"/>
-      <c r="BH3" s="25"/>
-      <c r="BI3" s="26"/>
-      <c r="BJ3" s="26"/>
-      <c r="BK3"/>
-      <c r="BL3"/>
-      <c r="BM3" s="26"/>
-      <c r="BR3"/>
-      <c r="BS3"/>
-      <c r="BT3"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="57"/>
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57"/>
+      <c r="BH3" s="66">
+        <v>41226</v>
+      </c>
+      <c r="BI3" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="BJ3" s="25"/>
+      <c r="BK3" s="25"/>
+      <c r="BL3" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM3"/>
+      <c r="BN3" s="25"/>
+      <c r="BS3">
+        <v>1.5</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>345</v>
+      </c>
       <c r="BU3"/>
       <c r="BV3"/>
       <c r="BW3"/>
       <c r="BX3"/>
       <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D4,"&lt;&gt;"&amp;"")+COUNTIF(BN4,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="M4" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N4" s="31" t="s">
+      <c r="M4" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="55"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="54"/>
       <c r="R4" s="19"/>
       <c r="S4" t="s">
         <v>49</v>
@@ -3068,57 +3129,57 @@
         <v>82</v>
       </c>
       <c r="V4" s="1"/>
-      <c r="W4" s="34" t="s">
+      <c r="W4" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="57" t="s">
+      <c r="Y4" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="Z4" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB4" s="57" t="s">
+      <c r="AB4" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="60" t="s">
+      <c r="AD4" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="AE4" s="60" t="s">
+      <c r="AE4" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="AF4" s="60" t="s">
+      <c r="AF4" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="AG4" s="60" t="s">
+      <c r="AG4" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="63" t="s">
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="65">
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="63">
         <v>0.01</v>
       </c>
       <c r="AM4" t="s">
         <v>254</v>
       </c>
-      <c r="AN4" s="43" t="s">
+      <c r="AN4" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP4" s="43" t="s">
+      <c r="AP4" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ4" s="1" t="s">
@@ -3151,66 +3212,78 @@
       <c r="BA4">
         <v>250</v>
       </c>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="58"/>
-      <c r="BH4" s="25"/>
-      <c r="BI4" s="26"/>
-      <c r="BJ4" s="26"/>
-      <c r="BK4"/>
-      <c r="BL4"/>
-      <c r="BM4" s="26"/>
-      <c r="BR4"/>
-      <c r="BS4"/>
-      <c r="BT4"/>
+      <c r="BC4" s="57"/>
+      <c r="BD4" s="57"/>
+      <c r="BE4" s="57"/>
+      <c r="BF4" s="57"/>
+      <c r="BH4" s="66">
+        <v>41226</v>
+      </c>
+      <c r="BI4" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="BJ4" s="25"/>
+      <c r="BK4" s="25"/>
+      <c r="BL4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM4"/>
+      <c r="BN4" s="25"/>
+      <c r="BS4">
+        <v>1.5</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>345</v>
+      </c>
       <c r="BU4"/>
       <c r="BV4"/>
       <c r="BW4"/>
       <c r="BX4"/>
       <c r="BY4"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D5,"&lt;&gt;"&amp;"")+COUNTIF(BN5,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="M5" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N5" s="31" t="s">
+      <c r="M5" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N5" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="38"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="55"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="54"/>
       <c r="R5" s="24"/>
       <c r="S5" t="s">
         <v>49</v>
@@ -3222,57 +3295,57 @@
         <v>82</v>
       </c>
       <c r="V5" s="1"/>
-      <c r="W5" s="34" t="s">
+      <c r="W5" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="57" t="s">
+      <c r="Y5" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB5" s="57" t="s">
+      <c r="AB5" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="60" t="s">
+      <c r="AD5" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="AE5" s="60" t="s">
+      <c r="AE5" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="AF5" s="60" t="s">
+      <c r="AF5" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="AG5" s="60" t="s">
+      <c r="AG5" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="63" t="s">
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="65">
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="63">
         <v>0.01</v>
       </c>
       <c r="AM5" t="s">
         <v>254</v>
       </c>
-      <c r="AN5" s="43" t="s">
+      <c r="AN5" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP5" s="43" t="s">
+      <c r="AP5" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ5" s="1" t="s">
@@ -3305,66 +3378,78 @@
       <c r="BA5">
         <v>250</v>
       </c>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="58"/>
-      <c r="BE5" s="58"/>
-      <c r="BF5" s="58"/>
-      <c r="BH5" s="25"/>
-      <c r="BI5" s="26"/>
-      <c r="BJ5" s="26"/>
-      <c r="BK5"/>
-      <c r="BL5"/>
-      <c r="BM5" s="26"/>
-      <c r="BR5"/>
-      <c r="BS5"/>
-      <c r="BT5"/>
+      <c r="BC5" s="57"/>
+      <c r="BD5" s="57"/>
+      <c r="BE5" s="57"/>
+      <c r="BF5" s="57"/>
+      <c r="BH5" s="66">
+        <v>41226</v>
+      </c>
+      <c r="BI5" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="BJ5" s="25"/>
+      <c r="BK5" s="25"/>
+      <c r="BL5" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM5"/>
+      <c r="BN5" s="25"/>
+      <c r="BS5">
+        <v>1.5</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>345</v>
+      </c>
       <c r="BU5"/>
       <c r="BV5"/>
       <c r="BW5"/>
       <c r="BX5"/>
       <c r="BY5"/>
+      <c r="BZ5"/>
+      <c r="CA5"/>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D6,"&lt;&gt;"&amp;"")+COUNTIF(BN6,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B6" s="23">
         <v>4</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N6" s="31" t="s">
+      <c r="M6" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N6" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="56"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="55"/>
       <c r="R6" s="19"/>
       <c r="S6" t="s">
         <v>49</v>
@@ -3376,57 +3461,57 @@
         <v>82</v>
       </c>
       <c r="V6" s="1"/>
-      <c r="W6" s="34" t="s">
+      <c r="W6" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="57" t="s">
+      <c r="Y6" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z6" s="34" t="s">
+      <c r="Z6" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="57" t="s">
+      <c r="AB6" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="60" t="s">
+      <c r="AD6" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="AE6" s="60" t="s">
+      <c r="AE6" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AF6" s="60" t="s">
+      <c r="AF6" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="AG6" s="60" t="s">
+      <c r="AG6" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="63" t="s">
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="65">
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="63">
         <v>0.01</v>
       </c>
       <c r="AM6" t="s">
         <v>254</v>
       </c>
-      <c r="AN6" s="43" t="s">
+      <c r="AN6" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP6" s="43" t="s">
+      <c r="AP6" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ6" s="1" t="s">
@@ -3459,66 +3544,78 @@
       <c r="BA6">
         <v>250</v>
       </c>
-      <c r="BC6" s="58"/>
-      <c r="BD6" s="58"/>
-      <c r="BE6" s="58"/>
-      <c r="BF6" s="58"/>
-      <c r="BH6" s="25"/>
-      <c r="BI6" s="26"/>
-      <c r="BJ6" s="26"/>
-      <c r="BK6"/>
-      <c r="BL6"/>
-      <c r="BM6" s="26"/>
-      <c r="BR6"/>
-      <c r="BS6"/>
-      <c r="BT6"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="57"/>
+      <c r="BF6" s="57"/>
+      <c r="BH6" s="66">
+        <v>41226</v>
+      </c>
+      <c r="BI6" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="BJ6" s="25"/>
+      <c r="BK6" s="25"/>
+      <c r="BL6" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM6"/>
+      <c r="BN6" s="25"/>
+      <c r="BS6">
+        <v>10</v>
+      </c>
+      <c r="BT6" s="68" t="s">
+        <v>346</v>
+      </c>
       <c r="BU6"/>
       <c r="BV6"/>
       <c r="BW6"/>
       <c r="BX6"/>
       <c r="BY6"/>
+      <c r="BZ6"/>
+      <c r="CA6"/>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D7,"&lt;&gt;"&amp;"")+COUNTIF(BN7,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B7" s="23">
         <v>5</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="M7" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N7" s="31" t="s">
+      <c r="M7" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N7" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="55"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="54"/>
       <c r="R7" s="19"/>
       <c r="S7" t="s">
         <v>49</v>
@@ -3530,57 +3627,57 @@
         <v>82</v>
       </c>
       <c r="V7" s="1"/>
-      <c r="W7" s="34" t="s">
+      <c r="W7" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y7" s="57" t="s">
+      <c r="Y7" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z7" s="34" t="s">
+      <c r="Z7" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" s="57" t="s">
+      <c r="AB7" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="60" t="s">
+      <c r="AD7" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="AE7" s="60" t="s">
+      <c r="AE7" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="AF7" s="60" t="s">
+      <c r="AF7" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="AG7" s="60" t="s">
+      <c r="AG7" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="63" t="s">
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="65">
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="63">
         <v>0.01</v>
       </c>
       <c r="AM7" t="s">
         <v>254</v>
       </c>
-      <c r="AN7" s="43" t="s">
+      <c r="AN7" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP7" s="43" t="s">
+      <c r="AP7" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ7" s="1" t="s">
@@ -3613,66 +3710,78 @@
       <c r="BA7">
         <v>250</v>
       </c>
-      <c r="BC7" s="58"/>
-      <c r="BD7" s="58"/>
-      <c r="BE7" s="58"/>
-      <c r="BF7" s="58"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="26"/>
-      <c r="BJ7" s="26"/>
-      <c r="BK7"/>
-      <c r="BL7"/>
-      <c r="BM7" s="26"/>
-      <c r="BR7"/>
-      <c r="BS7"/>
-      <c r="BT7"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="57"/>
+      <c r="BH7" s="66">
+        <v>41226</v>
+      </c>
+      <c r="BI7" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="BJ7" s="25"/>
+      <c r="BK7" s="25"/>
+      <c r="BL7" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM7"/>
+      <c r="BN7" s="25"/>
+      <c r="BS7">
+        <v>10</v>
+      </c>
+      <c r="BT7" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU7"/>
       <c r="BV7"/>
       <c r="BW7"/>
       <c r="BX7"/>
       <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D8,"&lt;&gt;"&amp;"")+COUNTIF(BN8,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B8" s="23">
         <v>6</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N8" s="31" t="s">
+      <c r="M8" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="55"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="54"/>
       <c r="R8" s="24"/>
       <c r="S8" t="s">
         <v>49</v>
@@ -3684,57 +3793,57 @@
         <v>82</v>
       </c>
       <c r="V8" s="1"/>
-      <c r="W8" s="34" t="s">
+      <c r="W8" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y8" s="57" t="s">
+      <c r="Y8" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="34" t="s">
+      <c r="Z8" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB8" s="57" t="s">
+      <c r="AB8" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="60" t="s">
+      <c r="AD8" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="AE8" s="60" t="s">
+      <c r="AE8" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="AF8" s="60" t="s">
+      <c r="AF8" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="AG8" s="60" t="s">
+      <c r="AG8" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="63" t="s">
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="65">
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="63">
         <v>0.01</v>
       </c>
       <c r="AM8" t="s">
         <v>254</v>
       </c>
-      <c r="AN8" s="43" t="s">
+      <c r="AN8" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP8" s="43" t="s">
+      <c r="AP8" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ8" s="1" t="s">
@@ -3767,66 +3876,78 @@
       <c r="BA8">
         <v>250</v>
       </c>
-      <c r="BC8" s="58"/>
-      <c r="BD8" s="58"/>
-      <c r="BE8" s="58"/>
-      <c r="BF8" s="58"/>
-      <c r="BH8" s="25"/>
-      <c r="BI8" s="26"/>
-      <c r="BJ8" s="26"/>
-      <c r="BK8"/>
-      <c r="BL8"/>
-      <c r="BM8" s="26"/>
-      <c r="BR8"/>
-      <c r="BS8"/>
-      <c r="BT8"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="57"/>
+      <c r="BH8" s="66">
+        <v>41226</v>
+      </c>
+      <c r="BI8" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="BJ8" s="25"/>
+      <c r="BK8" s="25"/>
+      <c r="BL8" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM8"/>
+      <c r="BN8" s="25"/>
+      <c r="BS8">
+        <v>10</v>
+      </c>
+      <c r="BT8" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU8"/>
       <c r="BV8"/>
       <c r="BW8"/>
       <c r="BX8"/>
       <c r="BY8"/>
+      <c r="BZ8"/>
+      <c r="CA8"/>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D9,"&lt;&gt;"&amp;"")+COUNTIF(BN9,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B9" s="23">
         <v>7</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="M9" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N9" s="31" t="s">
+      <c r="M9" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="55"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="54"/>
       <c r="R9" s="19"/>
       <c r="S9" t="s">
         <v>49</v>
@@ -3838,57 +3959,57 @@
         <v>82</v>
       </c>
       <c r="V9" s="1"/>
-      <c r="W9" s="34" t="s">
+      <c r="W9" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y9" s="57" t="s">
+      <c r="Y9" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z9" s="34" t="s">
+      <c r="Z9" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB9" s="57" t="s">
+      <c r="AB9" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="60" t="s">
+      <c r="AD9" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="AE9" s="60" t="s">
+      <c r="AE9" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="AF9" s="60" t="s">
+      <c r="AF9" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="AG9" s="60" t="s">
+      <c r="AG9" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="63" t="s">
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="65">
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="63">
         <v>0.01</v>
       </c>
       <c r="AM9" t="s">
         <v>254</v>
       </c>
-      <c r="AN9" s="43" t="s">
+      <c r="AN9" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP9" s="43" t="s">
+      <c r="AP9" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ9" s="1" t="s">
@@ -3921,66 +4042,78 @@
       <c r="BA9">
         <v>250</v>
       </c>
-      <c r="BC9" s="58"/>
-      <c r="BD9" s="58"/>
-      <c r="BE9" s="58"/>
-      <c r="BF9" s="58"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26"/>
-      <c r="BK9"/>
-      <c r="BL9"/>
-      <c r="BM9" s="26"/>
-      <c r="BR9"/>
-      <c r="BS9"/>
-      <c r="BT9"/>
+      <c r="BC9" s="57"/>
+      <c r="BD9" s="57"/>
+      <c r="BE9" s="57"/>
+      <c r="BF9" s="57"/>
+      <c r="BH9" s="66">
+        <v>41226</v>
+      </c>
+      <c r="BI9" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="BJ9" s="25"/>
+      <c r="BK9" s="25"/>
+      <c r="BL9" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM9"/>
+      <c r="BN9" s="25"/>
+      <c r="BS9">
+        <v>5</v>
+      </c>
+      <c r="BT9" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU9"/>
       <c r="BV9"/>
       <c r="BW9"/>
       <c r="BX9"/>
       <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D10,"&lt;&gt;"&amp;"")+COUNTIF(BN10,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B10" s="23">
         <v>8</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="M10" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N10" s="31" t="s">
+      <c r="M10" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="55"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="54"/>
       <c r="R10" s="19"/>
       <c r="S10" t="s">
         <v>49</v>
@@ -3992,57 +4125,57 @@
         <v>82</v>
       </c>
       <c r="V10" s="1"/>
-      <c r="W10" s="34" t="s">
+      <c r="W10" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X10" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y10" s="57" t="s">
+      <c r="Y10" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="34" t="s">
+      <c r="Z10" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="57" t="s">
+      <c r="AB10" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="60" t="s">
+      <c r="AD10" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="AE10" s="60" t="s">
+      <c r="AE10" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="AF10" s="60" t="s">
+      <c r="AF10" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="AG10" s="60" t="s">
+      <c r="AG10" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="63" t="s">
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="65">
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="63">
         <v>0.01</v>
       </c>
       <c r="AM10" t="s">
         <v>254</v>
       </c>
-      <c r="AN10" s="43" t="s">
+      <c r="AN10" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO10" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP10" s="43" t="s">
+      <c r="AP10" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ10" s="1" t="s">
@@ -4075,66 +4208,78 @@
       <c r="BA10">
         <v>250</v>
       </c>
-      <c r="BC10" s="58"/>
-      <c r="BD10" s="58"/>
-      <c r="BE10" s="58"/>
-      <c r="BF10" s="58"/>
-      <c r="BH10" s="25"/>
-      <c r="BI10" s="26"/>
-      <c r="BJ10" s="26"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10" s="26"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
+      <c r="BC10" s="57"/>
+      <c r="BD10" s="57"/>
+      <c r="BE10" s="57"/>
+      <c r="BF10" s="57"/>
+      <c r="BH10" s="66">
+        <v>41226</v>
+      </c>
+      <c r="BI10" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="BJ10" s="25"/>
+      <c r="BK10" s="25"/>
+      <c r="BL10" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM10"/>
+      <c r="BN10" s="25"/>
+      <c r="BS10">
+        <v>5</v>
+      </c>
+      <c r="BT10" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU10"/>
       <c r="BV10"/>
       <c r="BW10"/>
       <c r="BX10"/>
       <c r="BY10"/>
+      <c r="BZ10"/>
+      <c r="CA10"/>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D11,"&lt;&gt;"&amp;"")+COUNTIF(BN11,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B11" s="23">
         <v>9</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="M11" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N11" s="31" t="s">
+      <c r="M11" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N11" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="55"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="54"/>
       <c r="R11" s="19"/>
       <c r="S11" t="s">
         <v>49</v>
@@ -4146,57 +4291,57 @@
         <v>82</v>
       </c>
       <c r="V11" s="1"/>
-      <c r="W11" s="34" t="s">
+      <c r="W11" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y11" s="57" t="s">
+      <c r="Y11" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z11" s="34" t="s">
+      <c r="Z11" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB11" s="57" t="s">
+      <c r="AB11" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="60" t="s">
+      <c r="AD11" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="AE11" s="60" t="s">
+      <c r="AE11" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="AF11" s="60" t="s">
+      <c r="AF11" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="AG11" s="60" t="s">
+      <c r="AG11" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="63" t="s">
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="65">
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="63">
         <v>0.01</v>
       </c>
       <c r="AM11" t="s">
         <v>254</v>
       </c>
-      <c r="AN11" s="43" t="s">
+      <c r="AN11" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP11" s="43" t="s">
+      <c r="AP11" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ11" s="1" t="s">
@@ -4229,66 +4374,78 @@
       <c r="BA11">
         <v>250</v>
       </c>
-      <c r="BC11" s="58"/>
-      <c r="BD11" s="58"/>
-      <c r="BE11" s="58"/>
-      <c r="BF11" s="58"/>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="26"/>
-      <c r="BJ11" s="26"/>
-      <c r="BK11"/>
-      <c r="BL11" s="59"/>
-      <c r="BM11" s="26"/>
-      <c r="BR11"/>
-      <c r="BS11"/>
-      <c r="BT11"/>
+      <c r="BC11" s="57"/>
+      <c r="BD11" s="57"/>
+      <c r="BE11" s="57"/>
+      <c r="BF11" s="57"/>
+      <c r="BH11" s="66">
+        <v>41226</v>
+      </c>
+      <c r="BI11" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="25"/>
+      <c r="BL11" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM11" s="58"/>
+      <c r="BN11" s="25"/>
+      <c r="BS11">
+        <v>5</v>
+      </c>
+      <c r="BT11" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU11"/>
       <c r="BV11"/>
       <c r="BW11"/>
       <c r="BX11"/>
       <c r="BY11"/>
+      <c r="BZ11"/>
+      <c r="CA11"/>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D12,"&lt;&gt;"&amp;"")+COUNTIF(BN12,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B12" s="23">
         <v>10</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N12" s="31" t="s">
+      <c r="M12" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="55"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="54"/>
       <c r="R12" s="24"/>
       <c r="S12" t="s">
         <v>49</v>
@@ -4300,57 +4457,57 @@
         <v>82</v>
       </c>
       <c r="V12" s="1"/>
-      <c r="W12" s="34" t="s">
+      <c r="W12" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="57" t="s">
+      <c r="Y12" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="34" t="s">
+      <c r="Z12" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB12" s="57" t="s">
+      <c r="AB12" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="60" t="s">
+      <c r="AD12" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="AE12" s="60" t="s">
+      <c r="AE12" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="AF12" s="60" t="s">
+      <c r="AF12" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="AG12" s="60" t="s">
+      <c r="AG12" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="AH12" s="60"/>
-      <c r="AI12" s="63" t="s">
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="65">
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="63">
         <v>0.01</v>
       </c>
       <c r="AM12" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="43" t="s">
+      <c r="AN12" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP12" s="43" t="s">
+      <c r="AP12" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ12" s="1" t="s">
@@ -4383,66 +4540,78 @@
       <c r="BA12">
         <v>250</v>
       </c>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="58"/>
-      <c r="BE12" s="58"/>
-      <c r="BF12" s="58"/>
-      <c r="BH12" s="25"/>
-      <c r="BI12" s="26"/>
-      <c r="BJ12" s="26"/>
-      <c r="BK12"/>
-      <c r="BL12" s="59"/>
-      <c r="BM12" s="26"/>
-      <c r="BR12"/>
-      <c r="BS12"/>
-      <c r="BT12"/>
+      <c r="BC12" s="57"/>
+      <c r="BD12" s="57"/>
+      <c r="BE12" s="57"/>
+      <c r="BF12" s="57"/>
+      <c r="BH12" s="66">
+        <v>41227</v>
+      </c>
+      <c r="BI12" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="BJ12" s="25"/>
+      <c r="BK12" s="25"/>
+      <c r="BL12" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM12" s="58"/>
+      <c r="BN12" s="25"/>
+      <c r="BS12">
+        <v>18</v>
+      </c>
+      <c r="BT12" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU12"/>
       <c r="BV12"/>
       <c r="BW12"/>
       <c r="BX12"/>
       <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D13,"&lt;&gt;"&amp;"")+COUNTIF(BN13,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B13" s="23">
         <v>11</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N13" s="31" t="s">
+      <c r="M13" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="55"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="54"/>
       <c r="R13" s="19"/>
       <c r="S13" t="s">
         <v>49</v>
@@ -4454,57 +4623,57 @@
         <v>82</v>
       </c>
       <c r="V13" s="1"/>
-      <c r="W13" s="34" t="s">
+      <c r="W13" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y13" s="57" t="s">
+      <c r="Y13" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z13" s="34" t="s">
+      <c r="Z13" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB13" s="57" t="s">
+      <c r="AB13" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="60" t="s">
+      <c r="AD13" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="AE13" s="60" t="s">
+      <c r="AE13" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="AF13" s="60" t="s">
+      <c r="AF13" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="AG13" s="60" t="s">
+      <c r="AG13" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="63" t="s">
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="65">
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="63">
         <v>0.01</v>
       </c>
       <c r="AM13" t="s">
         <v>254</v>
       </c>
-      <c r="AN13" s="43" t="s">
+      <c r="AN13" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO13" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP13" s="43" t="s">
+      <c r="AP13" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ13" s="1" t="s">
@@ -4537,66 +4706,78 @@
       <c r="BA13">
         <v>250</v>
       </c>
-      <c r="BC13" s="58"/>
-      <c r="BD13" s="58"/>
-      <c r="BE13" s="58"/>
-      <c r="BF13" s="58"/>
-      <c r="BH13" s="25"/>
-      <c r="BI13" s="26"/>
-      <c r="BJ13" s="26"/>
-      <c r="BK13"/>
-      <c r="BL13" s="59"/>
-      <c r="BM13" s="26"/>
-      <c r="BR13"/>
-      <c r="BS13"/>
-      <c r="BT13"/>
+      <c r="BC13" s="57"/>
+      <c r="BD13" s="57"/>
+      <c r="BE13" s="57"/>
+      <c r="BF13" s="57"/>
+      <c r="BH13" s="66">
+        <v>41227</v>
+      </c>
+      <c r="BI13" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="BJ13" s="25"/>
+      <c r="BK13" s="25"/>
+      <c r="BL13" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="25"/>
+      <c r="BS13">
+        <v>18</v>
+      </c>
+      <c r="BT13" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU13"/>
       <c r="BV13"/>
       <c r="BW13"/>
       <c r="BX13"/>
       <c r="BY13"/>
+      <c r="BZ13"/>
+      <c r="CA13"/>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D14,"&lt;&gt;"&amp;"")+COUNTIF(BN14,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B14" s="23">
         <v>12</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>98</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="M14" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N14" s="31" t="s">
+      <c r="M14" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="56"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="55"/>
       <c r="R14" s="19"/>
       <c r="S14" t="s">
         <v>49</v>
@@ -4608,57 +4789,57 @@
         <v>82</v>
       </c>
       <c r="V14" s="1"/>
-      <c r="W14" s="34" t="s">
+      <c r="W14" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X14" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y14" s="57" t="s">
+      <c r="Y14" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z14" s="34" t="s">
+      <c r="Z14" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB14" s="57" t="s">
+      <c r="AB14" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" s="60" t="s">
+      <c r="AD14" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AE14" s="60" t="s">
+      <c r="AE14" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="AF14" s="60" t="s">
+      <c r="AF14" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="AG14" s="60" t="s">
+      <c r="AG14" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="63" t="s">
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="65">
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="63">
         <v>0.01</v>
       </c>
       <c r="AM14" t="s">
         <v>254</v>
       </c>
-      <c r="AN14" s="43" t="s">
+      <c r="AN14" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO14" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP14" s="43" t="s">
+      <c r="AP14" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ14" s="1" t="s">
@@ -4691,66 +4872,78 @@
       <c r="BA14">
         <v>250</v>
       </c>
-      <c r="BC14" s="58"/>
-      <c r="BD14" s="58"/>
-      <c r="BE14" s="58"/>
-      <c r="BF14" s="58"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="26"/>
-      <c r="BJ14" s="26"/>
-      <c r="BK14"/>
-      <c r="BL14" s="59"/>
-      <c r="BM14" s="26"/>
-      <c r="BR14"/>
-      <c r="BS14"/>
-      <c r="BT14"/>
+      <c r="BC14" s="57"/>
+      <c r="BD14" s="57"/>
+      <c r="BE14" s="57"/>
+      <c r="BF14" s="57"/>
+      <c r="BH14" s="66">
+        <v>41227</v>
+      </c>
+      <c r="BI14" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="25"/>
+      <c r="BL14" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM14" s="58"/>
+      <c r="BN14" s="25"/>
+      <c r="BS14">
+        <v>18</v>
+      </c>
+      <c r="BT14" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU14"/>
       <c r="BV14"/>
       <c r="BW14"/>
       <c r="BX14"/>
       <c r="BY14"/>
+      <c r="BZ14"/>
+      <c r="CA14"/>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D15,"&lt;&gt;"&amp;"")+COUNTIF(BN15,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B15" s="23">
         <v>13</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="M15" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N15" s="31" t="s">
+      <c r="M15" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N15" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="55"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="54"/>
       <c r="R15" s="19"/>
       <c r="S15" t="s">
         <v>49</v>
@@ -4762,57 +4955,57 @@
         <v>82</v>
       </c>
       <c r="V15" s="1"/>
-      <c r="W15" s="34" t="s">
+      <c r="W15" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y15" s="57" t="s">
+      <c r="Y15" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z15" s="34" t="s">
+      <c r="Z15" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB15" s="57" t="s">
+      <c r="AB15" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="60" t="s">
+      <c r="AD15" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="AE15" s="60" t="s">
+      <c r="AE15" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="AF15" s="60" t="s">
+      <c r="AF15" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="AG15" s="60" t="s">
+      <c r="AG15" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="63" t="s">
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="65">
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="63">
         <v>0.01</v>
       </c>
       <c r="AM15" t="s">
         <v>254</v>
       </c>
-      <c r="AN15" s="43" t="s">
+      <c r="AN15" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP15" s="43" t="s">
+      <c r="AP15" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ15" s="1" t="s">
@@ -4845,64 +5038,76 @@
       <c r="BA15">
         <v>250</v>
       </c>
-      <c r="BC15" s="58"/>
-      <c r="BD15" s="58"/>
-      <c r="BE15" s="58"/>
-      <c r="BF15" s="58"/>
-      <c r="BH15" s="25"/>
-      <c r="BI15" s="26"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15"/>
-      <c r="BL15" s="59"/>
-      <c r="BM15" s="26"/>
-      <c r="BR15"/>
-      <c r="BS15"/>
-      <c r="BT15"/>
+      <c r="BC15" s="57"/>
+      <c r="BD15" s="57"/>
+      <c r="BE15" s="57"/>
+      <c r="BF15" s="57"/>
+      <c r="BH15" s="66">
+        <v>41227</v>
+      </c>
+      <c r="BI15" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="BJ15" s="25"/>
+      <c r="BK15" s="25"/>
+      <c r="BL15" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM15" s="58"/>
+      <c r="BN15" s="25"/>
+      <c r="BS15">
+        <v>19</v>
+      </c>
+      <c r="BT15" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU15"/>
       <c r="BV15"/>
       <c r="BW15"/>
       <c r="BX15"/>
       <c r="BY15"/>
+      <c r="BZ15"/>
+      <c r="CA15"/>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D16,"&lt;&gt;"&amp;"")+COUNTIF(BN16,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B16" s="23">
         <v>14</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="55"/>
+      <c r="M16" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N16" s="30"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="54"/>
       <c r="R16" s="19"/>
       <c r="T16" s="16" t="s">
         <v>180</v>
@@ -4911,55 +5116,55 @@
         <v>82</v>
       </c>
       <c r="V16" s="1"/>
-      <c r="W16" s="34" t="s">
+      <c r="W16" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X16" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y16" s="57" t="s">
+      <c r="Y16" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z16" s="34" t="s">
+      <c r="Z16" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB16" s="57" t="s">
+      <c r="AB16" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="60" t="s">
+      <c r="AD16" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="AE16" s="60" t="s">
+      <c r="AE16" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="AF16" s="60" t="s">
+      <c r="AF16" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="AG16" s="60" t="s">
+      <c r="AG16" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="63" t="s">
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AJ16" s="64"/>
-      <c r="AK16" s="65">
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="63">
         <v>0.01</v>
       </c>
       <c r="AM16" t="s">
         <v>254</v>
       </c>
-      <c r="AN16" s="43" t="s">
+      <c r="AN16" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP16" s="43" t="s">
+      <c r="AP16" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ16" s="1" t="s">
@@ -4989,64 +5194,76 @@
       <c r="BA16">
         <v>250</v>
       </c>
-      <c r="BC16" s="58"/>
-      <c r="BD16" s="58"/>
-      <c r="BE16" s="58"/>
-      <c r="BF16" s="58"/>
-      <c r="BH16" s="25"/>
-      <c r="BI16" s="26"/>
-      <c r="BJ16" s="26"/>
-      <c r="BK16"/>
-      <c r="BL16" s="59"/>
-      <c r="BM16" s="26"/>
-      <c r="BR16"/>
-      <c r="BS16"/>
-      <c r="BT16"/>
+      <c r="BC16" s="57"/>
+      <c r="BD16" s="57"/>
+      <c r="BE16" s="57"/>
+      <c r="BF16" s="57"/>
+      <c r="BH16" s="66">
+        <v>41227</v>
+      </c>
+      <c r="BI16" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="BJ16" s="25"/>
+      <c r="BK16" s="25"/>
+      <c r="BL16" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM16" s="58"/>
+      <c r="BN16" s="25"/>
+      <c r="BS16">
+        <v>19</v>
+      </c>
+      <c r="BT16" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU16"/>
       <c r="BV16"/>
       <c r="BW16"/>
       <c r="BX16"/>
       <c r="BY16"/>
+      <c r="BZ16"/>
+      <c r="CA16"/>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D17,"&lt;&gt;"&amp;"")+COUNTIF(BN17,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B17" s="23">
         <v>15</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>101</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="M17" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="56"/>
+      <c r="M17" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N17" s="30"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="55"/>
       <c r="R17" s="19"/>
       <c r="T17" s="16" t="s">
         <v>181</v>
@@ -5055,55 +5272,55 @@
         <v>82</v>
       </c>
       <c r="V17" s="1"/>
-      <c r="W17" s="34" t="s">
+      <c r="W17" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y17" s="57" t="s">
+      <c r="Y17" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z17" s="34" t="s">
+      <c r="Z17" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB17" s="57" t="s">
+      <c r="AB17" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="60" t="s">
+      <c r="AD17" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="AE17" s="60" t="s">
+      <c r="AE17" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="AF17" s="60" t="s">
+      <c r="AF17" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="AG17" s="60" t="s">
+      <c r="AG17" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="63" t="s">
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AJ17" s="64"/>
-      <c r="AK17" s="65">
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="63">
         <v>0.01</v>
       </c>
       <c r="AM17" t="s">
         <v>254</v>
       </c>
-      <c r="AN17" s="43" t="s">
+      <c r="AN17" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP17" s="43" t="s">
+      <c r="AP17" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ17" s="1" t="s">
@@ -5133,64 +5350,76 @@
       <c r="BA17">
         <v>250</v>
       </c>
-      <c r="BC17" s="58"/>
-      <c r="BD17" s="58"/>
-      <c r="BE17" s="58"/>
-      <c r="BF17" s="58"/>
-      <c r="BH17" s="25"/>
-      <c r="BI17" s="26"/>
-      <c r="BJ17" s="26"/>
-      <c r="BK17"/>
-      <c r="BL17" s="59"/>
-      <c r="BM17" s="26"/>
-      <c r="BR17"/>
-      <c r="BS17"/>
-      <c r="BT17"/>
+      <c r="BC17" s="57"/>
+      <c r="BD17" s="57"/>
+      <c r="BE17" s="57"/>
+      <c r="BF17" s="57"/>
+      <c r="BH17" s="66">
+        <v>41227</v>
+      </c>
+      <c r="BI17" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="BJ17" s="25"/>
+      <c r="BK17" s="25"/>
+      <c r="BL17" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM17" s="58"/>
+      <c r="BN17" s="25"/>
+      <c r="BS17">
+        <v>19</v>
+      </c>
+      <c r="BT17" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU17"/>
       <c r="BV17"/>
       <c r="BW17"/>
       <c r="BX17"/>
       <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CA17"/>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D18,"&lt;&gt;"&amp;"")+COUNTIF(BN18,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B18" s="23">
         <v>16</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="M18" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="55"/>
+      <c r="M18" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N18" s="30"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="54"/>
       <c r="R18" s="19"/>
       <c r="T18" s="16" t="s">
         <v>182</v>
@@ -5199,55 +5428,55 @@
         <v>82</v>
       </c>
       <c r="V18" s="1"/>
-      <c r="W18" s="34" t="s">
+      <c r="W18" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y18" s="57" t="s">
+      <c r="Y18" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z18" s="34" t="s">
+      <c r="Z18" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB18" s="57" t="s">
+      <c r="AB18" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="60" t="s">
+      <c r="AD18" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="AE18" s="60" t="s">
+      <c r="AE18" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AF18" s="60" t="s">
+      <c r="AF18" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="AG18" s="60" t="s">
+      <c r="AG18" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="63" t="s">
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="AJ18" s="64"/>
-      <c r="AK18" s="65">
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="63">
         <v>0.01</v>
       </c>
       <c r="AM18" t="s">
         <v>254</v>
       </c>
-      <c r="AN18" s="43" t="s">
+      <c r="AN18" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO18" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP18" s="43" t="s">
+      <c r="AP18" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ18" s="1" t="s">
@@ -5277,64 +5506,76 @@
       <c r="BA18">
         <v>250</v>
       </c>
-      <c r="BC18" s="58"/>
-      <c r="BD18" s="58"/>
-      <c r="BE18" s="58"/>
-      <c r="BF18" s="58"/>
-      <c r="BH18" s="25"/>
-      <c r="BI18" s="26"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18"/>
-      <c r="BL18" s="59"/>
-      <c r="BM18" s="26"/>
-      <c r="BR18"/>
-      <c r="BS18"/>
-      <c r="BT18"/>
+      <c r="BC18" s="57"/>
+      <c r="BD18" s="57"/>
+      <c r="BE18" s="57"/>
+      <c r="BF18" s="57"/>
+      <c r="BH18" s="66">
+        <v>41227</v>
+      </c>
+      <c r="BI18" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="BJ18" s="25"/>
+      <c r="BK18" s="25"/>
+      <c r="BL18" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM18" s="58"/>
+      <c r="BN18" s="25"/>
+      <c r="BS18">
+        <v>18</v>
+      </c>
+      <c r="BT18" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU18"/>
       <c r="BV18"/>
       <c r="BW18"/>
       <c r="BX18"/>
       <c r="BY18"/>
+      <c r="BZ18"/>
+      <c r="CA18"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D19,"&lt;&gt;"&amp;"")+COUNTIF(BN19,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B19" s="23">
         <v>17</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="M19" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="55"/>
+      <c r="M19" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N19" s="30"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="54"/>
       <c r="R19" s="19"/>
       <c r="T19" s="16" t="s">
         <v>183</v>
@@ -5343,55 +5584,55 @@
         <v>82</v>
       </c>
       <c r="V19" s="1"/>
-      <c r="W19" s="34" t="s">
+      <c r="W19" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y19" s="57" t="s">
+      <c r="Y19" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z19" s="34" t="s">
+      <c r="Z19" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB19" s="57" t="s">
+      <c r="AB19" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="60" t="s">
+      <c r="AD19" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="AE19" s="60" t="s">
+      <c r="AE19" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="AF19" s="60" t="s">
+      <c r="AF19" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="AG19" s="60" t="s">
+      <c r="AG19" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="63" t="s">
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="65">
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="63">
         <v>0.01</v>
       </c>
       <c r="AM19" t="s">
         <v>254</v>
       </c>
-      <c r="AN19" s="43" t="s">
+      <c r="AN19" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO19" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP19" s="43" t="s">
+      <c r="AP19" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ19" s="1" t="s">
@@ -5421,64 +5662,76 @@
       <c r="BA19">
         <v>250</v>
       </c>
-      <c r="BC19" s="58"/>
-      <c r="BD19" s="58"/>
-      <c r="BE19" s="58"/>
-      <c r="BF19" s="58"/>
-      <c r="BH19" s="25"/>
-      <c r="BI19" s="26"/>
-      <c r="BJ19" s="26"/>
-      <c r="BK19"/>
-      <c r="BL19"/>
-      <c r="BM19" s="26"/>
-      <c r="BR19"/>
-      <c r="BS19"/>
-      <c r="BT19"/>
+      <c r="BC19" s="57"/>
+      <c r="BD19" s="57"/>
+      <c r="BE19" s="57"/>
+      <c r="BF19" s="57"/>
+      <c r="BH19" s="66">
+        <v>41227</v>
+      </c>
+      <c r="BI19" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="BJ19" s="25"/>
+      <c r="BK19" s="25"/>
+      <c r="BL19" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM19"/>
+      <c r="BN19" s="25"/>
+      <c r="BS19">
+        <v>18</v>
+      </c>
+      <c r="BT19" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU19"/>
       <c r="BV19"/>
       <c r="BW19"/>
       <c r="BX19"/>
       <c r="BY19"/>
+      <c r="BZ19"/>
+      <c r="CA19"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D20,"&lt;&gt;"&amp;"")+COUNTIF(BN20,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B20" s="23">
         <v>18</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>104</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="M20" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="55"/>
+      <c r="M20" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N20" s="30"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="54"/>
       <c r="R20" s="19"/>
       <c r="T20" s="16" t="s">
         <v>184</v>
@@ -5487,55 +5740,55 @@
         <v>82</v>
       </c>
       <c r="V20" s="1"/>
-      <c r="W20" s="34" t="s">
+      <c r="W20" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X20" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y20" s="57" t="s">
+      <c r="Y20" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="34" t="s">
+      <c r="Z20" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB20" s="57" t="s">
+      <c r="AB20" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="60" t="s">
+      <c r="AD20" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="AE20" s="60" t="s">
+      <c r="AE20" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="AF20" s="60" t="s">
+      <c r="AF20" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="AG20" s="60" t="s">
+      <c r="AG20" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="63" t="s">
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="AJ20" s="64"/>
-      <c r="AK20" s="65">
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="63">
         <v>0.01</v>
       </c>
       <c r="AM20" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="43" t="s">
+      <c r="AN20" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO20" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP20" s="43" t="s">
+      <c r="AP20" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ20" s="1" t="s">
@@ -5565,64 +5818,76 @@
       <c r="BA20">
         <v>250</v>
       </c>
-      <c r="BC20" s="58"/>
-      <c r="BD20" s="58"/>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="58"/>
-      <c r="BH20" s="25"/>
-      <c r="BI20" s="26"/>
-      <c r="BJ20" s="26"/>
-      <c r="BK20"/>
-      <c r="BL20"/>
-      <c r="BM20" s="26"/>
-      <c r="BR20"/>
-      <c r="BS20"/>
-      <c r="BT20"/>
+      <c r="BC20" s="57"/>
+      <c r="BD20" s="57"/>
+      <c r="BE20" s="57"/>
+      <c r="BF20" s="57"/>
+      <c r="BH20" s="66">
+        <v>41227</v>
+      </c>
+      <c r="BI20" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="BJ20" s="25"/>
+      <c r="BK20" s="25"/>
+      <c r="BL20" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM20"/>
+      <c r="BN20" s="25"/>
+      <c r="BS20">
+        <v>18</v>
+      </c>
+      <c r="BT20" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU20"/>
       <c r="BV20"/>
       <c r="BW20"/>
       <c r="BX20"/>
       <c r="BY20"/>
+      <c r="BZ20"/>
+      <c r="CA20"/>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D21,"&lt;&gt;"&amp;"")+COUNTIF(BN21,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B21" s="23">
         <v>19</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>105</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="M21" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="55"/>
+      <c r="M21" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N21" s="30"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="54"/>
       <c r="R21" s="19"/>
       <c r="T21" s="16" t="s">
         <v>191</v>
@@ -5631,55 +5896,55 @@
         <v>82</v>
       </c>
       <c r="V21" s="1"/>
-      <c r="W21" s="34" t="s">
+      <c r="W21" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y21" s="57" t="s">
+      <c r="Y21" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z21" s="34" t="s">
+      <c r="Z21" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB21" s="57" t="s">
+      <c r="AB21" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="60" t="s">
+      <c r="AD21" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="AE21" s="60" t="s">
+      <c r="AE21" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="AF21" s="60" t="s">
+      <c r="AF21" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="AG21" s="60" t="s">
+      <c r="AG21" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="63" t="s">
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="AJ21" s="64"/>
-      <c r="AK21" s="65">
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="63">
         <v>0.01</v>
       </c>
       <c r="AM21" t="s">
         <v>254</v>
       </c>
-      <c r="AN21" s="43" t="s">
+      <c r="AN21" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO21" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP21" s="43" t="s">
+      <c r="AP21" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ21" s="1" t="s">
@@ -5709,64 +5974,76 @@
       <c r="BA21">
         <v>250</v>
       </c>
-      <c r="BC21" s="58"/>
-      <c r="BD21" s="58"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="58"/>
-      <c r="BH21" s="25"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21"/>
-      <c r="BL21"/>
-      <c r="BM21" s="26"/>
-      <c r="BR21"/>
-      <c r="BS21"/>
-      <c r="BT21"/>
+      <c r="BC21" s="57"/>
+      <c r="BD21" s="57"/>
+      <c r="BE21" s="57"/>
+      <c r="BF21" s="57"/>
+      <c r="BH21" s="66">
+        <v>41233</v>
+      </c>
+      <c r="BI21" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="BJ21" s="25"/>
+      <c r="BK21" s="25"/>
+      <c r="BL21" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM21"/>
+      <c r="BN21" s="25"/>
+      <c r="BS21">
+        <v>3.8</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>345</v>
+      </c>
       <c r="BU21"/>
       <c r="BV21"/>
       <c r="BW21"/>
       <c r="BX21"/>
       <c r="BY21"/>
+      <c r="BZ21"/>
+      <c r="CA21"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D22,"&lt;&gt;"&amp;"")+COUNTIF(BN22,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B22" s="23">
         <v>20</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>106</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="M22" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="55"/>
+      <c r="M22" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N22" s="30"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="54"/>
       <c r="R22" s="19"/>
       <c r="T22" s="16" t="s">
         <v>185</v>
@@ -5775,55 +6052,55 @@
         <v>82</v>
       </c>
       <c r="V22" s="1"/>
-      <c r="W22" s="34" t="s">
+      <c r="W22" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X22" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y22" s="57" t="s">
+      <c r="Y22" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z22" s="34" t="s">
+      <c r="Z22" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB22" s="57" t="s">
+      <c r="AB22" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="60" t="s">
+      <c r="AD22" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="AE22" s="60" t="s">
+      <c r="AE22" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="AF22" s="60" t="s">
+      <c r="AF22" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="AG22" s="60" t="s">
+      <c r="AG22" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="63" t="s">
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="AJ22" s="64"/>
-      <c r="AK22" s="65">
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="63">
         <v>0.01</v>
       </c>
       <c r="AM22" t="s">
         <v>254</v>
       </c>
-      <c r="AN22" s="43" t="s">
+      <c r="AN22" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO22" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP22" s="43" t="s">
+      <c r="AP22" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ22" s="1" t="s">
@@ -5853,64 +6130,76 @@
       <c r="BA22">
         <v>250</v>
       </c>
-      <c r="BC22" s="58"/>
-      <c r="BD22" s="58"/>
-      <c r="BE22" s="58"/>
-      <c r="BF22" s="58"/>
-      <c r="BH22" s="25"/>
-      <c r="BI22" s="26"/>
-      <c r="BJ22" s="26"/>
-      <c r="BK22"/>
-      <c r="BL22"/>
-      <c r="BM22" s="26"/>
-      <c r="BR22"/>
-      <c r="BS22"/>
-      <c r="BT22"/>
+      <c r="BC22" s="57"/>
+      <c r="BD22" s="57"/>
+      <c r="BE22" s="57"/>
+      <c r="BF22" s="57"/>
+      <c r="BH22" s="66">
+        <v>41233</v>
+      </c>
+      <c r="BI22" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="BJ22" s="25"/>
+      <c r="BK22" s="25"/>
+      <c r="BL22" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM22"/>
+      <c r="BN22" s="25"/>
+      <c r="BS22">
+        <v>3.8</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>345</v>
+      </c>
       <c r="BU22"/>
       <c r="BV22"/>
       <c r="BW22"/>
       <c r="BX22"/>
       <c r="BY22"/>
+      <c r="BZ22"/>
+      <c r="CA22"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D23,"&lt;&gt;"&amp;"")+COUNTIF(BN23,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B23" s="23">
         <v>21</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="M23" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="55"/>
+      <c r="M23" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N23" s="30"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="54"/>
       <c r="R23" s="19"/>
       <c r="T23" s="16" t="s">
         <v>186</v>
@@ -5919,55 +6208,55 @@
         <v>82</v>
       </c>
       <c r="V23" s="1"/>
-      <c r="W23" s="34" t="s">
+      <c r="W23" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y23" s="57" t="s">
+      <c r="Y23" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z23" s="34" t="s">
+      <c r="Z23" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB23" s="57" t="s">
+      <c r="AB23" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="60" t="s">
+      <c r="AD23" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="AE23" s="60" t="s">
+      <c r="AE23" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="AF23" s="60" t="s">
+      <c r="AF23" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="AG23" s="60" t="s">
+      <c r="AG23" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="63" t="s">
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="AJ23" s="64"/>
-      <c r="AK23" s="65">
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="63">
         <v>0.01</v>
       </c>
       <c r="AM23" t="s">
         <v>254</v>
       </c>
-      <c r="AN23" s="43" t="s">
+      <c r="AN23" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP23" s="43" t="s">
+      <c r="AP23" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ23" s="1" t="s">
@@ -5997,64 +6286,76 @@
       <c r="BA23">
         <v>250</v>
       </c>
-      <c r="BC23" s="58"/>
-      <c r="BD23" s="58"/>
-      <c r="BE23" s="58"/>
-      <c r="BF23" s="58"/>
-      <c r="BH23" s="25"/>
-      <c r="BI23" s="26"/>
-      <c r="BJ23" s="26"/>
-      <c r="BK23"/>
-      <c r="BL23"/>
-      <c r="BM23" s="26"/>
-      <c r="BR23"/>
-      <c r="BS23"/>
-      <c r="BT23"/>
+      <c r="BC23" s="57"/>
+      <c r="BD23" s="57"/>
+      <c r="BE23" s="57"/>
+      <c r="BF23" s="57"/>
+      <c r="BH23" s="66">
+        <v>41233</v>
+      </c>
+      <c r="BI23" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="BJ23" s="25"/>
+      <c r="BK23" s="25"/>
+      <c r="BL23" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM23"/>
+      <c r="BN23" s="25"/>
+      <c r="BS23">
+        <v>3.8</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>345</v>
+      </c>
       <c r="BU23"/>
       <c r="BV23"/>
       <c r="BW23"/>
       <c r="BX23"/>
       <c r="BY23"/>
+      <c r="BZ23"/>
+      <c r="CA23"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D24,"&lt;&gt;"&amp;"")+COUNTIF(BN24,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B24" s="23">
         <v>22</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="L24" s="31" t="s">
+      <c r="L24" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="M24" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N24" s="31"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="55"/>
+      <c r="M24" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N24" s="30"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="54"/>
       <c r="R24" s="19"/>
       <c r="T24" s="16" t="s">
         <v>187</v>
@@ -6063,55 +6364,55 @@
         <v>82</v>
       </c>
       <c r="V24" s="1"/>
-      <c r="W24" s="34" t="s">
+      <c r="W24" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y24" s="57" t="s">
+      <c r="Y24" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z24" s="34" t="s">
+      <c r="Z24" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB24" s="57" t="s">
+      <c r="AB24" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="60" t="s">
+      <c r="AD24" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="AE24" s="60" t="s">
+      <c r="AE24" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="AF24" s="60" t="s">
+      <c r="AF24" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="AG24" s="60" t="s">
+      <c r="AG24" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="63" t="s">
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="AJ24" s="64"/>
-      <c r="AK24" s="65">
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="63">
         <v>0.01</v>
       </c>
       <c r="AM24" t="s">
         <v>254</v>
       </c>
-      <c r="AN24" s="43" t="s">
+      <c r="AN24" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO24" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP24" s="43" t="s">
+      <c r="AP24" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ24" s="1" t="s">
@@ -6141,64 +6442,76 @@
       <c r="BA24">
         <v>250</v>
       </c>
-      <c r="BC24" s="58"/>
-      <c r="BD24" s="58"/>
-      <c r="BE24" s="58"/>
-      <c r="BF24" s="58"/>
-      <c r="BH24" s="25"/>
-      <c r="BI24" s="26"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24"/>
-      <c r="BL24"/>
-      <c r="BM24" s="26"/>
-      <c r="BR24"/>
-      <c r="BS24"/>
-      <c r="BT24"/>
+      <c r="BC24" s="57"/>
+      <c r="BD24" s="57"/>
+      <c r="BE24" s="57"/>
+      <c r="BF24" s="57"/>
+      <c r="BH24" s="66">
+        <v>41233</v>
+      </c>
+      <c r="BI24" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="BJ24" s="25"/>
+      <c r="BK24" s="25"/>
+      <c r="BL24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM24"/>
+      <c r="BN24" s="25"/>
+      <c r="BS24">
+        <v>5.5</v>
+      </c>
+      <c r="BT24" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU24"/>
       <c r="BV24"/>
       <c r="BW24"/>
       <c r="BX24"/>
       <c r="BY24"/>
+      <c r="BZ24"/>
+      <c r="CA24"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D25,"&lt;&gt;"&amp;"")+COUNTIF(BN25,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B25" s="23">
         <v>23</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>109</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="M25" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N25" s="31"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="55"/>
+      <c r="M25" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N25" s="30"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="54"/>
       <c r="R25" s="19"/>
       <c r="T25" s="16" t="s">
         <v>188</v>
@@ -6207,55 +6520,55 @@
         <v>82</v>
       </c>
       <c r="V25" s="1"/>
-      <c r="W25" s="34" t="s">
+      <c r="W25" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y25" s="57" t="s">
+      <c r="Y25" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z25" s="34" t="s">
+      <c r="Z25" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB25" s="57" t="s">
+      <c r="AB25" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="60" t="s">
+      <c r="AD25" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="AE25" s="60" t="s">
+      <c r="AE25" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="AF25" s="60" t="s">
+      <c r="AF25" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="AG25" s="60" t="s">
+      <c r="AG25" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="63" t="s">
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="AJ25" s="64"/>
-      <c r="AK25" s="65">
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="63">
         <v>0.01</v>
       </c>
       <c r="AM25" t="s">
         <v>254</v>
       </c>
-      <c r="AN25" s="43" t="s">
+      <c r="AN25" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO25" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP25" s="43" t="s">
+      <c r="AP25" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ25" s="1" t="s">
@@ -6285,64 +6598,76 @@
       <c r="BA25">
         <v>250</v>
       </c>
-      <c r="BC25" s="58"/>
-      <c r="BD25" s="58"/>
-      <c r="BE25" s="58"/>
-      <c r="BF25" s="58"/>
-      <c r="BH25" s="25"/>
-      <c r="BI25" s="26"/>
-      <c r="BJ25" s="26"/>
-      <c r="BK25"/>
-      <c r="BL25"/>
-      <c r="BM25" s="26"/>
-      <c r="BR25"/>
-      <c r="BS25"/>
-      <c r="BT25"/>
+      <c r="BC25" s="57"/>
+      <c r="BD25" s="57"/>
+      <c r="BE25" s="57"/>
+      <c r="BF25" s="57"/>
+      <c r="BH25" s="66">
+        <v>41233</v>
+      </c>
+      <c r="BI25" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="BJ25" s="25"/>
+      <c r="BK25" s="25"/>
+      <c r="BL25" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM25"/>
+      <c r="BN25" s="25"/>
+      <c r="BS25">
+        <v>5.5</v>
+      </c>
+      <c r="BT25" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU25"/>
       <c r="BV25"/>
       <c r="BW25"/>
       <c r="BX25"/>
       <c r="BY25"/>
+      <c r="BZ25"/>
+      <c r="CA25"/>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D26,"&lt;&gt;"&amp;"")+COUNTIF(BN26,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B26" s="23">
         <v>24</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K26" s="31" t="s">
+      <c r="K26" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="L26" s="31" t="s">
+      <c r="L26" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="M26" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N26" s="31"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="55"/>
+      <c r="M26" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N26" s="30"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="54"/>
       <c r="R26" s="19"/>
       <c r="T26" s="16" t="s">
         <v>192</v>
@@ -6351,55 +6676,55 @@
         <v>82</v>
       </c>
       <c r="V26" s="1"/>
-      <c r="W26" s="34" t="s">
+      <c r="W26" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y26" s="57" t="s">
+      <c r="Y26" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z26" s="34" t="s">
+      <c r="Z26" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB26" s="57" t="s">
+      <c r="AB26" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="60" t="s">
+      <c r="AD26" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="AE26" s="60" t="s">
+      <c r="AE26" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="AF26" s="60" t="s">
+      <c r="AF26" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="AG26" s="60" t="s">
+      <c r="AG26" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="63" t="s">
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="AJ26" s="64"/>
-      <c r="AK26" s="65">
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="63">
         <v>0.01</v>
       </c>
       <c r="AM26" t="s">
         <v>254</v>
       </c>
-      <c r="AN26" s="43" t="s">
+      <c r="AN26" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO26" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP26" s="43" t="s">
+      <c r="AP26" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ26" s="1" t="s">
@@ -6429,64 +6754,76 @@
       <c r="BA26">
         <v>250</v>
       </c>
-      <c r="BC26" s="58"/>
-      <c r="BD26" s="58"/>
-      <c r="BE26" s="58"/>
-      <c r="BF26" s="58"/>
-      <c r="BH26" s="25"/>
-      <c r="BI26" s="26"/>
-      <c r="BJ26" s="26"/>
-      <c r="BK26"/>
-      <c r="BL26"/>
-      <c r="BM26" s="26"/>
-      <c r="BR26"/>
-      <c r="BS26"/>
-      <c r="BT26"/>
+      <c r="BC26" s="57"/>
+      <c r="BD26" s="57"/>
+      <c r="BE26" s="57"/>
+      <c r="BF26" s="57"/>
+      <c r="BH26" s="66">
+        <v>41233</v>
+      </c>
+      <c r="BI26" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="BJ26" s="25"/>
+      <c r="BK26" s="25"/>
+      <c r="BL26" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM26"/>
+      <c r="BN26" s="25"/>
+      <c r="BS26">
+        <v>5.5</v>
+      </c>
+      <c r="BT26" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU26"/>
       <c r="BV26"/>
       <c r="BW26"/>
       <c r="BX26"/>
       <c r="BY26"/>
+      <c r="BZ26"/>
+      <c r="CA26"/>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D27,"&lt;&gt;"&amp;"")+COUNTIF(BN27,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B27" s="23">
         <v>25</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>111</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="L27" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="M27" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="55"/>
+      <c r="M27" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N27" s="30"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="54"/>
       <c r="R27" s="19"/>
       <c r="T27" s="16" t="s">
         <v>189</v>
@@ -6495,55 +6832,55 @@
         <v>82</v>
       </c>
       <c r="V27" s="1"/>
-      <c r="W27" s="34" t="s">
+      <c r="W27" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X27" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y27" s="57" t="s">
+      <c r="Y27" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z27" s="34" t="s">
+      <c r="Z27" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB27" s="57" t="s">
+      <c r="AB27" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="60" t="s">
+      <c r="AD27" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="AE27" s="60" t="s">
+      <c r="AE27" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="AF27" s="60" t="s">
+      <c r="AF27" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="AG27" s="60" t="s">
+      <c r="AG27" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="63" t="s">
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="AJ27" s="64"/>
-      <c r="AK27" s="65">
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="63">
         <v>0.01</v>
       </c>
       <c r="AM27" t="s">
         <v>254</v>
       </c>
-      <c r="AN27" s="43" t="s">
+      <c r="AN27" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO27" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP27" s="43" t="s">
+      <c r="AP27" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ27" s="1" t="s">
@@ -6573,64 +6910,76 @@
       <c r="BA27">
         <v>250</v>
       </c>
-      <c r="BC27" s="58"/>
-      <c r="BD27" s="58"/>
-      <c r="BE27" s="58"/>
-      <c r="BF27" s="58"/>
-      <c r="BH27" s="25"/>
-      <c r="BI27" s="26"/>
-      <c r="BJ27" s="26"/>
-      <c r="BK27"/>
-      <c r="BL27"/>
-      <c r="BM27" s="26"/>
-      <c r="BR27"/>
-      <c r="BS27"/>
-      <c r="BT27"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="57"/>
+      <c r="BE27" s="57"/>
+      <c r="BF27" s="57"/>
+      <c r="BH27" s="66">
+        <v>41233</v>
+      </c>
+      <c r="BI27" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="BJ27" s="25"/>
+      <c r="BK27" s="25"/>
+      <c r="BL27" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM27"/>
+      <c r="BN27" s="25"/>
+      <c r="BS27">
+        <v>6.5</v>
+      </c>
+      <c r="BT27" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU27"/>
       <c r="BV27"/>
       <c r="BW27"/>
       <c r="BX27"/>
       <c r="BY27"/>
+      <c r="BZ27"/>
+      <c r="CA27"/>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D28,"&lt;&gt;"&amp;"")+COUNTIF(BN28,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B28" s="23">
         <v>26</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="L28" s="31" t="s">
+      <c r="L28" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="M28" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N28" s="31"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="55"/>
+      <c r="M28" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N28" s="30"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="54"/>
       <c r="R28" s="19"/>
       <c r="T28" s="16" t="s">
         <v>193</v>
@@ -6639,55 +6988,55 @@
         <v>82</v>
       </c>
       <c r="V28" s="1"/>
-      <c r="W28" s="34" t="s">
+      <c r="W28" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y28" s="57" t="s">
+      <c r="Y28" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z28" s="34" t="s">
+      <c r="Z28" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB28" s="57" t="s">
+      <c r="AB28" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="60" t="s">
+      <c r="AD28" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="AE28" s="60" t="s">
+      <c r="AE28" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="AF28" s="60" t="s">
+      <c r="AF28" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="AG28" s="60" t="s">
+      <c r="AG28" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="63" t="s">
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="65">
+      <c r="AJ28" s="62"/>
+      <c r="AK28" s="63">
         <v>0.01</v>
       </c>
       <c r="AM28" t="s">
         <v>254</v>
       </c>
-      <c r="AN28" s="43" t="s">
+      <c r="AN28" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO28" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP28" s="43" t="s">
+      <c r="AP28" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ28" s="1" t="s">
@@ -6717,64 +7066,76 @@
       <c r="BA28">
         <v>250</v>
       </c>
-      <c r="BC28" s="58"/>
-      <c r="BD28" s="58"/>
-      <c r="BE28" s="58"/>
-      <c r="BF28" s="58"/>
-      <c r="BH28" s="25"/>
-      <c r="BI28" s="26"/>
-      <c r="BJ28" s="26"/>
-      <c r="BK28"/>
-      <c r="BL28"/>
-      <c r="BM28" s="26"/>
-      <c r="BR28"/>
-      <c r="BS28"/>
-      <c r="BT28"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
+      <c r="BH28" s="66">
+        <v>41233</v>
+      </c>
+      <c r="BI28" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="BJ28" s="25"/>
+      <c r="BK28" s="25"/>
+      <c r="BL28" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM28"/>
+      <c r="BN28" s="25"/>
+      <c r="BS28">
+        <v>6.5</v>
+      </c>
+      <c r="BT28" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU28"/>
       <c r="BV28"/>
       <c r="BW28"/>
       <c r="BX28"/>
       <c r="BY28"/>
+      <c r="BZ28"/>
+      <c r="CA28"/>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D29,"&lt;&gt;"&amp;"")+COUNTIF(BN29,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B29" s="23">
         <v>27</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>113</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="L29" s="31" t="s">
+      <c r="L29" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="M29" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N29" s="31"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="55"/>
+      <c r="M29" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="N29" s="30"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="54"/>
       <c r="R29" s="19"/>
       <c r="T29" s="16" t="s">
         <v>194</v>
@@ -6783,55 +7144,55 @@
         <v>82</v>
       </c>
       <c r="V29" s="1"/>
-      <c r="W29" s="34" t="s">
+      <c r="W29" s="33" t="s">
         <v>77</v>
       </c>
       <c r="X29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y29" s="57" t="s">
+      <c r="Y29" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z29" s="34" t="s">
+      <c r="Z29" s="33" t="s">
         <v>79</v>
       </c>
       <c r="AA29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB29" s="57" t="s">
+      <c r="AB29" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="60" t="s">
+      <c r="AD29" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="AE29" s="60" t="s">
+      <c r="AE29" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="AF29" s="60" t="s">
+      <c r="AF29" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="AG29" s="60" t="s">
+      <c r="AG29" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="63" t="s">
+      <c r="AH29" s="59"/>
+      <c r="AI29" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="65">
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="63">
         <v>0.01</v>
       </c>
       <c r="AM29" t="s">
         <v>254</v>
       </c>
-      <c r="AN29" s="43" t="s">
+      <c r="AN29" s="42" t="s">
         <v>252</v>
       </c>
       <c r="AO29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP29" s="43" t="s">
+      <c r="AP29" s="42" t="s">
         <v>253</v>
       </c>
       <c r="AQ29" s="1" t="s">
@@ -6861,80 +7222,99 @@
       <c r="BA29">
         <v>250</v>
       </c>
-      <c r="BC29" s="58"/>
-      <c r="BD29" s="58"/>
-      <c r="BE29" s="58"/>
-      <c r="BF29" s="58"/>
-      <c r="BH29" s="25"/>
-      <c r="BI29" s="26"/>
-      <c r="BJ29" s="26"/>
-      <c r="BK29"/>
-      <c r="BL29"/>
-      <c r="BM29" s="26"/>
-      <c r="BR29"/>
-      <c r="BS29"/>
-      <c r="BT29"/>
+      <c r="BC29" s="57"/>
+      <c r="BD29" s="57"/>
+      <c r="BE29" s="57"/>
+      <c r="BF29" s="57"/>
+      <c r="BH29" s="66">
+        <v>41233</v>
+      </c>
+      <c r="BI29" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="BJ29" s="25"/>
+      <c r="BK29" s="25"/>
+      <c r="BL29" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM29"/>
+      <c r="BN29" s="25"/>
+      <c r="BS29">
+        <v>6.5</v>
+      </c>
+      <c r="BT29" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="BU29"/>
       <c r="BV29"/>
       <c r="BW29"/>
       <c r="BX29"/>
       <c r="BY29"/>
+      <c r="BZ29"/>
+      <c r="CA29"/>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:79" x14ac:dyDescent="0.2">
       <c r="AK30" s="13"/>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:79" x14ac:dyDescent="0.2">
       <c r="AK31" s="13"/>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:79" x14ac:dyDescent="0.2">
       <c r="AK32" s="13"/>
+      <c r="BI32" s="67"/>
     </row>
-    <row r="33" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK33" s="13"/>
+      <c r="BI33" s="67"/>
     </row>
-    <row r="34" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK34" s="13"/>
+      <c r="BI34" s="67"/>
     </row>
-    <row r="35" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK35" s="13"/>
+      <c r="BI35" s="67"/>
     </row>
-    <row r="36" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK36" s="13"/>
+      <c r="BI36" s="67"/>
     </row>
-    <row r="37" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK37" s="13"/>
+      <c r="BI37" s="67"/>
     </row>
-    <row r="38" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK38" s="13"/>
+      <c r="BI38" s="67"/>
     </row>
-    <row r="39" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK39" s="13"/>
     </row>
-    <row r="40" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK40" s="13"/>
     </row>
-    <row r="41" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK41" s="13"/>
     </row>
-    <row r="42" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK42" s="13"/>
     </row>
-    <row r="43" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK43" s="13"/>
     </row>
-    <row r="44" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK44" s="13"/>
     </row>
-    <row r="45" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="45" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK45" s="13"/>
     </row>
-    <row r="46" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK46" s="13"/>
     </row>
-    <row r="47" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK47" s="13"/>
     </row>
-    <row r="48" spans="37:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="37:61" x14ac:dyDescent="0.2">
       <c r="AK48" s="13"/>
     </row>
     <row r="49" spans="37:37" x14ac:dyDescent="0.2">
@@ -6948,19 +7328,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -6978,9 +7348,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -6988,11 +7358,21 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
     <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BH1:BM1"/>
-    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BH1:BN1"/>
+    <mergeCell ref="BP1:BQ1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A3:A1048576">

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="940" windowWidth="26720" windowHeight="20520" tabRatio="500"/>
+    <workbookView xWindow="6140" yWindow="1980" windowWidth="44080" windowHeight="25000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="400">
   <si>
     <t>Country</t>
   </si>
@@ -1172,13 +1172,169 @@
   <si>
     <t>Israel</t>
   </si>
+  <si>
+    <t>Near Dorad power station</t>
+  </si>
+  <si>
+    <t>Nearer Dorad power station</t>
+  </si>
+  <si>
+    <t>Near Ashkelon</t>
+  </si>
+  <si>
+    <t>Near Palmahim</t>
+  </si>
+  <si>
+    <t>Palmahim coast</t>
+  </si>
+  <si>
+    <t>Nearer Orot Rabin power plant</t>
+  </si>
+  <si>
+    <t>Near Gedor Sea Reserve</t>
+  </si>
+  <si>
+    <t>Near Orot Rabin power plant</t>
+  </si>
+  <si>
+    <t>8511bc3198210a1e0cd5e8c9b637324a</t>
+  </si>
+  <si>
+    <t>047a8ee108bb27f49ed528594bf6d0a8</t>
+  </si>
+  <si>
+    <t>56c7d5330fba5ed7b14932b047c03596</t>
+  </si>
+  <si>
+    <t>d35cdb5a4f9cfe18797f424464de12f5</t>
+  </si>
+  <si>
+    <t>7f6787ea3e324f2e90e0d770cabfa0f0</t>
+  </si>
+  <si>
+    <t>e2d59ea5d7bf5d7cf6f58874d4c2ed08</t>
+  </si>
+  <si>
+    <t>2d4a561351f524a554b8d0425e18a19e</t>
+  </si>
+  <si>
+    <t>5fb1f61812bae135a4fe2f2d6319f8fa</t>
+  </si>
+  <si>
+    <t>50a4524c32be2c5429e4bca8ea093fd6</t>
+  </si>
+  <si>
+    <t>a2c98d76f0641ae7bab0bbe61285cb3a</t>
+  </si>
+  <si>
+    <t>e48a33d9956aad90abfc6c37cd675fc5</t>
+  </si>
+  <si>
+    <t>7a15d0fbbbc0d6120d2f5c8486ee7d4d</t>
+  </si>
+  <si>
+    <t>732160d5f644d5226ef0c6c71493f6b9</t>
+  </si>
+  <si>
+    <t>9f89a5b7d5ec2922771ff01bf1de6cec</t>
+  </si>
+  <si>
+    <t>3ef31ce9f4bff44432e59884887198b2</t>
+  </si>
+  <si>
+    <t>95bc43f970fe906b2c532f603c74a6f3</t>
+  </si>
+  <si>
+    <t>36d55e55b1c607b2100ac4e82558c1d6</t>
+  </si>
+  <si>
+    <t>99179dea456715da3471dfd5c18e4e64</t>
+  </si>
+  <si>
+    <t>207b88113a59aadcb456c2087df15378</t>
+  </si>
+  <si>
+    <t>ee6f6e1e3131938c3959b22a81b600d2</t>
+  </si>
+  <si>
+    <t>cdb5f0be86fbaeea45931f2731ec9fca</t>
+  </si>
+  <si>
+    <t>419958f5b6e95a51309d3e185772e21f</t>
+  </si>
+  <si>
+    <t>7c6d3a88317f117fef419df3b9460d31</t>
+  </si>
+  <si>
+    <t>c3bce9493fab9d4c0c8a6e81b245d466</t>
+  </si>
+  <si>
+    <t>2faf7896d2416d9b436196c87cc0a6ef</t>
+  </si>
+  <si>
+    <t>1e003039892117bc108c6a3f0bcfcb8b</t>
+  </si>
+  <si>
+    <t>b0de3d53105638d85bf4441df22acfde</t>
+  </si>
+  <si>
+    <t>f3eb5028f0d5a53423826659230e1c1f</t>
+  </si>
+  <si>
+    <t>01d37197c23df58b187bd60efc1e0b1f</t>
+  </si>
+  <si>
+    <t>f63ac6429a96c33dac268d77030ce61a</t>
+  </si>
+  <si>
+    <t>6d4fc385c360842ce1ab1a89f1ff7af2</t>
+  </si>
+  <si>
+    <t>3761688d44aafb378599efa70af2c956</t>
+  </si>
+  <si>
+    <t>c7666135294db2faa36ce0ad993f00ea</t>
+  </si>
+  <si>
+    <t>8975ec171784c3f20cc69b4dd51d4542</t>
+  </si>
+  <si>
+    <t>a5e01256600a89d6da74c1585ef2d092</t>
+  </si>
+  <si>
+    <t>7b146d2594c149ed1c5ee5005d68e56c</t>
+  </si>
+  <si>
+    <t>b6e05d1fe7c2921ea4dcb0bf3006c7ee</t>
+  </si>
+  <si>
+    <t>98952afae1ab47969c6b6e0017d53014</t>
+  </si>
+  <si>
+    <t>39b68847b8bd848fed08748f5cbca5c5</t>
+  </si>
+  <si>
+    <t>497d64cc61dd06a69816e123ba621599</t>
+  </si>
+  <si>
+    <t>d4ddf09f5ee7c7d8fb0f3d4af1823e3f</t>
+  </si>
+  <si>
+    <t>3dbbe8445aed5d210175052b9c1672b3</t>
+  </si>
+  <si>
+    <t>9c720889c1555b1ce4410c59cf3ab5c4</t>
+  </si>
+  <si>
+    <t>450667f82bc789cb597fcd7cdbc00e23</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1428,7 +1584,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="293">
+  <cellStyleXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1722,8 +1878,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1792,18 +1951,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1814,7 +1973,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1857,15 +2016,31 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="291" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="291"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="293">
+  <cellStyles count="296">
     <cellStyle name="Excel Built-in Normal" xfId="267"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2023,6 +2198,9 @@
     <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2529,10 +2707,10 @@
   </sheetPr>
   <dimension ref="A1:CB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="BM25" sqref="BM25"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2595,14 +2773,15 @@
     <col min="60" max="61" width="15.5" customWidth="1"/>
     <col min="62" max="62" width="13.6640625" style="11" customWidth="1"/>
     <col min="63" max="63" width="13.1640625" style="11" customWidth="1"/>
-    <col min="64" max="64" width="12.5" style="16" customWidth="1"/>
-    <col min="65" max="65" width="26" style="16" customWidth="1"/>
+    <col min="64" max="64" width="13.1640625" style="68" customWidth="1"/>
+    <col min="65" max="65" width="28" style="16" customWidth="1"/>
     <col min="66" max="66" width="31.33203125" style="16" customWidth="1"/>
     <col min="67" max="67" width="9" customWidth="1"/>
     <col min="68" max="68" width="16.5" customWidth="1"/>
     <col min="69" max="69" width="16" customWidth="1"/>
     <col min="70" max="70" width="9.5" customWidth="1"/>
-    <col min="71" max="72" width="11" style="22" customWidth="1"/>
+    <col min="71" max="71" width="11" style="22" customWidth="1"/>
+    <col min="72" max="72" width="11" style="72" customWidth="1"/>
     <col min="73" max="73" width="11.6640625" style="22" customWidth="1"/>
     <col min="74" max="74" width="14.33203125" style="22" customWidth="1"/>
     <col min="75" max="75" width="12.6640625" style="22" customWidth="1"/>
@@ -2662,29 +2841,29 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
       <c r="BA1" s="10"/>
-      <c r="BC1" s="65" t="s">
+      <c r="BC1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BH1" s="65" t="s">
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BH1" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="BI1" s="65"/>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BP1" s="65" t="s">
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
+      <c r="BP1" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="65"/>
+      <c r="BQ1" s="73"/>
       <c r="BS1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="8"/>
+      <c r="BT1" s="69"/>
       <c r="BU1" s="21"/>
       <c r="BV1" s="21"/>
       <c r="BW1" s="21"/>
@@ -2913,7 +3092,7 @@
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <f>COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BN3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BN3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="23">
@@ -2949,10 +3128,18 @@
       <c r="N3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="19"/>
+      <c r="O3" s="37">
+        <v>275162</v>
+      </c>
+      <c r="P3" s="40">
+        <v>275162</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>378</v>
+      </c>
       <c r="S3" t="s">
         <v>49</v>
       </c>
@@ -3041,32 +3228,38 @@
         <v>76</v>
       </c>
       <c r="AZ3">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA3">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC3" s="57"/>
       <c r="BD3" s="57"/>
       <c r="BE3" s="57"/>
       <c r="BF3" s="57"/>
-      <c r="BH3" s="66">
+      <c r="BH3" s="65">
         <v>41226</v>
       </c>
-      <c r="BI3" s="67" t="s">
+      <c r="BI3" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="BJ3" s="25"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" t="s">
+      <c r="BJ3" s="67">
+        <v>31.63212</v>
+      </c>
+      <c r="BK3" s="67">
+        <v>34.5167</v>
+      </c>
+      <c r="BL3" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM3"/>
+      <c r="BM3" t="s">
+        <v>349</v>
+      </c>
       <c r="BN3" s="25"/>
       <c r="BS3">
         <v>1.5</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BT3" s="42" t="s">
         <v>345</v>
       </c>
       <c r="BU3"/>
@@ -3079,7 +3272,7 @@
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <f>COUNTIF(D4,"&lt;&gt;"&amp;"")+COUNTIF(BN4,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4" s="23">
@@ -3115,8 +3308,12 @@
       <c r="N4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="40"/>
+      <c r="O4" s="37">
+        <v>0</v>
+      </c>
+      <c r="P4" s="40">
+        <v>0</v>
+      </c>
       <c r="Q4" s="54"/>
       <c r="R4" s="19"/>
       <c r="S4" t="s">
@@ -3207,32 +3404,38 @@
         <v>76</v>
       </c>
       <c r="AZ4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC4" s="57"/>
       <c r="BD4" s="57"/>
       <c r="BE4" s="57"/>
       <c r="BF4" s="57"/>
-      <c r="BH4" s="66">
+      <c r="BH4" s="65">
         <v>41226</v>
       </c>
-      <c r="BI4" s="67" t="s">
+      <c r="BI4" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="BJ4" s="25"/>
-      <c r="BK4" s="25"/>
-      <c r="BL4" t="s">
+      <c r="BJ4" s="67">
+        <v>31.63212</v>
+      </c>
+      <c r="BK4" s="67">
+        <v>34.5167</v>
+      </c>
+      <c r="BL4" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM4"/>
+      <c r="BM4" t="s">
+        <v>349</v>
+      </c>
       <c r="BN4" s="25"/>
       <c r="BS4">
         <v>1.5</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BT4" s="42" t="s">
         <v>345</v>
       </c>
       <c r="BU4"/>
@@ -3245,7 +3448,7 @@
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <f>COUNTIF(D5,"&lt;&gt;"&amp;"")+COUNTIF(BN5,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B5" s="23">
@@ -3281,10 +3484,18 @@
       <c r="N5" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="24"/>
+      <c r="O5" s="37">
+        <v>367728</v>
+      </c>
+      <c r="P5" s="40">
+        <v>367728</v>
+      </c>
+      <c r="Q5" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>379</v>
+      </c>
       <c r="S5" t="s">
         <v>49</v>
       </c>
@@ -3373,32 +3584,38 @@
         <v>76</v>
       </c>
       <c r="AZ5">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA5">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC5" s="57"/>
       <c r="BD5" s="57"/>
       <c r="BE5" s="57"/>
       <c r="BF5" s="57"/>
-      <c r="BH5" s="66">
+      <c r="BH5" s="65">
         <v>41226</v>
       </c>
-      <c r="BI5" s="67" t="s">
+      <c r="BI5" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="BJ5" s="25"/>
-      <c r="BK5" s="25"/>
-      <c r="BL5" t="s">
+      <c r="BJ5" s="67">
+        <v>31.63212</v>
+      </c>
+      <c r="BK5" s="67">
+        <v>34.5167</v>
+      </c>
+      <c r="BL5" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM5"/>
+      <c r="BM5" t="s">
+        <v>349</v>
+      </c>
       <c r="BN5" s="25"/>
       <c r="BS5">
         <v>1.5</v>
       </c>
-      <c r="BT5" t="s">
+      <c r="BT5" s="42" t="s">
         <v>345</v>
       </c>
       <c r="BU5"/>
@@ -3411,7 +3628,7 @@
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <f>COUNTIF(D6,"&lt;&gt;"&amp;"")+COUNTIF(BN6,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B6" s="23">
@@ -3447,10 +3664,18 @@
       <c r="N6" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="19"/>
+      <c r="O6" s="37">
+        <v>292281</v>
+      </c>
+      <c r="P6" s="40">
+        <v>292281</v>
+      </c>
+      <c r="Q6" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>380</v>
+      </c>
       <c r="S6" t="s">
         <v>49</v>
       </c>
@@ -3539,32 +3764,38 @@
         <v>76</v>
       </c>
       <c r="AZ6">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA6">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC6" s="57"/>
       <c r="BD6" s="57"/>
       <c r="BE6" s="57"/>
       <c r="BF6" s="57"/>
-      <c r="BH6" s="66">
+      <c r="BH6" s="65">
         <v>41226</v>
       </c>
-      <c r="BI6" s="67" t="s">
+      <c r="BI6" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="BJ6" s="25"/>
-      <c r="BK6" s="25"/>
-      <c r="BL6" t="s">
+      <c r="BJ6" s="67">
+        <v>31.6341</v>
+      </c>
+      <c r="BK6" s="67">
+        <v>34.51144</v>
+      </c>
+      <c r="BL6" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM6"/>
+      <c r="BM6" t="s">
+        <v>348</v>
+      </c>
       <c r="BN6" s="25"/>
       <c r="BS6">
         <v>10</v>
       </c>
-      <c r="BT6" s="68" t="s">
+      <c r="BT6" s="70" t="s">
         <v>346</v>
       </c>
       <c r="BU6"/>
@@ -3577,7 +3808,7 @@
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
-        <f>COUNTIF(D7,"&lt;&gt;"&amp;"")+COUNTIF(BN7,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="23">
@@ -3613,10 +3844,18 @@
       <c r="N7" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="19"/>
+      <c r="O7" s="37">
+        <v>242696</v>
+      </c>
+      <c r="P7" s="40">
+        <v>242696</v>
+      </c>
+      <c r="Q7" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>381</v>
+      </c>
       <c r="S7" t="s">
         <v>49</v>
       </c>
@@ -3705,32 +3944,38 @@
         <v>76</v>
       </c>
       <c r="AZ7">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA7">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC7" s="57"/>
       <c r="BD7" s="57"/>
       <c r="BE7" s="57"/>
       <c r="BF7" s="57"/>
-      <c r="BH7" s="66">
+      <c r="BH7" s="65">
         <v>41226</v>
       </c>
-      <c r="BI7" s="67" t="s">
+      <c r="BI7" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="BJ7" s="25"/>
-      <c r="BK7" s="25"/>
-      <c r="BL7" t="s">
+      <c r="BJ7" s="67">
+        <v>31.6341</v>
+      </c>
+      <c r="BK7" s="67">
+        <v>34.51144</v>
+      </c>
+      <c r="BL7" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM7"/>
+      <c r="BM7" t="s">
+        <v>348</v>
+      </c>
       <c r="BN7" s="25"/>
       <c r="BS7">
         <v>10</v>
       </c>
-      <c r="BT7" s="69" t="s">
+      <c r="BT7" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU7"/>
@@ -3743,7 +3988,7 @@
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <f>COUNTIF(D8,"&lt;&gt;"&amp;"")+COUNTIF(BN8,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B8" s="23">
@@ -3779,10 +4024,18 @@
       <c r="N8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="24"/>
+      <c r="O8" s="37">
+        <v>282664</v>
+      </c>
+      <c r="P8" s="40">
+        <v>282664</v>
+      </c>
+      <c r="Q8" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>382</v>
+      </c>
       <c r="S8" t="s">
         <v>49</v>
       </c>
@@ -3871,32 +4124,38 @@
         <v>76</v>
       </c>
       <c r="AZ8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC8" s="57"/>
       <c r="BD8" s="57"/>
       <c r="BE8" s="57"/>
       <c r="BF8" s="57"/>
-      <c r="BH8" s="66">
+      <c r="BH8" s="65">
         <v>41226</v>
       </c>
-      <c r="BI8" s="67" t="s">
+      <c r="BI8" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="BJ8" s="25"/>
-      <c r="BK8" s="25"/>
-      <c r="BL8" t="s">
+      <c r="BJ8" s="67">
+        <v>31.6341</v>
+      </c>
+      <c r="BK8" s="67">
+        <v>34.51144</v>
+      </c>
+      <c r="BL8" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM8"/>
+      <c r="BM8" t="s">
+        <v>348</v>
+      </c>
       <c r="BN8" s="25"/>
       <c r="BS8">
         <v>10</v>
       </c>
-      <c r="BT8" s="69" t="s">
+      <c r="BT8" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU8"/>
@@ -3909,7 +4168,7 @@
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <f>COUNTIF(D9,"&lt;&gt;"&amp;"")+COUNTIF(BN9,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B9" s="23">
@@ -3945,10 +4204,18 @@
       <c r="N9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="19"/>
+      <c r="O9" s="37">
+        <v>233579</v>
+      </c>
+      <c r="P9" s="40">
+        <v>233579</v>
+      </c>
+      <c r="Q9" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>383</v>
+      </c>
       <c r="S9" t="s">
         <v>49</v>
       </c>
@@ -4037,32 +4304,38 @@
         <v>76</v>
       </c>
       <c r="AZ9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC9" s="57"/>
       <c r="BD9" s="57"/>
       <c r="BE9" s="57"/>
       <c r="BF9" s="57"/>
-      <c r="BH9" s="66">
+      <c r="BH9" s="65">
         <v>41226</v>
       </c>
-      <c r="BI9" s="67" t="s">
+      <c r="BI9" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="BJ9" s="25"/>
-      <c r="BK9" s="25"/>
-      <c r="BL9" t="s">
+      <c r="BJ9" s="67">
+        <v>31.671759999999999</v>
+      </c>
+      <c r="BK9" s="67">
+        <v>34.543559999999999</v>
+      </c>
+      <c r="BL9" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM9"/>
+      <c r="BM9" t="s">
+        <v>350</v>
+      </c>
       <c r="BN9" s="25"/>
       <c r="BS9">
         <v>5</v>
       </c>
-      <c r="BT9" s="69" t="s">
+      <c r="BT9" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU9"/>
@@ -4075,7 +4348,7 @@
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <f>COUNTIF(D10,"&lt;&gt;"&amp;"")+COUNTIF(BN10,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B10" s="23">
@@ -4111,10 +4384,18 @@
       <c r="N10" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="19"/>
+      <c r="O10" s="37">
+        <v>137661</v>
+      </c>
+      <c r="P10" s="40">
+        <v>137661</v>
+      </c>
+      <c r="Q10" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>384</v>
+      </c>
       <c r="S10" t="s">
         <v>49</v>
       </c>
@@ -4203,32 +4484,38 @@
         <v>76</v>
       </c>
       <c r="AZ10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA10">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC10" s="57"/>
       <c r="BD10" s="57"/>
       <c r="BE10" s="57"/>
       <c r="BF10" s="57"/>
-      <c r="BH10" s="66">
+      <c r="BH10" s="65">
         <v>41226</v>
       </c>
-      <c r="BI10" s="67" t="s">
+      <c r="BI10" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="BJ10" s="25"/>
-      <c r="BK10" s="25"/>
-      <c r="BL10" t="s">
+      <c r="BJ10" s="67">
+        <v>31.671759999999999</v>
+      </c>
+      <c r="BK10" s="67">
+        <v>34.543559999999999</v>
+      </c>
+      <c r="BL10" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM10"/>
+      <c r="BM10" t="s">
+        <v>350</v>
+      </c>
       <c r="BN10" s="25"/>
       <c r="BS10">
         <v>5</v>
       </c>
-      <c r="BT10" s="69" t="s">
+      <c r="BT10" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU10"/>
@@ -4241,7 +4528,7 @@
     </row>
     <row r="11" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <f>COUNTIF(D11,"&lt;&gt;"&amp;"")+COUNTIF(BN11,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B11" s="23">
@@ -4277,10 +4564,18 @@
       <c r="N11" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="19"/>
+      <c r="O11" s="37">
+        <v>273123</v>
+      </c>
+      <c r="P11" s="40">
+        <v>273123</v>
+      </c>
+      <c r="Q11" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>385</v>
+      </c>
       <c r="S11" t="s">
         <v>49</v>
       </c>
@@ -4369,32 +4664,38 @@
         <v>76</v>
       </c>
       <c r="AZ11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC11" s="57"/>
       <c r="BD11" s="57"/>
       <c r="BE11" s="57"/>
       <c r="BF11" s="57"/>
-      <c r="BH11" s="66">
+      <c r="BH11" s="65">
         <v>41226</v>
       </c>
-      <c r="BI11" s="67" t="s">
+      <c r="BI11" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="BJ11" s="25"/>
-      <c r="BK11" s="25"/>
-      <c r="BL11" t="s">
+      <c r="BJ11" s="67">
+        <v>31.671759999999999</v>
+      </c>
+      <c r="BK11" s="67">
+        <v>34.543559999999999</v>
+      </c>
+      <c r="BL11" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM11" s="58"/>
+      <c r="BM11" t="s">
+        <v>350</v>
+      </c>
       <c r="BN11" s="25"/>
       <c r="BS11">
         <v>5</v>
       </c>
-      <c r="BT11" s="69" t="s">
+      <c r="BT11" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU11"/>
@@ -4407,7 +4708,7 @@
     </row>
     <row r="12" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <f>COUNTIF(D12,"&lt;&gt;"&amp;"")+COUNTIF(BN12,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B12" s="23">
@@ -4443,10 +4744,18 @@
       <c r="N12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="24"/>
+      <c r="O12" s="37">
+        <v>134807</v>
+      </c>
+      <c r="P12" s="40">
+        <v>134807</v>
+      </c>
+      <c r="Q12" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>386</v>
+      </c>
       <c r="S12" t="s">
         <v>49</v>
       </c>
@@ -4535,32 +4844,38 @@
         <v>76</v>
       </c>
       <c r="AZ12">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA12">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC12" s="57"/>
       <c r="BD12" s="57"/>
       <c r="BE12" s="57"/>
       <c r="BF12" s="57"/>
-      <c r="BH12" s="66">
+      <c r="BH12" s="65">
         <v>41227</v>
       </c>
-      <c r="BI12" s="67" t="s">
+      <c r="BI12" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="BJ12" s="25"/>
-      <c r="BK12" s="25"/>
-      <c r="BL12" t="s">
+      <c r="BJ12" s="67">
+        <v>31.941859999999998</v>
+      </c>
+      <c r="BK12" s="67">
+        <v>34.68862</v>
+      </c>
+      <c r="BL12" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM12" s="58"/>
+      <c r="BM12" s="58" t="s">
+        <v>351</v>
+      </c>
       <c r="BN12" s="25"/>
       <c r="BS12">
         <v>18</v>
       </c>
-      <c r="BT12" s="69" t="s">
+      <c r="BT12" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU12"/>
@@ -4573,7 +4888,7 @@
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <f>COUNTIF(D13,"&lt;&gt;"&amp;"")+COUNTIF(BN13,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B13" s="23">
@@ -4609,10 +4924,18 @@
       <c r="N13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="19"/>
+      <c r="O13" s="37">
+        <v>244784</v>
+      </c>
+      <c r="P13" s="40">
+        <v>244784</v>
+      </c>
+      <c r="Q13" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>387</v>
+      </c>
       <c r="S13" t="s">
         <v>49</v>
       </c>
@@ -4701,32 +5024,38 @@
         <v>76</v>
       </c>
       <c r="AZ13">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA13">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC13" s="57"/>
       <c r="BD13" s="57"/>
       <c r="BE13" s="57"/>
       <c r="BF13" s="57"/>
-      <c r="BH13" s="66">
+      <c r="BH13" s="65">
         <v>41227</v>
       </c>
-      <c r="BI13" s="67" t="s">
+      <c r="BI13" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="BJ13" s="25"/>
-      <c r="BK13" s="25"/>
-      <c r="BL13" t="s">
+      <c r="BJ13" s="67">
+        <v>31.941859999999998</v>
+      </c>
+      <c r="BK13" s="67">
+        <v>34.68862</v>
+      </c>
+      <c r="BL13" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM13" s="58"/>
+      <c r="BM13" s="58" t="s">
+        <v>351</v>
+      </c>
       <c r="BN13" s="25"/>
       <c r="BS13">
         <v>18</v>
       </c>
-      <c r="BT13" s="69" t="s">
+      <c r="BT13" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU13"/>
@@ -4739,7 +5068,7 @@
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <f>COUNTIF(D14,"&lt;&gt;"&amp;"")+COUNTIF(BN14,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B14" s="23">
@@ -4775,10 +5104,18 @@
       <c r="N14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="37"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="19"/>
+      <c r="O14" s="37">
+        <v>337801</v>
+      </c>
+      <c r="P14" s="40">
+        <v>337801</v>
+      </c>
+      <c r="Q14" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>388</v>
+      </c>
       <c r="S14" t="s">
         <v>49</v>
       </c>
@@ -4867,32 +5204,38 @@
         <v>76</v>
       </c>
       <c r="AZ14">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA14">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC14" s="57"/>
       <c r="BD14" s="57"/>
       <c r="BE14" s="57"/>
       <c r="BF14" s="57"/>
-      <c r="BH14" s="66">
+      <c r="BH14" s="65">
         <v>41227</v>
       </c>
-      <c r="BI14" s="67" t="s">
+      <c r="BI14" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="BJ14" s="25"/>
-      <c r="BK14" s="25"/>
-      <c r="BL14" t="s">
+      <c r="BJ14" s="67">
+        <v>31.941859999999998</v>
+      </c>
+      <c r="BK14" s="67">
+        <v>34.68862</v>
+      </c>
+      <c r="BL14" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM14" s="58"/>
+      <c r="BM14" s="58" t="s">
+        <v>351</v>
+      </c>
       <c r="BN14" s="25"/>
       <c r="BS14">
         <v>18</v>
       </c>
-      <c r="BT14" s="69" t="s">
+      <c r="BT14" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU14"/>
@@ -4905,7 +5248,7 @@
     </row>
     <row r="15" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <f>COUNTIF(D15,"&lt;&gt;"&amp;"")+COUNTIF(BN15,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B15" s="23">
@@ -4941,10 +5284,18 @@
       <c r="N15" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="37"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="19"/>
+      <c r="O15" s="37">
+        <v>252074</v>
+      </c>
+      <c r="P15" s="40">
+        <v>252074</v>
+      </c>
+      <c r="Q15" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>389</v>
+      </c>
       <c r="S15" t="s">
         <v>49</v>
       </c>
@@ -5033,32 +5384,38 @@
         <v>76</v>
       </c>
       <c r="AZ15">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA15">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC15" s="57"/>
       <c r="BD15" s="57"/>
       <c r="BE15" s="57"/>
       <c r="BF15" s="57"/>
-      <c r="BH15" s="66">
+      <c r="BH15" s="65">
         <v>41227</v>
       </c>
-      <c r="BI15" s="67" t="s">
+      <c r="BI15" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="BJ15" s="25"/>
-      <c r="BK15" s="25"/>
-      <c r="BL15" t="s">
+      <c r="BJ15" s="67">
+        <v>31.94068</v>
+      </c>
+      <c r="BK15" s="67">
+        <v>34.687379999999997</v>
+      </c>
+      <c r="BL15" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM15" s="58"/>
+      <c r="BM15" s="58" t="s">
+        <v>351</v>
+      </c>
       <c r="BN15" s="25"/>
       <c r="BS15">
         <v>19</v>
       </c>
-      <c r="BT15" s="69" t="s">
+      <c r="BT15" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU15"/>
@@ -5071,7 +5428,7 @@
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <f>COUNTIF(D16,"&lt;&gt;"&amp;"")+COUNTIF(BN16,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B16" s="23">
@@ -5105,10 +5462,21 @@
         <v>250</v>
       </c>
       <c r="N16" s="30"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="19"/>
+      <c r="O16" s="37">
+        <v>154501</v>
+      </c>
+      <c r="P16" s="40">
+        <v>154501</v>
+      </c>
+      <c r="Q16" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="S16" t="s">
+        <v>49</v>
+      </c>
       <c r="T16" s="16" t="s">
         <v>180</v>
       </c>
@@ -5189,32 +5557,38 @@
         <v>76</v>
       </c>
       <c r="AZ16">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA16">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC16" s="57"/>
       <c r="BD16" s="57"/>
       <c r="BE16" s="57"/>
       <c r="BF16" s="57"/>
-      <c r="BH16" s="66">
+      <c r="BH16" s="65">
         <v>41227</v>
       </c>
-      <c r="BI16" s="67" t="s">
+      <c r="BI16" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="BJ16" s="25"/>
-      <c r="BK16" s="25"/>
-      <c r="BL16" t="s">
+      <c r="BJ16" s="67">
+        <v>31.94068</v>
+      </c>
+      <c r="BK16" s="67">
+        <v>34.687379999999997</v>
+      </c>
+      <c r="BL16" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM16" s="58"/>
+      <c r="BM16" s="58" t="s">
+        <v>351</v>
+      </c>
       <c r="BN16" s="25"/>
       <c r="BS16">
         <v>19</v>
       </c>
-      <c r="BT16" s="69" t="s">
+      <c r="BT16" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU16"/>
@@ -5227,7 +5601,7 @@
     </row>
     <row r="17" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <f>COUNTIF(D17,"&lt;&gt;"&amp;"")+COUNTIF(BN17,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B17" s="23">
@@ -5261,10 +5635,21 @@
         <v>250</v>
       </c>
       <c r="N17" s="30"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="19"/>
+      <c r="O17" s="37">
+        <v>174238</v>
+      </c>
+      <c r="P17" s="40">
+        <v>174238</v>
+      </c>
+      <c r="Q17" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="S17" t="s">
+        <v>49</v>
+      </c>
       <c r="T17" s="16" t="s">
         <v>181</v>
       </c>
@@ -5345,32 +5730,38 @@
         <v>76</v>
       </c>
       <c r="AZ17">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA17">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC17" s="57"/>
       <c r="BD17" s="57"/>
       <c r="BE17" s="57"/>
       <c r="BF17" s="57"/>
-      <c r="BH17" s="66">
+      <c r="BH17" s="65">
         <v>41227</v>
       </c>
-      <c r="BI17" s="67" t="s">
+      <c r="BI17" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="BJ17" s="25"/>
-      <c r="BK17" s="25"/>
-      <c r="BL17" t="s">
+      <c r="BJ17" s="67">
+        <v>31.94068</v>
+      </c>
+      <c r="BK17" s="67">
+        <v>34.687379999999997</v>
+      </c>
+      <c r="BL17" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM17" s="58"/>
+      <c r="BM17" s="58" t="s">
+        <v>351</v>
+      </c>
       <c r="BN17" s="25"/>
       <c r="BS17">
         <v>19</v>
       </c>
-      <c r="BT17" s="69" t="s">
+      <c r="BT17" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU17"/>
@@ -5383,7 +5774,7 @@
     </row>
     <row r="18" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <f>COUNTIF(D18,"&lt;&gt;"&amp;"")+COUNTIF(BN18,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B18" s="23">
@@ -5417,10 +5808,21 @@
         <v>250</v>
       </c>
       <c r="N18" s="30"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="19"/>
+      <c r="O18" s="37">
+        <v>171763</v>
+      </c>
+      <c r="P18" s="40">
+        <v>171763</v>
+      </c>
+      <c r="Q18" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="S18" t="s">
+        <v>49</v>
+      </c>
       <c r="T18" s="16" t="s">
         <v>182</v>
       </c>
@@ -5501,32 +5903,38 @@
         <v>76</v>
       </c>
       <c r="AZ18">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA18">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC18" s="57"/>
       <c r="BD18" s="57"/>
       <c r="BE18" s="57"/>
       <c r="BF18" s="57"/>
-      <c r="BH18" s="66">
+      <c r="BH18" s="65">
         <v>41227</v>
       </c>
-      <c r="BI18" s="67" t="s">
+      <c r="BI18" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="BJ18" s="25"/>
-      <c r="BK18" s="25"/>
-      <c r="BL18" t="s">
+      <c r="BJ18" s="67">
+        <v>31.931660000000001</v>
+      </c>
+      <c r="BK18" s="67">
+        <v>34.68336</v>
+      </c>
+      <c r="BL18" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM18" s="58"/>
+      <c r="BM18" s="58" t="s">
+        <v>352</v>
+      </c>
       <c r="BN18" s="25"/>
       <c r="BS18">
         <v>18</v>
       </c>
-      <c r="BT18" s="69" t="s">
+      <c r="BT18" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU18"/>
@@ -5539,7 +5947,7 @@
     </row>
     <row r="19" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <f>COUNTIF(D19,"&lt;&gt;"&amp;"")+COUNTIF(BN19,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B19" s="23">
@@ -5573,10 +5981,21 @@
         <v>250</v>
       </c>
       <c r="N19" s="30"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="19"/>
+      <c r="O19" s="37">
+        <v>237422</v>
+      </c>
+      <c r="P19" s="40">
+        <v>237422</v>
+      </c>
+      <c r="Q19" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="S19" t="s">
+        <v>49</v>
+      </c>
       <c r="T19" s="16" t="s">
         <v>183</v>
       </c>
@@ -5657,32 +6076,38 @@
         <v>76</v>
       </c>
       <c r="AZ19">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA19">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC19" s="57"/>
       <c r="BD19" s="57"/>
       <c r="BE19" s="57"/>
       <c r="BF19" s="57"/>
-      <c r="BH19" s="66">
+      <c r="BH19" s="65">
         <v>41227</v>
       </c>
-      <c r="BI19" s="67" t="s">
+      <c r="BI19" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="BJ19" s="25"/>
-      <c r="BK19" s="25"/>
-      <c r="BL19" t="s">
+      <c r="BJ19" s="67">
+        <v>31.931660000000001</v>
+      </c>
+      <c r="BK19" s="67">
+        <v>34.68336</v>
+      </c>
+      <c r="BL19" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM19"/>
+      <c r="BM19" t="s">
+        <v>352</v>
+      </c>
       <c r="BN19" s="25"/>
       <c r="BS19">
         <v>18</v>
       </c>
-      <c r="BT19" s="69" t="s">
+      <c r="BT19" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU19"/>
@@ -5695,7 +6120,7 @@
     </row>
     <row r="20" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <f>COUNTIF(D20,"&lt;&gt;"&amp;"")+COUNTIF(BN20,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B20" s="23">
@@ -5729,10 +6154,21 @@
         <v>250</v>
       </c>
       <c r="N20" s="30"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="19"/>
+      <c r="O20" s="37">
+        <v>154346</v>
+      </c>
+      <c r="P20" s="40">
+        <v>154346</v>
+      </c>
+      <c r="Q20" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="S20" t="s">
+        <v>49</v>
+      </c>
       <c r="T20" s="16" t="s">
         <v>184</v>
       </c>
@@ -5813,32 +6249,38 @@
         <v>76</v>
       </c>
       <c r="AZ20">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA20">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC20" s="57"/>
       <c r="BD20" s="57"/>
       <c r="BE20" s="57"/>
       <c r="BF20" s="57"/>
-      <c r="BH20" s="66">
+      <c r="BH20" s="65">
         <v>41227</v>
       </c>
-      <c r="BI20" s="67" t="s">
+      <c r="BI20" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="BJ20" s="25"/>
-      <c r="BK20" s="25"/>
-      <c r="BL20" t="s">
+      <c r="BJ20" s="67">
+        <v>31.931660000000001</v>
+      </c>
+      <c r="BK20" s="67">
+        <v>34.68336</v>
+      </c>
+      <c r="BL20" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM20"/>
+      <c r="BM20" t="s">
+        <v>352</v>
+      </c>
       <c r="BN20" s="25"/>
       <c r="BS20">
         <v>18</v>
       </c>
-      <c r="BT20" s="69" t="s">
+      <c r="BT20" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU20"/>
@@ -5851,7 +6293,7 @@
     </row>
     <row r="21" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <f>COUNTIF(D21,"&lt;&gt;"&amp;"")+COUNTIF(BN21,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B21" s="23">
@@ -5885,10 +6327,17 @@
         <v>250</v>
       </c>
       <c r="N21" s="30"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="40"/>
+      <c r="O21" s="37">
+        <v>0</v>
+      </c>
+      <c r="P21" s="40">
+        <v>0</v>
+      </c>
       <c r="Q21" s="54"/>
       <c r="R21" s="19"/>
+      <c r="S21" t="s">
+        <v>49</v>
+      </c>
       <c r="T21" s="16" t="s">
         <v>191</v>
       </c>
@@ -5969,32 +6418,38 @@
         <v>76</v>
       </c>
       <c r="AZ21">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA21">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC21" s="57"/>
       <c r="BD21" s="57"/>
       <c r="BE21" s="57"/>
       <c r="BF21" s="57"/>
-      <c r="BH21" s="66">
+      <c r="BH21" s="65">
         <v>41233</v>
       </c>
-      <c r="BI21" s="67" t="s">
+      <c r="BI21" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="BJ21" s="25"/>
-      <c r="BK21" s="25"/>
-      <c r="BL21" t="s">
+      <c r="BJ21" s="67">
+        <v>32.465020000000003</v>
+      </c>
+      <c r="BK21" s="67">
+        <v>34.882582999999997</v>
+      </c>
+      <c r="BL21" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM21"/>
+      <c r="BM21" s="58" t="s">
+        <v>353</v>
+      </c>
       <c r="BN21" s="25"/>
       <c r="BS21">
         <v>3.8</v>
       </c>
-      <c r="BT21" t="s">
+      <c r="BT21" s="42" t="s">
         <v>345</v>
       </c>
       <c r="BU21"/>
@@ -6007,7 +6462,7 @@
     </row>
     <row r="22" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <f>COUNTIF(D22,"&lt;&gt;"&amp;"")+COUNTIF(BN22,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B22" s="23">
@@ -6041,10 +6496,21 @@
         <v>250</v>
       </c>
       <c r="N22" s="30"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="19"/>
+      <c r="O22" s="37">
+        <v>356730</v>
+      </c>
+      <c r="P22" s="40">
+        <v>356730</v>
+      </c>
+      <c r="Q22" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="R22" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="S22" t="s">
+        <v>49</v>
+      </c>
       <c r="T22" s="16" t="s">
         <v>185</v>
       </c>
@@ -6125,32 +6591,38 @@
         <v>76</v>
       </c>
       <c r="AZ22">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA22">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC22" s="57"/>
       <c r="BD22" s="57"/>
       <c r="BE22" s="57"/>
       <c r="BF22" s="57"/>
-      <c r="BH22" s="66">
+      <c r="BH22" s="65">
         <v>41233</v>
       </c>
-      <c r="BI22" s="67" t="s">
+      <c r="BI22" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="BJ22" s="25"/>
-      <c r="BK22" s="25"/>
-      <c r="BL22" t="s">
+      <c r="BJ22" s="67">
+        <v>32.465020000000003</v>
+      </c>
+      <c r="BK22" s="67">
+        <v>34.882582999999997</v>
+      </c>
+      <c r="BL22" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM22"/>
+      <c r="BM22" s="58" t="s">
+        <v>353</v>
+      </c>
       <c r="BN22" s="25"/>
       <c r="BS22">
         <v>3.8</v>
       </c>
-      <c r="BT22" t="s">
+      <c r="BT22" s="42" t="s">
         <v>345</v>
       </c>
       <c r="BU22"/>
@@ -6163,7 +6635,7 @@
     </row>
     <row r="23" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <f>COUNTIF(D23,"&lt;&gt;"&amp;"")+COUNTIF(BN23,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B23" s="23">
@@ -6197,10 +6669,21 @@
         <v>250</v>
       </c>
       <c r="N23" s="30"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="19"/>
+      <c r="O23" s="37">
+        <v>406279</v>
+      </c>
+      <c r="P23" s="40">
+        <v>406279</v>
+      </c>
+      <c r="Q23" s="54" t="s">
+        <v>374</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="S23" t="s">
+        <v>49</v>
+      </c>
       <c r="T23" s="16" t="s">
         <v>186</v>
       </c>
@@ -6281,32 +6764,38 @@
         <v>76</v>
       </c>
       <c r="AZ23">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA23">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC23" s="57"/>
       <c r="BD23" s="57"/>
       <c r="BE23" s="57"/>
       <c r="BF23" s="57"/>
-      <c r="BH23" s="66">
+      <c r="BH23" s="65">
         <v>41233</v>
       </c>
-      <c r="BI23" s="67" t="s">
+      <c r="BI23" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="BJ23" s="25"/>
-      <c r="BK23" s="25"/>
-      <c r="BL23" t="s">
+      <c r="BJ23" s="67">
+        <v>32.465020000000003</v>
+      </c>
+      <c r="BK23" s="67">
+        <v>34.882582999999997</v>
+      </c>
+      <c r="BL23" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM23"/>
+      <c r="BM23" s="58" t="s">
+        <v>353</v>
+      </c>
       <c r="BN23" s="25"/>
       <c r="BS23">
         <v>3.8</v>
       </c>
-      <c r="BT23" t="s">
+      <c r="BT23" s="42" t="s">
         <v>345</v>
       </c>
       <c r="BU23"/>
@@ -6319,7 +6808,7 @@
     </row>
     <row r="24" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <f>COUNTIF(D24,"&lt;&gt;"&amp;"")+COUNTIF(BN24,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B24" s="23">
@@ -6353,10 +6842,21 @@
         <v>250</v>
       </c>
       <c r="N24" s="30"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="19"/>
+      <c r="O24" s="37">
+        <v>292338</v>
+      </c>
+      <c r="P24" s="40">
+        <v>292338</v>
+      </c>
+      <c r="Q24" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="S24" t="s">
+        <v>49</v>
+      </c>
       <c r="T24" s="16" t="s">
         <v>187</v>
       </c>
@@ -6437,32 +6937,38 @@
         <v>76</v>
       </c>
       <c r="AZ24">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA24">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC24" s="57"/>
       <c r="BD24" s="57"/>
       <c r="BE24" s="57"/>
       <c r="BF24" s="57"/>
-      <c r="BH24" s="66">
+      <c r="BH24" s="65">
         <v>41233</v>
       </c>
-      <c r="BI24" s="67" t="s">
+      <c r="BI24" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="BJ24" s="25"/>
-      <c r="BK24" s="25"/>
-      <c r="BL24" t="s">
+      <c r="BJ24" s="67">
+        <v>32.463700000000003</v>
+      </c>
+      <c r="BK24" s="67">
+        <v>34.879339999999999</v>
+      </c>
+      <c r="BL24" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM24"/>
+      <c r="BM24" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="BN24" s="25"/>
       <c r="BS24">
         <v>5.5</v>
       </c>
-      <c r="BT24" s="69" t="s">
+      <c r="BT24" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU24"/>
@@ -6475,7 +6981,7 @@
     </row>
     <row r="25" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <f>COUNTIF(D25,"&lt;&gt;"&amp;"")+COUNTIF(BN25,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B25" s="23">
@@ -6509,10 +7015,21 @@
         <v>250</v>
       </c>
       <c r="N25" s="30"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="19"/>
+      <c r="O25" s="37">
+        <v>269103</v>
+      </c>
+      <c r="P25" s="40">
+        <v>269103</v>
+      </c>
+      <c r="Q25" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="S25" t="s">
+        <v>49</v>
+      </c>
       <c r="T25" s="16" t="s">
         <v>188</v>
       </c>
@@ -6593,32 +7110,38 @@
         <v>76</v>
       </c>
       <c r="AZ25">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA25">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC25" s="57"/>
       <c r="BD25" s="57"/>
       <c r="BE25" s="57"/>
       <c r="BF25" s="57"/>
-      <c r="BH25" s="66">
+      <c r="BH25" s="65">
         <v>41233</v>
       </c>
-      <c r="BI25" s="67" t="s">
+      <c r="BI25" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="BJ25" s="25"/>
-      <c r="BK25" s="25"/>
-      <c r="BL25" t="s">
+      <c r="BJ25" s="67">
+        <v>32.463700000000003</v>
+      </c>
+      <c r="BK25" s="67">
+        <v>34.879339999999999</v>
+      </c>
+      <c r="BL25" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM25"/>
+      <c r="BM25" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="BN25" s="25"/>
       <c r="BS25">
         <v>5.5</v>
       </c>
-      <c r="BT25" s="69" t="s">
+      <c r="BT25" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU25"/>
@@ -6631,7 +7154,7 @@
     </row>
     <row r="26" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
-        <f>COUNTIF(D26,"&lt;&gt;"&amp;"")+COUNTIF(BN26,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B26" s="23">
@@ -6665,10 +7188,17 @@
         <v>250</v>
       </c>
       <c r="N26" s="30"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="40"/>
+      <c r="O26" s="37">
+        <v>0</v>
+      </c>
+      <c r="P26" s="40">
+        <v>0</v>
+      </c>
       <c r="Q26" s="54"/>
       <c r="R26" s="19"/>
+      <c r="S26" t="s">
+        <v>49</v>
+      </c>
       <c r="T26" s="16" t="s">
         <v>192</v>
       </c>
@@ -6749,32 +7279,38 @@
         <v>76</v>
       </c>
       <c r="AZ26">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA26">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC26" s="57"/>
       <c r="BD26" s="57"/>
       <c r="BE26" s="57"/>
       <c r="BF26" s="57"/>
-      <c r="BH26" s="66">
+      <c r="BH26" s="65">
         <v>41233</v>
       </c>
-      <c r="BI26" s="67" t="s">
+      <c r="BI26" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="BJ26" s="25"/>
-      <c r="BK26" s="25"/>
-      <c r="BL26" t="s">
+      <c r="BJ26" s="67">
+        <v>32.463700000000003</v>
+      </c>
+      <c r="BK26" s="67">
+        <v>34.879339999999999</v>
+      </c>
+      <c r="BL26" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM26"/>
+      <c r="BM26" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="BN26" s="25"/>
       <c r="BS26">
         <v>5.5</v>
       </c>
-      <c r="BT26" s="69" t="s">
+      <c r="BT26" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU26"/>
@@ -6787,7 +7323,7 @@
     </row>
     <row r="27" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
-        <f>COUNTIF(D27,"&lt;&gt;"&amp;"")+COUNTIF(BN27,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B27" s="23">
@@ -6821,10 +7357,21 @@
         <v>250</v>
       </c>
       <c r="N27" s="30"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="19"/>
+      <c r="O27" s="37">
+        <v>190462</v>
+      </c>
+      <c r="P27" s="40">
+        <v>190462</v>
+      </c>
+      <c r="Q27" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="S27" t="s">
+        <v>49</v>
+      </c>
       <c r="T27" s="16" t="s">
         <v>189</v>
       </c>
@@ -6905,32 +7452,38 @@
         <v>76</v>
       </c>
       <c r="AZ27">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA27">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC27" s="57"/>
       <c r="BD27" s="57"/>
       <c r="BE27" s="57"/>
       <c r="BF27" s="57"/>
-      <c r="BH27" s="66">
+      <c r="BH27" s="65">
         <v>41233</v>
       </c>
-      <c r="BI27" s="67" t="s">
+      <c r="BI27" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="BJ27" s="25"/>
-      <c r="BK27" s="25"/>
-      <c r="BL27" t="s">
+      <c r="BJ27" s="67">
+        <v>32.42868</v>
+      </c>
+      <c r="BK27" s="67">
+        <v>34.870280000000001</v>
+      </c>
+      <c r="BL27" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM27"/>
+      <c r="BM27" t="s">
+        <v>354</v>
+      </c>
       <c r="BN27" s="25"/>
       <c r="BS27">
         <v>6.5</v>
       </c>
-      <c r="BT27" s="69" t="s">
+      <c r="BT27" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU27"/>
@@ -6943,7 +7496,7 @@
     </row>
     <row r="28" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <f>COUNTIF(D28,"&lt;&gt;"&amp;"")+COUNTIF(BN28,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B28" s="23">
@@ -6977,10 +7530,17 @@
         <v>250</v>
       </c>
       <c r="N28" s="30"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="40"/>
+      <c r="O28" s="37">
+        <v>0</v>
+      </c>
+      <c r="P28" s="40">
+        <v>0</v>
+      </c>
       <c r="Q28" s="54"/>
       <c r="R28" s="19"/>
+      <c r="S28" t="s">
+        <v>49</v>
+      </c>
       <c r="T28" s="16" t="s">
         <v>193</v>
       </c>
@@ -7061,32 +7621,38 @@
         <v>76</v>
       </c>
       <c r="AZ28">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA28">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC28" s="57"/>
       <c r="BD28" s="57"/>
       <c r="BE28" s="57"/>
       <c r="BF28" s="57"/>
-      <c r="BH28" s="66">
+      <c r="BH28" s="65">
         <v>41233</v>
       </c>
-      <c r="BI28" s="67" t="s">
+      <c r="BI28" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="BJ28" s="25"/>
-      <c r="BK28" s="25"/>
-      <c r="BL28" t="s">
+      <c r="BJ28" s="67">
+        <v>32.42868</v>
+      </c>
+      <c r="BK28" s="67">
+        <v>34.870280000000001</v>
+      </c>
+      <c r="BL28" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM28"/>
+      <c r="BM28" t="s">
+        <v>354</v>
+      </c>
       <c r="BN28" s="25"/>
       <c r="BS28">
         <v>6.5</v>
       </c>
-      <c r="BT28" s="69" t="s">
+      <c r="BT28" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU28"/>
@@ -7099,7 +7665,7 @@
     </row>
     <row r="29" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
-        <f>COUNTIF(D29,"&lt;&gt;"&amp;"")+COUNTIF(BN29,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B29" s="23">
@@ -7133,10 +7699,17 @@
         <v>250</v>
       </c>
       <c r="N29" s="30"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="40"/>
+      <c r="O29" s="37">
+        <v>0</v>
+      </c>
+      <c r="P29" s="40">
+        <v>0</v>
+      </c>
       <c r="Q29" s="54"/>
       <c r="R29" s="19"/>
+      <c r="S29" t="s">
+        <v>49</v>
+      </c>
       <c r="T29" s="16" t="s">
         <v>194</v>
       </c>
@@ -7217,32 +7790,38 @@
         <v>76</v>
       </c>
       <c r="AZ29">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA29">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC29" s="57"/>
       <c r="BD29" s="57"/>
       <c r="BE29" s="57"/>
       <c r="BF29" s="57"/>
-      <c r="BH29" s="66">
+      <c r="BH29" s="65">
         <v>41233</v>
       </c>
-      <c r="BI29" s="67" t="s">
+      <c r="BI29" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="BJ29" s="25"/>
-      <c r="BK29" s="25"/>
-      <c r="BL29" t="s">
+      <c r="BJ29" s="67">
+        <v>32.42868</v>
+      </c>
+      <c r="BK29" s="67">
+        <v>34.870280000000001</v>
+      </c>
+      <c r="BL29" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM29"/>
+      <c r="BM29" t="s">
+        <v>354</v>
+      </c>
       <c r="BN29" s="25"/>
       <c r="BS29">
         <v>6.5</v>
       </c>
-      <c r="BT29" s="69" t="s">
+      <c r="BT29" s="71" t="s">
         <v>346</v>
       </c>
       <c r="BU29"/>
@@ -7261,60 +7840,78 @@
     </row>
     <row r="32" spans="1:79" x14ac:dyDescent="0.2">
       <c r="AK32" s="13"/>
-      <c r="BI32" s="67"/>
+      <c r="BI32" s="66"/>
     </row>
-    <row r="33" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="33" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK33" s="13"/>
-      <c r="BI33" s="67"/>
+      <c r="BI33" s="66"/>
+      <c r="BM33" s="67"/>
+      <c r="BN33" s="67"/>
     </row>
-    <row r="34" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="34" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK34" s="13"/>
-      <c r="BI34" s="67"/>
+      <c r="BI34" s="66"/>
+      <c r="BM34" s="67"/>
+      <c r="BN34" s="67"/>
     </row>
-    <row r="35" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="35" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK35" s="13"/>
-      <c r="BI35" s="67"/>
+      <c r="BI35" s="66"/>
+      <c r="BM35" s="67"/>
+      <c r="BN35" s="67"/>
     </row>
-    <row r="36" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="36" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK36" s="13"/>
-      <c r="BI36" s="67"/>
+      <c r="BI36" s="66"/>
+      <c r="BM36" s="67"/>
+      <c r="BN36" s="67"/>
     </row>
-    <row r="37" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="37" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK37" s="13"/>
-      <c r="BI37" s="67"/>
+      <c r="BI37" s="66"/>
+      <c r="BM37" s="67"/>
+      <c r="BN37" s="67"/>
     </row>
-    <row r="38" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="38" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK38" s="13"/>
-      <c r="BI38" s="67"/>
+      <c r="BI38" s="66"/>
+      <c r="BM38" s="67"/>
+      <c r="BN38" s="67"/>
     </row>
-    <row r="39" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="39" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK39" s="13"/>
+      <c r="BM39" s="67"/>
+      <c r="BN39" s="67"/>
     </row>
-    <row r="40" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="40" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK40" s="13"/>
+      <c r="BM40" s="67"/>
+      <c r="BN40" s="67"/>
     </row>
-    <row r="41" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="41" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK41" s="13"/>
+      <c r="BM41" s="67"/>
+      <c r="BN41" s="67"/>
     </row>
-    <row r="42" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="42" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK42" s="13"/>
     </row>
-    <row r="43" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="43" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK43" s="13"/>
     </row>
-    <row r="44" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="44" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK44" s="13"/>
     </row>
-    <row r="45" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="45" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK45" s="13"/>
     </row>
-    <row r="46" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="46" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK46" s="13"/>
     </row>
-    <row r="47" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="47" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK47" s="13"/>
     </row>
-    <row r="48" spans="37:61" x14ac:dyDescent="0.2">
+    <row r="48" spans="37:66" x14ac:dyDescent="0.2">
       <c r="AK48" s="13"/>
     </row>
     <row r="49" spans="37:37" x14ac:dyDescent="0.2">
@@ -7328,9 +7925,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7348,24 +7955,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="1980" windowWidth="44080" windowHeight="25000" tabRatio="500"/>
+    <workbookView xWindow="3660" yWindow="2460" windowWidth="44080" windowHeight="25000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="409">
   <si>
     <t>Country</t>
   </si>
@@ -1327,6 +1327,33 @@
   </si>
   <si>
     <t>450667f82bc789cb597fcd7cdbc00e23</t>
+  </si>
+  <si>
+    <t>Custom grouping</t>
+  </si>
+  <si>
+    <t>Custom attribute</t>
+  </si>
+  <si>
+    <t>Proximal</t>
+  </si>
+  <si>
+    <t>Midway</t>
+  </si>
+  <si>
+    <t>Distant</t>
+  </si>
+  <si>
+    <t>Replicate identification</t>
+  </si>
+  <si>
+    <t>Ashqelon</t>
+  </si>
+  <si>
+    <t>Soreq</t>
+  </si>
+  <si>
+    <t>Hadera</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1611,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="296">
+  <cellStyleXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1877,6 +1904,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2040,7 +2068,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="296">
+  <cellStyles count="297">
     <cellStyle name="Excel Built-in Normal" xfId="267"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2201,6 +2229,7 @@
     <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2705,12 +2734,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CB51"/>
+  <dimension ref="A1:CF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2735,64 +2764,68 @@
     <col min="20" max="20" width="33" style="16" customWidth="1"/>
     <col min="21" max="21" width="32.5" style="16" customWidth="1"/>
     <col min="22" max="22" width="9.83203125" customWidth="1"/>
-    <col min="23" max="23" width="25.5" style="33" customWidth="1"/>
-    <col min="24" max="24" width="20.1640625" style="16" customWidth="1"/>
-    <col min="25" max="25" width="22" style="19" customWidth="1"/>
-    <col min="26" max="26" width="17.83203125" style="33" customWidth="1"/>
-    <col min="27" max="27" width="21.5" style="16" customWidth="1"/>
-    <col min="28" max="28" width="27.6640625" style="20" customWidth="1"/>
-    <col min="29" max="29" width="9.83203125" customWidth="1"/>
-    <col min="30" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="13.5" style="2" customWidth="1"/>
-    <col min="32" max="32" width="9.1640625" customWidth="1"/>
-    <col min="33" max="33" width="14.33203125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="15.83203125" style="2" customWidth="1"/>
-    <col min="35" max="35" width="8.5" customWidth="1"/>
-    <col min="36" max="36" width="10.33203125" style="15" customWidth="1"/>
-    <col min="37" max="37" width="10.33203125" customWidth="1"/>
-    <col min="38" max="38" width="11.5" customWidth="1"/>
-    <col min="39" max="39" width="28.33203125" customWidth="1"/>
-    <col min="40" max="40" width="12.1640625" style="42" customWidth="1"/>
-    <col min="41" max="41" width="32.83203125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.83203125" style="42" customWidth="1"/>
-    <col min="43" max="43" width="35.6640625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.1640625" customWidth="1"/>
-    <col min="45" max="45" width="12.5" customWidth="1"/>
-    <col min="46" max="46" width="15" customWidth="1"/>
-    <col min="47" max="47" width="10.83203125" customWidth="1"/>
-    <col min="48" max="48" width="14" customWidth="1"/>
-    <col min="49" max="49" width="13.1640625" customWidth="1"/>
-    <col min="50" max="50" width="15.6640625" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" customWidth="1"/>
-    <col min="52" max="52" width="12.1640625" customWidth="1"/>
-    <col min="53" max="53" width="13" customWidth="1"/>
-    <col min="54" max="54" width="10.1640625" customWidth="1"/>
-    <col min="55" max="57" width="19.83203125" customWidth="1"/>
-    <col min="58" max="58" width="20.83203125" customWidth="1"/>
-    <col min="59" max="59" width="8.6640625" customWidth="1"/>
-    <col min="60" max="61" width="15.5" customWidth="1"/>
-    <col min="62" max="62" width="13.6640625" style="11" customWidth="1"/>
-    <col min="63" max="63" width="13.1640625" style="11" customWidth="1"/>
-    <col min="64" max="64" width="13.1640625" style="68" customWidth="1"/>
-    <col min="65" max="65" width="28" style="16" customWidth="1"/>
-    <col min="66" max="66" width="31.33203125" style="16" customWidth="1"/>
-    <col min="67" max="67" width="9" customWidth="1"/>
-    <col min="68" max="68" width="16.5" customWidth="1"/>
-    <col min="69" max="69" width="16" customWidth="1"/>
-    <col min="70" max="70" width="9.5" customWidth="1"/>
-    <col min="71" max="71" width="11" style="22" customWidth="1"/>
-    <col min="72" max="72" width="11" style="72" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" style="22" customWidth="1"/>
-    <col min="74" max="74" width="14.33203125" style="22" customWidth="1"/>
-    <col min="75" max="75" width="12.6640625" style="22" customWidth="1"/>
-    <col min="76" max="76" width="13.6640625" style="22" customWidth="1"/>
-    <col min="77" max="77" width="15.33203125" style="22" customWidth="1"/>
-    <col min="78" max="78" width="15.5" style="22" customWidth="1"/>
-    <col min="79" max="79" width="14.6640625" style="22" customWidth="1"/>
-    <col min="80" max="80" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" style="16" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" style="16" customWidth="1"/>
+    <col min="25" max="25" width="13.5" style="33" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" customWidth="1"/>
+    <col min="27" max="27" width="25.5" style="33" customWidth="1"/>
+    <col min="28" max="28" width="20.1640625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="22" style="19" customWidth="1"/>
+    <col min="30" max="30" width="17.83203125" style="33" customWidth="1"/>
+    <col min="31" max="31" width="21.5" style="16" customWidth="1"/>
+    <col min="32" max="32" width="27.6640625" style="20" customWidth="1"/>
+    <col min="33" max="33" width="9.83203125" customWidth="1"/>
+    <col min="34" max="34" width="11" customWidth="1"/>
+    <col min="35" max="35" width="13.5" style="2" customWidth="1"/>
+    <col min="36" max="36" width="9.1640625" customWidth="1"/>
+    <col min="37" max="37" width="14.33203125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="15.83203125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="8.5" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" style="15" customWidth="1"/>
+    <col min="41" max="41" width="10.33203125" customWidth="1"/>
+    <col min="42" max="42" width="11.5" customWidth="1"/>
+    <col min="43" max="43" width="28.33203125" customWidth="1"/>
+    <col min="44" max="44" width="12.1640625" style="42" customWidth="1"/>
+    <col min="45" max="45" width="32.83203125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="12.83203125" style="42" customWidth="1"/>
+    <col min="47" max="47" width="35.6640625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="10.1640625" customWidth="1"/>
+    <col min="49" max="49" width="12.5" customWidth="1"/>
+    <col min="50" max="50" width="15" customWidth="1"/>
+    <col min="51" max="51" width="10.83203125" customWidth="1"/>
+    <col min="52" max="52" width="14" customWidth="1"/>
+    <col min="53" max="53" width="13.1640625" customWidth="1"/>
+    <col min="54" max="54" width="15.6640625" customWidth="1"/>
+    <col min="55" max="55" width="11.6640625" customWidth="1"/>
+    <col min="56" max="56" width="12.1640625" customWidth="1"/>
+    <col min="57" max="57" width="13" customWidth="1"/>
+    <col min="58" max="58" width="10.1640625" customWidth="1"/>
+    <col min="59" max="61" width="19.83203125" customWidth="1"/>
+    <col min="62" max="62" width="20.83203125" customWidth="1"/>
+    <col min="63" max="63" width="8.6640625" customWidth="1"/>
+    <col min="64" max="65" width="15.5" customWidth="1"/>
+    <col min="66" max="66" width="13.6640625" style="11" customWidth="1"/>
+    <col min="67" max="67" width="13.1640625" style="11" customWidth="1"/>
+    <col min="68" max="68" width="13.1640625" style="68" customWidth="1"/>
+    <col min="69" max="69" width="28" style="16" customWidth="1"/>
+    <col min="70" max="70" width="31.33203125" style="16" customWidth="1"/>
+    <col min="71" max="71" width="9" customWidth="1"/>
+    <col min="72" max="72" width="16.5" customWidth="1"/>
+    <col min="73" max="73" width="16" customWidth="1"/>
+    <col min="74" max="74" width="9.5" customWidth="1"/>
+    <col min="75" max="75" width="11" style="22" customWidth="1"/>
+    <col min="76" max="76" width="11" style="72" customWidth="1"/>
+    <col min="77" max="77" width="11.6640625" style="22" customWidth="1"/>
+    <col min="78" max="78" width="14.33203125" style="22" customWidth="1"/>
+    <col min="79" max="79" width="12.6640625" style="22" customWidth="1"/>
+    <col min="80" max="80" width="13.6640625" style="22" customWidth="1"/>
+    <col min="81" max="81" width="15.33203125" style="22" customWidth="1"/>
+    <col min="82" max="82" width="15.5" style="22" customWidth="1"/>
+    <col min="83" max="83" width="14.6640625" style="22" customWidth="1"/>
+    <col min="84" max="84" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -2813,66 +2846,69 @@
       <c r="R1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="17"/>
-      <c r="W1" s="32"/>
+      <c r="W1" s="17"/>
       <c r="X1" s="17"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="5"/>
+      <c r="Y1" s="34"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="17"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="3"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="7"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="3"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="7"/>
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
-      <c r="BA1" s="10"/>
-      <c r="BC1" s="73" t="s">
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="10"/>
+      <c r="BG1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="73"/>
-      <c r="BH1" s="73" t="s">
-        <v>52</v>
-      </c>
+      <c r="BH1" s="73"/>
       <c r="BI1" s="73"/>
       <c r="BJ1" s="73"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="73"/>
+      <c r="BL1" s="73" t="s">
+        <v>52</v>
+      </c>
       <c r="BM1" s="73"/>
       <c r="BN1" s="73"/>
-      <c r="BP1" s="73" t="s">
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="73"/>
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="73"/>
+      <c r="BT1" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="73"/>
-      <c r="BS1" s="8" t="s">
+      <c r="BU1" s="73"/>
+      <c r="BW1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="69"/>
-      <c r="BU1" s="21"/>
-      <c r="BV1" s="21"/>
-      <c r="BW1" s="21"/>
-      <c r="BX1" s="21"/>
+      <c r="BX1" s="69"/>
       <c r="BY1" s="21"/>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
     </row>
-    <row r="2" spans="1:80" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>49</v>
       </c>
@@ -2932,167 +2968,177 @@
       </c>
       <c r="V2" s="45"/>
       <c r="W2" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="X2" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y2" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="AB2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="AC2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="AD2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AE2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AF2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="43" t="s">
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AI2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AJ2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AK2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AL2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AM2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AJ2" s="47" t="s">
+      <c r="AN2" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AO2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="43" t="s">
+      <c r="AR2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AS2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="43" t="s">
+      <c r="AT2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="43" t="s">
+      <c r="AU2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="43" t="s">
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AX2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AY2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="43" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AW2" s="43" t="s">
+      <c r="BA2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="BB2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="AY2" s="43" t="s">
+      <c r="BC2" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="AZ2" s="43" t="s">
+      <c r="BD2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="BA2" s="43" t="s">
+      <c r="BE2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="BB2" s="48"/>
-      <c r="BC2" s="49" t="s">
+      <c r="BF2" s="48"/>
+      <c r="BG2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="BD2" s="49" t="s">
+      <c r="BH2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="BE2" s="49" t="s">
+      <c r="BI2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="BF2" s="49" t="s">
+      <c r="BJ2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="BG2" s="48"/>
-      <c r="BH2" s="50" t="s">
+      <c r="BK2" s="48"/>
+      <c r="BL2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="BI2" s="50" t="s">
+      <c r="BM2" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="BJ2" s="50" t="s">
+      <c r="BN2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="BK2" s="50" t="s">
+      <c r="BO2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="BL2" s="50" t="s">
+      <c r="BP2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="BM2" s="50" t="s">
+      <c r="BQ2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="BN2" s="50" t="s">
+      <c r="BR2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="BO2" s="48"/>
-      <c r="BP2" s="51" t="s">
+      <c r="BS2" s="48"/>
+      <c r="BT2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="BQ2" s="51" t="s">
+      <c r="BU2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="BR2" s="48"/>
-      <c r="BS2" s="52" t="s">
+      <c r="BV2" s="48"/>
+      <c r="BW2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="BT2" s="52" t="s">
+      <c r="BX2" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="BU2" s="52" t="s">
+      <c r="BY2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="BV2" s="52" t="s">
+      <c r="BZ2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="BW2" s="52" t="s">
+      <c r="CA2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="BX2" s="52" t="s">
+      <c r="CB2" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="BY2" s="52" t="s">
+      <c r="CC2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="BZ2" s="52" t="s">
+      <c r="CD2" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="CA2" s="52" t="s">
+      <c r="CE2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="CB2" s="48"/>
+      <c r="CF2" s="48"/>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BN3,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="23">
@@ -3150,129 +3196,139 @@
         <v>82</v>
       </c>
       <c r="V3" s="1"/>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y3" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="AB3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="56" t="s">
+      <c r="AC3" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z3" s="33" t="s">
+      <c r="AD3" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AE3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="56" t="s">
+      <c r="AF3" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="59" t="s">
+      <c r="AH3" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="AE3" s="59" t="s">
+      <c r="AI3" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="AF3" s="59" t="s">
+      <c r="AJ3" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="AG3" s="59" t="s">
+      <c r="AK3" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="61" t="s">
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="63">
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AQ3" t="s">
         <v>254</v>
       </c>
-      <c r="AN3" s="42" t="s">
+      <c r="AR3" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP3" s="42" t="s">
+      <c r="AT3" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AV3" t="s">
         <v>49</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AW3" t="s">
         <v>8</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AX3" t="s">
         <v>9</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AY3" t="s">
         <v>10</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AZ3" t="s">
         <v>67</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="BA3" t="s">
         <v>11</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BB3" t="s">
         <v>76</v>
       </c>
-      <c r="AZ3">
+      <c r="BD3">
         <v>251</v>
       </c>
-      <c r="BA3">
+      <c r="BE3">
         <v>251</v>
       </c>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BH3" s="65">
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57"/>
+      <c r="BJ3" s="57"/>
+      <c r="BL3" s="65">
         <v>41226</v>
       </c>
-      <c r="BI3" s="66" t="s">
+      <c r="BM3" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="BJ3" s="67">
+      <c r="BN3" s="67">
         <v>31.63212</v>
       </c>
-      <c r="BK3" s="67">
+      <c r="BO3" s="67">
         <v>34.5167</v>
       </c>
-      <c r="BL3" s="42" t="s">
+      <c r="BP3" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BQ3" t="s">
         <v>349</v>
       </c>
-      <c r="BN3" s="25"/>
-      <c r="BS3">
+      <c r="BR3" s="25"/>
+      <c r="BW3">
         <v>1.5</v>
       </c>
-      <c r="BT3" s="42" t="s">
+      <c r="BX3" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BU3"/>
-      <c r="BV3"/>
-      <c r="BW3"/>
-      <c r="BX3"/>
       <c r="BY3"/>
       <c r="BZ3"/>
       <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D4,"&lt;&gt;"&amp;"")+COUNTIF(BR4,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B4" s="23">
@@ -3326,129 +3382,139 @@
         <v>82</v>
       </c>
       <c r="V4" s="1"/>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="AB4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="56" t="s">
+      <c r="AC4" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="AD4" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AE4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB4" s="56" t="s">
+      <c r="AF4" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="59" t="s">
+      <c r="AH4" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="AE4" s="59" t="s">
+      <c r="AI4" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="AF4" s="59" t="s">
+      <c r="AJ4" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="AG4" s="59" t="s">
+      <c r="AK4" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="61" t="s">
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="63">
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AQ4" t="s">
         <v>254</v>
       </c>
-      <c r="AN4" s="42" t="s">
+      <c r="AR4" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP4" s="42" t="s">
+      <c r="AT4" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AV4" t="s">
         <v>49</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AW4" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AX4" t="s">
         <v>9</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AY4" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AZ4" t="s">
         <v>67</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="BA4" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BB4" t="s">
         <v>76</v>
       </c>
-      <c r="AZ4">
+      <c r="BD4">
         <v>251</v>
       </c>
-      <c r="BA4">
+      <c r="BE4">
         <v>251</v>
       </c>
-      <c r="BC4" s="57"/>
-      <c r="BD4" s="57"/>
-      <c r="BE4" s="57"/>
-      <c r="BF4" s="57"/>
-      <c r="BH4" s="65">
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BL4" s="65">
         <v>41226</v>
       </c>
-      <c r="BI4" s="66" t="s">
+      <c r="BM4" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="BJ4" s="67">
+      <c r="BN4" s="67">
         <v>31.63212</v>
       </c>
-      <c r="BK4" s="67">
+      <c r="BO4" s="67">
         <v>34.5167</v>
       </c>
-      <c r="BL4" s="42" t="s">
+      <c r="BP4" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BQ4" t="s">
         <v>349</v>
       </c>
-      <c r="BN4" s="25"/>
-      <c r="BS4">
+      <c r="BR4" s="25"/>
+      <c r="BW4">
         <v>1.5</v>
       </c>
-      <c r="BT4" s="42" t="s">
+      <c r="BX4" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BU4"/>
-      <c r="BV4"/>
-      <c r="BW4"/>
-      <c r="BX4"/>
       <c r="BY4"/>
       <c r="BZ4"/>
       <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4"/>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D5,"&lt;&gt;"&amp;"")+COUNTIF(BR5,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B5" s="23">
@@ -3506,129 +3572,139 @@
         <v>82</v>
       </c>
       <c r="V5" s="1"/>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y5" s="33">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="AB5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="56" t="s">
+      <c r="AC5" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="AD5" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AE5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB5" s="56" t="s">
+      <c r="AF5" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="59" t="s">
+      <c r="AH5" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="AE5" s="59" t="s">
+      <c r="AI5" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="AF5" s="59" t="s">
+      <c r="AJ5" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="AG5" s="59" t="s">
+      <c r="AK5" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="61" t="s">
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="63">
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AQ5" t="s">
         <v>254</v>
       </c>
-      <c r="AN5" s="42" t="s">
+      <c r="AR5" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP5" s="42" t="s">
+      <c r="AT5" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AV5" t="s">
         <v>49</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AW5" t="s">
         <v>8</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AX5" t="s">
         <v>9</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AY5" t="s">
         <v>10</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AZ5" t="s">
         <v>67</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="BA5" t="s">
         <v>11</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="BB5" t="s">
         <v>76</v>
       </c>
-      <c r="AZ5">
+      <c r="BD5">
         <v>251</v>
       </c>
-      <c r="BA5">
+      <c r="BE5">
         <v>251</v>
       </c>
-      <c r="BC5" s="57"/>
-      <c r="BD5" s="57"/>
-      <c r="BE5" s="57"/>
-      <c r="BF5" s="57"/>
-      <c r="BH5" s="65">
+      <c r="BG5" s="57"/>
+      <c r="BH5" s="57"/>
+      <c r="BI5" s="57"/>
+      <c r="BJ5" s="57"/>
+      <c r="BL5" s="65">
         <v>41226</v>
       </c>
-      <c r="BI5" s="66" t="s">
+      <c r="BM5" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="BJ5" s="67">
+      <c r="BN5" s="67">
         <v>31.63212</v>
       </c>
-      <c r="BK5" s="67">
+      <c r="BO5" s="67">
         <v>34.5167</v>
       </c>
-      <c r="BL5" s="42" t="s">
+      <c r="BP5" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BQ5" t="s">
         <v>349</v>
       </c>
-      <c r="BN5" s="25"/>
-      <c r="BS5">
+      <c r="BR5" s="25"/>
+      <c r="BW5">
         <v>1.5</v>
       </c>
-      <c r="BT5" s="42" t="s">
+      <c r="BX5" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BU5"/>
-      <c r="BV5"/>
-      <c r="BW5"/>
-      <c r="BX5"/>
       <c r="BY5"/>
       <c r="BZ5"/>
       <c r="CA5"/>
+      <c r="CB5"/>
+      <c r="CC5"/>
+      <c r="CD5"/>
+      <c r="CE5"/>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D6,"&lt;&gt;"&amp;"")+COUNTIF(BR6,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B6" s="23">
@@ -3686,129 +3762,139 @@
         <v>82</v>
       </c>
       <c r="V6" s="1"/>
-      <c r="W6" s="33" t="s">
+      <c r="W6" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y6" s="33">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="16" t="s">
+      <c r="AB6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="56" t="s">
+      <c r="AC6" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z6" s="33" t="s">
+      <c r="AD6" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA6" s="16" t="s">
+      <c r="AE6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="56" t="s">
+      <c r="AF6" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="59" t="s">
+      <c r="AH6" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="AE6" s="59" t="s">
+      <c r="AI6" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AF6" s="59" t="s">
+      <c r="AJ6" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="AG6" s="59" t="s">
+      <c r="AK6" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="61" t="s">
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="63">
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AQ6" t="s">
         <v>254</v>
       </c>
-      <c r="AN6" s="42" t="s">
+      <c r="AR6" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP6" s="42" t="s">
+      <c r="AT6" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AU6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AV6" t="s">
         <v>49</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AW6" t="s">
         <v>8</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AX6" t="s">
         <v>9</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AY6" t="s">
         <v>10</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AZ6" t="s">
         <v>67</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="BA6" t="s">
         <v>11</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="BB6" t="s">
         <v>76</v>
       </c>
-      <c r="AZ6">
+      <c r="BD6">
         <v>251</v>
       </c>
-      <c r="BA6">
+      <c r="BE6">
         <v>251</v>
       </c>
-      <c r="BC6" s="57"/>
-      <c r="BD6" s="57"/>
-      <c r="BE6" s="57"/>
-      <c r="BF6" s="57"/>
-      <c r="BH6" s="65">
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BL6" s="65">
         <v>41226</v>
       </c>
-      <c r="BI6" s="66" t="s">
+      <c r="BM6" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="BJ6" s="67">
+      <c r="BN6" s="67">
         <v>31.6341</v>
       </c>
-      <c r="BK6" s="67">
+      <c r="BO6" s="67">
         <v>34.51144</v>
       </c>
-      <c r="BL6" s="42" t="s">
+      <c r="BP6" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM6" t="s">
+      <c r="BQ6" t="s">
         <v>348</v>
       </c>
-      <c r="BN6" s="25"/>
-      <c r="BS6">
+      <c r="BR6" s="25"/>
+      <c r="BW6">
         <v>10</v>
       </c>
-      <c r="BT6" s="70" t="s">
+      <c r="BX6" s="70" t="s">
         <v>346</v>
       </c>
-      <c r="BU6"/>
-      <c r="BV6"/>
-      <c r="BW6"/>
-      <c r="BX6"/>
       <c r="BY6"/>
       <c r="BZ6"/>
       <c r="CA6"/>
+      <c r="CB6"/>
+      <c r="CC6"/>
+      <c r="CD6"/>
+      <c r="CE6"/>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D7,"&lt;&gt;"&amp;"")+COUNTIF(BR7,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B7" s="23">
@@ -3866,129 +3952,139 @@
         <v>82</v>
       </c>
       <c r="V7" s="1"/>
-      <c r="W7" s="33" t="s">
+      <c r="W7" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X7" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y7" s="33">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="16" t="s">
+      <c r="AB7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y7" s="56" t="s">
+      <c r="AC7" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z7" s="33" t="s">
+      <c r="AD7" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA7" s="16" t="s">
+      <c r="AE7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" s="56" t="s">
+      <c r="AF7" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="59" t="s">
+      <c r="AH7" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="AE7" s="59" t="s">
+      <c r="AI7" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="AF7" s="59" t="s">
+      <c r="AJ7" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="AG7" s="59" t="s">
+      <c r="AK7" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="61" t="s">
+      <c r="AL7" s="59"/>
+      <c r="AM7" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="63">
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AQ7" t="s">
         <v>254</v>
       </c>
-      <c r="AN7" s="42" t="s">
+      <c r="AR7" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AS7" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP7" s="42" t="s">
+      <c r="AT7" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AU7" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AV7" t="s">
         <v>49</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AW7" t="s">
         <v>8</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AX7" t="s">
         <v>9</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AY7" t="s">
         <v>10</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AZ7" t="s">
         <v>67</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="BA7" t="s">
         <v>11</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="BB7" t="s">
         <v>76</v>
       </c>
-      <c r="AZ7">
+      <c r="BD7">
         <v>251</v>
       </c>
-      <c r="BA7">
+      <c r="BE7">
         <v>251</v>
       </c>
-      <c r="BC7" s="57"/>
-      <c r="BD7" s="57"/>
-      <c r="BE7" s="57"/>
-      <c r="BF7" s="57"/>
-      <c r="BH7" s="65">
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="57"/>
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="57"/>
+      <c r="BL7" s="65">
         <v>41226</v>
       </c>
-      <c r="BI7" s="66" t="s">
+      <c r="BM7" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="BJ7" s="67">
+      <c r="BN7" s="67">
         <v>31.6341</v>
       </c>
-      <c r="BK7" s="67">
+      <c r="BO7" s="67">
         <v>34.51144</v>
       </c>
-      <c r="BL7" s="42" t="s">
+      <c r="BP7" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="BQ7" t="s">
         <v>348</v>
       </c>
-      <c r="BN7" s="25"/>
-      <c r="BS7">
+      <c r="BR7" s="25"/>
+      <c r="BW7">
         <v>10</v>
       </c>
-      <c r="BT7" s="71" t="s">
+      <c r="BX7" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU7"/>
-      <c r="BV7"/>
-      <c r="BW7"/>
-      <c r="BX7"/>
       <c r="BY7"/>
       <c r="BZ7"/>
       <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D8,"&lt;&gt;"&amp;"")+COUNTIF(BR8,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B8" s="23">
@@ -4046,129 +4142,139 @@
         <v>82</v>
       </c>
       <c r="V8" s="1"/>
-      <c r="W8" s="33" t="s">
+      <c r="W8" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y8" s="33">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="16" t="s">
+      <c r="AB8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y8" s="56" t="s">
+      <c r="AC8" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="33" t="s">
+      <c r="AD8" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA8" s="16" t="s">
+      <c r="AE8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB8" s="56" t="s">
+      <c r="AF8" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="59" t="s">
+      <c r="AH8" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="AE8" s="59" t="s">
+      <c r="AI8" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="AF8" s="59" t="s">
+      <c r="AJ8" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="AG8" s="59" t="s">
+      <c r="AK8" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="61" t="s">
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="63">
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AQ8" t="s">
         <v>254</v>
       </c>
-      <c r="AN8" s="42" t="s">
+      <c r="AR8" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP8" s="42" t="s">
+      <c r="AT8" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="AU8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AV8" t="s">
         <v>49</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AW8" t="s">
         <v>8</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AX8" t="s">
         <v>9</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AY8" t="s">
         <v>10</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AZ8" t="s">
         <v>67</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="BA8" t="s">
         <v>11</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="BB8" t="s">
         <v>76</v>
       </c>
-      <c r="AZ8">
+      <c r="BD8">
         <v>251</v>
       </c>
-      <c r="BA8">
+      <c r="BE8">
         <v>251</v>
       </c>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BH8" s="65">
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BL8" s="65">
         <v>41226</v>
       </c>
-      <c r="BI8" s="66" t="s">
+      <c r="BM8" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="BJ8" s="67">
+      <c r="BN8" s="67">
         <v>31.6341</v>
       </c>
-      <c r="BK8" s="67">
+      <c r="BO8" s="67">
         <v>34.51144</v>
       </c>
-      <c r="BL8" s="42" t="s">
+      <c r="BP8" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM8" t="s">
+      <c r="BQ8" t="s">
         <v>348</v>
       </c>
-      <c r="BN8" s="25"/>
-      <c r="BS8">
+      <c r="BR8" s="25"/>
+      <c r="BW8">
         <v>10</v>
       </c>
-      <c r="BT8" s="71" t="s">
+      <c r="BX8" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU8"/>
-      <c r="BV8"/>
-      <c r="BW8"/>
-      <c r="BX8"/>
       <c r="BY8"/>
       <c r="BZ8"/>
       <c r="CA8"/>
+      <c r="CB8"/>
+      <c r="CC8"/>
+      <c r="CD8"/>
+      <c r="CE8"/>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D9,"&lt;&gt;"&amp;"")+COUNTIF(BR9,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B9" s="23">
@@ -4226,129 +4332,139 @@
         <v>82</v>
       </c>
       <c r="V9" s="1"/>
-      <c r="W9" s="33" t="s">
+      <c r="W9" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y9" s="33">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X9" s="16" t="s">
+      <c r="AB9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y9" s="56" t="s">
+      <c r="AC9" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z9" s="33" t="s">
+      <c r="AD9" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="16" t="s">
+      <c r="AE9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB9" s="56" t="s">
+      <c r="AF9" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AG9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="59" t="s">
+      <c r="AH9" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="AE9" s="59" t="s">
+      <c r="AI9" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="AF9" s="59" t="s">
+      <c r="AJ9" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="AG9" s="59" t="s">
+      <c r="AK9" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="61" t="s">
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="63">
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AQ9" t="s">
         <v>254</v>
       </c>
-      <c r="AN9" s="42" t="s">
+      <c r="AR9" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AS9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP9" s="42" t="s">
+      <c r="AT9" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AU9" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AV9" t="s">
         <v>49</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AW9" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AX9" t="s">
         <v>9</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AY9" t="s">
         <v>10</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AZ9" t="s">
         <v>67</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="BA9" t="s">
         <v>11</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="BB9" t="s">
         <v>76</v>
       </c>
-      <c r="AZ9">
+      <c r="BD9">
         <v>251</v>
       </c>
-      <c r="BA9">
+      <c r="BE9">
         <v>251</v>
       </c>
-      <c r="BC9" s="57"/>
-      <c r="BD9" s="57"/>
-      <c r="BE9" s="57"/>
-      <c r="BF9" s="57"/>
-      <c r="BH9" s="65">
+      <c r="BG9" s="57"/>
+      <c r="BH9" s="57"/>
+      <c r="BI9" s="57"/>
+      <c r="BJ9" s="57"/>
+      <c r="BL9" s="65">
         <v>41226</v>
       </c>
-      <c r="BI9" s="66" t="s">
+      <c r="BM9" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="BJ9" s="67">
+      <c r="BN9" s="67">
         <v>31.671759999999999</v>
       </c>
-      <c r="BK9" s="67">
+      <c r="BO9" s="67">
         <v>34.543559999999999</v>
       </c>
-      <c r="BL9" s="42" t="s">
+      <c r="BP9" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="BQ9" t="s">
         <v>350</v>
       </c>
-      <c r="BN9" s="25"/>
-      <c r="BS9">
+      <c r="BR9" s="25"/>
+      <c r="BW9">
         <v>5</v>
       </c>
-      <c r="BT9" s="71" t="s">
+      <c r="BX9" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU9"/>
-      <c r="BV9"/>
-      <c r="BW9"/>
-      <c r="BX9"/>
       <c r="BY9"/>
       <c r="BZ9"/>
       <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D10,"&lt;&gt;"&amp;"")+COUNTIF(BR10,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B10" s="23">
@@ -4406,129 +4522,139 @@
         <v>82</v>
       </c>
       <c r="V10" s="1"/>
-      <c r="W10" s="33" t="s">
+      <c r="W10" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y10" s="33">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X10" s="16" t="s">
+      <c r="AB10" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y10" s="56" t="s">
+      <c r="AC10" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="33" t="s">
+      <c r="AD10" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA10" s="16" t="s">
+      <c r="AE10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="56" t="s">
+      <c r="AF10" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AG10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="59" t="s">
+      <c r="AH10" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="AE10" s="59" t="s">
+      <c r="AI10" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="AF10" s="59" t="s">
+      <c r="AJ10" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="AG10" s="59" t="s">
+      <c r="AK10" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="61" t="s">
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="63">
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AQ10" t="s">
         <v>254</v>
       </c>
-      <c r="AN10" s="42" t="s">
+      <c r="AR10" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AS10" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP10" s="42" t="s">
+      <c r="AT10" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ10" s="1" t="s">
+      <c r="AU10" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AV10" t="s">
         <v>49</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AW10" t="s">
         <v>8</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AX10" t="s">
         <v>9</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AY10" t="s">
         <v>10</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AZ10" t="s">
         <v>67</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="BA10" t="s">
         <v>11</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="BB10" t="s">
         <v>76</v>
       </c>
-      <c r="AZ10">
+      <c r="BD10">
         <v>251</v>
       </c>
-      <c r="BA10">
+      <c r="BE10">
         <v>251</v>
       </c>
-      <c r="BC10" s="57"/>
-      <c r="BD10" s="57"/>
-      <c r="BE10" s="57"/>
-      <c r="BF10" s="57"/>
-      <c r="BH10" s="65">
+      <c r="BG10" s="57"/>
+      <c r="BH10" s="57"/>
+      <c r="BI10" s="57"/>
+      <c r="BJ10" s="57"/>
+      <c r="BL10" s="65">
         <v>41226</v>
       </c>
-      <c r="BI10" s="66" t="s">
+      <c r="BM10" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="BJ10" s="67">
+      <c r="BN10" s="67">
         <v>31.671759999999999</v>
       </c>
-      <c r="BK10" s="67">
+      <c r="BO10" s="67">
         <v>34.543559999999999</v>
       </c>
-      <c r="BL10" s="42" t="s">
+      <c r="BP10" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM10" t="s">
+      <c r="BQ10" t="s">
         <v>350</v>
       </c>
-      <c r="BN10" s="25"/>
-      <c r="BS10">
+      <c r="BR10" s="25"/>
+      <c r="BW10">
         <v>5</v>
       </c>
-      <c r="BT10" s="71" t="s">
+      <c r="BX10" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
       <c r="BY10"/>
       <c r="BZ10"/>
       <c r="CA10"/>
+      <c r="CB10"/>
+      <c r="CC10"/>
+      <c r="CD10"/>
+      <c r="CE10"/>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D11,"&lt;&gt;"&amp;"")+COUNTIF(BR11,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B11" s="23">
@@ -4586,129 +4712,139 @@
         <v>82</v>
       </c>
       <c r="V11" s="1"/>
-      <c r="W11" s="33" t="s">
+      <c r="W11" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y11" s="33">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="AB11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y11" s="56" t="s">
+      <c r="AC11" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z11" s="33" t="s">
+      <c r="AD11" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="AE11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB11" s="56" t="s">
+      <c r="AF11" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="59" t="s">
+      <c r="AH11" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="AE11" s="59" t="s">
+      <c r="AI11" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="AF11" s="59" t="s">
+      <c r="AJ11" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="AG11" s="59" t="s">
+      <c r="AK11" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="61" t="s">
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="63">
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AQ11" t="s">
         <v>254</v>
       </c>
-      <c r="AN11" s="42" t="s">
+      <c r="AR11" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AS11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP11" s="42" t="s">
+      <c r="AT11" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ11" s="1" t="s">
+      <c r="AU11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AV11" t="s">
         <v>49</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AW11" t="s">
         <v>8</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AX11" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AY11" t="s">
         <v>10</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AZ11" t="s">
         <v>67</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="BA11" t="s">
         <v>11</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="BB11" t="s">
         <v>76</v>
       </c>
-      <c r="AZ11">
+      <c r="BD11">
         <v>251</v>
       </c>
-      <c r="BA11">
+      <c r="BE11">
         <v>251</v>
       </c>
-      <c r="BC11" s="57"/>
-      <c r="BD11" s="57"/>
-      <c r="BE11" s="57"/>
-      <c r="BF11" s="57"/>
-      <c r="BH11" s="65">
+      <c r="BG11" s="57"/>
+      <c r="BH11" s="57"/>
+      <c r="BI11" s="57"/>
+      <c r="BJ11" s="57"/>
+      <c r="BL11" s="65">
         <v>41226</v>
       </c>
-      <c r="BI11" s="66" t="s">
+      <c r="BM11" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="BJ11" s="67">
+      <c r="BN11" s="67">
         <v>31.671759999999999</v>
       </c>
-      <c r="BK11" s="67">
+      <c r="BO11" s="67">
         <v>34.543559999999999</v>
       </c>
-      <c r="BL11" s="42" t="s">
+      <c r="BP11" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BQ11" t="s">
         <v>350</v>
       </c>
-      <c r="BN11" s="25"/>
-      <c r="BS11">
+      <c r="BR11" s="25"/>
+      <c r="BW11">
         <v>5</v>
       </c>
-      <c r="BT11" s="71" t="s">
+      <c r="BX11" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU11"/>
-      <c r="BV11"/>
-      <c r="BW11"/>
-      <c r="BX11"/>
       <c r="BY11"/>
       <c r="BZ11"/>
       <c r="CA11"/>
+      <c r="CB11"/>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D12,"&lt;&gt;"&amp;"")+COUNTIF(BR12,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B12" s="23">
@@ -4766,129 +4902,139 @@
         <v>82</v>
       </c>
       <c r="V12" s="1"/>
-      <c r="W12" s="33" t="s">
+      <c r="W12" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y12" s="33">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X12" s="16" t="s">
+      <c r="AB12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="56" t="s">
+      <c r="AC12" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="33" t="s">
+      <c r="AD12" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA12" s="16" t="s">
+      <c r="AE12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB12" s="56" t="s">
+      <c r="AF12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AG12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="59" t="s">
+      <c r="AH12" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="AE12" s="59" t="s">
+      <c r="AI12" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="AF12" s="59" t="s">
+      <c r="AJ12" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="AG12" s="59" t="s">
+      <c r="AK12" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="61" t="s">
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="63">
+      <c r="AN12" s="62"/>
+      <c r="AO12" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AQ12" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="42" t="s">
+      <c r="AR12" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO12" s="1" t="s">
+      <c r="AS12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP12" s="42" t="s">
+      <c r="AT12" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ12" s="1" t="s">
+      <c r="AU12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AV12" t="s">
         <v>49</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AW12" t="s">
         <v>8</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AX12" t="s">
         <v>9</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AY12" t="s">
         <v>10</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AZ12" t="s">
         <v>67</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="BA12" t="s">
         <v>11</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="BB12" t="s">
         <v>76</v>
       </c>
-      <c r="AZ12">
+      <c r="BD12">
         <v>251</v>
       </c>
-      <c r="BA12">
+      <c r="BE12">
         <v>251</v>
       </c>
-      <c r="BC12" s="57"/>
-      <c r="BD12" s="57"/>
-      <c r="BE12" s="57"/>
-      <c r="BF12" s="57"/>
-      <c r="BH12" s="65">
+      <c r="BG12" s="57"/>
+      <c r="BH12" s="57"/>
+      <c r="BI12" s="57"/>
+      <c r="BJ12" s="57"/>
+      <c r="BL12" s="65">
         <v>41227</v>
       </c>
-      <c r="BI12" s="66" t="s">
+      <c r="BM12" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="BJ12" s="67">
+      <c r="BN12" s="67">
         <v>31.941859999999998</v>
       </c>
-      <c r="BK12" s="67">
+      <c r="BO12" s="67">
         <v>34.68862</v>
       </c>
-      <c r="BL12" s="42" t="s">
+      <c r="BP12" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM12" s="58" t="s">
+      <c r="BQ12" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="BN12" s="25"/>
-      <c r="BS12">
+      <c r="BR12" s="25"/>
+      <c r="BW12">
         <v>18</v>
       </c>
-      <c r="BT12" s="71" t="s">
+      <c r="BX12" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU12"/>
-      <c r="BV12"/>
-      <c r="BW12"/>
-      <c r="BX12"/>
       <c r="BY12"/>
       <c r="BZ12"/>
       <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D13,"&lt;&gt;"&amp;"")+COUNTIF(BR13,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B13" s="23">
@@ -4946,129 +5092,139 @@
         <v>82</v>
       </c>
       <c r="V13" s="1"/>
-      <c r="W13" s="33" t="s">
+      <c r="W13" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y13" s="33">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="AB13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y13" s="56" t="s">
+      <c r="AC13" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z13" s="33" t="s">
+      <c r="AD13" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA13" s="16" t="s">
+      <c r="AE13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB13" s="56" t="s">
+      <c r="AF13" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AG13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="59" t="s">
+      <c r="AH13" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="AE13" s="59" t="s">
+      <c r="AI13" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="AF13" s="59" t="s">
+      <c r="AJ13" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="AG13" s="59" t="s">
+      <c r="AK13" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="61" t="s">
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="63">
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AQ13" t="s">
         <v>254</v>
       </c>
-      <c r="AN13" s="42" t="s">
+      <c r="AR13" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO13" s="1" t="s">
+      <c r="AS13" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP13" s="42" t="s">
+      <c r="AT13" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ13" s="1" t="s">
+      <c r="AU13" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AV13" t="s">
         <v>49</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AW13" t="s">
         <v>8</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AX13" t="s">
         <v>9</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AY13" t="s">
         <v>10</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AZ13" t="s">
         <v>67</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="BA13" t="s">
         <v>11</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="BB13" t="s">
         <v>76</v>
       </c>
-      <c r="AZ13">
+      <c r="BD13">
         <v>251</v>
       </c>
-      <c r="BA13">
+      <c r="BE13">
         <v>251</v>
       </c>
-      <c r="BC13" s="57"/>
-      <c r="BD13" s="57"/>
-      <c r="BE13" s="57"/>
-      <c r="BF13" s="57"/>
-      <c r="BH13" s="65">
+      <c r="BG13" s="57"/>
+      <c r="BH13" s="57"/>
+      <c r="BI13" s="57"/>
+      <c r="BJ13" s="57"/>
+      <c r="BL13" s="65">
         <v>41227</v>
       </c>
-      <c r="BI13" s="66" t="s">
+      <c r="BM13" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="BJ13" s="67">
+      <c r="BN13" s="67">
         <v>31.941859999999998</v>
       </c>
-      <c r="BK13" s="67">
+      <c r="BO13" s="67">
         <v>34.68862</v>
       </c>
-      <c r="BL13" s="42" t="s">
+      <c r="BP13" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM13" s="58" t="s">
+      <c r="BQ13" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="BN13" s="25"/>
-      <c r="BS13">
+      <c r="BR13" s="25"/>
+      <c r="BW13">
         <v>18</v>
       </c>
-      <c r="BT13" s="71" t="s">
+      <c r="BX13" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU13"/>
-      <c r="BV13"/>
-      <c r="BW13"/>
-      <c r="BX13"/>
       <c r="BY13"/>
       <c r="BZ13"/>
       <c r="CA13"/>
+      <c r="CB13"/>
+      <c r="CC13"/>
+      <c r="CD13"/>
+      <c r="CE13"/>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D14,"&lt;&gt;"&amp;"")+COUNTIF(BR14,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B14" s="23">
@@ -5126,129 +5282,139 @@
         <v>82</v>
       </c>
       <c r="V14" s="1"/>
-      <c r="W14" s="33" t="s">
+      <c r="W14" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y14" s="33">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X14" s="16" t="s">
+      <c r="AB14" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y14" s="56" t="s">
+      <c r="AC14" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z14" s="33" t="s">
+      <c r="AD14" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA14" s="16" t="s">
+      <c r="AE14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB14" s="56" t="s">
+      <c r="AF14" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AG14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" s="59" t="s">
+      <c r="AH14" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AE14" s="59" t="s">
+      <c r="AI14" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="AF14" s="59" t="s">
+      <c r="AJ14" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="AG14" s="59" t="s">
+      <c r="AK14" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="61" t="s">
+      <c r="AL14" s="59"/>
+      <c r="AM14" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="63">
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AQ14" t="s">
         <v>254</v>
       </c>
-      <c r="AN14" s="42" t="s">
+      <c r="AR14" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO14" s="1" t="s">
+      <c r="AS14" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP14" s="42" t="s">
+      <c r="AT14" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ14" s="1" t="s">
+      <c r="AU14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AV14" t="s">
         <v>49</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AW14" t="s">
         <v>8</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AX14" t="s">
         <v>9</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AY14" t="s">
         <v>10</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AZ14" t="s">
         <v>67</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="BA14" t="s">
         <v>11</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="BB14" t="s">
         <v>76</v>
       </c>
-      <c r="AZ14">
+      <c r="BD14">
         <v>251</v>
       </c>
-      <c r="BA14">
+      <c r="BE14">
         <v>251</v>
       </c>
-      <c r="BC14" s="57"/>
-      <c r="BD14" s="57"/>
-      <c r="BE14" s="57"/>
-      <c r="BF14" s="57"/>
-      <c r="BH14" s="65">
+      <c r="BG14" s="57"/>
+      <c r="BH14" s="57"/>
+      <c r="BI14" s="57"/>
+      <c r="BJ14" s="57"/>
+      <c r="BL14" s="65">
         <v>41227</v>
       </c>
-      <c r="BI14" s="66" t="s">
+      <c r="BM14" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="BJ14" s="67">
+      <c r="BN14" s="67">
         <v>31.941859999999998</v>
       </c>
-      <c r="BK14" s="67">
+      <c r="BO14" s="67">
         <v>34.68862</v>
       </c>
-      <c r="BL14" s="42" t="s">
+      <c r="BP14" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM14" s="58" t="s">
+      <c r="BQ14" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="BN14" s="25"/>
-      <c r="BS14">
+      <c r="BR14" s="25"/>
+      <c r="BW14">
         <v>18</v>
       </c>
-      <c r="BT14" s="71" t="s">
+      <c r="BX14" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU14"/>
-      <c r="BV14"/>
-      <c r="BW14"/>
-      <c r="BX14"/>
       <c r="BY14"/>
       <c r="BZ14"/>
       <c r="CA14"/>
+      <c r="CB14"/>
+      <c r="CC14"/>
+      <c r="CD14"/>
+      <c r="CE14"/>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D15,"&lt;&gt;"&amp;"")+COUNTIF(BR15,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B15" s="23">
@@ -5306,129 +5472,139 @@
         <v>82</v>
       </c>
       <c r="V15" s="1"/>
-      <c r="W15" s="33" t="s">
+      <c r="W15" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y15" s="33">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X15" s="16" t="s">
+      <c r="AB15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y15" s="56" t="s">
+      <c r="AC15" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z15" s="33" t="s">
+      <c r="AD15" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA15" s="16" t="s">
+      <c r="AE15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB15" s="56" t="s">
+      <c r="AF15" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="59" t="s">
+      <c r="AH15" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="AE15" s="59" t="s">
+      <c r="AI15" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="AF15" s="59" t="s">
+      <c r="AJ15" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="AG15" s="59" t="s">
+      <c r="AK15" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="61" t="s">
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="63">
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AQ15" t="s">
         <v>254</v>
       </c>
-      <c r="AN15" s="42" t="s">
+      <c r="AR15" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO15" s="1" t="s">
+      <c r="AS15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP15" s="42" t="s">
+      <c r="AT15" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ15" s="1" t="s">
+      <c r="AU15" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AV15" t="s">
         <v>49</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AW15" t="s">
         <v>8</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AX15" t="s">
         <v>9</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AY15" t="s">
         <v>10</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AZ15" t="s">
         <v>67</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="BA15" t="s">
         <v>11</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="BB15" t="s">
         <v>76</v>
       </c>
-      <c r="AZ15">
+      <c r="BD15">
         <v>251</v>
       </c>
-      <c r="BA15">
+      <c r="BE15">
         <v>251</v>
       </c>
-      <c r="BC15" s="57"/>
-      <c r="BD15" s="57"/>
-      <c r="BE15" s="57"/>
-      <c r="BF15" s="57"/>
-      <c r="BH15" s="65">
+      <c r="BG15" s="57"/>
+      <c r="BH15" s="57"/>
+      <c r="BI15" s="57"/>
+      <c r="BJ15" s="57"/>
+      <c r="BL15" s="65">
         <v>41227</v>
       </c>
-      <c r="BI15" s="66" t="s">
+      <c r="BM15" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="BJ15" s="67">
+      <c r="BN15" s="67">
         <v>31.94068</v>
       </c>
-      <c r="BK15" s="67">
+      <c r="BO15" s="67">
         <v>34.687379999999997</v>
       </c>
-      <c r="BL15" s="42" t="s">
+      <c r="BP15" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM15" s="58" t="s">
+      <c r="BQ15" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="BN15" s="25"/>
-      <c r="BS15">
+      <c r="BR15" s="25"/>
+      <c r="BW15">
         <v>19</v>
       </c>
-      <c r="BT15" s="71" t="s">
+      <c r="BX15" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU15"/>
-      <c r="BV15"/>
-      <c r="BW15"/>
-      <c r="BX15"/>
       <c r="BY15"/>
       <c r="BZ15"/>
       <c r="CA15"/>
+      <c r="CB15"/>
+      <c r="CC15"/>
+      <c r="CD15"/>
+      <c r="CE15"/>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D16,"&lt;&gt;"&amp;"")+COUNTIF(BR16,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B16" s="23">
@@ -5484,124 +5660,134 @@
         <v>82</v>
       </c>
       <c r="V16" s="1"/>
-      <c r="W16" s="33" t="s">
+      <c r="W16" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y16" s="33">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X16" s="16" t="s">
+      <c r="AB16" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y16" s="56" t="s">
+      <c r="AC16" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z16" s="33" t="s">
+      <c r="AD16" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA16" s="16" t="s">
+      <c r="AE16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB16" s="56" t="s">
+      <c r="AF16" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="59" t="s">
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="AE16" s="59" t="s">
+      <c r="AI16" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="AF16" s="59" t="s">
+      <c r="AJ16" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="AG16" s="59" t="s">
+      <c r="AK16" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="61" t="s">
+      <c r="AL16" s="59"/>
+      <c r="AM16" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="63">
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AQ16" t="s">
         <v>254</v>
       </c>
-      <c r="AN16" s="42" t="s">
+      <c r="AR16" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO16" s="1" t="s">
+      <c r="AS16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP16" s="42" t="s">
+      <c r="AT16" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ16" s="1" t="s">
+      <c r="AU16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AW16" t="s">
         <v>8</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AX16" t="s">
         <v>9</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AY16" t="s">
         <v>10</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AZ16" t="s">
         <v>67</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="BA16" t="s">
         <v>11</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="BB16" t="s">
         <v>76</v>
       </c>
-      <c r="AZ16">
+      <c r="BD16">
         <v>251</v>
       </c>
-      <c r="BA16">
+      <c r="BE16">
         <v>251</v>
       </c>
-      <c r="BC16" s="57"/>
-      <c r="BD16" s="57"/>
-      <c r="BE16" s="57"/>
-      <c r="BF16" s="57"/>
-      <c r="BH16" s="65">
+      <c r="BG16" s="57"/>
+      <c r="BH16" s="57"/>
+      <c r="BI16" s="57"/>
+      <c r="BJ16" s="57"/>
+      <c r="BL16" s="65">
         <v>41227</v>
       </c>
-      <c r="BI16" s="66" t="s">
+      <c r="BM16" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="BJ16" s="67">
+      <c r="BN16" s="67">
         <v>31.94068</v>
       </c>
-      <c r="BK16" s="67">
+      <c r="BO16" s="67">
         <v>34.687379999999997</v>
       </c>
-      <c r="BL16" s="42" t="s">
+      <c r="BP16" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM16" s="58" t="s">
+      <c r="BQ16" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="BN16" s="25"/>
-      <c r="BS16">
+      <c r="BR16" s="25"/>
+      <c r="BW16">
         <v>19</v>
       </c>
-      <c r="BT16" s="71" t="s">
+      <c r="BX16" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU16"/>
-      <c r="BV16"/>
-      <c r="BW16"/>
-      <c r="BX16"/>
       <c r="BY16"/>
       <c r="BZ16"/>
       <c r="CA16"/>
+      <c r="CB16"/>
+      <c r="CC16"/>
+      <c r="CD16"/>
+      <c r="CE16"/>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D17,"&lt;&gt;"&amp;"")+COUNTIF(BR17,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B17" s="23">
@@ -5657,124 +5843,134 @@
         <v>82</v>
       </c>
       <c r="V17" s="1"/>
-      <c r="W17" s="33" t="s">
+      <c r="W17" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y17" s="33">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X17" s="16" t="s">
+      <c r="AB17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y17" s="56" t="s">
+      <c r="AC17" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z17" s="33" t="s">
+      <c r="AD17" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA17" s="16" t="s">
+      <c r="AE17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB17" s="56" t="s">
+      <c r="AF17" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="59" t="s">
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="AE17" s="59" t="s">
+      <c r="AI17" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="AF17" s="59" t="s">
+      <c r="AJ17" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="AG17" s="59" t="s">
+      <c r="AK17" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="61" t="s">
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="63">
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AQ17" t="s">
         <v>254</v>
       </c>
-      <c r="AN17" s="42" t="s">
+      <c r="AR17" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO17" s="1" t="s">
+      <c r="AS17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP17" s="42" t="s">
+      <c r="AT17" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ17" s="1" t="s">
+      <c r="AU17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AW17" t="s">
         <v>8</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AX17" t="s">
         <v>9</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AY17" t="s">
         <v>10</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AZ17" t="s">
         <v>67</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="BA17" t="s">
         <v>11</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="BB17" t="s">
         <v>76</v>
       </c>
-      <c r="AZ17">
+      <c r="BD17">
         <v>251</v>
       </c>
-      <c r="BA17">
+      <c r="BE17">
         <v>251</v>
       </c>
-      <c r="BC17" s="57"/>
-      <c r="BD17" s="57"/>
-      <c r="BE17" s="57"/>
-      <c r="BF17" s="57"/>
-      <c r="BH17" s="65">
+      <c r="BG17" s="57"/>
+      <c r="BH17" s="57"/>
+      <c r="BI17" s="57"/>
+      <c r="BJ17" s="57"/>
+      <c r="BL17" s="65">
         <v>41227</v>
       </c>
-      <c r="BI17" s="66" t="s">
+      <c r="BM17" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="BJ17" s="67">
+      <c r="BN17" s="67">
         <v>31.94068</v>
       </c>
-      <c r="BK17" s="67">
+      <c r="BO17" s="67">
         <v>34.687379999999997</v>
       </c>
-      <c r="BL17" s="42" t="s">
+      <c r="BP17" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM17" s="58" t="s">
+      <c r="BQ17" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="BN17" s="25"/>
-      <c r="BS17">
+      <c r="BR17" s="25"/>
+      <c r="BW17">
         <v>19</v>
       </c>
-      <c r="BT17" s="71" t="s">
+      <c r="BX17" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU17"/>
-      <c r="BV17"/>
-      <c r="BW17"/>
-      <c r="BX17"/>
       <c r="BY17"/>
       <c r="BZ17"/>
       <c r="CA17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
+      <c r="CD17"/>
+      <c r="CE17"/>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D18,"&lt;&gt;"&amp;"")+COUNTIF(BR18,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B18" s="23">
@@ -5830,124 +6026,134 @@
         <v>82</v>
       </c>
       <c r="V18" s="1"/>
-      <c r="W18" s="33" t="s">
+      <c r="W18" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y18" s="33">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="16" t="s">
+      <c r="AB18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y18" s="56" t="s">
+      <c r="AC18" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z18" s="33" t="s">
+      <c r="AD18" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA18" s="16" t="s">
+      <c r="AE18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB18" s="56" t="s">
+      <c r="AF18" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="59" t="s">
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="AE18" s="59" t="s">
+      <c r="AI18" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AF18" s="59" t="s">
+      <c r="AJ18" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="AG18" s="59" t="s">
+      <c r="AK18" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="61" t="s">
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="63">
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AQ18" t="s">
         <v>254</v>
       </c>
-      <c r="AN18" s="42" t="s">
+      <c r="AR18" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO18" s="1" t="s">
+      <c r="AS18" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP18" s="42" t="s">
+      <c r="AT18" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ18" s="1" t="s">
+      <c r="AU18" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AW18" t="s">
         <v>8</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AX18" t="s">
         <v>9</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AY18" t="s">
         <v>10</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AZ18" t="s">
         <v>67</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="BA18" t="s">
         <v>11</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="BB18" t="s">
         <v>76</v>
       </c>
-      <c r="AZ18">
+      <c r="BD18">
         <v>251</v>
       </c>
-      <c r="BA18">
+      <c r="BE18">
         <v>251</v>
       </c>
-      <c r="BC18" s="57"/>
-      <c r="BD18" s="57"/>
-      <c r="BE18" s="57"/>
-      <c r="BF18" s="57"/>
-      <c r="BH18" s="65">
+      <c r="BG18" s="57"/>
+      <c r="BH18" s="57"/>
+      <c r="BI18" s="57"/>
+      <c r="BJ18" s="57"/>
+      <c r="BL18" s="65">
         <v>41227</v>
       </c>
-      <c r="BI18" s="66" t="s">
+      <c r="BM18" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="BJ18" s="67">
+      <c r="BN18" s="67">
         <v>31.931660000000001</v>
       </c>
-      <c r="BK18" s="67">
+      <c r="BO18" s="67">
         <v>34.68336</v>
       </c>
-      <c r="BL18" s="42" t="s">
+      <c r="BP18" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM18" s="58" t="s">
+      <c r="BQ18" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="BN18" s="25"/>
-      <c r="BS18">
+      <c r="BR18" s="25"/>
+      <c r="BW18">
         <v>18</v>
       </c>
-      <c r="BT18" s="71" t="s">
+      <c r="BX18" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU18"/>
-      <c r="BV18"/>
-      <c r="BW18"/>
-      <c r="BX18"/>
       <c r="BY18"/>
       <c r="BZ18"/>
       <c r="CA18"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
+      <c r="CD18"/>
+      <c r="CE18"/>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D19,"&lt;&gt;"&amp;"")+COUNTIF(BR19,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B19" s="23">
@@ -6003,124 +6209,134 @@
         <v>82</v>
       </c>
       <c r="V19" s="1"/>
-      <c r="W19" s="33" t="s">
+      <c r="W19" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y19" s="33">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X19" s="16" t="s">
+      <c r="AB19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y19" s="56" t="s">
+      <c r="AC19" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z19" s="33" t="s">
+      <c r="AD19" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA19" s="16" t="s">
+      <c r="AE19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB19" s="56" t="s">
+      <c r="AF19" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="59" t="s">
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="AE19" s="59" t="s">
+      <c r="AI19" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="AF19" s="59" t="s">
+      <c r="AJ19" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="AG19" s="59" t="s">
+      <c r="AK19" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="61" t="s">
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="63">
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AQ19" t="s">
         <v>254</v>
       </c>
-      <c r="AN19" s="42" t="s">
+      <c r="AR19" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO19" s="1" t="s">
+      <c r="AS19" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP19" s="42" t="s">
+      <c r="AT19" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ19" s="1" t="s">
+      <c r="AU19" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AW19" t="s">
         <v>8</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AX19" t="s">
         <v>9</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AY19" t="s">
         <v>10</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AZ19" t="s">
         <v>67</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="BA19" t="s">
         <v>11</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="BB19" t="s">
         <v>76</v>
       </c>
-      <c r="AZ19">
+      <c r="BD19">
         <v>251</v>
       </c>
-      <c r="BA19">
+      <c r="BE19">
         <v>251</v>
       </c>
-      <c r="BC19" s="57"/>
-      <c r="BD19" s="57"/>
-      <c r="BE19" s="57"/>
-      <c r="BF19" s="57"/>
-      <c r="BH19" s="65">
+      <c r="BG19" s="57"/>
+      <c r="BH19" s="57"/>
+      <c r="BI19" s="57"/>
+      <c r="BJ19" s="57"/>
+      <c r="BL19" s="65">
         <v>41227</v>
       </c>
-      <c r="BI19" s="66" t="s">
+      <c r="BM19" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="BJ19" s="67">
+      <c r="BN19" s="67">
         <v>31.931660000000001</v>
       </c>
-      <c r="BK19" s="67">
+      <c r="BO19" s="67">
         <v>34.68336</v>
       </c>
-      <c r="BL19" s="42" t="s">
+      <c r="BP19" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM19" t="s">
+      <c r="BQ19" t="s">
         <v>352</v>
       </c>
-      <c r="BN19" s="25"/>
-      <c r="BS19">
+      <c r="BR19" s="25"/>
+      <c r="BW19">
         <v>18</v>
       </c>
-      <c r="BT19" s="71" t="s">
+      <c r="BX19" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU19"/>
-      <c r="BV19"/>
-      <c r="BW19"/>
-      <c r="BX19"/>
       <c r="BY19"/>
       <c r="BZ19"/>
       <c r="CA19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
+      <c r="CD19"/>
+      <c r="CE19"/>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D20,"&lt;&gt;"&amp;"")+COUNTIF(BR20,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B20" s="23">
@@ -6176,124 +6392,134 @@
         <v>82</v>
       </c>
       <c r="V20" s="1"/>
-      <c r="W20" s="33" t="s">
+      <c r="W20" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y20" s="33">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X20" s="16" t="s">
+      <c r="AB20" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y20" s="56" t="s">
+      <c r="AC20" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="33" t="s">
+      <c r="AD20" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA20" s="16" t="s">
+      <c r="AE20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB20" s="56" t="s">
+      <c r="AF20" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="59" t="s">
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="AE20" s="59" t="s">
+      <c r="AI20" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="AF20" s="59" t="s">
+      <c r="AJ20" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="AG20" s="59" t="s">
+      <c r="AK20" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="61" t="s">
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="63">
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AQ20" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="42" t="s">
+      <c r="AR20" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO20" s="1" t="s">
+      <c r="AS20" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP20" s="42" t="s">
+      <c r="AT20" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ20" s="1" t="s">
+      <c r="AU20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AW20" t="s">
         <v>8</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AX20" t="s">
         <v>9</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AY20" t="s">
         <v>10</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AZ20" t="s">
         <v>67</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="BA20" t="s">
         <v>11</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="BB20" t="s">
         <v>76</v>
       </c>
-      <c r="AZ20">
+      <c r="BD20">
         <v>251</v>
       </c>
-      <c r="BA20">
+      <c r="BE20">
         <v>251</v>
       </c>
-      <c r="BC20" s="57"/>
-      <c r="BD20" s="57"/>
-      <c r="BE20" s="57"/>
-      <c r="BF20" s="57"/>
-      <c r="BH20" s="65">
+      <c r="BG20" s="57"/>
+      <c r="BH20" s="57"/>
+      <c r="BI20" s="57"/>
+      <c r="BJ20" s="57"/>
+      <c r="BL20" s="65">
         <v>41227</v>
       </c>
-      <c r="BI20" s="66" t="s">
+      <c r="BM20" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="BJ20" s="67">
+      <c r="BN20" s="67">
         <v>31.931660000000001</v>
       </c>
-      <c r="BK20" s="67">
+      <c r="BO20" s="67">
         <v>34.68336</v>
       </c>
-      <c r="BL20" s="42" t="s">
+      <c r="BP20" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM20" t="s">
+      <c r="BQ20" t="s">
         <v>352</v>
       </c>
-      <c r="BN20" s="25"/>
-      <c r="BS20">
+      <c r="BR20" s="25"/>
+      <c r="BW20">
         <v>18</v>
       </c>
-      <c r="BT20" s="71" t="s">
+      <c r="BX20" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU20"/>
-      <c r="BV20"/>
-      <c r="BW20"/>
-      <c r="BX20"/>
       <c r="BY20"/>
       <c r="BZ20"/>
       <c r="CA20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
+      <c r="CD20"/>
+      <c r="CE20"/>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D21,"&lt;&gt;"&amp;"")+COUNTIF(BR21,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B21" s="23">
@@ -6345,124 +6571,134 @@
         <v>82</v>
       </c>
       <c r="V21" s="1"/>
-      <c r="W21" s="33" t="s">
+      <c r="W21" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="X21" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y21" s="33">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X21" s="16" t="s">
+      <c r="AB21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y21" s="56" t="s">
+      <c r="AC21" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z21" s="33" t="s">
+      <c r="AD21" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA21" s="16" t="s">
+      <c r="AE21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB21" s="56" t="s">
+      <c r="AF21" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="59" t="s">
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="AE21" s="59" t="s">
+      <c r="AI21" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="AF21" s="59" t="s">
+      <c r="AJ21" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="AG21" s="59" t="s">
+      <c r="AK21" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="61" t="s">
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="63">
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AQ21" t="s">
         <v>254</v>
       </c>
-      <c r="AN21" s="42" t="s">
+      <c r="AR21" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO21" s="1" t="s">
+      <c r="AS21" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP21" s="42" t="s">
+      <c r="AT21" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ21" s="1" t="s">
+      <c r="AU21" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AW21" t="s">
         <v>8</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AX21" t="s">
         <v>9</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AY21" t="s">
         <v>10</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AZ21" t="s">
         <v>67</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="BA21" t="s">
         <v>11</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="BB21" t="s">
         <v>76</v>
       </c>
-      <c r="AZ21">
+      <c r="BD21">
         <v>251</v>
       </c>
-      <c r="BA21">
+      <c r="BE21">
         <v>251</v>
       </c>
-      <c r="BC21" s="57"/>
-      <c r="BD21" s="57"/>
-      <c r="BE21" s="57"/>
-      <c r="BF21" s="57"/>
-      <c r="BH21" s="65">
+      <c r="BG21" s="57"/>
+      <c r="BH21" s="57"/>
+      <c r="BI21" s="57"/>
+      <c r="BJ21" s="57"/>
+      <c r="BL21" s="65">
         <v>41233</v>
       </c>
-      <c r="BI21" s="66" t="s">
+      <c r="BM21" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="BJ21" s="67">
+      <c r="BN21" s="67">
         <v>32.465020000000003</v>
       </c>
-      <c r="BK21" s="67">
+      <c r="BO21" s="67">
         <v>34.882582999999997</v>
       </c>
-      <c r="BL21" s="42" t="s">
+      <c r="BP21" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM21" s="58" t="s">
+      <c r="BQ21" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="BN21" s="25"/>
-      <c r="BS21">
+      <c r="BR21" s="25"/>
+      <c r="BW21">
         <v>3.8</v>
       </c>
-      <c r="BT21" s="42" t="s">
+      <c r="BX21" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BU21"/>
-      <c r="BV21"/>
-      <c r="BW21"/>
-      <c r="BX21"/>
       <c r="BY21"/>
       <c r="BZ21"/>
       <c r="CA21"/>
+      <c r="CB21"/>
+      <c r="CC21"/>
+      <c r="CD21"/>
+      <c r="CE21"/>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D22,"&lt;&gt;"&amp;"")+COUNTIF(BR22,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B22" s="23">
@@ -6518,124 +6754,134 @@
         <v>82</v>
       </c>
       <c r="V22" s="1"/>
-      <c r="W22" s="33" t="s">
+      <c r="W22" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y22" s="33">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X22" s="16" t="s">
+      <c r="AB22" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y22" s="56" t="s">
+      <c r="AC22" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z22" s="33" t="s">
+      <c r="AD22" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA22" s="16" t="s">
+      <c r="AE22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB22" s="56" t="s">
+      <c r="AF22" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="59" t="s">
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="AE22" s="59" t="s">
+      <c r="AI22" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="AF22" s="59" t="s">
+      <c r="AJ22" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="AG22" s="59" t="s">
+      <c r="AK22" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="61" t="s">
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="63">
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AQ22" t="s">
         <v>254</v>
       </c>
-      <c r="AN22" s="42" t="s">
+      <c r="AR22" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO22" s="1" t="s">
+      <c r="AS22" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP22" s="42" t="s">
+      <c r="AT22" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ22" s="1" t="s">
+      <c r="AU22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AW22" t="s">
         <v>8</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AX22" t="s">
         <v>9</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AY22" t="s">
         <v>10</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AZ22" t="s">
         <v>67</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="BA22" t="s">
         <v>11</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="BB22" t="s">
         <v>76</v>
       </c>
-      <c r="AZ22">
+      <c r="BD22">
         <v>251</v>
       </c>
-      <c r="BA22">
+      <c r="BE22">
         <v>251</v>
       </c>
-      <c r="BC22" s="57"/>
-      <c r="BD22" s="57"/>
-      <c r="BE22" s="57"/>
-      <c r="BF22" s="57"/>
-      <c r="BH22" s="65">
+      <c r="BG22" s="57"/>
+      <c r="BH22" s="57"/>
+      <c r="BI22" s="57"/>
+      <c r="BJ22" s="57"/>
+      <c r="BL22" s="65">
         <v>41233</v>
       </c>
-      <c r="BI22" s="66" t="s">
+      <c r="BM22" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="BJ22" s="67">
+      <c r="BN22" s="67">
         <v>32.465020000000003</v>
       </c>
-      <c r="BK22" s="67">
+      <c r="BO22" s="67">
         <v>34.882582999999997</v>
       </c>
-      <c r="BL22" s="42" t="s">
+      <c r="BP22" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM22" s="58" t="s">
+      <c r="BQ22" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="BN22" s="25"/>
-      <c r="BS22">
+      <c r="BR22" s="25"/>
+      <c r="BW22">
         <v>3.8</v>
       </c>
-      <c r="BT22" s="42" t="s">
+      <c r="BX22" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BU22"/>
-      <c r="BV22"/>
-      <c r="BW22"/>
-      <c r="BX22"/>
       <c r="BY22"/>
       <c r="BZ22"/>
       <c r="CA22"/>
+      <c r="CB22"/>
+      <c r="CC22"/>
+      <c r="CD22"/>
+      <c r="CE22"/>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D23,"&lt;&gt;"&amp;"")+COUNTIF(BR23,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B23" s="23">
@@ -6691,124 +6937,134 @@
         <v>82</v>
       </c>
       <c r="V23" s="1"/>
-      <c r="W23" s="33" t="s">
+      <c r="W23" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y23" s="33">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X23" s="16" t="s">
+      <c r="AB23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y23" s="56" t="s">
+      <c r="AC23" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z23" s="33" t="s">
+      <c r="AD23" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA23" s="16" t="s">
+      <c r="AE23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB23" s="56" t="s">
+      <c r="AF23" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="59" t="s">
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="AE23" s="59" t="s">
+      <c r="AI23" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="AF23" s="59" t="s">
+      <c r="AJ23" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="AG23" s="59" t="s">
+      <c r="AK23" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="61" t="s">
+      <c r="AL23" s="59"/>
+      <c r="AM23" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="63">
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AQ23" t="s">
         <v>254</v>
       </c>
-      <c r="AN23" s="42" t="s">
+      <c r="AR23" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO23" s="1" t="s">
+      <c r="AS23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP23" s="42" t="s">
+      <c r="AT23" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ23" s="1" t="s">
+      <c r="AU23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AW23" t="s">
         <v>8</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AX23" t="s">
         <v>9</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AY23" t="s">
         <v>10</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AZ23" t="s">
         <v>67</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="BA23" t="s">
         <v>11</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="BB23" t="s">
         <v>76</v>
       </c>
-      <c r="AZ23">
+      <c r="BD23">
         <v>251</v>
       </c>
-      <c r="BA23">
+      <c r="BE23">
         <v>251</v>
       </c>
-      <c r="BC23" s="57"/>
-      <c r="BD23" s="57"/>
-      <c r="BE23" s="57"/>
-      <c r="BF23" s="57"/>
-      <c r="BH23" s="65">
+      <c r="BG23" s="57"/>
+      <c r="BH23" s="57"/>
+      <c r="BI23" s="57"/>
+      <c r="BJ23" s="57"/>
+      <c r="BL23" s="65">
         <v>41233</v>
       </c>
-      <c r="BI23" s="66" t="s">
+      <c r="BM23" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="BJ23" s="67">
+      <c r="BN23" s="67">
         <v>32.465020000000003</v>
       </c>
-      <c r="BK23" s="67">
+      <c r="BO23" s="67">
         <v>34.882582999999997</v>
       </c>
-      <c r="BL23" s="42" t="s">
+      <c r="BP23" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM23" s="58" t="s">
+      <c r="BQ23" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="BN23" s="25"/>
-      <c r="BS23">
+      <c r="BR23" s="25"/>
+      <c r="BW23">
         <v>3.8</v>
       </c>
-      <c r="BT23" s="42" t="s">
+      <c r="BX23" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BU23"/>
-      <c r="BV23"/>
-      <c r="BW23"/>
-      <c r="BX23"/>
       <c r="BY23"/>
       <c r="BZ23"/>
       <c r="CA23"/>
+      <c r="CB23"/>
+      <c r="CC23"/>
+      <c r="CD23"/>
+      <c r="CE23"/>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D24,"&lt;&gt;"&amp;"")+COUNTIF(BR24,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B24" s="23">
@@ -6864,124 +7120,134 @@
         <v>82</v>
       </c>
       <c r="V24" s="1"/>
-      <c r="W24" s="33" t="s">
+      <c r="W24" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y24" s="33">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X24" s="16" t="s">
+      <c r="AB24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y24" s="56" t="s">
+      <c r="AC24" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z24" s="33" t="s">
+      <c r="AD24" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA24" s="16" t="s">
+      <c r="AE24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB24" s="56" t="s">
+      <c r="AF24" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="59" t="s">
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="AE24" s="59" t="s">
+      <c r="AI24" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="AF24" s="59" t="s">
+      <c r="AJ24" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="AG24" s="59" t="s">
+      <c r="AK24" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="61" t="s">
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="AJ24" s="62"/>
-      <c r="AK24" s="63">
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AQ24" t="s">
         <v>254</v>
       </c>
-      <c r="AN24" s="42" t="s">
+      <c r="AR24" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO24" s="1" t="s">
+      <c r="AS24" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP24" s="42" t="s">
+      <c r="AT24" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ24" s="1" t="s">
+      <c r="AU24" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AW24" t="s">
         <v>8</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AX24" t="s">
         <v>9</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AY24" t="s">
         <v>10</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AZ24" t="s">
         <v>67</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="BA24" t="s">
         <v>11</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="BB24" t="s">
         <v>76</v>
       </c>
-      <c r="AZ24">
+      <c r="BD24">
         <v>251</v>
       </c>
-      <c r="BA24">
+      <c r="BE24">
         <v>251</v>
       </c>
-      <c r="BC24" s="57"/>
-      <c r="BD24" s="57"/>
-      <c r="BE24" s="57"/>
-      <c r="BF24" s="57"/>
-      <c r="BH24" s="65">
+      <c r="BG24" s="57"/>
+      <c r="BH24" s="57"/>
+      <c r="BI24" s="57"/>
+      <c r="BJ24" s="57"/>
+      <c r="BL24" s="65">
         <v>41233</v>
       </c>
-      <c r="BI24" s="66" t="s">
+      <c r="BM24" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="BJ24" s="67">
+      <c r="BN24" s="67">
         <v>32.463700000000003</v>
       </c>
-      <c r="BK24" s="67">
+      <c r="BO24" s="67">
         <v>34.879339999999999</v>
       </c>
-      <c r="BL24" s="42" t="s">
+      <c r="BP24" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM24" s="58" t="s">
+      <c r="BQ24" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="BN24" s="25"/>
-      <c r="BS24">
+      <c r="BR24" s="25"/>
+      <c r="BW24">
         <v>5.5</v>
       </c>
-      <c r="BT24" s="71" t="s">
+      <c r="BX24" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU24"/>
-      <c r="BV24"/>
-      <c r="BW24"/>
-      <c r="BX24"/>
       <c r="BY24"/>
       <c r="BZ24"/>
       <c r="CA24"/>
+      <c r="CB24"/>
+      <c r="CC24"/>
+      <c r="CD24"/>
+      <c r="CE24"/>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D25,"&lt;&gt;"&amp;"")+COUNTIF(BR25,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B25" s="23">
@@ -7037,124 +7303,134 @@
         <v>82</v>
       </c>
       <c r="V25" s="1"/>
-      <c r="W25" s="33" t="s">
+      <c r="W25" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y25" s="33">
+        <v>8</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X25" s="16" t="s">
+      <c r="AB25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y25" s="56" t="s">
+      <c r="AC25" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z25" s="33" t="s">
+      <c r="AD25" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA25" s="16" t="s">
+      <c r="AE25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB25" s="56" t="s">
+      <c r="AF25" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="59" t="s">
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="AE25" s="59" t="s">
+      <c r="AI25" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="AF25" s="59" t="s">
+      <c r="AJ25" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="AG25" s="59" t="s">
+      <c r="AK25" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="61" t="s">
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="63">
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AQ25" t="s">
         <v>254</v>
       </c>
-      <c r="AN25" s="42" t="s">
+      <c r="AR25" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO25" s="1" t="s">
+      <c r="AS25" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP25" s="42" t="s">
+      <c r="AT25" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ25" s="1" t="s">
+      <c r="AU25" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AW25" t="s">
         <v>8</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AX25" t="s">
         <v>9</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AY25" t="s">
         <v>10</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AZ25" t="s">
         <v>67</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="BA25" t="s">
         <v>11</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="BB25" t="s">
         <v>76</v>
       </c>
-      <c r="AZ25">
+      <c r="BD25">
         <v>251</v>
       </c>
-      <c r="BA25">
+      <c r="BE25">
         <v>251</v>
       </c>
-      <c r="BC25" s="57"/>
-      <c r="BD25" s="57"/>
-      <c r="BE25" s="57"/>
-      <c r="BF25" s="57"/>
-      <c r="BH25" s="65">
+      <c r="BG25" s="57"/>
+      <c r="BH25" s="57"/>
+      <c r="BI25" s="57"/>
+      <c r="BJ25" s="57"/>
+      <c r="BL25" s="65">
         <v>41233</v>
       </c>
-      <c r="BI25" s="66" t="s">
+      <c r="BM25" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="BJ25" s="67">
+      <c r="BN25" s="67">
         <v>32.463700000000003</v>
       </c>
-      <c r="BK25" s="67">
+      <c r="BO25" s="67">
         <v>34.879339999999999</v>
       </c>
-      <c r="BL25" s="42" t="s">
+      <c r="BP25" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM25" s="58" t="s">
+      <c r="BQ25" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="BN25" s="25"/>
-      <c r="BS25">
+      <c r="BR25" s="25"/>
+      <c r="BW25">
         <v>5.5</v>
       </c>
-      <c r="BT25" s="71" t="s">
+      <c r="BX25" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU25"/>
-      <c r="BV25"/>
-      <c r="BW25"/>
-      <c r="BX25"/>
       <c r="BY25"/>
       <c r="BZ25"/>
       <c r="CA25"/>
+      <c r="CB25"/>
+      <c r="CC25"/>
+      <c r="CD25"/>
+      <c r="CE25"/>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D26,"&lt;&gt;"&amp;"")+COUNTIF(BR26,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B26" s="23">
@@ -7206,124 +7482,134 @@
         <v>82</v>
       </c>
       <c r="V26" s="1"/>
-      <c r="W26" s="33" t="s">
+      <c r="W26" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y26" s="33">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X26" s="16" t="s">
+      <c r="AB26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y26" s="56" t="s">
+      <c r="AC26" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z26" s="33" t="s">
+      <c r="AD26" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA26" s="16" t="s">
+      <c r="AE26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB26" s="56" t="s">
+      <c r="AF26" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="59" t="s">
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="AE26" s="59" t="s">
+      <c r="AI26" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="AF26" s="59" t="s">
+      <c r="AJ26" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="AG26" s="59" t="s">
+      <c r="AK26" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="61" t="s">
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="63">
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AQ26" t="s">
         <v>254</v>
       </c>
-      <c r="AN26" s="42" t="s">
+      <c r="AR26" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO26" s="1" t="s">
+      <c r="AS26" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP26" s="42" t="s">
+      <c r="AT26" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ26" s="1" t="s">
+      <c r="AU26" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AW26" t="s">
         <v>8</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AX26" t="s">
         <v>9</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AY26" t="s">
         <v>10</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AZ26" t="s">
         <v>67</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="BA26" t="s">
         <v>11</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="BB26" t="s">
         <v>76</v>
       </c>
-      <c r="AZ26">
+      <c r="BD26">
         <v>251</v>
       </c>
-      <c r="BA26">
+      <c r="BE26">
         <v>251</v>
       </c>
-      <c r="BC26" s="57"/>
-      <c r="BD26" s="57"/>
-      <c r="BE26" s="57"/>
-      <c r="BF26" s="57"/>
-      <c r="BH26" s="65">
+      <c r="BG26" s="57"/>
+      <c r="BH26" s="57"/>
+      <c r="BI26" s="57"/>
+      <c r="BJ26" s="57"/>
+      <c r="BL26" s="65">
         <v>41233</v>
       </c>
-      <c r="BI26" s="66" t="s">
+      <c r="BM26" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="BJ26" s="67">
+      <c r="BN26" s="67">
         <v>32.463700000000003</v>
       </c>
-      <c r="BK26" s="67">
+      <c r="BO26" s="67">
         <v>34.879339999999999</v>
       </c>
-      <c r="BL26" s="42" t="s">
+      <c r="BP26" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM26" s="58" t="s">
+      <c r="BQ26" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="BN26" s="25"/>
-      <c r="BS26">
+      <c r="BR26" s="25"/>
+      <c r="BW26">
         <v>5.5</v>
       </c>
-      <c r="BT26" s="71" t="s">
+      <c r="BX26" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU26"/>
-      <c r="BV26"/>
-      <c r="BW26"/>
-      <c r="BX26"/>
       <c r="BY26"/>
       <c r="BZ26"/>
       <c r="CA26"/>
+      <c r="CB26"/>
+      <c r="CC26"/>
+      <c r="CD26"/>
+      <c r="CE26"/>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D27,"&lt;&gt;"&amp;"")+COUNTIF(BR27,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B27" s="23">
@@ -7379,124 +7665,134 @@
         <v>82</v>
       </c>
       <c r="V27" s="1"/>
-      <c r="W27" s="33" t="s">
+      <c r="W27" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y27" s="33">
+        <v>9</v>
+      </c>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="16" t="s">
+      <c r="AB27" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y27" s="56" t="s">
+      <c r="AC27" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z27" s="33" t="s">
+      <c r="AD27" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA27" s="16" t="s">
+      <c r="AE27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB27" s="56" t="s">
+      <c r="AF27" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="59" t="s">
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="AE27" s="59" t="s">
+      <c r="AI27" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="AF27" s="59" t="s">
+      <c r="AJ27" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="AG27" s="59" t="s">
+      <c r="AK27" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="61" t="s">
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="63">
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AQ27" t="s">
         <v>254</v>
       </c>
-      <c r="AN27" s="42" t="s">
+      <c r="AR27" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO27" s="1" t="s">
+      <c r="AS27" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP27" s="42" t="s">
+      <c r="AT27" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ27" s="1" t="s">
+      <c r="AU27" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AW27" t="s">
         <v>8</v>
       </c>
-      <c r="AT27" t="s">
+      <c r="AX27" t="s">
         <v>9</v>
       </c>
-      <c r="AU27" t="s">
+      <c r="AY27" t="s">
         <v>10</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AZ27" t="s">
         <v>67</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="BA27" t="s">
         <v>11</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="BB27" t="s">
         <v>76</v>
       </c>
-      <c r="AZ27">
+      <c r="BD27">
         <v>251</v>
       </c>
-      <c r="BA27">
+      <c r="BE27">
         <v>251</v>
       </c>
-      <c r="BC27" s="57"/>
-      <c r="BD27" s="57"/>
-      <c r="BE27" s="57"/>
-      <c r="BF27" s="57"/>
-      <c r="BH27" s="65">
+      <c r="BG27" s="57"/>
+      <c r="BH27" s="57"/>
+      <c r="BI27" s="57"/>
+      <c r="BJ27" s="57"/>
+      <c r="BL27" s="65">
         <v>41233</v>
       </c>
-      <c r="BI27" s="66" t="s">
+      <c r="BM27" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="BJ27" s="67">
+      <c r="BN27" s="67">
         <v>32.42868</v>
       </c>
-      <c r="BK27" s="67">
+      <c r="BO27" s="67">
         <v>34.870280000000001</v>
       </c>
-      <c r="BL27" s="42" t="s">
+      <c r="BP27" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM27" t="s">
+      <c r="BQ27" t="s">
         <v>354</v>
       </c>
-      <c r="BN27" s="25"/>
-      <c r="BS27">
+      <c r="BR27" s="25"/>
+      <c r="BW27">
         <v>6.5</v>
       </c>
-      <c r="BT27" s="71" t="s">
+      <c r="BX27" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU27"/>
-      <c r="BV27"/>
-      <c r="BW27"/>
-      <c r="BX27"/>
       <c r="BY27"/>
       <c r="BZ27"/>
       <c r="CA27"/>
+      <c r="CB27"/>
+      <c r="CC27"/>
+      <c r="CD27"/>
+      <c r="CE27"/>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D28,"&lt;&gt;"&amp;"")+COUNTIF(BR28,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B28" s="23">
@@ -7548,124 +7844,134 @@
         <v>82</v>
       </c>
       <c r="V28" s="1"/>
-      <c r="W28" s="33" t="s">
+      <c r="W28" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y28" s="33">
+        <v>9</v>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X28" s="16" t="s">
+      <c r="AB28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y28" s="56" t="s">
+      <c r="AC28" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z28" s="33" t="s">
+      <c r="AD28" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA28" s="16" t="s">
+      <c r="AE28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB28" s="56" t="s">
+      <c r="AF28" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="59" t="s">
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="AE28" s="59" t="s">
+      <c r="AI28" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="AF28" s="59" t="s">
+      <c r="AJ28" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="AG28" s="59" t="s">
+      <c r="AK28" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="61" t="s">
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="AJ28" s="62"/>
-      <c r="AK28" s="63">
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AQ28" t="s">
         <v>254</v>
       </c>
-      <c r="AN28" s="42" t="s">
+      <c r="AR28" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO28" s="1" t="s">
+      <c r="AS28" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP28" s="42" t="s">
+      <c r="AT28" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ28" s="1" t="s">
+      <c r="AU28" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AW28" t="s">
         <v>8</v>
       </c>
-      <c r="AT28" t="s">
+      <c r="AX28" t="s">
         <v>9</v>
       </c>
-      <c r="AU28" t="s">
+      <c r="AY28" t="s">
         <v>10</v>
       </c>
-      <c r="AV28" t="s">
+      <c r="AZ28" t="s">
         <v>67</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="BA28" t="s">
         <v>11</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="BB28" t="s">
         <v>76</v>
       </c>
-      <c r="AZ28">
+      <c r="BD28">
         <v>251</v>
       </c>
-      <c r="BA28">
+      <c r="BE28">
         <v>251</v>
       </c>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BH28" s="65">
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BL28" s="65">
         <v>41233</v>
       </c>
-      <c r="BI28" s="66" t="s">
+      <c r="BM28" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="BJ28" s="67">
+      <c r="BN28" s="67">
         <v>32.42868</v>
       </c>
-      <c r="BK28" s="67">
+      <c r="BO28" s="67">
         <v>34.870280000000001</v>
       </c>
-      <c r="BL28" s="42" t="s">
+      <c r="BP28" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM28" t="s">
+      <c r="BQ28" t="s">
         <v>354</v>
       </c>
-      <c r="BN28" s="25"/>
-      <c r="BS28">
+      <c r="BR28" s="25"/>
+      <c r="BW28">
         <v>6.5</v>
       </c>
-      <c r="BT28" s="71" t="s">
+      <c r="BX28" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU28"/>
-      <c r="BV28"/>
-      <c r="BW28"/>
-      <c r="BX28"/>
       <c r="BY28"/>
       <c r="BZ28"/>
       <c r="CA28"/>
+      <c r="CB28"/>
+      <c r="CC28"/>
+      <c r="CD28"/>
+      <c r="CE28"/>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D29,"&lt;&gt;"&amp;"")+COUNTIF(BR29,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B29" s="23">
@@ -7717,227 +8023,227 @@
         <v>82</v>
       </c>
       <c r="V29" s="1"/>
-      <c r="W29" s="33" t="s">
+      <c r="W29" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y29" s="33">
+        <v>9</v>
+      </c>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="X29" s="16" t="s">
+      <c r="AB29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y29" s="56" t="s">
+      <c r="AC29" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Z29" s="33" t="s">
+      <c r="AD29" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AA29" s="16" t="s">
+      <c r="AE29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB29" s="56" t="s">
+      <c r="AF29" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="59" t="s">
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="AE29" s="59" t="s">
+      <c r="AI29" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="AF29" s="59" t="s">
+      <c r="AJ29" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="AG29" s="59" t="s">
+      <c r="AK29" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="61" t="s">
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="63">
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="63">
         <v>0.01</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AQ29" t="s">
         <v>254</v>
       </c>
-      <c r="AN29" s="42" t="s">
+      <c r="AR29" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="AO29" s="1" t="s">
+      <c r="AS29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP29" s="42" t="s">
+      <c r="AT29" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="AQ29" s="1" t="s">
+      <c r="AU29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS29" t="s">
+      <c r="AW29" t="s">
         <v>8</v>
       </c>
-      <c r="AT29" t="s">
+      <c r="AX29" t="s">
         <v>9</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AY29" t="s">
         <v>10</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AZ29" t="s">
         <v>67</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="BA29" t="s">
         <v>11</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="BB29" t="s">
         <v>76</v>
       </c>
-      <c r="AZ29">
+      <c r="BD29">
         <v>251</v>
       </c>
-      <c r="BA29">
+      <c r="BE29">
         <v>251</v>
       </c>
-      <c r="BC29" s="57"/>
-      <c r="BD29" s="57"/>
-      <c r="BE29" s="57"/>
-      <c r="BF29" s="57"/>
-      <c r="BH29" s="65">
+      <c r="BG29" s="57"/>
+      <c r="BH29" s="57"/>
+      <c r="BI29" s="57"/>
+      <c r="BJ29" s="57"/>
+      <c r="BL29" s="65">
         <v>41233</v>
       </c>
-      <c r="BI29" s="66" t="s">
+      <c r="BM29" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="BJ29" s="67">
+      <c r="BN29" s="67">
         <v>32.42868</v>
       </c>
-      <c r="BK29" s="67">
+      <c r="BO29" s="67">
         <v>34.870280000000001</v>
       </c>
-      <c r="BL29" s="42" t="s">
+      <c r="BP29" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="BM29" t="s">
+      <c r="BQ29" t="s">
         <v>354</v>
       </c>
-      <c r="BN29" s="25"/>
-      <c r="BS29">
+      <c r="BR29" s="25"/>
+      <c r="BW29">
         <v>6.5</v>
       </c>
-      <c r="BT29" s="71" t="s">
+      <c r="BX29" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BU29"/>
-      <c r="BV29"/>
-      <c r="BW29"/>
-      <c r="BX29"/>
       <c r="BY29"/>
       <c r="BZ29"/>
       <c r="CA29"/>
+      <c r="CB29"/>
+      <c r="CC29"/>
+      <c r="CD29"/>
+      <c r="CE29"/>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AK30" s="13"/>
+    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AK31" s="13"/>
+    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="AK32" s="13"/>
-      <c r="BI32" s="66"/>
+    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="AO32" s="13"/>
+      <c r="BM32" s="66"/>
     </row>
-    <row r="33" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK33" s="13"/>
-      <c r="BI33" s="66"/>
-      <c r="BM33" s="67"/>
-      <c r="BN33" s="67"/>
+    <row r="33" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO33" s="13"/>
+      <c r="BM33" s="66"/>
+      <c r="BQ33" s="67"/>
+      <c r="BR33" s="67"/>
     </row>
-    <row r="34" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK34" s="13"/>
-      <c r="BI34" s="66"/>
-      <c r="BM34" s="67"/>
-      <c r="BN34" s="67"/>
+    <row r="34" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO34" s="13"/>
+      <c r="BM34" s="66"/>
+      <c r="BQ34" s="67"/>
+      <c r="BR34" s="67"/>
     </row>
-    <row r="35" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK35" s="13"/>
-      <c r="BI35" s="66"/>
-      <c r="BM35" s="67"/>
-      <c r="BN35" s="67"/>
+    <row r="35" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO35" s="13"/>
+      <c r="BM35" s="66"/>
+      <c r="BQ35" s="67"/>
+      <c r="BR35" s="67"/>
     </row>
-    <row r="36" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK36" s="13"/>
-      <c r="BI36" s="66"/>
-      <c r="BM36" s="67"/>
-      <c r="BN36" s="67"/>
+    <row r="36" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO36" s="13"/>
+      <c r="BM36" s="66"/>
+      <c r="BQ36" s="67"/>
+      <c r="BR36" s="67"/>
     </row>
-    <row r="37" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK37" s="13"/>
-      <c r="BI37" s="66"/>
-      <c r="BM37" s="67"/>
-      <c r="BN37" s="67"/>
+    <row r="37" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO37" s="13"/>
+      <c r="BM37" s="66"/>
+      <c r="BQ37" s="67"/>
+      <c r="BR37" s="67"/>
     </row>
-    <row r="38" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK38" s="13"/>
-      <c r="BI38" s="66"/>
-      <c r="BM38" s="67"/>
-      <c r="BN38" s="67"/>
+    <row r="38" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO38" s="13"/>
+      <c r="BM38" s="66"/>
+      <c r="BQ38" s="67"/>
+      <c r="BR38" s="67"/>
     </row>
-    <row r="39" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK39" s="13"/>
-      <c r="BM39" s="67"/>
-      <c r="BN39" s="67"/>
+    <row r="39" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO39" s="13"/>
+      <c r="BQ39" s="67"/>
+      <c r="BR39" s="67"/>
     </row>
-    <row r="40" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK40" s="13"/>
-      <c r="BM40" s="67"/>
-      <c r="BN40" s="67"/>
+    <row r="40" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO40" s="13"/>
+      <c r="BQ40" s="67"/>
+      <c r="BR40" s="67"/>
     </row>
-    <row r="41" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK41" s="13"/>
-      <c r="BM41" s="67"/>
-      <c r="BN41" s="67"/>
+    <row r="41" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO41" s="13"/>
+      <c r="BQ41" s="67"/>
+      <c r="BR41" s="67"/>
     </row>
-    <row r="42" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK42" s="13"/>
+    <row r="42" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO42" s="13"/>
     </row>
-    <row r="43" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK43" s="13"/>
+    <row r="43" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO43" s="13"/>
     </row>
-    <row r="44" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK44" s="13"/>
+    <row r="44" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO44" s="13"/>
     </row>
-    <row r="45" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK45" s="13"/>
+    <row r="45" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO45" s="13"/>
     </row>
-    <row r="46" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK46" s="13"/>
+    <row r="46" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO46" s="13"/>
     </row>
-    <row r="47" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK47" s="13"/>
+    <row r="47" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO47" s="13"/>
     </row>
-    <row r="48" spans="37:66" x14ac:dyDescent="0.2">
-      <c r="AK48" s="13"/>
+    <row r="48" spans="41:70" x14ac:dyDescent="0.2">
+      <c r="AO48" s="13"/>
     </row>
-    <row r="49" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK49" s="13"/>
+    <row r="49" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO49" s="13"/>
     </row>
-    <row r="50" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK50" s="13"/>
+    <row r="50" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO50" s="13"/>
     </row>
-    <row r="51" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK51" s="13"/>
+    <row r="51" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO51" s="13"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7955,9 +8261,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7965,11 +8271,21 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BH1:BN1"/>
-    <mergeCell ref="BP1:BQ1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BL1:BR1"/>
+    <mergeCell ref="BT1:BU1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A3:A1048576">
@@ -7995,10 +8311,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Y3" r:id="rId1"/>
-    <hyperlink ref="AB3" r:id="rId2"/>
-    <hyperlink ref="AB4:AB29" r:id="rId3" display="jan.pawlowski@unige.ch"/>
-    <hyperlink ref="Y4:Y29" r:id="rId4" display="lucas@sinclair.bio"/>
+    <hyperlink ref="AC3" r:id="rId1"/>
+    <hyperlink ref="AF3" r:id="rId2"/>
+    <hyperlink ref="AF4:AF29" r:id="rId3" display="jan.pawlowski@unige.ch"/>
+    <hyperlink ref="AC4:AC29" r:id="rId4" display="lucas@sinclair.bio"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="410">
   <si>
     <t>Country</t>
   </si>
@@ -1354,6 +1354,9 @@
   </si>
   <si>
     <t>Hadera</t>
+  </si>
+  <si>
+    <t>Distance to exhaust [m]</t>
   </si>
 </sst>
 </file>
@@ -2734,12 +2737,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CF51"/>
+  <dimension ref="A1:CG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1:Z1048576"/>
+      <selection pane="bottomLeft" activeCell="CA15" sqref="CA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2815,17 +2818,18 @@
     <col min="74" max="74" width="9.5" customWidth="1"/>
     <col min="75" max="75" width="11" style="22" customWidth="1"/>
     <col min="76" max="76" width="11" style="72" customWidth="1"/>
-    <col min="77" max="77" width="11.6640625" style="22" customWidth="1"/>
-    <col min="78" max="78" width="14.33203125" style="22" customWidth="1"/>
-    <col min="79" max="79" width="12.6640625" style="22" customWidth="1"/>
-    <col min="80" max="80" width="13.6640625" style="22" customWidth="1"/>
-    <col min="81" max="81" width="15.33203125" style="22" customWidth="1"/>
-    <col min="82" max="82" width="15.5" style="22" customWidth="1"/>
-    <col min="83" max="83" width="14.6640625" style="22" customWidth="1"/>
-    <col min="84" max="84" width="9.6640625" customWidth="1"/>
+    <col min="77" max="77" width="13" style="72" customWidth="1"/>
+    <col min="78" max="78" width="11.6640625" style="22" customWidth="1"/>
+    <col min="79" max="79" width="14.33203125" style="22" customWidth="1"/>
+    <col min="80" max="80" width="12.6640625" style="22" customWidth="1"/>
+    <col min="81" max="81" width="13.6640625" style="22" customWidth="1"/>
+    <col min="82" max="82" width="15.33203125" style="22" customWidth="1"/>
+    <col min="83" max="83" width="15.5" style="22" customWidth="1"/>
+    <col min="84" max="84" width="14.6640625" style="22" customWidth="1"/>
+    <col min="85" max="85" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -2900,15 +2904,16 @@
         <v>68</v>
       </c>
       <c r="BX1" s="69"/>
-      <c r="BY1" s="21"/>
+      <c r="BY1" s="69"/>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
       <c r="CD1" s="21"/>
       <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
     </row>
-    <row r="2" spans="1:84" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>49</v>
       </c>
@@ -3114,31 +3119,34 @@
         <v>344</v>
       </c>
       <c r="BY2" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="BZ2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="BZ2" s="52" t="s">
+      <c r="CA2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="CA2" s="52" t="s">
+      <c r="CB2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="CB2" s="52" t="s">
+      <c r="CC2" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="CC2" s="52" t="s">
+      <c r="CD2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="CD2" s="52" t="s">
+      <c r="CE2" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="CE2" s="52" t="s">
+      <c r="CF2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="CF2" s="48"/>
+      <c r="CG2" s="48"/>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <f>COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="23">
@@ -3318,17 +3326,20 @@
       <c r="BX3" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BY3"/>
+      <c r="BY3" s="42">
+        <v>5</v>
+      </c>
       <c r="BZ3"/>
       <c r="CA3"/>
       <c r="CB3"/>
       <c r="CC3"/>
       <c r="CD3"/>
       <c r="CE3"/>
+      <c r="CF3"/>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <f>COUNTIF(D4,"&lt;&gt;"&amp;"")+COUNTIF(BR4,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4" s="23">
@@ -3504,17 +3515,20 @@
       <c r="BX4" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BY4"/>
+      <c r="BY4" s="42">
+        <v>5</v>
+      </c>
       <c r="BZ4"/>
       <c r="CA4"/>
       <c r="CB4"/>
       <c r="CC4"/>
       <c r="CD4"/>
       <c r="CE4"/>
+      <c r="CF4"/>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <f>COUNTIF(D5,"&lt;&gt;"&amp;"")+COUNTIF(BR5,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B5" s="23">
@@ -3694,17 +3708,20 @@
       <c r="BX5" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BY5"/>
+      <c r="BY5" s="42">
+        <v>5</v>
+      </c>
       <c r="BZ5"/>
       <c r="CA5"/>
       <c r="CB5"/>
       <c r="CC5"/>
       <c r="CD5"/>
       <c r="CE5"/>
+      <c r="CF5"/>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <f>COUNTIF(D6,"&lt;&gt;"&amp;"")+COUNTIF(BR6,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B6" s="23">
@@ -3884,17 +3901,20 @@
       <c r="BX6" s="70" t="s">
         <v>346</v>
       </c>
-      <c r="BY6"/>
+      <c r="BY6" s="70">
+        <v>8</v>
+      </c>
       <c r="BZ6"/>
       <c r="CA6"/>
       <c r="CB6"/>
       <c r="CC6"/>
       <c r="CD6"/>
       <c r="CE6"/>
+      <c r="CF6"/>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
-        <f>COUNTIF(D7,"&lt;&gt;"&amp;"")+COUNTIF(BR7,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="23">
@@ -4074,17 +4094,20 @@
       <c r="BX7" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY7"/>
+      <c r="BY7" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ7"/>
       <c r="CA7"/>
       <c r="CB7"/>
       <c r="CC7"/>
       <c r="CD7"/>
       <c r="CE7"/>
+      <c r="CF7"/>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <f>COUNTIF(D8,"&lt;&gt;"&amp;"")+COUNTIF(BR8,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B8" s="23">
@@ -4264,17 +4287,20 @@
       <c r="BX8" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY8"/>
+      <c r="BY8" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ8"/>
       <c r="CA8"/>
       <c r="CB8"/>
       <c r="CC8"/>
       <c r="CD8"/>
       <c r="CE8"/>
+      <c r="CF8"/>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <f>COUNTIF(D9,"&lt;&gt;"&amp;"")+COUNTIF(BR9,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B9" s="23">
@@ -4454,17 +4480,20 @@
       <c r="BX9" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY9"/>
+      <c r="BY9" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ9"/>
       <c r="CA9"/>
       <c r="CB9"/>
       <c r="CC9"/>
       <c r="CD9"/>
       <c r="CE9"/>
+      <c r="CF9"/>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <f>COUNTIF(D10,"&lt;&gt;"&amp;"")+COUNTIF(BR10,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B10" s="23">
@@ -4644,17 +4673,20 @@
       <c r="BX10" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY10"/>
+      <c r="BY10" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ10"/>
       <c r="CA10"/>
       <c r="CB10"/>
       <c r="CC10"/>
       <c r="CD10"/>
       <c r="CE10"/>
+      <c r="CF10"/>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <f>COUNTIF(D11,"&lt;&gt;"&amp;"")+COUNTIF(BR11,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B11" s="23">
@@ -4834,17 +4866,20 @@
       <c r="BX11" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY11"/>
+      <c r="BY11" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ11"/>
       <c r="CA11"/>
       <c r="CB11"/>
       <c r="CC11"/>
       <c r="CD11"/>
       <c r="CE11"/>
+      <c r="CF11"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <f>COUNTIF(D12,"&lt;&gt;"&amp;"")+COUNTIF(BR12,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B12" s="23">
@@ -5024,17 +5059,20 @@
       <c r="BX12" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY12"/>
+      <c r="BY12" s="42">
+        <v>5</v>
+      </c>
       <c r="BZ12"/>
       <c r="CA12"/>
       <c r="CB12"/>
       <c r="CC12"/>
       <c r="CD12"/>
       <c r="CE12"/>
+      <c r="CF12"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <f>COUNTIF(D13,"&lt;&gt;"&amp;"")+COUNTIF(BR13,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B13" s="23">
@@ -5214,17 +5252,20 @@
       <c r="BX13" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY13"/>
+      <c r="BY13" s="42">
+        <v>5</v>
+      </c>
       <c r="BZ13"/>
       <c r="CA13"/>
       <c r="CB13"/>
       <c r="CC13"/>
       <c r="CD13"/>
       <c r="CE13"/>
+      <c r="CF13"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <f>COUNTIF(D14,"&lt;&gt;"&amp;"")+COUNTIF(BR14,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B14" s="23">
@@ -5404,17 +5445,20 @@
       <c r="BX14" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY14"/>
+      <c r="BY14" s="42">
+        <v>5</v>
+      </c>
       <c r="BZ14"/>
       <c r="CA14"/>
       <c r="CB14"/>
       <c r="CC14"/>
       <c r="CD14"/>
       <c r="CE14"/>
+      <c r="CF14"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <f>COUNTIF(D15,"&lt;&gt;"&amp;"")+COUNTIF(BR15,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B15" s="23">
@@ -5594,17 +5638,20 @@
       <c r="BX15" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY15"/>
+      <c r="BY15" s="70">
+        <v>8</v>
+      </c>
       <c r="BZ15"/>
       <c r="CA15"/>
       <c r="CB15"/>
       <c r="CC15"/>
       <c r="CD15"/>
       <c r="CE15"/>
+      <c r="CF15"/>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <f>COUNTIF(D16,"&lt;&gt;"&amp;"")+COUNTIF(BR16,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B16" s="23">
@@ -5777,17 +5824,20 @@
       <c r="BX16" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY16"/>
+      <c r="BY16" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ16"/>
       <c r="CA16"/>
       <c r="CB16"/>
       <c r="CC16"/>
       <c r="CD16"/>
       <c r="CE16"/>
+      <c r="CF16"/>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <f>COUNTIF(D17,"&lt;&gt;"&amp;"")+COUNTIF(BR17,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B17" s="23">
@@ -5960,17 +6010,20 @@
       <c r="BX17" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY17"/>
+      <c r="BY17" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ17"/>
       <c r="CA17"/>
       <c r="CB17"/>
       <c r="CC17"/>
       <c r="CD17"/>
       <c r="CE17"/>
+      <c r="CF17"/>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <f>COUNTIF(D18,"&lt;&gt;"&amp;"")+COUNTIF(BR18,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B18" s="23">
@@ -6143,17 +6196,20 @@
       <c r="BX18" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY18"/>
+      <c r="BY18" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ18"/>
       <c r="CA18"/>
       <c r="CB18"/>
       <c r="CC18"/>
       <c r="CD18"/>
       <c r="CE18"/>
+      <c r="CF18"/>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <f>COUNTIF(D19,"&lt;&gt;"&amp;"")+COUNTIF(BR19,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B19" s="23">
@@ -6326,17 +6382,20 @@
       <c r="BX19" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY19"/>
+      <c r="BY19" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ19"/>
       <c r="CA19"/>
       <c r="CB19"/>
       <c r="CC19"/>
       <c r="CD19"/>
       <c r="CE19"/>
+      <c r="CF19"/>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <f>COUNTIF(D20,"&lt;&gt;"&amp;"")+COUNTIF(BR20,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B20" s="23">
@@ -6509,17 +6568,20 @@
       <c r="BX20" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY20"/>
+      <c r="BY20" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ20"/>
       <c r="CA20"/>
       <c r="CB20"/>
       <c r="CC20"/>
       <c r="CD20"/>
       <c r="CE20"/>
+      <c r="CF20"/>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <f>COUNTIF(D21,"&lt;&gt;"&amp;"")+COUNTIF(BR21,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B21" s="23">
@@ -6688,17 +6750,20 @@
       <c r="BX21" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BY21"/>
+      <c r="BY21" s="42">
+        <v>5</v>
+      </c>
       <c r="BZ21"/>
       <c r="CA21"/>
       <c r="CB21"/>
       <c r="CC21"/>
       <c r="CD21"/>
       <c r="CE21"/>
+      <c r="CF21"/>
     </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <f>COUNTIF(D22,"&lt;&gt;"&amp;"")+COUNTIF(BR22,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B22" s="23">
@@ -6871,17 +6936,20 @@
       <c r="BX22" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BY22"/>
+      <c r="BY22" s="42">
+        <v>5</v>
+      </c>
       <c r="BZ22"/>
       <c r="CA22"/>
       <c r="CB22"/>
       <c r="CC22"/>
       <c r="CD22"/>
       <c r="CE22"/>
+      <c r="CF22"/>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <f>COUNTIF(D23,"&lt;&gt;"&amp;"")+COUNTIF(BR23,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B23" s="23">
@@ -7054,17 +7122,20 @@
       <c r="BX23" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BY23"/>
+      <c r="BY23" s="42">
+        <v>5</v>
+      </c>
       <c r="BZ23"/>
       <c r="CA23"/>
       <c r="CB23"/>
       <c r="CC23"/>
       <c r="CD23"/>
       <c r="CE23"/>
+      <c r="CF23"/>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <f>COUNTIF(D24,"&lt;&gt;"&amp;"")+COUNTIF(BR24,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B24" s="23">
@@ -7237,17 +7308,20 @@
       <c r="BX24" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY24"/>
+      <c r="BY24" s="70">
+        <v>8</v>
+      </c>
       <c r="BZ24"/>
       <c r="CA24"/>
       <c r="CB24"/>
       <c r="CC24"/>
       <c r="CD24"/>
       <c r="CE24"/>
+      <c r="CF24"/>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <f>COUNTIF(D25,"&lt;&gt;"&amp;"")+COUNTIF(BR25,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B25" s="23">
@@ -7420,17 +7494,20 @@
       <c r="BX25" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY25"/>
+      <c r="BY25" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ25"/>
       <c r="CA25"/>
       <c r="CB25"/>
       <c r="CC25"/>
       <c r="CD25"/>
       <c r="CE25"/>
+      <c r="CF25"/>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
-        <f>COUNTIF(D26,"&lt;&gt;"&amp;"")+COUNTIF(BR26,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B26" s="23">
@@ -7599,17 +7676,20 @@
       <c r="BX26" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY26"/>
+      <c r="BY26" s="71">
+        <v>8</v>
+      </c>
       <c r="BZ26"/>
       <c r="CA26"/>
       <c r="CB26"/>
       <c r="CC26"/>
       <c r="CD26"/>
       <c r="CE26"/>
+      <c r="CF26"/>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
-        <f>COUNTIF(D27,"&lt;&gt;"&amp;"")+COUNTIF(BR27,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B27" s="23">
@@ -7782,17 +7862,20 @@
       <c r="BX27" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY27"/>
+      <c r="BY27" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ27"/>
       <c r="CA27"/>
       <c r="CB27"/>
       <c r="CC27"/>
       <c r="CD27"/>
       <c r="CE27"/>
+      <c r="CF27"/>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <f>COUNTIF(D28,"&lt;&gt;"&amp;"")+COUNTIF(BR28,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B28" s="23">
@@ -7961,17 +8044,20 @@
       <c r="BX28" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY28"/>
+      <c r="BY28" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ28"/>
       <c r="CA28"/>
       <c r="CB28"/>
       <c r="CC28"/>
       <c r="CD28"/>
       <c r="CE28"/>
+      <c r="CF28"/>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
-        <f>COUNTIF(D29,"&lt;&gt;"&amp;"")+COUNTIF(BR29,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B29" s="23">
@@ -8140,21 +8226,24 @@
       <c r="BX29" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="BY29"/>
+      <c r="BY29" s="71">
+        <v>20</v>
+      </c>
       <c r="BZ29"/>
       <c r="CA29"/>
       <c r="CB29"/>
       <c r="CC29"/>
       <c r="CD29"/>
       <c r="CE29"/>
+      <c r="CF29"/>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="AO32" s="13"/>
       <c r="BM32" s="66"/>
     </row>
@@ -8241,9 +8330,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8261,24 +8360,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2460" windowWidth="44080" windowHeight="25000" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="660" windowWidth="44080" windowHeight="25000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1614,7 +1614,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="297">
+  <cellStyleXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1907,6 +1907,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2071,7 +2078,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="297">
+  <cellStyles count="304">
     <cellStyle name="Excel Built-in Normal" xfId="267"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2233,6 +2240,13 @@
     <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2739,10 +2753,10 @@
   </sheetPr>
   <dimension ref="A1:CG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BH1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="CA15" sqref="CA15"/>
+      <selection pane="bottomLeft" activeCell="CA24" sqref="CA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3327,7 +3341,7 @@
         <v>345</v>
       </c>
       <c r="BY3" s="42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ3"/>
       <c r="CA3"/>
@@ -3516,7 +3530,7 @@
         <v>345</v>
       </c>
       <c r="BY4" s="42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ4"/>
       <c r="CA4"/>
@@ -3709,7 +3723,7 @@
         <v>345</v>
       </c>
       <c r="BY5" s="42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ5"/>
       <c r="CA5"/>
@@ -3902,7 +3916,7 @@
         <v>346</v>
       </c>
       <c r="BY6" s="70">
-        <v>8</v>
+        <v>545.16</v>
       </c>
       <c r="BZ6"/>
       <c r="CA6"/>
@@ -4095,7 +4109,7 @@
         <v>346</v>
       </c>
       <c r="BY7" s="71">
-        <v>8</v>
+        <v>545.16</v>
       </c>
       <c r="BZ7"/>
       <c r="CA7"/>
@@ -4288,7 +4302,7 @@
         <v>346</v>
       </c>
       <c r="BY8" s="71">
-        <v>8</v>
+        <v>545.16</v>
       </c>
       <c r="BZ8"/>
       <c r="CA8"/>
@@ -4481,7 +4495,7 @@
         <v>346</v>
       </c>
       <c r="BY9" s="71">
-        <v>20</v>
+        <v>5080.2700000000004</v>
       </c>
       <c r="BZ9"/>
       <c r="CA9"/>
@@ -4674,7 +4688,7 @@
         <v>346</v>
       </c>
       <c r="BY10" s="71">
-        <v>20</v>
+        <v>5080.2700000000004</v>
       </c>
       <c r="BZ10"/>
       <c r="CA10"/>
@@ -4867,7 +4881,7 @@
         <v>346</v>
       </c>
       <c r="BY11" s="71">
-        <v>20</v>
+        <v>5080.2700000000004</v>
       </c>
       <c r="BZ11"/>
       <c r="CA11"/>
@@ -5060,7 +5074,7 @@
         <v>346</v>
       </c>
       <c r="BY12" s="42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ12"/>
       <c r="CA12"/>
@@ -5253,7 +5267,7 @@
         <v>346</v>
       </c>
       <c r="BY13" s="42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ13"/>
       <c r="CA13"/>
@@ -5446,7 +5460,7 @@
         <v>346</v>
       </c>
       <c r="BY14" s="42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ14"/>
       <c r="CA14"/>
@@ -5639,7 +5653,7 @@
         <v>346</v>
       </c>
       <c r="BY15" s="70">
-        <v>8</v>
+        <v>175.69</v>
       </c>
       <c r="BZ15"/>
       <c r="CA15"/>
@@ -5825,7 +5839,7 @@
         <v>346</v>
       </c>
       <c r="BY16" s="71">
-        <v>8</v>
+        <v>175.69</v>
       </c>
       <c r="BZ16"/>
       <c r="CA16"/>
@@ -6011,7 +6025,7 @@
         <v>346</v>
       </c>
       <c r="BY17" s="71">
-        <v>8</v>
+        <v>175.69</v>
       </c>
       <c r="BZ17"/>
       <c r="CA17"/>
@@ -6197,7 +6211,7 @@
         <v>346</v>
       </c>
       <c r="BY18" s="71">
-        <v>20</v>
+        <v>1235.56</v>
       </c>
       <c r="BZ18"/>
       <c r="CA18"/>
@@ -6383,7 +6397,7 @@
         <v>346</v>
       </c>
       <c r="BY19" s="71">
-        <v>20</v>
+        <v>1235.56</v>
       </c>
       <c r="BZ19"/>
       <c r="CA19"/>
@@ -6569,7 +6583,7 @@
         <v>346</v>
       </c>
       <c r="BY20" s="71">
-        <v>20</v>
+        <v>1235.56</v>
       </c>
       <c r="BZ20"/>
       <c r="CA20"/>
@@ -6751,7 +6765,7 @@
         <v>345</v>
       </c>
       <c r="BY21" s="42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ21"/>
       <c r="CA21"/>
@@ -6937,7 +6951,7 @@
         <v>345</v>
       </c>
       <c r="BY22" s="42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ22"/>
       <c r="CA22"/>
@@ -7123,7 +7137,7 @@
         <v>345</v>
       </c>
       <c r="BY23" s="42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ23"/>
       <c r="CA23"/>
@@ -7309,7 +7323,7 @@
         <v>346</v>
       </c>
       <c r="BY24" s="70">
-        <v>8</v>
+        <v>338.21</v>
       </c>
       <c r="BZ24"/>
       <c r="CA24"/>
@@ -7495,7 +7509,7 @@
         <v>346</v>
       </c>
       <c r="BY25" s="71">
-        <v>8</v>
+        <v>338.21</v>
       </c>
       <c r="BZ25"/>
       <c r="CA25"/>
@@ -7677,7 +7691,7 @@
         <v>346</v>
       </c>
       <c r="BY26" s="71">
-        <v>8</v>
+        <v>338.21</v>
       </c>
       <c r="BZ26"/>
       <c r="CA26"/>
@@ -7863,7 +7877,7 @@
         <v>346</v>
       </c>
       <c r="BY27" s="71">
-        <v>20</v>
+        <v>4192.68</v>
       </c>
       <c r="BZ27"/>
       <c r="CA27"/>
@@ -8045,7 +8059,7 @@
         <v>346</v>
       </c>
       <c r="BY28" s="71">
-        <v>20</v>
+        <v>4192.68</v>
       </c>
       <c r="BZ28"/>
       <c r="CA28"/>
@@ -8227,7 +8241,7 @@
         <v>346</v>
       </c>
       <c r="BY29" s="71">
-        <v>20</v>
+        <v>4192.68</v>
       </c>
       <c r="BZ29"/>
       <c r="CA29"/>
@@ -8330,19 +8344,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8360,14 +8364,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="660" windowWidth="44080" windowHeight="25000" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="980" windowWidth="44080" windowHeight="25000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="412">
   <si>
     <t>Country</t>
   </si>
@@ -885,12 +885,6 @@
     <t>Multiplexed in</t>
   </si>
   <si>
-    <t>SSUFO4</t>
-  </si>
-  <si>
-    <t>SSUR22</t>
-  </si>
-  <si>
     <t>V1V2 nSSU rDNA (18S rDNA)</t>
   </si>
   <si>
@@ -1357,6 +1351,18 @@
   </si>
   <si>
     <t>Distance to exhaust [m]</t>
+  </si>
+  <si>
+    <t>SSUF04</t>
+  </si>
+  <si>
+    <t>SSUR22mod</t>
+  </si>
+  <si>
+    <t>Grain size mode [µm]</t>
+  </si>
+  <si>
+    <t>Salinty [ppt]</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1512,18 +1518,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Menlo Regular"/>
     </font>
@@ -1540,6 +1534,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1906,7 +1906,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2046,14 +2046,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2065,10 +2063,10 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="291" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="291" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2077,6 +2075,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="304">
     <cellStyle name="Excel Built-in Normal" xfId="267"/>
@@ -2751,12 +2751,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CG51"/>
+  <dimension ref="A1:CI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BL1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="CA24" sqref="CA24"/>
+      <selection pane="bottomLeft" activeCell="CB23" sqref="CB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2823,7 +2823,7 @@
     <col min="64" max="65" width="15.5" customWidth="1"/>
     <col min="66" max="66" width="13.6640625" style="11" customWidth="1"/>
     <col min="67" max="67" width="13.1640625" style="11" customWidth="1"/>
-    <col min="68" max="68" width="13.1640625" style="68" customWidth="1"/>
+    <col min="68" max="68" width="13.1640625" style="66" customWidth="1"/>
     <col min="69" max="69" width="28" style="16" customWidth="1"/>
     <col min="70" max="70" width="31.33203125" style="16" customWidth="1"/>
     <col min="71" max="71" width="9" customWidth="1"/>
@@ -2831,19 +2831,20 @@
     <col min="73" max="73" width="16" customWidth="1"/>
     <col min="74" max="74" width="9.5" customWidth="1"/>
     <col min="75" max="75" width="11" style="22" customWidth="1"/>
-    <col min="76" max="76" width="11" style="72" customWidth="1"/>
-    <col min="77" max="77" width="13" style="72" customWidth="1"/>
-    <col min="78" max="78" width="11.6640625" style="22" customWidth="1"/>
-    <col min="79" max="79" width="14.33203125" style="22" customWidth="1"/>
+    <col min="76" max="76" width="11" style="70" customWidth="1"/>
+    <col min="77" max="77" width="13" style="70" customWidth="1"/>
+    <col min="78" max="79" width="11.6640625" style="22" customWidth="1"/>
     <col min="80" max="80" width="12.6640625" style="22" customWidth="1"/>
-    <col min="81" max="81" width="13.6640625" style="22" customWidth="1"/>
-    <col min="82" max="82" width="15.33203125" style="22" customWidth="1"/>
-    <col min="83" max="83" width="15.5" style="22" customWidth="1"/>
-    <col min="84" max="84" width="14.6640625" style="22" customWidth="1"/>
-    <col min="85" max="85" width="9.6640625" customWidth="1"/>
+    <col min="81" max="81" width="14.33203125" style="22" customWidth="1"/>
+    <col min="82" max="82" width="13.5" style="22" customWidth="1"/>
+    <col min="83" max="83" width="13.6640625" style="22" customWidth="1"/>
+    <col min="84" max="84" width="15.33203125" style="22" customWidth="1"/>
+    <col min="85" max="85" width="15.5" style="22" customWidth="1"/>
+    <col min="86" max="86" width="14.6640625" style="22" customWidth="1"/>
+    <col min="87" max="87" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -2895,30 +2896,30 @@
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="10"/>
-      <c r="BG1" s="73" t="s">
+      <c r="BG1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="BH1" s="73"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="73"/>
-      <c r="BL1" s="73" t="s">
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BL1" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="BM1" s="73"/>
-      <c r="BN1" s="73"/>
-      <c r="BO1" s="73"/>
-      <c r="BP1" s="73"/>
-      <c r="BQ1" s="73"/>
-      <c r="BR1" s="73"/>
-      <c r="BT1" s="73" t="s">
+      <c r="BM1" s="71"/>
+      <c r="BN1" s="71"/>
+      <c r="BO1" s="71"/>
+      <c r="BP1" s="71"/>
+      <c r="BQ1" s="71"/>
+      <c r="BR1" s="71"/>
+      <c r="BT1" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="BU1" s="73"/>
+      <c r="BU1" s="71"/>
       <c r="BW1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BX1" s="69"/>
-      <c r="BY1" s="69"/>
+      <c r="BX1" s="67"/>
+      <c r="BY1" s="67"/>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
@@ -2926,8 +2927,10 @@
       <c r="CD1" s="21"/>
       <c r="CE1" s="21"/>
       <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
     </row>
-    <row r="2" spans="1:85" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:87" s="53" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>49</v>
       </c>
@@ -2987,13 +2990,13 @@
       </c>
       <c r="V2" s="45"/>
       <c r="W2" s="43" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="X2" s="43" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Y2" s="43" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Z2" s="45"/>
       <c r="AA2" s="43" t="s">
@@ -3101,7 +3104,7 @@
         <v>50</v>
       </c>
       <c r="BM2" s="50" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="BN2" s="50" t="s">
         <v>12</v>
@@ -3130,35 +3133,41 @@
         <v>28</v>
       </c>
       <c r="BX2" s="52" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="BY2" s="52" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="BZ2" s="52" t="s">
         <v>29</v>
       </c>
       <c r="CA2" s="52" t="s">
-        <v>42</v>
+        <v>411</v>
       </c>
       <c r="CB2" s="52" t="s">
         <v>31</v>
       </c>
       <c r="CC2" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="CD2" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="CE2" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="CD2" s="52" t="s">
+      <c r="CF2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="CE2" s="52" t="s">
+      <c r="CG2" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="CF2" s="52" t="s">
+      <c r="CH2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="CG2" s="48"/>
+      <c r="CI2" s="48"/>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
@@ -3203,10 +3212,10 @@
         <v>275162</v>
       </c>
       <c r="Q3" s="54" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S3" t="s">
         <v>49</v>
@@ -3219,10 +3228,10 @@
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y3" s="33">
         <v>1</v>
@@ -3250,36 +3259,38 @@
         <v>49</v>
       </c>
       <c r="AH3" s="59" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AI3" s="59" t="s">
         <v>224</v>
       </c>
       <c r="AJ3" s="59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AK3" s="59" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AL3" s="59"/>
       <c r="AM3" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="63">
+      <c r="AN3" s="72">
+        <v>27.8</v>
+      </c>
+      <c r="AO3" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR3" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT3" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>223</v>
@@ -3315,30 +3326,30 @@
       <c r="BH3" s="57"/>
       <c r="BI3" s="57"/>
       <c r="BJ3" s="57"/>
-      <c r="BL3" s="65">
+      <c r="BL3" s="63">
         <v>41226</v>
       </c>
-      <c r="BM3" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="BN3" s="67">
+      <c r="BM3" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="BN3" s="65">
         <v>31.63212</v>
       </c>
-      <c r="BO3" s="67">
+      <c r="BO3" s="65">
         <v>34.5167</v>
       </c>
       <c r="BP3" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ3" t="s">
         <v>347</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>349</v>
       </c>
       <c r="BR3" s="25"/>
       <c r="BW3">
         <v>1.5</v>
       </c>
       <c r="BX3" s="42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="BY3" s="42">
         <v>0</v>
@@ -3350,8 +3361,10 @@
       <c r="CD3"/>
       <c r="CE3"/>
       <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3"/>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3360,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>88</v>
@@ -3408,10 +3421,10 @@
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y4" s="33">
         <v>1</v>
@@ -3439,36 +3452,36 @@
         <v>49</v>
       </c>
       <c r="AH4" s="59" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AI4" s="59" t="s">
         <v>225</v>
       </c>
       <c r="AJ4" s="59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AK4" s="59" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AL4" s="59"/>
       <c r="AM4" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="63">
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR4" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT4" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>223</v>
@@ -3504,30 +3517,30 @@
       <c r="BH4" s="57"/>
       <c r="BI4" s="57"/>
       <c r="BJ4" s="57"/>
-      <c r="BL4" s="65">
+      <c r="BL4" s="63">
         <v>41226</v>
       </c>
-      <c r="BM4" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="BN4" s="67">
+      <c r="BM4" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="BN4" s="65">
         <v>31.63212</v>
       </c>
-      <c r="BO4" s="67">
+      <c r="BO4" s="65">
         <v>34.5167</v>
       </c>
       <c r="BP4" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>347</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>349</v>
       </c>
       <c r="BR4" s="25"/>
       <c r="BW4">
         <v>1.5</v>
       </c>
       <c r="BX4" s="42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="BY4" s="42">
         <v>0</v>
@@ -3539,8 +3552,10 @@
       <c r="CD4"/>
       <c r="CE4"/>
       <c r="CF4"/>
+      <c r="CG4"/>
+      <c r="CH4"/>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3585,10 +3600,10 @@
         <v>367728</v>
       </c>
       <c r="Q5" s="54" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="S5" t="s">
         <v>49</v>
@@ -3601,10 +3616,10 @@
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y5" s="33">
         <v>1</v>
@@ -3632,36 +3647,38 @@
         <v>49</v>
       </c>
       <c r="AH5" s="59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AI5" s="59" t="s">
         <v>226</v>
       </c>
       <c r="AJ5" s="59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AK5" s="59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AL5" s="59"/>
       <c r="AM5" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="63">
+      <c r="AN5" s="72">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AO5" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR5" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT5" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>223</v>
@@ -3697,30 +3714,30 @@
       <c r="BH5" s="57"/>
       <c r="BI5" s="57"/>
       <c r="BJ5" s="57"/>
-      <c r="BL5" s="65">
+      <c r="BL5" s="63">
         <v>41226</v>
       </c>
-      <c r="BM5" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="BN5" s="67">
+      <c r="BM5" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="BN5" s="65">
         <v>31.63212</v>
       </c>
-      <c r="BO5" s="67">
+      <c r="BO5" s="65">
         <v>34.5167</v>
       </c>
       <c r="BP5" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ5" t="s">
         <v>347</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>349</v>
       </c>
       <c r="BR5" s="25"/>
       <c r="BW5">
         <v>1.5</v>
       </c>
       <c r="BX5" s="42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="BY5" s="42">
         <v>0</v>
@@ -3732,8 +3749,10 @@
       <c r="CD5"/>
       <c r="CE5"/>
       <c r="CF5"/>
+      <c r="CG5"/>
+      <c r="CH5"/>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3778,10 +3797,10 @@
         <v>292281</v>
       </c>
       <c r="Q6" s="55" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S6" t="s">
         <v>49</v>
@@ -3794,10 +3813,10 @@
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y6" s="33">
         <v>2</v>
@@ -3825,36 +3844,38 @@
         <v>49</v>
       </c>
       <c r="AH6" s="59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AI6" s="59" t="s">
         <v>227</v>
       </c>
       <c r="AJ6" s="59" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AK6" s="59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AL6" s="59"/>
       <c r="AM6" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="63">
+      <c r="AN6" s="72">
+        <v>42.6</v>
+      </c>
+      <c r="AO6" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR6" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT6" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>223</v>
@@ -3890,32 +3911,32 @@
       <c r="BH6" s="57"/>
       <c r="BI6" s="57"/>
       <c r="BJ6" s="57"/>
-      <c r="BL6" s="65">
+      <c r="BL6" s="63">
         <v>41226</v>
       </c>
-      <c r="BM6" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="BN6" s="67">
+      <c r="BM6" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="BN6" s="65">
         <v>31.6341</v>
       </c>
-      <c r="BO6" s="67">
+      <c r="BO6" s="65">
         <v>34.51144</v>
       </c>
       <c r="BP6" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BR6" s="25"/>
       <c r="BW6">
         <v>10</v>
       </c>
-      <c r="BX6" s="70" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY6" s="70">
+      <c r="BX6" s="68" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY6" s="68">
         <v>545.16</v>
       </c>
       <c r="BZ6"/>
@@ -3925,8 +3946,10 @@
       <c r="CD6"/>
       <c r="CE6"/>
       <c r="CF6"/>
+      <c r="CG6"/>
+      <c r="CH6"/>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3971,10 +3994,10 @@
         <v>242696</v>
       </c>
       <c r="Q7" s="54" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S7" t="s">
         <v>49</v>
@@ -3987,10 +4010,10 @@
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y7" s="33">
         <v>2</v>
@@ -4018,36 +4041,38 @@
         <v>49</v>
       </c>
       <c r="AH7" s="59" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AI7" s="59" t="s">
         <v>228</v>
       </c>
       <c r="AJ7" s="59" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AK7" s="59" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AL7" s="59"/>
       <c r="AM7" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="63">
+      <c r="AN7" s="72">
+        <v>41.6</v>
+      </c>
+      <c r="AO7" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR7" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT7" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU7" s="1" t="s">
         <v>223</v>
@@ -4083,32 +4108,32 @@
       <c r="BH7" s="57"/>
       <c r="BI7" s="57"/>
       <c r="BJ7" s="57"/>
-      <c r="BL7" s="65">
+      <c r="BL7" s="63">
         <v>41226</v>
       </c>
-      <c r="BM7" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="BN7" s="67">
+      <c r="BM7" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="BN7" s="65">
         <v>31.6341</v>
       </c>
-      <c r="BO7" s="67">
+      <c r="BO7" s="65">
         <v>34.51144</v>
       </c>
       <c r="BP7" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BR7" s="25"/>
       <c r="BW7">
         <v>10</v>
       </c>
-      <c r="BX7" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY7" s="71">
+      <c r="BX7" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY7" s="69">
         <v>545.16</v>
       </c>
       <c r="BZ7"/>
@@ -4118,8 +4143,10 @@
       <c r="CD7"/>
       <c r="CE7"/>
       <c r="CF7"/>
+      <c r="CG7"/>
+      <c r="CH7"/>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4164,10 +4191,10 @@
         <v>282664</v>
       </c>
       <c r="Q8" s="54" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S8" t="s">
         <v>49</v>
@@ -4180,10 +4207,10 @@
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y8" s="33">
         <v>2</v>
@@ -4211,36 +4238,38 @@
         <v>49</v>
       </c>
       <c r="AH8" s="59" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AI8" s="59" t="s">
         <v>229</v>
       </c>
       <c r="AJ8" s="59" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AK8" s="59" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AL8" s="59"/>
       <c r="AM8" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="63">
+      <c r="AN8" s="72">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AO8" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR8" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT8" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU8" s="1" t="s">
         <v>223</v>
@@ -4276,32 +4305,32 @@
       <c r="BH8" s="57"/>
       <c r="BI8" s="57"/>
       <c r="BJ8" s="57"/>
-      <c r="BL8" s="65">
+      <c r="BL8" s="63">
         <v>41226</v>
       </c>
-      <c r="BM8" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="BN8" s="67">
+      <c r="BM8" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="BN8" s="65">
         <v>31.6341</v>
       </c>
-      <c r="BO8" s="67">
+      <c r="BO8" s="65">
         <v>34.51144</v>
       </c>
       <c r="BP8" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BR8" s="25"/>
       <c r="BW8">
         <v>10</v>
       </c>
-      <c r="BX8" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY8" s="71">
+      <c r="BX8" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY8" s="69">
         <v>545.16</v>
       </c>
       <c r="BZ8"/>
@@ -4311,8 +4340,10 @@
       <c r="CD8"/>
       <c r="CE8"/>
       <c r="CF8"/>
+      <c r="CG8"/>
+      <c r="CH8"/>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4357,10 +4388,10 @@
         <v>233579</v>
       </c>
       <c r="Q9" s="54" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S9" t="s">
         <v>49</v>
@@ -4373,10 +4404,10 @@
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Y9" s="33">
         <v>3</v>
@@ -4404,36 +4435,38 @@
         <v>49</v>
       </c>
       <c r="AH9" s="59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AI9" s="59" t="s">
         <v>230</v>
       </c>
       <c r="AJ9" s="59" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AK9" s="59" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL9" s="59"/>
       <c r="AM9" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="63">
+      <c r="AN9" s="72">
+        <v>33.4</v>
+      </c>
+      <c r="AO9" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR9" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT9" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU9" s="1" t="s">
         <v>223</v>
@@ -4469,32 +4502,32 @@
       <c r="BH9" s="57"/>
       <c r="BI9" s="57"/>
       <c r="BJ9" s="57"/>
-      <c r="BL9" s="65">
+      <c r="BL9" s="63">
         <v>41226</v>
       </c>
-      <c r="BM9" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="BN9" s="67">
+      <c r="BM9" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="BN9" s="65">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO9" s="67">
+      <c r="BO9" s="65">
         <v>34.543559999999999</v>
       </c>
       <c r="BP9" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BR9" s="25"/>
       <c r="BW9">
         <v>5</v>
       </c>
-      <c r="BX9" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY9" s="71">
+      <c r="BX9" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY9" s="69">
         <v>5080.2700000000004</v>
       </c>
       <c r="BZ9"/>
@@ -4504,8 +4537,10 @@
       <c r="CD9"/>
       <c r="CE9"/>
       <c r="CF9"/>
+      <c r="CG9"/>
+      <c r="CH9"/>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4550,10 +4585,10 @@
         <v>137661</v>
       </c>
       <c r="Q10" s="54" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S10" t="s">
         <v>49</v>
@@ -4566,10 +4601,10 @@
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Y10" s="33">
         <v>3</v>
@@ -4597,36 +4632,38 @@
         <v>49</v>
       </c>
       <c r="AH10" s="59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AI10" s="59" t="s">
         <v>231</v>
       </c>
       <c r="AJ10" s="59" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AK10" s="59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AL10" s="59"/>
       <c r="AM10" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="63">
+      <c r="AN10" s="72">
+        <v>39</v>
+      </c>
+      <c r="AO10" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR10" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS10" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT10" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU10" s="1" t="s">
         <v>223</v>
@@ -4662,32 +4699,32 @@
       <c r="BH10" s="57"/>
       <c r="BI10" s="57"/>
       <c r="BJ10" s="57"/>
-      <c r="BL10" s="65">
+      <c r="BL10" s="63">
         <v>41226</v>
       </c>
-      <c r="BM10" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="BN10" s="67">
+      <c r="BM10" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="BN10" s="65">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO10" s="67">
+      <c r="BO10" s="65">
         <v>34.543559999999999</v>
       </c>
       <c r="BP10" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BR10" s="25"/>
       <c r="BW10">
         <v>5</v>
       </c>
-      <c r="BX10" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY10" s="71">
+      <c r="BX10" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY10" s="69">
         <v>5080.2700000000004</v>
       </c>
       <c r="BZ10"/>
@@ -4697,8 +4734,10 @@
       <c r="CD10"/>
       <c r="CE10"/>
       <c r="CF10"/>
+      <c r="CG10"/>
+      <c r="CH10"/>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4743,10 +4782,10 @@
         <v>273123</v>
       </c>
       <c r="Q11" s="54" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="S11" t="s">
         <v>49</v>
@@ -4759,10 +4798,10 @@
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Y11" s="33">
         <v>3</v>
@@ -4790,36 +4829,38 @@
         <v>49</v>
       </c>
       <c r="AH11" s="59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AI11" s="59" t="s">
         <v>232</v>
       </c>
       <c r="AJ11" s="59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AK11" s="59" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AL11" s="59"/>
       <c r="AM11" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="63">
+      <c r="AN11" s="72">
+        <v>27.6</v>
+      </c>
+      <c r="AO11" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR11" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS11" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT11" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>223</v>
@@ -4855,32 +4896,32 @@
       <c r="BH11" s="57"/>
       <c r="BI11" s="57"/>
       <c r="BJ11" s="57"/>
-      <c r="BL11" s="65">
+      <c r="BL11" s="63">
         <v>41226</v>
       </c>
-      <c r="BM11" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="BN11" s="67">
+      <c r="BM11" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="BN11" s="65">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO11" s="67">
+      <c r="BO11" s="65">
         <v>34.543559999999999</v>
       </c>
       <c r="BP11" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BR11" s="25"/>
       <c r="BW11">
         <v>5</v>
       </c>
-      <c r="BX11" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY11" s="71">
+      <c r="BX11" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY11" s="69">
         <v>5080.2700000000004</v>
       </c>
       <c r="BZ11"/>
@@ -4890,8 +4931,10 @@
       <c r="CD11"/>
       <c r="CE11"/>
       <c r="CF11"/>
+      <c r="CG11"/>
+      <c r="CH11"/>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4936,10 +4979,10 @@
         <v>134807</v>
       </c>
       <c r="Q12" s="54" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="R12" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="S12" t="s">
         <v>49</v>
@@ -4952,10 +4995,10 @@
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y12" s="33">
         <v>4</v>
@@ -4983,36 +5026,38 @@
         <v>49</v>
       </c>
       <c r="AH12" s="59" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AI12" s="59" t="s">
         <v>233</v>
       </c>
       <c r="AJ12" s="59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AK12" s="59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AL12" s="59"/>
       <c r="AM12" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="AN12" s="62"/>
-      <c r="AO12" s="63">
+      <c r="AN12" s="72">
+        <v>32</v>
+      </c>
+      <c r="AO12" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR12" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS12" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT12" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU12" s="1" t="s">
         <v>223</v>
@@ -5048,30 +5093,30 @@
       <c r="BH12" s="57"/>
       <c r="BI12" s="57"/>
       <c r="BJ12" s="57"/>
-      <c r="BL12" s="65">
+      <c r="BL12" s="63">
         <v>41227</v>
       </c>
-      <c r="BM12" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="BN12" s="67">
+      <c r="BM12" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="BN12" s="65">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO12" s="67">
+      <c r="BO12" s="65">
         <v>34.68862</v>
       </c>
       <c r="BP12" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ12" s="58" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="BR12" s="25"/>
       <c r="BW12">
         <v>18</v>
       </c>
-      <c r="BX12" s="71" t="s">
-        <v>346</v>
+      <c r="BX12" s="69" t="s">
+        <v>344</v>
       </c>
       <c r="BY12" s="42">
         <v>0</v>
@@ -5083,8 +5128,10 @@
       <c r="CD12"/>
       <c r="CE12"/>
       <c r="CF12"/>
+      <c r="CG12"/>
+      <c r="CH12"/>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5129,10 +5176,10 @@
         <v>244784</v>
       </c>
       <c r="Q13" s="54" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="S13" t="s">
         <v>49</v>
@@ -5145,10 +5192,10 @@
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y13" s="33">
         <v>4</v>
@@ -5176,36 +5223,38 @@
         <v>49</v>
       </c>
       <c r="AH13" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AI13" s="59" t="s">
         <v>234</v>
       </c>
       <c r="AJ13" s="59" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AK13" s="59" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AL13" s="59"/>
       <c r="AM13" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="AN13" s="62"/>
-      <c r="AO13" s="63">
+      <c r="AN13" s="72">
+        <v>45.6</v>
+      </c>
+      <c r="AO13" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR13" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT13" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU13" s="1" t="s">
         <v>223</v>
@@ -5241,30 +5290,30 @@
       <c r="BH13" s="57"/>
       <c r="BI13" s="57"/>
       <c r="BJ13" s="57"/>
-      <c r="BL13" s="65">
+      <c r="BL13" s="63">
         <v>41227</v>
       </c>
-      <c r="BM13" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="BN13" s="67">
+      <c r="BM13" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="BN13" s="65">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO13" s="67">
+      <c r="BO13" s="65">
         <v>34.68862</v>
       </c>
       <c r="BP13" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ13" s="58" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="BR13" s="25"/>
       <c r="BW13">
         <v>18</v>
       </c>
-      <c r="BX13" s="71" t="s">
-        <v>346</v>
+      <c r="BX13" s="69" t="s">
+        <v>344</v>
       </c>
       <c r="BY13" s="42">
         <v>0</v>
@@ -5276,8 +5325,10 @@
       <c r="CD13"/>
       <c r="CE13"/>
       <c r="CF13"/>
+      <c r="CG13"/>
+      <c r="CH13"/>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5322,10 +5373,10 @@
         <v>337801</v>
       </c>
       <c r="Q14" s="55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="S14" t="s">
         <v>49</v>
@@ -5338,10 +5389,10 @@
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y14" s="33">
         <v>4</v>
@@ -5369,36 +5420,38 @@
         <v>49</v>
       </c>
       <c r="AH14" s="59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AI14" s="59" t="s">
         <v>235</v>
       </c>
       <c r="AJ14" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AK14" s="59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AL14" s="59"/>
       <c r="AM14" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="63">
+      <c r="AN14" s="72">
+        <v>30</v>
+      </c>
+      <c r="AO14" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR14" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT14" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU14" s="1" t="s">
         <v>223</v>
@@ -5434,30 +5487,30 @@
       <c r="BH14" s="57"/>
       <c r="BI14" s="57"/>
       <c r="BJ14" s="57"/>
-      <c r="BL14" s="65">
+      <c r="BL14" s="63">
         <v>41227</v>
       </c>
-      <c r="BM14" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="BN14" s="67">
+      <c r="BM14" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="BN14" s="65">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO14" s="67">
+      <c r="BO14" s="65">
         <v>34.68862</v>
       </c>
       <c r="BP14" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ14" s="58" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="BR14" s="25"/>
       <c r="BW14">
         <v>18</v>
       </c>
-      <c r="BX14" s="71" t="s">
-        <v>346</v>
+      <c r="BX14" s="69" t="s">
+        <v>344</v>
       </c>
       <c r="BY14" s="42">
         <v>0</v>
@@ -5469,8 +5522,10 @@
       <c r="CD14"/>
       <c r="CE14"/>
       <c r="CF14"/>
+      <c r="CG14"/>
+      <c r="CH14"/>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5515,10 +5570,10 @@
         <v>252074</v>
       </c>
       <c r="Q15" s="54" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="S15" t="s">
         <v>49</v>
@@ -5531,10 +5586,10 @@
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y15" s="33">
         <v>5</v>
@@ -5562,36 +5617,38 @@
         <v>49</v>
       </c>
       <c r="AH15" s="59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AI15" s="59" t="s">
         <v>236</v>
       </c>
       <c r="AJ15" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AK15" s="59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL15" s="59"/>
       <c r="AM15" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="63">
+      <c r="AN15" s="72">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="AO15" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR15" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS15" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT15" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU15" s="1" t="s">
         <v>223</v>
@@ -5627,32 +5684,32 @@
       <c r="BH15" s="57"/>
       <c r="BI15" s="57"/>
       <c r="BJ15" s="57"/>
-      <c r="BL15" s="65">
+      <c r="BL15" s="63">
         <v>41227</v>
       </c>
-      <c r="BM15" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="BN15" s="67">
+      <c r="BM15" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="BN15" s="65">
         <v>31.94068</v>
       </c>
-      <c r="BO15" s="67">
+      <c r="BO15" s="65">
         <v>34.687379999999997</v>
       </c>
       <c r="BP15" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ15" s="58" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="BR15" s="25"/>
       <c r="BW15">
         <v>19</v>
       </c>
-      <c r="BX15" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY15" s="70">
+      <c r="BX15" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY15" s="68">
         <v>175.69</v>
       </c>
       <c r="BZ15"/>
@@ -5662,8 +5719,10 @@
       <c r="CD15"/>
       <c r="CE15"/>
       <c r="CF15"/>
+      <c r="CG15"/>
+      <c r="CH15"/>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5706,10 +5765,10 @@
         <v>154501</v>
       </c>
       <c r="Q16" s="54" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="S16" t="s">
         <v>49</v>
@@ -5722,10 +5781,10 @@
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y16" s="33">
         <v>5</v>
@@ -5751,36 +5810,38 @@
       </c>
       <c r="AG16" s="1"/>
       <c r="AH16" s="59" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AI16" s="59" t="s">
         <v>237</v>
       </c>
       <c r="AJ16" s="59" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AK16" s="59" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AL16" s="59"/>
       <c r="AM16" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="63">
+      <c r="AN16" s="72">
+        <v>34.4</v>
+      </c>
+      <c r="AO16" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR16" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS16" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT16" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU16" s="1" t="s">
         <v>223</v>
@@ -5813,32 +5874,32 @@
       <c r="BH16" s="57"/>
       <c r="BI16" s="57"/>
       <c r="BJ16" s="57"/>
-      <c r="BL16" s="65">
+      <c r="BL16" s="63">
         <v>41227</v>
       </c>
-      <c r="BM16" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="BN16" s="67">
+      <c r="BM16" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="BN16" s="65">
         <v>31.94068</v>
       </c>
-      <c r="BO16" s="67">
+      <c r="BO16" s="65">
         <v>34.687379999999997</v>
       </c>
       <c r="BP16" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ16" s="58" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="BR16" s="25"/>
       <c r="BW16">
         <v>19</v>
       </c>
-      <c r="BX16" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY16" s="71">
+      <c r="BX16" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY16" s="69">
         <v>175.69</v>
       </c>
       <c r="BZ16"/>
@@ -5848,8 +5909,10 @@
       <c r="CD16"/>
       <c r="CE16"/>
       <c r="CF16"/>
+      <c r="CG16"/>
+      <c r="CH16"/>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5892,10 +5955,10 @@
         <v>174238</v>
       </c>
       <c r="Q17" s="55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="S17" t="s">
         <v>49</v>
@@ -5908,10 +5971,10 @@
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y17" s="33">
         <v>5</v>
@@ -5937,36 +6000,38 @@
       </c>
       <c r="AG17" s="1"/>
       <c r="AH17" s="59" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AI17" s="59" t="s">
         <v>238</v>
       </c>
       <c r="AJ17" s="59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AK17" s="59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AL17" s="59"/>
       <c r="AM17" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AN17" s="62"/>
-      <c r="AO17" s="63">
+      <c r="AN17" s="72">
+        <v>35.6</v>
+      </c>
+      <c r="AO17" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR17" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT17" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU17" s="1" t="s">
         <v>223</v>
@@ -5999,32 +6064,32 @@
       <c r="BH17" s="57"/>
       <c r="BI17" s="57"/>
       <c r="BJ17" s="57"/>
-      <c r="BL17" s="65">
+      <c r="BL17" s="63">
         <v>41227</v>
       </c>
-      <c r="BM17" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="BN17" s="67">
+      <c r="BM17" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="BN17" s="65">
         <v>31.94068</v>
       </c>
-      <c r="BO17" s="67">
+      <c r="BO17" s="65">
         <v>34.687379999999997</v>
       </c>
       <c r="BP17" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ17" s="58" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="BR17" s="25"/>
       <c r="BW17">
         <v>19</v>
       </c>
-      <c r="BX17" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY17" s="71">
+      <c r="BX17" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY17" s="69">
         <v>175.69</v>
       </c>
       <c r="BZ17"/>
@@ -6034,8 +6099,10 @@
       <c r="CD17"/>
       <c r="CE17"/>
       <c r="CF17"/>
+      <c r="CG17"/>
+      <c r="CH17"/>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6078,10 +6145,10 @@
         <v>171763</v>
       </c>
       <c r="Q18" s="54" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="S18" t="s">
         <v>49</v>
@@ -6094,10 +6161,10 @@
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Y18" s="33">
         <v>6</v>
@@ -6123,36 +6190,38 @@
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="59" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AI18" s="59" t="s">
         <v>239</v>
       </c>
       <c r="AJ18" s="59" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AK18" s="59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AL18" s="59"/>
       <c r="AM18" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="63">
+      <c r="AN18" s="72">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AO18" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR18" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS18" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT18" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU18" s="1" t="s">
         <v>223</v>
@@ -6185,32 +6254,32 @@
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
       <c r="BJ18" s="57"/>
-      <c r="BL18" s="65">
+      <c r="BL18" s="63">
         <v>41227</v>
       </c>
-      <c r="BM18" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="BN18" s="67">
+      <c r="BM18" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="BN18" s="65">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO18" s="67">
+      <c r="BO18" s="65">
         <v>34.68336</v>
       </c>
       <c r="BP18" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ18" s="58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BR18" s="25"/>
       <c r="BW18">
         <v>18</v>
       </c>
-      <c r="BX18" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY18" s="71">
+      <c r="BX18" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY18" s="69">
         <v>1235.56</v>
       </c>
       <c r="BZ18"/>
@@ -6220,8 +6289,10 @@
       <c r="CD18"/>
       <c r="CE18"/>
       <c r="CF18"/>
+      <c r="CG18"/>
+      <c r="CH18"/>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6264,10 +6335,10 @@
         <v>237422</v>
       </c>
       <c r="Q19" s="54" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S19" t="s">
         <v>49</v>
@@ -6280,10 +6351,10 @@
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X19" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Y19" s="33">
         <v>6</v>
@@ -6309,36 +6380,38 @@
       </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AI19" s="59" t="s">
         <v>240</v>
       </c>
       <c r="AJ19" s="59" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AK19" s="59" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AL19" s="59"/>
       <c r="AM19" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="63">
+      <c r="AN19" s="72">
+        <v>34.6</v>
+      </c>
+      <c r="AO19" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR19" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS19" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT19" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU19" s="1" t="s">
         <v>223</v>
@@ -6371,32 +6444,32 @@
       <c r="BH19" s="57"/>
       <c r="BI19" s="57"/>
       <c r="BJ19" s="57"/>
-      <c r="BL19" s="65">
+      <c r="BL19" s="63">
         <v>41227</v>
       </c>
-      <c r="BM19" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="BN19" s="67">
+      <c r="BM19" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="BN19" s="65">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO19" s="67">
+      <c r="BO19" s="65">
         <v>34.68336</v>
       </c>
       <c r="BP19" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BR19" s="25"/>
       <c r="BW19">
         <v>18</v>
       </c>
-      <c r="BX19" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY19" s="71">
+      <c r="BX19" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY19" s="69">
         <v>1235.56</v>
       </c>
       <c r="BZ19"/>
@@ -6406,8 +6479,10 @@
       <c r="CD19"/>
       <c r="CE19"/>
       <c r="CF19"/>
+      <c r="CG19"/>
+      <c r="CH19"/>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6450,10 +6525,10 @@
         <v>154346</v>
       </c>
       <c r="Q20" s="54" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="S20" t="s">
         <v>49</v>
@@ -6466,10 +6541,10 @@
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Y20" s="33">
         <v>6</v>
@@ -6495,36 +6570,38 @@
       </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="59" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AI20" s="59" t="s">
         <v>241</v>
       </c>
       <c r="AJ20" s="59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AK20" s="59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AL20" s="59"/>
       <c r="AM20" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="63">
+      <c r="AN20" s="72">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AO20" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR20" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS20" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT20" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU20" s="1" t="s">
         <v>223</v>
@@ -6557,32 +6634,32 @@
       <c r="BH20" s="57"/>
       <c r="BI20" s="57"/>
       <c r="BJ20" s="57"/>
-      <c r="BL20" s="65">
+      <c r="BL20" s="63">
         <v>41227</v>
       </c>
-      <c r="BM20" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="BN20" s="67">
+      <c r="BM20" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="BN20" s="65">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO20" s="67">
+      <c r="BO20" s="65">
         <v>34.68336</v>
       </c>
       <c r="BP20" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BR20" s="25"/>
       <c r="BW20">
         <v>18</v>
       </c>
-      <c r="BX20" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY20" s="71">
+      <c r="BX20" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY20" s="69">
         <v>1235.56</v>
       </c>
       <c r="BZ20"/>
@@ -6592,8 +6669,10 @@
       <c r="CD20"/>
       <c r="CE20"/>
       <c r="CF20"/>
+      <c r="CG20"/>
+      <c r="CH20"/>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6602,7 +6681,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>105</v>
@@ -6648,10 +6727,10 @@
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y21" s="33">
         <v>7</v>
@@ -6677,36 +6756,36 @@
       </c>
       <c r="AG21" s="1"/>
       <c r="AH21" s="59" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AI21" s="59" t="s">
         <v>242</v>
       </c>
       <c r="AJ21" s="59" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AK21" s="59" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AL21" s="59"/>
       <c r="AM21" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="63">
+      <c r="AN21" s="72"/>
+      <c r="AO21" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR21" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT21" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU21" s="1" t="s">
         <v>223</v>
@@ -6739,30 +6818,30 @@
       <c r="BH21" s="57"/>
       <c r="BI21" s="57"/>
       <c r="BJ21" s="57"/>
-      <c r="BL21" s="65">
+      <c r="BL21" s="63">
         <v>41233</v>
       </c>
-      <c r="BM21" s="66" t="s">
-        <v>341</v>
-      </c>
-      <c r="BN21" s="67">
+      <c r="BM21" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="BN21" s="65">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO21" s="67">
+      <c r="BO21" s="65">
         <v>34.882582999999997</v>
       </c>
       <c r="BP21" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ21" s="58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BR21" s="25"/>
       <c r="BW21">
         <v>3.8</v>
       </c>
       <c r="BX21" s="42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="BY21" s="42">
         <v>0</v>
@@ -6774,8 +6853,10 @@
       <c r="CD21"/>
       <c r="CE21"/>
       <c r="CF21"/>
+      <c r="CG21"/>
+      <c r="CH21"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6818,10 +6899,10 @@
         <v>356730</v>
       </c>
       <c r="Q22" s="54" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R22" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="S22" t="s">
         <v>49</v>
@@ -6834,10 +6915,10 @@
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y22" s="33">
         <v>7</v>
@@ -6863,36 +6944,38 @@
       </c>
       <c r="AG22" s="1"/>
       <c r="AH22" s="59" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AI22" s="59" t="s">
         <v>243</v>
       </c>
       <c r="AJ22" s="59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AK22" s="59" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AL22" s="59"/>
       <c r="AM22" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="63">
+      <c r="AN22" s="72">
+        <v>29.4</v>
+      </c>
+      <c r="AO22" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR22" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS22" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT22" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU22" s="1" t="s">
         <v>223</v>
@@ -6925,30 +7008,30 @@
       <c r="BH22" s="57"/>
       <c r="BI22" s="57"/>
       <c r="BJ22" s="57"/>
-      <c r="BL22" s="65">
+      <c r="BL22" s="63">
         <v>41233</v>
       </c>
-      <c r="BM22" s="66" t="s">
-        <v>341</v>
-      </c>
-      <c r="BN22" s="67">
+      <c r="BM22" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="BN22" s="65">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO22" s="67">
+      <c r="BO22" s="65">
         <v>34.882582999999997</v>
       </c>
       <c r="BP22" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ22" s="58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BR22" s="25"/>
       <c r="BW22">
         <v>3.8</v>
       </c>
       <c r="BX22" s="42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="BY22" s="42">
         <v>0</v>
@@ -6960,8 +7043,10 @@
       <c r="CD22"/>
       <c r="CE22"/>
       <c r="CF22"/>
+      <c r="CG22"/>
+      <c r="CH22"/>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7004,10 +7089,10 @@
         <v>406279</v>
       </c>
       <c r="Q23" s="54" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="S23" t="s">
         <v>49</v>
@@ -7020,10 +7105,10 @@
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Y23" s="33">
         <v>7</v>
@@ -7049,36 +7134,38 @@
       </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="59" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AI23" s="59" t="s">
         <v>244</v>
       </c>
       <c r="AJ23" s="59" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AK23" s="59" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AL23" s="59"/>
       <c r="AM23" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="63">
+      <c r="AN23" s="72">
+        <v>20.2</v>
+      </c>
+      <c r="AO23" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR23" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS23" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT23" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU23" s="1" t="s">
         <v>223</v>
@@ -7111,30 +7198,30 @@
       <c r="BH23" s="57"/>
       <c r="BI23" s="57"/>
       <c r="BJ23" s="57"/>
-      <c r="BL23" s="65">
+      <c r="BL23" s="63">
         <v>41233</v>
       </c>
-      <c r="BM23" s="66" t="s">
-        <v>341</v>
-      </c>
-      <c r="BN23" s="67">
+      <c r="BM23" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="BN23" s="65">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO23" s="67">
+      <c r="BO23" s="65">
         <v>34.882582999999997</v>
       </c>
       <c r="BP23" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ23" s="58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BR23" s="25"/>
       <c r="BW23">
         <v>3.8</v>
       </c>
       <c r="BX23" s="42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="BY23" s="42">
         <v>0</v>
@@ -7146,8 +7233,10 @@
       <c r="CD23"/>
       <c r="CE23"/>
       <c r="CF23"/>
+      <c r="CG23"/>
+      <c r="CH23"/>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7190,10 +7279,10 @@
         <v>292338</v>
       </c>
       <c r="Q24" s="54" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="R24" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="S24" t="s">
         <v>49</v>
@@ -7206,10 +7295,10 @@
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y24" s="33">
         <v>8</v>
@@ -7235,36 +7324,38 @@
       </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="59" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AI24" s="59" t="s">
         <v>245</v>
       </c>
       <c r="AJ24" s="59" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AK24" s="59" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AL24" s="59"/>
       <c r="AM24" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="AN24" s="62"/>
-      <c r="AO24" s="63">
+      <c r="AN24" s="72">
+        <v>43.6</v>
+      </c>
+      <c r="AO24" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR24" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS24" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT24" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU24" s="1" t="s">
         <v>223</v>
@@ -7297,32 +7388,32 @@
       <c r="BH24" s="57"/>
       <c r="BI24" s="57"/>
       <c r="BJ24" s="57"/>
-      <c r="BL24" s="65">
+      <c r="BL24" s="63">
         <v>41233</v>
       </c>
-      <c r="BM24" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="BN24" s="67">
+      <c r="BM24" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="BN24" s="65">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO24" s="67">
+      <c r="BO24" s="65">
         <v>34.879339999999999</v>
       </c>
       <c r="BP24" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ24" s="58" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="BR24" s="25"/>
       <c r="BW24">
         <v>5.5</v>
       </c>
-      <c r="BX24" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY24" s="70">
+      <c r="BX24" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY24" s="68">
         <v>338.21</v>
       </c>
       <c r="BZ24"/>
@@ -7332,8 +7423,10 @@
       <c r="CD24"/>
       <c r="CE24"/>
       <c r="CF24"/>
+      <c r="CG24"/>
+      <c r="CH24"/>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7376,10 +7469,10 @@
         <v>269103</v>
       </c>
       <c r="Q25" s="54" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="S25" t="s">
         <v>49</v>
@@ -7392,10 +7485,10 @@
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y25" s="33">
         <v>8</v>
@@ -7421,36 +7514,38 @@
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="59" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AI25" s="59" t="s">
         <v>246</v>
       </c>
       <c r="AJ25" s="59" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AK25" s="59" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AL25" s="59"/>
       <c r="AM25" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="AN25" s="62"/>
-      <c r="AO25" s="63">
+      <c r="AN25" s="72">
+        <v>15.9</v>
+      </c>
+      <c r="AO25" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR25" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS25" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT25" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU25" s="1" t="s">
         <v>223</v>
@@ -7483,32 +7578,32 @@
       <c r="BH25" s="57"/>
       <c r="BI25" s="57"/>
       <c r="BJ25" s="57"/>
-      <c r="BL25" s="65">
+      <c r="BL25" s="63">
         <v>41233</v>
       </c>
-      <c r="BM25" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="BN25" s="67">
+      <c r="BM25" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="BN25" s="65">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO25" s="67">
+      <c r="BO25" s="65">
         <v>34.879339999999999</v>
       </c>
       <c r="BP25" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ25" s="58" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="BR25" s="25"/>
       <c r="BW25">
         <v>5.5</v>
       </c>
-      <c r="BX25" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY25" s="71">
+      <c r="BX25" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY25" s="69">
         <v>338.21</v>
       </c>
       <c r="BZ25"/>
@@ -7518,8 +7613,10 @@
       <c r="CD25"/>
       <c r="CE25"/>
       <c r="CF25"/>
+      <c r="CG25"/>
+      <c r="CH25"/>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7528,7 +7625,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>110</v>
@@ -7574,10 +7671,10 @@
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y26" s="33">
         <v>8</v>
@@ -7603,36 +7700,36 @@
       </c>
       <c r="AG26" s="1"/>
       <c r="AH26" s="59" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AI26" s="59" t="s">
         <v>247</v>
       </c>
       <c r="AJ26" s="59" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AK26" s="59" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL26" s="59"/>
       <c r="AM26" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="63">
+      <c r="AN26" s="72"/>
+      <c r="AO26" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR26" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS26" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT26" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU26" s="1" t="s">
         <v>223</v>
@@ -7665,32 +7762,32 @@
       <c r="BH26" s="57"/>
       <c r="BI26" s="57"/>
       <c r="BJ26" s="57"/>
-      <c r="BL26" s="65">
+      <c r="BL26" s="63">
         <v>41233</v>
       </c>
-      <c r="BM26" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="BN26" s="67">
+      <c r="BM26" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="BN26" s="65">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO26" s="67">
+      <c r="BO26" s="65">
         <v>34.879339999999999</v>
       </c>
       <c r="BP26" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ26" s="58" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="BR26" s="25"/>
       <c r="BW26">
         <v>5.5</v>
       </c>
-      <c r="BX26" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY26" s="71">
+      <c r="BX26" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY26" s="69">
         <v>338.21</v>
       </c>
       <c r="BZ26"/>
@@ -7700,8 +7797,10 @@
       <c r="CD26"/>
       <c r="CE26"/>
       <c r="CF26"/>
+      <c r="CG26"/>
+      <c r="CH26"/>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7744,10 +7843,10 @@
         <v>190462</v>
       </c>
       <c r="Q27" s="54" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R27" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S27" t="s">
         <v>49</v>
@@ -7760,10 +7859,10 @@
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Y27" s="33">
         <v>9</v>
@@ -7789,36 +7888,38 @@
       </c>
       <c r="AG27" s="1"/>
       <c r="AH27" s="59" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AI27" s="59" t="s">
         <v>248</v>
       </c>
       <c r="AJ27" s="59" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AK27" s="59" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AL27" s="59"/>
       <c r="AM27" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="63">
+      <c r="AN27" s="72">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="AO27" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR27" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS27" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT27" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU27" s="1" t="s">
         <v>223</v>
@@ -7851,32 +7952,32 @@
       <c r="BH27" s="57"/>
       <c r="BI27" s="57"/>
       <c r="BJ27" s="57"/>
-      <c r="BL27" s="65">
+      <c r="BL27" s="63">
         <v>41233</v>
       </c>
-      <c r="BM27" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="BN27" s="67">
+      <c r="BM27" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN27" s="65">
         <v>32.42868</v>
       </c>
-      <c r="BO27" s="67">
+      <c r="BO27" s="65">
         <v>34.870280000000001</v>
       </c>
       <c r="BP27" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BR27" s="25"/>
       <c r="BW27">
         <v>6.5</v>
       </c>
-      <c r="BX27" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY27" s="71">
+      <c r="BX27" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY27" s="69">
         <v>4192.68</v>
       </c>
       <c r="BZ27"/>
@@ -7886,8 +7987,10 @@
       <c r="CD27"/>
       <c r="CE27"/>
       <c r="CF27"/>
+      <c r="CG27"/>
+      <c r="CH27"/>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7896,7 +7999,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>112</v>
@@ -7942,10 +8045,10 @@
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Y28" s="33">
         <v>9</v>
@@ -7971,36 +8074,36 @@
       </c>
       <c r="AG28" s="1"/>
       <c r="AH28" s="59" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AI28" s="59" t="s">
         <v>249</v>
       </c>
       <c r="AJ28" s="59" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AK28" s="59" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AL28" s="59"/>
       <c r="AM28" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="AN28" s="62"/>
-      <c r="AO28" s="63">
+      <c r="AN28" s="72"/>
+      <c r="AO28" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR28" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS28" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT28" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU28" s="1" t="s">
         <v>223</v>
@@ -8033,32 +8136,32 @@
       <c r="BH28" s="57"/>
       <c r="BI28" s="57"/>
       <c r="BJ28" s="57"/>
-      <c r="BL28" s="65">
+      <c r="BL28" s="63">
         <v>41233</v>
       </c>
-      <c r="BM28" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="BN28" s="67">
+      <c r="BM28" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN28" s="65">
         <v>32.42868</v>
       </c>
-      <c r="BO28" s="67">
+      <c r="BO28" s="65">
         <v>34.870280000000001</v>
       </c>
       <c r="BP28" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BR28" s="25"/>
       <c r="BW28">
         <v>6.5</v>
       </c>
-      <c r="BX28" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY28" s="71">
+      <c r="BX28" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY28" s="69">
         <v>4192.68</v>
       </c>
       <c r="BZ28"/>
@@ -8068,8 +8171,10 @@
       <c r="CD28"/>
       <c r="CE28"/>
       <c r="CF28"/>
+      <c r="CG28"/>
+      <c r="CH28"/>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8078,7 +8183,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>113</v>
@@ -8124,10 +8229,10 @@
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Y29" s="33">
         <v>9</v>
@@ -8153,36 +8258,36 @@
       </c>
       <c r="AG29" s="1"/>
       <c r="AH29" s="59" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AI29" s="59" t="s">
         <v>224</v>
       </c>
       <c r="AJ29" s="59" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AK29" s="59" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AL29" s="59"/>
       <c r="AM29" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="AN29" s="62"/>
-      <c r="AO29" s="63">
+      <c r="AN29" s="72"/>
+      <c r="AO29" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AR29" s="42" t="s">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="AS29" s="1" t="s">
         <v>222</v>
       </c>
       <c r="AT29" s="42" t="s">
-        <v>253</v>
+        <v>409</v>
       </c>
       <c r="AU29" s="1" t="s">
         <v>223</v>
@@ -8215,32 +8320,32 @@
       <c r="BH29" s="57"/>
       <c r="BI29" s="57"/>
       <c r="BJ29" s="57"/>
-      <c r="BL29" s="65">
+      <c r="BL29" s="63">
         <v>41233</v>
       </c>
-      <c r="BM29" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="BN29" s="67">
+      <c r="BM29" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN29" s="65">
         <v>32.42868</v>
       </c>
-      <c r="BO29" s="67">
+      <c r="BO29" s="65">
         <v>34.870280000000001</v>
       </c>
       <c r="BP29" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BQ29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BR29" s="25"/>
       <c r="BW29">
         <v>6.5</v>
       </c>
-      <c r="BX29" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="BY29" s="71">
+      <c r="BX29" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="BY29" s="69">
         <v>4192.68</v>
       </c>
       <c r="BZ29"/>
@@ -8250,67 +8355,71 @@
       <c r="CD29"/>
       <c r="CE29"/>
       <c r="CF29"/>
+      <c r="CG29"/>
+      <c r="CH29"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="AN30" s="73"/>
       <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="AN31" s="73"/>
       <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:86" x14ac:dyDescent="0.2">
       <c r="AO32" s="13"/>
-      <c r="BM32" s="66"/>
+      <c r="BM32" s="64"/>
     </row>
     <row r="33" spans="41:70" x14ac:dyDescent="0.2">
       <c r="AO33" s="13"/>
-      <c r="BM33" s="66"/>
-      <c r="BQ33" s="67"/>
-      <c r="BR33" s="67"/>
+      <c r="BM33" s="64"/>
+      <c r="BQ33" s="65"/>
+      <c r="BR33" s="65"/>
     </row>
     <row r="34" spans="41:70" x14ac:dyDescent="0.2">
       <c r="AO34" s="13"/>
-      <c r="BM34" s="66"/>
-      <c r="BQ34" s="67"/>
-      <c r="BR34" s="67"/>
+      <c r="BM34" s="64"/>
+      <c r="BQ34" s="65"/>
+      <c r="BR34" s="65"/>
     </row>
     <row r="35" spans="41:70" x14ac:dyDescent="0.2">
       <c r="AO35" s="13"/>
-      <c r="BM35" s="66"/>
-      <c r="BQ35" s="67"/>
-      <c r="BR35" s="67"/>
+      <c r="BM35" s="64"/>
+      <c r="BQ35" s="65"/>
+      <c r="BR35" s="65"/>
     </row>
     <row r="36" spans="41:70" x14ac:dyDescent="0.2">
       <c r="AO36" s="13"/>
-      <c r="BM36" s="66"/>
-      <c r="BQ36" s="67"/>
-      <c r="BR36" s="67"/>
+      <c r="BM36" s="64"/>
+      <c r="BQ36" s="65"/>
+      <c r="BR36" s="65"/>
     </row>
     <row r="37" spans="41:70" x14ac:dyDescent="0.2">
       <c r="AO37" s="13"/>
-      <c r="BM37" s="66"/>
-      <c r="BQ37" s="67"/>
-      <c r="BR37" s="67"/>
+      <c r="BM37" s="64"/>
+      <c r="BQ37" s="65"/>
+      <c r="BR37" s="65"/>
     </row>
     <row r="38" spans="41:70" x14ac:dyDescent="0.2">
       <c r="AO38" s="13"/>
-      <c r="BM38" s="66"/>
-      <c r="BQ38" s="67"/>
-      <c r="BR38" s="67"/>
+      <c r="BM38" s="64"/>
+      <c r="BQ38" s="65"/>
+      <c r="BR38" s="65"/>
     </row>
     <row r="39" spans="41:70" x14ac:dyDescent="0.2">
       <c r="AO39" s="13"/>
-      <c r="BQ39" s="67"/>
-      <c r="BR39" s="67"/>
+      <c r="BQ39" s="65"/>
+      <c r="BR39" s="65"/>
     </row>
     <row r="40" spans="41:70" x14ac:dyDescent="0.2">
       <c r="AO40" s="13"/>
-      <c r="BQ40" s="67"/>
-      <c r="BR40" s="67"/>
+      <c r="BQ40" s="65"/>
+      <c r="BR40" s="65"/>
     </row>
     <row r="41" spans="41:70" x14ac:dyDescent="0.2">
       <c r="AO41" s="13"/>
-      <c r="BQ41" s="67"/>
-      <c r="BR41" s="67"/>
+      <c r="BQ41" s="65"/>
+      <c r="BR41" s="65"/>
     </row>
     <row r="42" spans="41:70" x14ac:dyDescent="0.2">
       <c r="AO42" s="13"/>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="980" windowWidth="44080" windowHeight="25000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34880" windowHeight="23280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="407">
   <si>
     <t>Country</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Depth [m]</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
     <t>Sample #</t>
   </si>
   <si>
@@ -156,12 +153,6 @@
   </si>
   <si>
     <t>PhiX spiking</t>
-  </si>
-  <si>
-    <t>Cell counts [cells/mL]</t>
-  </si>
-  <si>
-    <t>Conductivity [μS/cm]</t>
   </si>
   <si>
     <t>Reverse index #</t>
@@ -267,84 +258,6 @@
     <t>Optional extra data</t>
   </si>
   <si>
-    <r>
-      <t>Oxygen (O</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) [mg/L]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Carbon dioxide (CO</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) [µM]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Methane (CH</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) [µM]</t>
-    </r>
-  </si>
-  <si>
     <t>Used</t>
   </si>
   <si>
@@ -1363,6 +1276,9 @@
   </si>
   <si>
     <t>Salinty [ppt]</t>
+  </si>
+  <si>
+    <t>Luminescent Dissolved Oxygen [% Sat]</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1499,14 +1415,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Menlo Regular"/>
@@ -1906,7 +1814,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2044,9 +1952,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2063,20 +1971,20 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="291" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="291" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="304">
     <cellStyle name="Excel Built-in Normal" xfId="267"/>
@@ -2751,12 +2659,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CI51"/>
+  <dimension ref="A1:CD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BO1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="CB23" sqref="CB23"/>
+      <selection pane="bottomLeft" activeCell="BZ41" sqref="BZ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2833,20 +2741,16 @@
     <col min="75" max="75" width="11" style="22" customWidth="1"/>
     <col min="76" max="76" width="11" style="70" customWidth="1"/>
     <col min="77" max="77" width="13" style="70" customWidth="1"/>
-    <col min="78" max="79" width="11.6640625" style="22" customWidth="1"/>
-    <col min="80" max="80" width="12.6640625" style="22" customWidth="1"/>
-    <col min="81" max="81" width="14.33203125" style="22" customWidth="1"/>
-    <col min="82" max="82" width="13.5" style="22" customWidth="1"/>
-    <col min="83" max="83" width="13.6640625" style="22" customWidth="1"/>
-    <col min="84" max="84" width="15.33203125" style="22" customWidth="1"/>
-    <col min="85" max="85" width="15.5" style="22" customWidth="1"/>
-    <col min="86" max="86" width="14.6640625" style="22" customWidth="1"/>
-    <col min="87" max="87" width="9.6640625" customWidth="1"/>
+    <col min="78" max="78" width="11.6640625" style="22" customWidth="1"/>
+    <col min="79" max="79" width="12.6640625" style="22" customWidth="1"/>
+    <col min="80" max="80" width="13.5" style="22" customWidth="1"/>
+    <col min="81" max="81" width="20.83203125" style="22" customWidth="1"/>
+    <col min="82" max="82" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="35"/>
@@ -2896,27 +2800,27 @@
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="10"/>
-      <c r="BG1" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH1" s="71"/>
-      <c r="BI1" s="71"/>
-      <c r="BJ1" s="71"/>
-      <c r="BL1" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM1" s="71"/>
-      <c r="BN1" s="71"/>
-      <c r="BO1" s="71"/>
-      <c r="BP1" s="71"/>
-      <c r="BQ1" s="71"/>
-      <c r="BR1" s="71"/>
-      <c r="BT1" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="BU1" s="71"/>
+      <c r="BG1" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BL1" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="73"/>
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="73"/>
+      <c r="BT1" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU1" s="73"/>
       <c r="BW1" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="BX1" s="67"/>
       <c r="BY1" s="67"/>
@@ -2924,56 +2828,51 @@
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
     </row>
-    <row r="2" spans="1:87" s="53" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:82" s="53" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N2" s="45"/>
       <c r="O2" s="46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P2" s="46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="43" t="s">
         <v>14</v>
@@ -2983,24 +2882,24 @@
       </c>
       <c r="S2" s="45"/>
       <c r="T2" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V2" s="45"/>
       <c r="W2" s="43" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="X2" s="43" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Y2" s="43" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Z2" s="45"/>
       <c r="AA2" s="43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="43" t="s">
         <v>16</v>
@@ -3009,7 +2908,7 @@
         <v>17</v>
       </c>
       <c r="AD2" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AE2" s="43" t="s">
         <v>18</v>
@@ -3019,28 +2918,28 @@
       </c>
       <c r="AG2" s="45"/>
       <c r="AH2" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK2" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ2" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK2" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL2" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM2" s="43" t="s">
-        <v>47</v>
-      </c>
       <c r="AN2" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="43" t="s">
         <v>39</v>
-      </c>
-      <c r="AO2" s="43" t="s">
-        <v>40</v>
       </c>
       <c r="AP2" s="45"/>
       <c r="AQ2" s="43" t="s">
@@ -3075,10 +2974,10 @@
         <v>24</v>
       </c>
       <c r="BB2" s="43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BC2" s="43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BD2" s="43" t="s">
         <v>25</v>
@@ -3091,20 +2990,20 @@
         <v>27</v>
       </c>
       <c r="BH2" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="BI2" s="49" t="s">
+      <c r="BJ2" s="49" t="s">
         <v>34</v>
-      </c>
-      <c r="BJ2" s="49" t="s">
-        <v>35</v>
       </c>
       <c r="BK2" s="48"/>
       <c r="BL2" s="50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="BM2" s="50" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="BN2" s="50" t="s">
         <v>12</v>
@@ -3116,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="BQ2" s="50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="BR2" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BS2" s="48"/>
       <c r="BT2" s="51" t="s">
@@ -3133,41 +3032,26 @@
         <v>28</v>
       </c>
       <c r="BX2" s="52" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="BY2" s="52" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="BZ2" s="52" t="s">
-        <v>29</v>
+        <v>405</v>
       </c>
       <c r="CA2" s="52" t="s">
-        <v>411</v>
+        <v>30</v>
       </c>
       <c r="CB2" s="52" t="s">
-        <v>31</v>
+        <v>404</v>
       </c>
       <c r="CC2" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="CD2" s="52" t="s">
-        <v>410</v>
-      </c>
-      <c r="CE2" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="CF2" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="CG2" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="CH2" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="CI2" s="48"/>
+        <v>406</v>
+      </c>
+      <c r="CD2" s="48"/>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
@@ -3176,34 +3060,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O3" s="37">
         <v>275162</v>
@@ -3212,91 +3096,91 @@
         <v>275162</v>
       </c>
       <c r="Q3" s="54" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Y3" s="33">
         <v>1</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC3" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD3" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF3" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH3" s="59" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AI3" s="59" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AJ3" s="59" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AK3" s="59" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL3" s="59"/>
       <c r="AM3" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN3" s="72">
+        <v>189</v>
+      </c>
+      <c r="AN3" s="71">
         <v>27.8</v>
       </c>
       <c r="AO3" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR3" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT3" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW3" t="s">
         <v>8</v>
@@ -3308,13 +3192,13 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD3">
         <v>251</v>
@@ -3330,7 +3214,7 @@
         <v>41226</v>
       </c>
       <c r="BM3" s="64" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="BN3" s="65">
         <v>31.63212</v>
@@ -3339,32 +3223,35 @@
         <v>34.5167</v>
       </c>
       <c r="BP3" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="BR3" s="25"/>
       <c r="BW3">
         <v>1.5</v>
       </c>
       <c r="BX3" s="42" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="BY3" s="42">
         <v>0</v>
       </c>
-      <c r="BZ3"/>
-      <c r="CA3"/>
-      <c r="CB3"/>
-      <c r="CC3"/>
-      <c r="CD3"/>
-      <c r="CE3"/>
-      <c r="CF3"/>
-      <c r="CG3"/>
-      <c r="CH3"/>
+      <c r="BZ3">
+        <v>42.3</v>
+      </c>
+      <c r="CA3">
+        <v>31.81</v>
+      </c>
+      <c r="CB3">
+        <v>584.20399999999995</v>
+      </c>
+      <c r="CC3">
+        <v>114.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3373,34 +3260,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O4" s="37">
         <v>0</v>
@@ -3411,83 +3298,83 @@
       <c r="Q4" s="54"/>
       <c r="R4" s="19"/>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Y4" s="33">
         <v>1</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD4" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH4" s="59" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AI4" s="59" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AJ4" s="59" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AK4" s="59" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AL4" s="59"/>
       <c r="AM4" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN4" s="72"/>
+        <v>190</v>
+      </c>
+      <c r="AN4" s="71"/>
       <c r="AO4" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR4" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT4" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW4" t="s">
         <v>8</v>
@@ -3499,13 +3386,13 @@
         <v>10</v>
       </c>
       <c r="AZ4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA4" t="s">
         <v>11</v>
       </c>
       <c r="BB4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD4">
         <v>251</v>
@@ -3521,7 +3408,7 @@
         <v>41226</v>
       </c>
       <c r="BM4" s="64" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="BN4" s="65">
         <v>31.63212</v>
@@ -3530,32 +3417,35 @@
         <v>34.5167</v>
       </c>
       <c r="BP4" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="BR4" s="25"/>
       <c r="BW4">
         <v>1.5</v>
       </c>
       <c r="BX4" s="42" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="BY4" s="42">
         <v>0</v>
       </c>
-      <c r="BZ4"/>
-      <c r="CA4"/>
-      <c r="CB4"/>
-      <c r="CC4"/>
-      <c r="CD4"/>
-      <c r="CE4"/>
-      <c r="CF4"/>
-      <c r="CG4"/>
-      <c r="CH4"/>
+      <c r="BZ4">
+        <v>42.3</v>
+      </c>
+      <c r="CA4">
+        <v>31.81</v>
+      </c>
+      <c r="CB4">
+        <v>584.20399999999995</v>
+      </c>
+      <c r="CC4">
+        <v>114.9</v>
+      </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3564,34 +3454,34 @@
         <v>3</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O5" s="37">
         <v>367728</v>
@@ -3600,91 +3490,91 @@
         <v>367728</v>
       </c>
       <c r="Q5" s="54" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Y5" s="33">
         <v>1</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC5" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF5" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC5" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD5" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF5" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH5" s="59" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AI5" s="59" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AJ5" s="59" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AK5" s="59" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AL5" s="59"/>
       <c r="AM5" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN5" s="72">
+        <v>191</v>
+      </c>
+      <c r="AN5" s="71">
         <v>32.799999999999997</v>
       </c>
       <c r="AO5" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR5" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT5" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW5" t="s">
         <v>8</v>
@@ -3696,13 +3586,13 @@
         <v>10</v>
       </c>
       <c r="AZ5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA5" t="s">
         <v>11</v>
       </c>
       <c r="BB5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD5">
         <v>251</v>
@@ -3718,7 +3608,7 @@
         <v>41226</v>
       </c>
       <c r="BM5" s="64" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="BN5" s="65">
         <v>31.63212</v>
@@ -3727,32 +3617,35 @@
         <v>34.5167</v>
       </c>
       <c r="BP5" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="BR5" s="25"/>
       <c r="BW5">
         <v>1.5</v>
       </c>
       <c r="BX5" s="42" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="BY5" s="42">
         <v>0</v>
       </c>
-      <c r="BZ5"/>
-      <c r="CA5"/>
-      <c r="CB5"/>
-      <c r="CC5"/>
-      <c r="CD5"/>
-      <c r="CE5"/>
-      <c r="CF5"/>
-      <c r="CG5"/>
-      <c r="CH5"/>
+      <c r="BZ5">
+        <v>42.3</v>
+      </c>
+      <c r="CA5">
+        <v>31.81</v>
+      </c>
+      <c r="CB5">
+        <v>584.20399999999995</v>
+      </c>
+      <c r="CC5">
+        <v>114.9</v>
+      </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3761,34 +3654,34 @@
         <v>4</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O6" s="37">
         <v>292281</v>
@@ -3797,91 +3690,91 @@
         <v>292281</v>
       </c>
       <c r="Q6" s="55" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Y6" s="33">
         <v>2</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC6" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF6" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC6" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD6" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF6" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH6" s="59" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AI6" s="59" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AJ6" s="59" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AK6" s="59" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AL6" s="59"/>
       <c r="AM6" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="AN6" s="72">
+        <v>192</v>
+      </c>
+      <c r="AN6" s="71">
         <v>42.6</v>
       </c>
       <c r="AO6" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR6" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT6" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW6" t="s">
         <v>8</v>
@@ -3893,13 +3786,13 @@
         <v>10</v>
       </c>
       <c r="AZ6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA6" t="s">
         <v>11</v>
       </c>
       <c r="BB6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD6">
         <v>251</v>
@@ -3915,7 +3808,7 @@
         <v>41226</v>
       </c>
       <c r="BM6" s="64" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="BN6" s="65">
         <v>31.6341</v>
@@ -3924,32 +3817,35 @@
         <v>34.51144</v>
       </c>
       <c r="BP6" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="BR6" s="25"/>
       <c r="BW6">
         <v>10</v>
       </c>
       <c r="BX6" s="68" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY6" s="68">
         <v>545.16</v>
       </c>
-      <c r="BZ6"/>
-      <c r="CA6"/>
-      <c r="CB6"/>
-      <c r="CC6"/>
-      <c r="CD6"/>
-      <c r="CE6"/>
-      <c r="CF6"/>
-      <c r="CG6"/>
-      <c r="CH6"/>
+      <c r="BZ6">
+        <v>39.6</v>
+      </c>
+      <c r="CA6">
+        <v>24.87</v>
+      </c>
+      <c r="CB6">
+        <v>209.97499999999999</v>
+      </c>
+      <c r="CC6">
+        <v>99.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3958,34 +3854,34 @@
         <v>5</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O7" s="37">
         <v>242696</v>
@@ -3994,91 +3890,91 @@
         <v>242696</v>
       </c>
       <c r="Q7" s="54" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Y7" s="33">
         <v>2</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC7" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC7" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD7" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF7" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH7" s="59" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AI7" s="59" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AJ7" s="59" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AK7" s="59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AL7" s="59"/>
       <c r="AM7" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN7" s="72">
+        <v>193</v>
+      </c>
+      <c r="AN7" s="71">
         <v>41.6</v>
       </c>
       <c r="AO7" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR7" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT7" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW7" t="s">
         <v>8</v>
@@ -4090,13 +3986,13 @@
         <v>10</v>
       </c>
       <c r="AZ7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA7" t="s">
         <v>11</v>
       </c>
       <c r="BB7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD7">
         <v>251</v>
@@ -4112,7 +4008,7 @@
         <v>41226</v>
       </c>
       <c r="BM7" s="64" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="BN7" s="65">
         <v>31.6341</v>
@@ -4121,32 +4017,35 @@
         <v>34.51144</v>
       </c>
       <c r="BP7" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="BR7" s="25"/>
       <c r="BW7">
         <v>10</v>
       </c>
       <c r="BX7" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY7" s="69">
         <v>545.16</v>
       </c>
-      <c r="BZ7"/>
-      <c r="CA7"/>
-      <c r="CB7"/>
-      <c r="CC7"/>
-      <c r="CD7"/>
-      <c r="CE7"/>
-      <c r="CF7"/>
-      <c r="CG7"/>
-      <c r="CH7"/>
+      <c r="BZ7">
+        <v>39.6</v>
+      </c>
+      <c r="CA7">
+        <v>24.87</v>
+      </c>
+      <c r="CB7">
+        <v>209.97499999999999</v>
+      </c>
+      <c r="CC7">
+        <v>99.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4155,34 +4054,34 @@
         <v>6</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O8" s="37">
         <v>282664</v>
@@ -4191,91 +4090,91 @@
         <v>282664</v>
       </c>
       <c r="Q8" s="54" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Y8" s="33">
         <v>2</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC8" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC8" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD8" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE8" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF8" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH8" s="59" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AI8" s="59" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AJ8" s="59" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AK8" s="59" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AL8" s="59"/>
       <c r="AM8" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN8" s="72">
+        <v>194</v>
+      </c>
+      <c r="AN8" s="71">
         <v>32.200000000000003</v>
       </c>
       <c r="AO8" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR8" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT8" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW8" t="s">
         <v>8</v>
@@ -4287,13 +4186,13 @@
         <v>10</v>
       </c>
       <c r="AZ8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA8" t="s">
         <v>11</v>
       </c>
       <c r="BB8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD8">
         <v>251</v>
@@ -4309,7 +4208,7 @@
         <v>41226</v>
       </c>
       <c r="BM8" s="64" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="BN8" s="65">
         <v>31.6341</v>
@@ -4318,32 +4217,35 @@
         <v>34.51144</v>
       </c>
       <c r="BP8" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ8" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="BR8" s="25"/>
       <c r="BW8">
         <v>10</v>
       </c>
       <c r="BX8" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY8" s="69">
         <v>545.16</v>
       </c>
-      <c r="BZ8"/>
-      <c r="CA8"/>
-      <c r="CB8"/>
-      <c r="CC8"/>
-      <c r="CD8"/>
-      <c r="CE8"/>
-      <c r="CF8"/>
-      <c r="CG8"/>
-      <c r="CH8"/>
+      <c r="BZ8">
+        <v>39.6</v>
+      </c>
+      <c r="CA8">
+        <v>24.87</v>
+      </c>
+      <c r="CB8">
+        <v>209.97499999999999</v>
+      </c>
+      <c r="CC8">
+        <v>99.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4352,34 +4254,34 @@
         <v>7</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O9" s="37">
         <v>233579</v>
@@ -4388,91 +4290,91 @@
         <v>233579</v>
       </c>
       <c r="Q9" s="54" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Y9" s="33">
         <v>3</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC9" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC9" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD9" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF9" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH9" s="59" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AI9" s="59" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AJ9" s="59" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AK9" s="59" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AL9" s="59"/>
       <c r="AM9" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="AN9" s="72">
+        <v>195</v>
+      </c>
+      <c r="AN9" s="71">
         <v>33.4</v>
       </c>
       <c r="AO9" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR9" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT9" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW9" t="s">
         <v>8</v>
@@ -4484,13 +4386,13 @@
         <v>10</v>
       </c>
       <c r="AZ9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA9" t="s">
         <v>11</v>
       </c>
       <c r="BB9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD9">
         <v>251</v>
@@ -4506,7 +4408,7 @@
         <v>41226</v>
       </c>
       <c r="BM9" s="64" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="BN9" s="65">
         <v>31.671759999999999</v>
@@ -4515,32 +4417,35 @@
         <v>34.543559999999999</v>
       </c>
       <c r="BP9" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="BR9" s="25"/>
       <c r="BW9">
         <v>5</v>
       </c>
       <c r="BX9" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY9" s="69">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ9"/>
-      <c r="CA9"/>
-      <c r="CB9"/>
-      <c r="CC9"/>
-      <c r="CD9"/>
-      <c r="CE9"/>
-      <c r="CF9"/>
-      <c r="CG9"/>
-      <c r="CH9"/>
+      <c r="BZ9">
+        <v>39.6</v>
+      </c>
+      <c r="CA9">
+        <v>24.92</v>
+      </c>
+      <c r="CB9">
+        <v>210.3</v>
+      </c>
+      <c r="CC9">
+        <v>100.9</v>
+      </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4549,34 +4454,34 @@
         <v>8</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O10" s="37">
         <v>137661</v>
@@ -4585,91 +4490,91 @@
         <v>137661</v>
       </c>
       <c r="Q10" s="54" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Y10" s="33">
         <v>3</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD10" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC10" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD10" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF10" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH10" s="59" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AI10" s="59" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AJ10" s="59" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AK10" s="59" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AL10" s="59"/>
       <c r="AM10" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN10" s="72">
+        <v>196</v>
+      </c>
+      <c r="AN10" s="71">
         <v>39</v>
       </c>
       <c r="AO10" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR10" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT10" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW10" t="s">
         <v>8</v>
@@ -4681,13 +4586,13 @@
         <v>10</v>
       </c>
       <c r="AZ10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA10" t="s">
         <v>11</v>
       </c>
       <c r="BB10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD10">
         <v>251</v>
@@ -4703,7 +4608,7 @@
         <v>41226</v>
       </c>
       <c r="BM10" s="64" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="BN10" s="65">
         <v>31.671759999999999</v>
@@ -4712,32 +4617,35 @@
         <v>34.543559999999999</v>
       </c>
       <c r="BP10" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="BR10" s="25"/>
       <c r="BW10">
         <v>5</v>
       </c>
       <c r="BX10" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY10" s="69">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
-      <c r="CG10"/>
-      <c r="CH10"/>
+      <c r="BZ10">
+        <v>39.6</v>
+      </c>
+      <c r="CA10">
+        <v>24.92</v>
+      </c>
+      <c r="CB10">
+        <v>210.3</v>
+      </c>
+      <c r="CC10">
+        <v>100.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4746,34 +4654,34 @@
         <v>9</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O11" s="37">
         <v>273123</v>
@@ -4782,91 +4690,91 @@
         <v>273123</v>
       </c>
       <c r="Q11" s="54" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Y11" s="33">
         <v>3</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC11" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD11" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF11" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC11" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD11" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE11" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF11" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH11" s="59" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AI11" s="59" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AJ11" s="59" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AK11" s="59" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL11" s="59"/>
       <c r="AM11" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN11" s="72">
+        <v>197</v>
+      </c>
+      <c r="AN11" s="71">
         <v>27.6</v>
       </c>
       <c r="AO11" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR11" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT11" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW11" t="s">
         <v>8</v>
@@ -4878,13 +4786,13 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA11" t="s">
         <v>11</v>
       </c>
       <c r="BB11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD11">
         <v>251</v>
@@ -4900,7 +4808,7 @@
         <v>41226</v>
       </c>
       <c r="BM11" s="64" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="BN11" s="65">
         <v>31.671759999999999</v>
@@ -4909,32 +4817,35 @@
         <v>34.543559999999999</v>
       </c>
       <c r="BP11" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="BR11" s="25"/>
       <c r="BW11">
         <v>5</v>
       </c>
       <c r="BX11" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY11" s="69">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ11"/>
-      <c r="CA11"/>
-      <c r="CB11"/>
-      <c r="CC11"/>
-      <c r="CD11"/>
-      <c r="CE11"/>
-      <c r="CF11"/>
-      <c r="CG11"/>
-      <c r="CH11"/>
+      <c r="BZ11">
+        <v>39.6</v>
+      </c>
+      <c r="CA11">
+        <v>24.92</v>
+      </c>
+      <c r="CB11">
+        <v>210.3</v>
+      </c>
+      <c r="CC11">
+        <v>100.9</v>
+      </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4943,34 +4854,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O12" s="37">
         <v>134807</v>
@@ -4979,91 +4890,91 @@
         <v>134807</v>
       </c>
       <c r="Q12" s="54" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="R12" s="24" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Y12" s="33">
         <v>4</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC12" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF12" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC12" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD12" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF12" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH12" s="59" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AI12" s="59" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AJ12" s="59" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AK12" s="59" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AL12" s="59"/>
       <c r="AM12" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN12" s="72">
+        <v>198</v>
+      </c>
+      <c r="AN12" s="71">
         <v>32</v>
       </c>
       <c r="AO12" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR12" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT12" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW12" t="s">
         <v>8</v>
@@ -5075,13 +4986,13 @@
         <v>10</v>
       </c>
       <c r="AZ12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA12" t="s">
         <v>11</v>
       </c>
       <c r="BB12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD12">
         <v>251</v>
@@ -5097,7 +5008,7 @@
         <v>41227</v>
       </c>
       <c r="BM12" s="64" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="BN12" s="65">
         <v>31.941859999999998</v>
@@ -5106,32 +5017,35 @@
         <v>34.68862</v>
       </c>
       <c r="BP12" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ12" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="BR12" s="25"/>
       <c r="BW12">
         <v>18</v>
       </c>
       <c r="BX12" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY12" s="42">
-        <v>0</v>
-      </c>
-      <c r="BZ12"/>
-      <c r="CA12"/>
-      <c r="CB12"/>
-      <c r="CC12"/>
-      <c r="CD12"/>
-      <c r="CE12"/>
-      <c r="CF12"/>
-      <c r="CG12"/>
-      <c r="CH12"/>
+        <v>102.78</v>
+      </c>
+      <c r="BZ12">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="CA12">
+        <v>24.88</v>
+      </c>
+      <c r="CB12">
+        <v>160.36000000000001</v>
+      </c>
+      <c r="CC12">
+        <v>99.74</v>
+      </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5140,34 +5054,34 @@
         <v>11</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O13" s="37">
         <v>244784</v>
@@ -5176,91 +5090,91 @@
         <v>244784</v>
       </c>
       <c r="Q13" s="54" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Y13" s="33">
         <v>4</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC13" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD13" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF13" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC13" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD13" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE13" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF13" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH13" s="59" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AI13" s="59" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AJ13" s="59" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AK13" s="59" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AL13" s="59"/>
       <c r="AM13" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN13" s="72">
+        <v>199</v>
+      </c>
+      <c r="AN13" s="71">
         <v>45.6</v>
       </c>
       <c r="AO13" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR13" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT13" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW13" t="s">
         <v>8</v>
@@ -5272,13 +5186,13 @@
         <v>10</v>
       </c>
       <c r="AZ13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA13" t="s">
         <v>11</v>
       </c>
       <c r="BB13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD13">
         <v>251</v>
@@ -5294,7 +5208,7 @@
         <v>41227</v>
       </c>
       <c r="BM13" s="64" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="BN13" s="65">
         <v>31.941859999999998</v>
@@ -5303,32 +5217,35 @@
         <v>34.68862</v>
       </c>
       <c r="BP13" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ13" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="BR13" s="25"/>
       <c r="BW13">
         <v>18</v>
       </c>
       <c r="BX13" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY13" s="42">
-        <v>0</v>
-      </c>
-      <c r="BZ13"/>
-      <c r="CA13"/>
-      <c r="CB13"/>
-      <c r="CC13"/>
-      <c r="CD13"/>
-      <c r="CE13"/>
-      <c r="CF13"/>
-      <c r="CG13"/>
-      <c r="CH13"/>
+        <v>102.78</v>
+      </c>
+      <c r="BZ13">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="CA13">
+        <v>24.88</v>
+      </c>
+      <c r="CB13">
+        <v>160.36000000000001</v>
+      </c>
+      <c r="CC13">
+        <v>99.74</v>
+      </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5337,34 +5254,34 @@
         <v>12</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O14" s="37">
         <v>337801</v>
@@ -5373,91 +5290,91 @@
         <v>337801</v>
       </c>
       <c r="Q14" s="55" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Y14" s="33">
         <v>4</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC14" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF14" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC14" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD14" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE14" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF14" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH14" s="59" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AI14" s="59" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AJ14" s="59" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AK14" s="59" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AL14" s="59"/>
       <c r="AM14" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN14" s="72">
+        <v>200</v>
+      </c>
+      <c r="AN14" s="71">
         <v>30</v>
       </c>
       <c r="AO14" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ14" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR14" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT14" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW14" t="s">
         <v>8</v>
@@ -5469,13 +5386,13 @@
         <v>10</v>
       </c>
       <c r="AZ14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA14" t="s">
         <v>11</v>
       </c>
       <c r="BB14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD14">
         <v>251</v>
@@ -5491,7 +5408,7 @@
         <v>41227</v>
       </c>
       <c r="BM14" s="64" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="BN14" s="65">
         <v>31.941859999999998</v>
@@ -5500,32 +5417,35 @@
         <v>34.68862</v>
       </c>
       <c r="BP14" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ14" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="BR14" s="25"/>
       <c r="BW14">
         <v>18</v>
       </c>
       <c r="BX14" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY14" s="42">
-        <v>0</v>
-      </c>
-      <c r="BZ14"/>
-      <c r="CA14"/>
-      <c r="CB14"/>
-      <c r="CC14"/>
-      <c r="CD14"/>
-      <c r="CE14"/>
-      <c r="CF14"/>
-      <c r="CG14"/>
-      <c r="CH14"/>
+        <v>102.78</v>
+      </c>
+      <c r="BZ14">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="CA14">
+        <v>24.88</v>
+      </c>
+      <c r="CB14">
+        <v>160.36000000000001</v>
+      </c>
+      <c r="CC14">
+        <v>99.74</v>
+      </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5534,34 +5454,34 @@
         <v>13</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O15" s="37">
         <v>252074</v>
@@ -5570,91 +5490,91 @@
         <v>252074</v>
       </c>
       <c r="Q15" s="54" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Y15" s="33">
         <v>5</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC15" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD15" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC15" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD15" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF15" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH15" s="59" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AI15" s="59" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AJ15" s="59" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AK15" s="59" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AL15" s="59"/>
       <c r="AM15" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN15" s="72">
+        <v>201</v>
+      </c>
+      <c r="AN15" s="71">
         <v>38.799999999999997</v>
       </c>
       <c r="AO15" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ15" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR15" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT15" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AV15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW15" t="s">
         <v>8</v>
@@ -5666,13 +5586,13 @@
         <v>10</v>
       </c>
       <c r="AZ15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA15" t="s">
         <v>11</v>
       </c>
       <c r="BB15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD15">
         <v>251</v>
@@ -5688,7 +5608,7 @@
         <v>41227</v>
       </c>
       <c r="BM15" s="64" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="BN15" s="65">
         <v>31.94068</v>
@@ -5697,32 +5617,35 @@
         <v>34.687379999999997</v>
       </c>
       <c r="BP15" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ15" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="BR15" s="25"/>
       <c r="BW15">
         <v>19</v>
       </c>
       <c r="BX15" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY15" s="68">
-        <v>175.69</v>
-      </c>
-      <c r="BZ15"/>
-      <c r="CA15"/>
-      <c r="CB15"/>
-      <c r="CC15"/>
-      <c r="CD15"/>
-      <c r="CE15"/>
-      <c r="CF15"/>
-      <c r="CG15"/>
-      <c r="CH15"/>
+        <v>130.54</v>
+      </c>
+      <c r="BZ15">
+        <v>40.5</v>
+      </c>
+      <c r="CA15">
+        <v>24.85</v>
+      </c>
+      <c r="CB15">
+        <v>163.64500000000001</v>
+      </c>
+      <c r="CC15">
+        <v>99.39</v>
+      </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5731,31 +5654,31 @@
         <v>14</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N16" s="30"/>
       <c r="O16" s="37">
@@ -5765,86 +5688,86 @@
         <v>154501</v>
       </c>
       <c r="Q16" s="54" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Y16" s="33">
         <v>5</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC16" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC16" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD16" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE16" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF16" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG16" s="1"/>
       <c r="AH16" s="59" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AI16" s="59" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AJ16" s="59" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AK16" s="59" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AL16" s="59"/>
       <c r="AM16" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN16" s="72">
+        <v>202</v>
+      </c>
+      <c r="AN16" s="71">
         <v>34.4</v>
       </c>
       <c r="AO16" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ16" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR16" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT16" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW16" t="s">
         <v>8</v>
@@ -5856,13 +5779,13 @@
         <v>10</v>
       </c>
       <c r="AZ16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA16" t="s">
         <v>11</v>
       </c>
       <c r="BB16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD16">
         <v>251</v>
@@ -5878,7 +5801,7 @@
         <v>41227</v>
       </c>
       <c r="BM16" s="64" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="BN16" s="65">
         <v>31.94068</v>
@@ -5887,32 +5810,35 @@
         <v>34.687379999999997</v>
       </c>
       <c r="BP16" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ16" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="BR16" s="25"/>
       <c r="BW16">
         <v>19</v>
       </c>
       <c r="BX16" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY16" s="69">
-        <v>175.69</v>
-      </c>
-      <c r="BZ16"/>
-      <c r="CA16"/>
-      <c r="CB16"/>
-      <c r="CC16"/>
-      <c r="CD16"/>
-      <c r="CE16"/>
-      <c r="CF16"/>
-      <c r="CG16"/>
-      <c r="CH16"/>
+        <v>130.54</v>
+      </c>
+      <c r="BZ16">
+        <v>40.5</v>
+      </c>
+      <c r="CA16">
+        <v>24.85</v>
+      </c>
+      <c r="CB16">
+        <v>163.64500000000001</v>
+      </c>
+      <c r="CC16">
+        <v>99.39</v>
+      </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5921,31 +5847,31 @@
         <v>15</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N17" s="30"/>
       <c r="O17" s="37">
@@ -5955,86 +5881,86 @@
         <v>174238</v>
       </c>
       <c r="Q17" s="55" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Y17" s="33">
         <v>5</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC17" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD17" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC17" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD17" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE17" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF17" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG17" s="1"/>
       <c r="AH17" s="59" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AI17" s="59" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AJ17" s="59" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AK17" s="59" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL17" s="59"/>
       <c r="AM17" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN17" s="72">
+        <v>203</v>
+      </c>
+      <c r="AN17" s="71">
         <v>35.6</v>
       </c>
       <c r="AO17" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR17" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT17" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW17" t="s">
         <v>8</v>
@@ -6046,13 +5972,13 @@
         <v>10</v>
       </c>
       <c r="AZ17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA17" t="s">
         <v>11</v>
       </c>
       <c r="BB17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD17">
         <v>251</v>
@@ -6068,7 +5994,7 @@
         <v>41227</v>
       </c>
       <c r="BM17" s="64" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="BN17" s="65">
         <v>31.94068</v>
@@ -6077,32 +6003,35 @@
         <v>34.687379999999997</v>
       </c>
       <c r="BP17" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ17" s="58" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="BR17" s="25"/>
       <c r="BW17">
         <v>19</v>
       </c>
       <c r="BX17" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY17" s="69">
-        <v>175.69</v>
-      </c>
-      <c r="BZ17"/>
-      <c r="CA17"/>
-      <c r="CB17"/>
-      <c r="CC17"/>
-      <c r="CD17"/>
-      <c r="CE17"/>
-      <c r="CF17"/>
-      <c r="CG17"/>
-      <c r="CH17"/>
+        <v>130.54</v>
+      </c>
+      <c r="BZ17">
+        <v>40.5</v>
+      </c>
+      <c r="CA17">
+        <v>24.85</v>
+      </c>
+      <c r="CB17">
+        <v>163.64500000000001</v>
+      </c>
+      <c r="CC17">
+        <v>99.39</v>
+      </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6111,31 +6040,31 @@
         <v>16</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N18" s="30"/>
       <c r="O18" s="37">
@@ -6145,86 +6074,86 @@
         <v>171763</v>
       </c>
       <c r="Q18" s="54" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Y18" s="33">
         <v>6</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC18" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD18" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF18" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC18" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD18" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE18" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF18" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="59" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AI18" s="59" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AJ18" s="59" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AK18" s="59" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AL18" s="59"/>
       <c r="AM18" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN18" s="72">
+        <v>204</v>
+      </c>
+      <c r="AN18" s="71">
         <v>37.200000000000003</v>
       </c>
       <c r="AO18" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ18" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR18" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT18" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW18" t="s">
         <v>8</v>
@@ -6236,13 +6165,13 @@
         <v>10</v>
       </c>
       <c r="AZ18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA18" t="s">
         <v>11</v>
       </c>
       <c r="BB18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD18">
         <v>251</v>
@@ -6258,7 +6187,7 @@
         <v>41227</v>
       </c>
       <c r="BM18" s="64" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="BN18" s="65">
         <v>31.931660000000001</v>
@@ -6267,32 +6196,35 @@
         <v>34.68336</v>
       </c>
       <c r="BP18" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ18" s="58" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="BR18" s="25"/>
       <c r="BW18">
         <v>18</v>
       </c>
       <c r="BX18" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY18" s="69">
-        <v>1235.56</v>
-      </c>
-      <c r="BZ18"/>
-      <c r="CA18"/>
-      <c r="CB18"/>
-      <c r="CC18"/>
-      <c r="CD18"/>
-      <c r="CE18"/>
-      <c r="CF18"/>
-      <c r="CG18"/>
-      <c r="CH18"/>
+        <v>1196.8399999999999</v>
+      </c>
+      <c r="BZ18">
+        <v>39.6</v>
+      </c>
+      <c r="CA18">
+        <v>24.45</v>
+      </c>
+      <c r="CB18">
+        <v>163.03299999999999</v>
+      </c>
+      <c r="CC18">
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6301,31 +6233,31 @@
         <v>17</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L19" s="30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N19" s="30"/>
       <c r="O19" s="37">
@@ -6335,86 +6267,86 @@
         <v>237422</v>
       </c>
       <c r="Q19" s="54" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="X19" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Y19" s="33">
         <v>6</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC19" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD19" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC19" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD19" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF19" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="59" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AI19" s="59" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AJ19" s="59" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AK19" s="59" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AL19" s="59"/>
       <c r="AM19" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="AN19" s="72">
+        <v>205</v>
+      </c>
+      <c r="AN19" s="71">
         <v>34.6</v>
       </c>
       <c r="AO19" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ19" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR19" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT19" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW19" t="s">
         <v>8</v>
@@ -6426,13 +6358,13 @@
         <v>10</v>
       </c>
       <c r="AZ19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA19" t="s">
         <v>11</v>
       </c>
       <c r="BB19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD19">
         <v>251</v>
@@ -6448,7 +6380,7 @@
         <v>41227</v>
       </c>
       <c r="BM19" s="64" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="BN19" s="65">
         <v>31.931660000000001</v>
@@ -6457,32 +6389,35 @@
         <v>34.68336</v>
       </c>
       <c r="BP19" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ19" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="BR19" s="25"/>
       <c r="BW19">
         <v>18</v>
       </c>
       <c r="BX19" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY19" s="69">
-        <v>1235.56</v>
-      </c>
-      <c r="BZ19"/>
-      <c r="CA19"/>
-      <c r="CB19"/>
-      <c r="CC19"/>
-      <c r="CD19"/>
-      <c r="CE19"/>
-      <c r="CF19"/>
-      <c r="CG19"/>
-      <c r="CH19"/>
+        <v>1196.8399999999999</v>
+      </c>
+      <c r="BZ19">
+        <v>39.6</v>
+      </c>
+      <c r="CA19">
+        <v>24.45</v>
+      </c>
+      <c r="CB19">
+        <v>163.03299999999999</v>
+      </c>
+      <c r="CC19">
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6491,31 +6426,31 @@
         <v>18</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N20" s="30"/>
       <c r="O20" s="37">
@@ -6525,86 +6460,86 @@
         <v>154346</v>
       </c>
       <c r="Q20" s="54" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Y20" s="33">
         <v>6</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC20" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD20" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC20" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD20" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE20" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF20" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="59" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AI20" s="59" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AJ20" s="59" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AK20" s="59" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL20" s="59"/>
       <c r="AM20" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="AN20" s="72">
+        <v>206</v>
+      </c>
+      <c r="AN20" s="71">
         <v>34.799999999999997</v>
       </c>
       <c r="AO20" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ20" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR20" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT20" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW20" t="s">
         <v>8</v>
@@ -6616,13 +6551,13 @@
         <v>10</v>
       </c>
       <c r="AZ20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA20" t="s">
         <v>11</v>
       </c>
       <c r="BB20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD20">
         <v>251</v>
@@ -6638,7 +6573,7 @@
         <v>41227</v>
       </c>
       <c r="BM20" s="64" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="BN20" s="65">
         <v>31.931660000000001</v>
@@ -6647,32 +6582,35 @@
         <v>34.68336</v>
       </c>
       <c r="BP20" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ20" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="BR20" s="25"/>
       <c r="BW20">
         <v>18</v>
       </c>
       <c r="BX20" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY20" s="69">
-        <v>1235.56</v>
-      </c>
-      <c r="BZ20"/>
-      <c r="CA20"/>
-      <c r="CB20"/>
-      <c r="CC20"/>
-      <c r="CD20"/>
-      <c r="CE20"/>
-      <c r="CF20"/>
-      <c r="CG20"/>
-      <c r="CH20"/>
+        <v>1196.8399999999999</v>
+      </c>
+      <c r="BZ20">
+        <v>39.6</v>
+      </c>
+      <c r="CA20">
+        <v>24.45</v>
+      </c>
+      <c r="CB20">
+        <v>163.03299999999999</v>
+      </c>
+      <c r="CC20">
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6681,31 +6619,31 @@
         <v>19</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L21" s="30" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N21" s="30"/>
       <c r="O21" s="37">
@@ -6717,78 +6655,78 @@
       <c r="Q21" s="54"/>
       <c r="R21" s="19"/>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Y21" s="33">
         <v>7</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC21" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF21" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC21" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD21" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF21" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG21" s="1"/>
       <c r="AH21" s="59" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AI21" s="59" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AJ21" s="59" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK21" s="59" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL21" s="59"/>
       <c r="AM21" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN21" s="72"/>
+        <v>207</v>
+      </c>
+      <c r="AN21" s="71"/>
       <c r="AO21" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR21" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT21" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW21" t="s">
         <v>8</v>
@@ -6800,13 +6738,13 @@
         <v>10</v>
       </c>
       <c r="AZ21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA21" t="s">
         <v>11</v>
       </c>
       <c r="BB21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD21">
         <v>251</v>
@@ -6822,7 +6760,7 @@
         <v>41233</v>
       </c>
       <c r="BM21" s="64" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="BN21" s="65">
         <v>32.465020000000003</v>
@@ -6831,32 +6769,35 @@
         <v>34.882582999999997</v>
       </c>
       <c r="BP21" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="BQ21" s="58" t="s">
         <v>345</v>
-      </c>
-      <c r="BQ21" s="58" t="s">
-        <v>351</v>
       </c>
       <c r="BR21" s="25"/>
       <c r="BW21">
         <v>3.8</v>
       </c>
       <c r="BX21" s="42" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="BY21" s="42">
         <v>0</v>
       </c>
-      <c r="BZ21"/>
-      <c r="CA21"/>
-      <c r="CB21"/>
-      <c r="CC21"/>
-      <c r="CD21"/>
-      <c r="CE21"/>
-      <c r="CF21"/>
-      <c r="CG21"/>
-      <c r="CH21"/>
+      <c r="BZ21">
+        <v>41.04</v>
+      </c>
+      <c r="CA21">
+        <v>25.24</v>
+      </c>
+      <c r="CB21">
+        <v>237.71</v>
+      </c>
+      <c r="CC21">
+        <v>105.6</v>
+      </c>
     </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6865,31 +6806,31 @@
         <v>20</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N22" s="30"/>
       <c r="O22" s="37">
@@ -6899,86 +6840,86 @@
         <v>356730</v>
       </c>
       <c r="Q22" s="54" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="R22" s="19" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Y22" s="33">
         <v>7</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC22" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD22" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE22" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF22" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC22" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD22" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE22" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF22" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG22" s="1"/>
       <c r="AH22" s="59" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AI22" s="59" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AJ22" s="59" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AK22" s="59" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AL22" s="59"/>
       <c r="AM22" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="AN22" s="72">
+        <v>208</v>
+      </c>
+      <c r="AN22" s="71">
         <v>29.4</v>
       </c>
       <c r="AO22" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR22" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT22" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW22" t="s">
         <v>8</v>
@@ -6990,13 +6931,13 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA22" t="s">
         <v>11</v>
       </c>
       <c r="BB22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD22">
         <v>251</v>
@@ -7012,7 +6953,7 @@
         <v>41233</v>
       </c>
       <c r="BM22" s="64" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="BN22" s="65">
         <v>32.465020000000003</v>
@@ -7021,32 +6962,35 @@
         <v>34.882582999999997</v>
       </c>
       <c r="BP22" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="BQ22" s="58" t="s">
         <v>345</v>
-      </c>
-      <c r="BQ22" s="58" t="s">
-        <v>351</v>
       </c>
       <c r="BR22" s="25"/>
       <c r="BW22">
         <v>3.8</v>
       </c>
       <c r="BX22" s="42" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="BY22" s="42">
         <v>0</v>
       </c>
-      <c r="BZ22"/>
-      <c r="CA22"/>
-      <c r="CB22"/>
-      <c r="CC22"/>
-      <c r="CD22"/>
-      <c r="CE22"/>
-      <c r="CF22"/>
-      <c r="CG22"/>
-      <c r="CH22"/>
+      <c r="BZ22">
+        <v>41.04</v>
+      </c>
+      <c r="CA22">
+        <v>25.24</v>
+      </c>
+      <c r="CB22">
+        <v>237.71</v>
+      </c>
+      <c r="CC22">
+        <v>105.6</v>
+      </c>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7055,31 +6999,31 @@
         <v>21</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L23" s="30" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N23" s="30"/>
       <c r="O23" s="37">
@@ -7089,86 +7033,86 @@
         <v>406279</v>
       </c>
       <c r="Q23" s="54" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Y23" s="33">
         <v>7</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC23" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD23" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF23" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC23" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD23" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF23" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="59" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AI23" s="59" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AJ23" s="59" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AK23" s="59" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AL23" s="59"/>
       <c r="AM23" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN23" s="72">
+        <v>209</v>
+      </c>
+      <c r="AN23" s="71">
         <v>20.2</v>
       </c>
       <c r="AO23" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ23" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR23" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT23" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW23" t="s">
         <v>8</v>
@@ -7180,13 +7124,13 @@
         <v>10</v>
       </c>
       <c r="AZ23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA23" t="s">
         <v>11</v>
       </c>
       <c r="BB23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD23">
         <v>251</v>
@@ -7202,7 +7146,7 @@
         <v>41233</v>
       </c>
       <c r="BM23" s="64" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="BN23" s="65">
         <v>32.465020000000003</v>
@@ -7211,32 +7155,35 @@
         <v>34.882582999999997</v>
       </c>
       <c r="BP23" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="BQ23" s="58" t="s">
         <v>345</v>
-      </c>
-      <c r="BQ23" s="58" t="s">
-        <v>351</v>
       </c>
       <c r="BR23" s="25"/>
       <c r="BW23">
         <v>3.8</v>
       </c>
       <c r="BX23" s="42" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="BY23" s="42">
         <v>0</v>
       </c>
-      <c r="BZ23"/>
-      <c r="CA23"/>
-      <c r="CB23"/>
-      <c r="CC23"/>
-      <c r="CD23"/>
-      <c r="CE23"/>
-      <c r="CF23"/>
-      <c r="CG23"/>
-      <c r="CH23"/>
+      <c r="BZ23">
+        <v>41.04</v>
+      </c>
+      <c r="CA23">
+        <v>25.24</v>
+      </c>
+      <c r="CB23">
+        <v>237.71</v>
+      </c>
+      <c r="CC23">
+        <v>105.6</v>
+      </c>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7245,31 +7192,31 @@
         <v>22</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N24" s="30"/>
       <c r="O24" s="37">
@@ -7279,86 +7226,86 @@
         <v>292338</v>
       </c>
       <c r="Q24" s="54" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="R24" s="19" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Y24" s="33">
         <v>8</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB24" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC24" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD24" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE24" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF24" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC24" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD24" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF24" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="59" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AI24" s="59" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AJ24" s="59" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AK24" s="59" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AL24" s="59"/>
       <c r="AM24" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN24" s="72">
+        <v>210</v>
+      </c>
+      <c r="AN24" s="71">
         <v>43.6</v>
       </c>
       <c r="AO24" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ24" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR24" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT24" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW24" t="s">
         <v>8</v>
@@ -7370,13 +7317,13 @@
         <v>10</v>
       </c>
       <c r="AZ24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA24" t="s">
         <v>11</v>
       </c>
       <c r="BB24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD24">
         <v>251</v>
@@ -7392,7 +7339,7 @@
         <v>41233</v>
       </c>
       <c r="BM24" s="64" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="BN24" s="65">
         <v>32.463700000000003</v>
@@ -7401,32 +7348,35 @@
         <v>34.879339999999999</v>
       </c>
       <c r="BP24" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ24" s="58" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="BR24" s="25"/>
       <c r="BW24">
         <v>5.5</v>
       </c>
       <c r="BX24" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY24" s="68">
         <v>338.21</v>
       </c>
-      <c r="BZ24"/>
-      <c r="CA24"/>
-      <c r="CB24"/>
-      <c r="CC24"/>
-      <c r="CD24"/>
-      <c r="CE24"/>
-      <c r="CF24"/>
-      <c r="CG24"/>
-      <c r="CH24"/>
+      <c r="BZ24">
+        <v>39.4</v>
+      </c>
+      <c r="CA24">
+        <v>23.09</v>
+      </c>
+      <c r="CB24">
+        <v>197.125</v>
+      </c>
+      <c r="CC24">
+        <v>100.05</v>
+      </c>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7435,31 +7385,31 @@
         <v>23</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L25" s="30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N25" s="30"/>
       <c r="O25" s="37">
@@ -7469,86 +7419,86 @@
         <v>269103</v>
       </c>
       <c r="Q25" s="54" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Y25" s="33">
         <v>8</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB25" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC25" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD25" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF25" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC25" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD25" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF25" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="59" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AI25" s="59" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AJ25" s="59" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AK25" s="59" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AL25" s="59"/>
       <c r="AM25" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN25" s="72">
+        <v>211</v>
+      </c>
+      <c r="AN25" s="71">
         <v>15.9</v>
       </c>
       <c r="AO25" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ25" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR25" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT25" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW25" t="s">
         <v>8</v>
@@ -7560,13 +7510,13 @@
         <v>10</v>
       </c>
       <c r="AZ25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA25" t="s">
         <v>11</v>
       </c>
       <c r="BB25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD25">
         <v>251</v>
@@ -7582,7 +7532,7 @@
         <v>41233</v>
       </c>
       <c r="BM25" s="64" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="BN25" s="65">
         <v>32.463700000000003</v>
@@ -7591,32 +7541,35 @@
         <v>34.879339999999999</v>
       </c>
       <c r="BP25" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ25" s="58" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="BR25" s="25"/>
       <c r="BW25">
         <v>5.5</v>
       </c>
       <c r="BX25" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY25" s="69">
         <v>338.21</v>
       </c>
-      <c r="BZ25"/>
-      <c r="CA25"/>
-      <c r="CB25"/>
-      <c r="CC25"/>
-      <c r="CD25"/>
-      <c r="CE25"/>
-      <c r="CF25"/>
-      <c r="CG25"/>
-      <c r="CH25"/>
+      <c r="BZ25">
+        <v>39.4</v>
+      </c>
+      <c r="CA25">
+        <v>23.09</v>
+      </c>
+      <c r="CB25">
+        <v>197.125</v>
+      </c>
+      <c r="CC25">
+        <v>100.05</v>
+      </c>
     </row>
-    <row r="26" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7625,31 +7578,31 @@
         <v>24</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N26" s="30"/>
       <c r="O26" s="37">
@@ -7661,78 +7614,78 @@
       <c r="Q26" s="54"/>
       <c r="R26" s="19"/>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Y26" s="33">
         <v>8</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB26" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC26" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD26" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE26" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF26" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC26" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD26" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF26" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG26" s="1"/>
       <c r="AH26" s="59" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AI26" s="59" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AJ26" s="59" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AK26" s="59" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AL26" s="59"/>
       <c r="AM26" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN26" s="72"/>
+        <v>212</v>
+      </c>
+      <c r="AN26" s="71"/>
       <c r="AO26" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ26" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR26" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT26" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW26" t="s">
         <v>8</v>
@@ -7744,13 +7697,13 @@
         <v>10</v>
       </c>
       <c r="AZ26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA26" t="s">
         <v>11</v>
       </c>
       <c r="BB26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD26">
         <v>251</v>
@@ -7766,7 +7719,7 @@
         <v>41233</v>
       </c>
       <c r="BM26" s="64" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="BN26" s="65">
         <v>32.463700000000003</v>
@@ -7775,32 +7728,35 @@
         <v>34.879339999999999</v>
       </c>
       <c r="BP26" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ26" s="58" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="BR26" s="25"/>
       <c r="BW26">
         <v>5.5</v>
       </c>
       <c r="BX26" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY26" s="69">
         <v>338.21</v>
       </c>
-      <c r="BZ26"/>
-      <c r="CA26"/>
-      <c r="CB26"/>
-      <c r="CC26"/>
-      <c r="CD26"/>
-      <c r="CE26"/>
-      <c r="CF26"/>
-      <c r="CG26"/>
-      <c r="CH26"/>
+      <c r="BZ26">
+        <v>39.4</v>
+      </c>
+      <c r="CA26">
+        <v>23.09</v>
+      </c>
+      <c r="CB26">
+        <v>197.125</v>
+      </c>
+      <c r="CC26">
+        <v>100.05</v>
+      </c>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7809,31 +7765,31 @@
         <v>25</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N27" s="30"/>
       <c r="O27" s="37">
@@ -7843,86 +7799,86 @@
         <v>190462</v>
       </c>
       <c r="Q27" s="54" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="R27" s="19" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Y27" s="33">
         <v>9</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC27" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD27" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE27" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF27" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC27" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD27" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF27" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG27" s="1"/>
       <c r="AH27" s="59" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AI27" s="59" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AJ27" s="59" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AK27" s="59" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AL27" s="59"/>
       <c r="AM27" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN27" s="72">
+        <v>213</v>
+      </c>
+      <c r="AN27" s="71">
         <v>39.799999999999997</v>
       </c>
       <c r="AO27" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ27" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR27" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT27" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW27" t="s">
         <v>8</v>
@@ -7934,13 +7890,13 @@
         <v>10</v>
       </c>
       <c r="AZ27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA27" t="s">
         <v>11</v>
       </c>
       <c r="BB27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD27">
         <v>251</v>
@@ -7956,7 +7912,7 @@
         <v>41233</v>
       </c>
       <c r="BM27" s="64" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="BN27" s="65">
         <v>32.42868</v>
@@ -7965,32 +7921,35 @@
         <v>34.870280000000001</v>
       </c>
       <c r="BP27" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ27" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="BR27" s="25"/>
       <c r="BW27">
         <v>6.5</v>
       </c>
       <c r="BX27" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY27" s="69">
         <v>4192.68</v>
       </c>
-      <c r="BZ27"/>
-      <c r="CA27"/>
-      <c r="CB27"/>
-      <c r="CC27"/>
-      <c r="CD27"/>
-      <c r="CE27"/>
-      <c r="CF27"/>
-      <c r="CG27"/>
-      <c r="CH27"/>
+      <c r="BZ27">
+        <v>39.5</v>
+      </c>
+      <c r="CA27">
+        <v>22.5</v>
+      </c>
+      <c r="CB27">
+        <v>201.655</v>
+      </c>
+      <c r="CC27">
+        <v>98.32</v>
+      </c>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7999,31 +7958,31 @@
         <v>26</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N28" s="30"/>
       <c r="O28" s="37">
@@ -8035,78 +7994,78 @@
       <c r="Q28" s="54"/>
       <c r="R28" s="19"/>
       <c r="S28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Y28" s="33">
         <v>9</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB28" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC28" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD28" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF28" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC28" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD28" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF28" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG28" s="1"/>
       <c r="AH28" s="59" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AI28" s="59" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AJ28" s="59" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AK28" s="59" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AL28" s="59"/>
       <c r="AM28" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="AN28" s="72"/>
+        <v>214</v>
+      </c>
+      <c r="AN28" s="71"/>
       <c r="AO28" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ28" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR28" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT28" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW28" t="s">
         <v>8</v>
@@ -8118,13 +8077,13 @@
         <v>10</v>
       </c>
       <c r="AZ28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA28" t="s">
         <v>11</v>
       </c>
       <c r="BB28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD28">
         <v>251</v>
@@ -8140,7 +8099,7 @@
         <v>41233</v>
       </c>
       <c r="BM28" s="64" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="BN28" s="65">
         <v>32.42868</v>
@@ -8149,32 +8108,35 @@
         <v>34.870280000000001</v>
       </c>
       <c r="BP28" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ28" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="BR28" s="25"/>
       <c r="BW28">
         <v>6.5</v>
       </c>
       <c r="BX28" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY28" s="69">
         <v>4192.68</v>
       </c>
-      <c r="BZ28"/>
-      <c r="CA28"/>
-      <c r="CB28"/>
-      <c r="CC28"/>
-      <c r="CD28"/>
-      <c r="CE28"/>
-      <c r="CF28"/>
-      <c r="CG28"/>
-      <c r="CH28"/>
+      <c r="BZ28">
+        <v>39.5</v>
+      </c>
+      <c r="CA28">
+        <v>22.5</v>
+      </c>
+      <c r="CB28">
+        <v>201.655</v>
+      </c>
+      <c r="CC28">
+        <v>98.32</v>
+      </c>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8183,31 +8145,31 @@
         <v>27</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L29" s="30" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N29" s="30"/>
       <c r="O29" s="37">
@@ -8219,78 +8181,78 @@
       <c r="Q29" s="54"/>
       <c r="R29" s="19"/>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Y29" s="33">
         <v>9</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC29" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD29" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE29" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF29" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC29" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD29" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF29" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG29" s="1"/>
       <c r="AH29" s="59" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AI29" s="59" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AJ29" s="59" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AK29" s="59" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AL29" s="59"/>
       <c r="AM29" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="AN29" s="72"/>
+        <v>215</v>
+      </c>
+      <c r="AN29" s="71"/>
       <c r="AO29" s="62">
         <v>0.01</v>
       </c>
       <c r="AQ29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AR29" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AS29" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AT29" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AW29" t="s">
         <v>8</v>
@@ -8302,13 +8264,13 @@
         <v>10</v>
       </c>
       <c r="AZ29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA29" t="s">
         <v>11</v>
       </c>
       <c r="BB29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD29">
         <v>251</v>
@@ -8324,7 +8286,7 @@
         <v>41233</v>
       </c>
       <c r="BM29" s="64" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="BN29" s="65">
         <v>32.42868</v>
@@ -8333,40 +8295,43 @@
         <v>34.870280000000001</v>
       </c>
       <c r="BP29" s="42" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ29" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="BR29" s="25"/>
       <c r="BW29">
         <v>6.5</v>
       </c>
       <c r="BX29" s="69" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BY29" s="69">
         <v>4192.68</v>
       </c>
-      <c r="BZ29"/>
-      <c r="CA29"/>
-      <c r="CB29"/>
-      <c r="CC29"/>
-      <c r="CD29"/>
-      <c r="CE29"/>
-      <c r="CF29"/>
-      <c r="CG29"/>
-      <c r="CH29"/>
+      <c r="BZ29">
+        <v>39.5</v>
+      </c>
+      <c r="CA29">
+        <v>22.5</v>
+      </c>
+      <c r="CB29">
+        <v>201.655</v>
+      </c>
+      <c r="CC29">
+        <v>98.32</v>
+      </c>
     </row>
-    <row r="30" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="AN30" s="73"/>
+    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="AN30" s="72"/>
       <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="AN31" s="73"/>
+    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="AN31" s="72"/>
       <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
       <c r="AO32" s="13"/>
       <c r="BM32" s="64"/>
     </row>
@@ -8453,9 +8418,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8473,24 +8448,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2661,10 +2661,10 @@
   </sheetPr>
   <dimension ref="A1:CD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="BZ41" sqref="BZ41"/>
+      <selection pane="bottomLeft" activeCell="CF34" sqref="CF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2829,7 +2829,7 @@
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
     </row>
-    <row r="2" spans="1:82" s="53" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:82" s="53" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>46</v>
       </c>
@@ -8418,19 +8418,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8448,14 +8438,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="412">
   <si>
     <t>Country</t>
   </si>
@@ -1279,6 +1279,21 @@
   </si>
   <si>
     <t>Luminescent Dissolved Oxygen [% Sat]</t>
+  </si>
+  <si>
+    <t>marine sediment metagenome</t>
+  </si>
+  <si>
+    <t>PRJNA386776</t>
+  </si>
+  <si>
+    <t>temperate mediterranean sea biome</t>
+  </si>
+  <si>
+    <t>marine sub-littoral zone</t>
+  </si>
+  <si>
+    <t>shallow marine sediment</t>
   </si>
 </sst>
 </file>
@@ -2661,10 +2676,10 @@
   </sheetPr>
   <dimension ref="A1:CD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="CF34" sqref="CF34"/>
+      <selection pane="bottomLeft" activeCell="BK5" sqref="BK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2725,8 +2740,10 @@
     <col min="56" max="56" width="12.1640625" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
     <col min="58" max="58" width="10.1640625" customWidth="1"/>
-    <col min="59" max="61" width="19.83203125" customWidth="1"/>
-    <col min="62" max="62" width="20.83203125" customWidth="1"/>
+    <col min="59" max="59" width="29.5" customWidth="1"/>
+    <col min="60" max="60" width="34.83203125" customWidth="1"/>
+    <col min="61" max="61" width="29.6640625" customWidth="1"/>
+    <col min="62" max="62" width="26.33203125" customWidth="1"/>
     <col min="63" max="63" width="8.6640625" customWidth="1"/>
     <col min="64" max="65" width="15.5" customWidth="1"/>
     <col min="66" max="66" width="13.6640625" style="11" customWidth="1"/>
@@ -3206,10 +3223,18 @@
       <c r="BE3">
         <v>251</v>
       </c>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="57"/>
+      <c r="BG3" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>411</v>
+      </c>
       <c r="BL3" s="63">
         <v>41226</v>
       </c>
@@ -3229,6 +3254,9 @@
         <v>341</v>
       </c>
       <c r="BR3" s="25"/>
+      <c r="BT3" t="s">
+        <v>408</v>
+      </c>
       <c r="BW3">
         <v>1.5</v>
       </c>
@@ -3400,10 +3428,18 @@
       <c r="BE4">
         <v>251</v>
       </c>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
+      <c r="BG4" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>411</v>
+      </c>
       <c r="BL4" s="63">
         <v>41226</v>
       </c>
@@ -3423,6 +3459,9 @@
         <v>341</v>
       </c>
       <c r="BR4" s="25"/>
+      <c r="BT4" t="s">
+        <v>408</v>
+      </c>
       <c r="BW4">
         <v>1.5</v>
       </c>
@@ -3600,10 +3639,18 @@
       <c r="BE5">
         <v>251</v>
       </c>
-      <c r="BG5" s="57"/>
-      <c r="BH5" s="57"/>
-      <c r="BI5" s="57"/>
-      <c r="BJ5" s="57"/>
+      <c r="BG5" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>411</v>
+      </c>
       <c r="BL5" s="63">
         <v>41226</v>
       </c>
@@ -3623,6 +3670,9 @@
         <v>341</v>
       </c>
       <c r="BR5" s="25"/>
+      <c r="BT5" t="s">
+        <v>408</v>
+      </c>
       <c r="BW5">
         <v>1.5</v>
       </c>
@@ -3800,10 +3850,18 @@
       <c r="BE6">
         <v>251</v>
       </c>
-      <c r="BG6" s="57"/>
-      <c r="BH6" s="57"/>
-      <c r="BI6" s="57"/>
-      <c r="BJ6" s="57"/>
+      <c r="BG6" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>411</v>
+      </c>
       <c r="BL6" s="63">
         <v>41226</v>
       </c>
@@ -3823,6 +3881,9 @@
         <v>340</v>
       </c>
       <c r="BR6" s="25"/>
+      <c r="BT6" t="s">
+        <v>408</v>
+      </c>
       <c r="BW6">
         <v>10</v>
       </c>
@@ -4000,10 +4061,18 @@
       <c r="BE7">
         <v>251</v>
       </c>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="57"/>
-      <c r="BJ7" s="57"/>
+      <c r="BG7" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>411</v>
+      </c>
       <c r="BL7" s="63">
         <v>41226</v>
       </c>
@@ -4023,6 +4092,9 @@
         <v>340</v>
       </c>
       <c r="BR7" s="25"/>
+      <c r="BT7" t="s">
+        <v>408</v>
+      </c>
       <c r="BW7">
         <v>10</v>
       </c>
@@ -4200,10 +4272,18 @@
       <c r="BE8">
         <v>251</v>
       </c>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
+      <c r="BG8" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>411</v>
+      </c>
       <c r="BL8" s="63">
         <v>41226</v>
       </c>
@@ -4223,6 +4303,9 @@
         <v>340</v>
       </c>
       <c r="BR8" s="25"/>
+      <c r="BT8" t="s">
+        <v>408</v>
+      </c>
       <c r="BW8">
         <v>10</v>
       </c>
@@ -4400,10 +4483,18 @@
       <c r="BE9">
         <v>251</v>
       </c>
-      <c r="BG9" s="57"/>
-      <c r="BH9" s="57"/>
-      <c r="BI9" s="57"/>
-      <c r="BJ9" s="57"/>
+      <c r="BG9" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>411</v>
+      </c>
       <c r="BL9" s="63">
         <v>41226</v>
       </c>
@@ -4423,6 +4514,9 @@
         <v>342</v>
       </c>
       <c r="BR9" s="25"/>
+      <c r="BT9" t="s">
+        <v>408</v>
+      </c>
       <c r="BW9">
         <v>5</v>
       </c>
@@ -4600,10 +4694,18 @@
       <c r="BE10">
         <v>251</v>
       </c>
-      <c r="BG10" s="57"/>
-      <c r="BH10" s="57"/>
-      <c r="BI10" s="57"/>
-      <c r="BJ10" s="57"/>
+      <c r="BG10" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>411</v>
+      </c>
       <c r="BL10" s="63">
         <v>41226</v>
       </c>
@@ -4623,6 +4725,9 @@
         <v>342</v>
       </c>
       <c r="BR10" s="25"/>
+      <c r="BT10" t="s">
+        <v>408</v>
+      </c>
       <c r="BW10">
         <v>5</v>
       </c>
@@ -4800,10 +4905,18 @@
       <c r="BE11">
         <v>251</v>
       </c>
-      <c r="BG11" s="57"/>
-      <c r="BH11" s="57"/>
-      <c r="BI11" s="57"/>
-      <c r="BJ11" s="57"/>
+      <c r="BG11" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>411</v>
+      </c>
       <c r="BL11" s="63">
         <v>41226</v>
       </c>
@@ -4823,6 +4936,9 @@
         <v>342</v>
       </c>
       <c r="BR11" s="25"/>
+      <c r="BT11" t="s">
+        <v>408</v>
+      </c>
       <c r="BW11">
         <v>5</v>
       </c>
@@ -5000,10 +5116,18 @@
       <c r="BE12">
         <v>251</v>
       </c>
-      <c r="BG12" s="57"/>
-      <c r="BH12" s="57"/>
-      <c r="BI12" s="57"/>
-      <c r="BJ12" s="57"/>
+      <c r="BG12" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>411</v>
+      </c>
       <c r="BL12" s="63">
         <v>41227</v>
       </c>
@@ -5023,6 +5147,9 @@
         <v>343</v>
       </c>
       <c r="BR12" s="25"/>
+      <c r="BT12" t="s">
+        <v>408</v>
+      </c>
       <c r="BW12">
         <v>18</v>
       </c>
@@ -5200,10 +5327,18 @@
       <c r="BE13">
         <v>251</v>
       </c>
-      <c r="BG13" s="57"/>
-      <c r="BH13" s="57"/>
-      <c r="BI13" s="57"/>
-      <c r="BJ13" s="57"/>
+      <c r="BG13" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>411</v>
+      </c>
       <c r="BL13" s="63">
         <v>41227</v>
       </c>
@@ -5223,6 +5358,9 @@
         <v>343</v>
       </c>
       <c r="BR13" s="25"/>
+      <c r="BT13" t="s">
+        <v>408</v>
+      </c>
       <c r="BW13">
         <v>18</v>
       </c>
@@ -5400,10 +5538,18 @@
       <c r="BE14">
         <v>251</v>
       </c>
-      <c r="BG14" s="57"/>
-      <c r="BH14" s="57"/>
-      <c r="BI14" s="57"/>
-      <c r="BJ14" s="57"/>
+      <c r="BG14" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>411</v>
+      </c>
       <c r="BL14" s="63">
         <v>41227</v>
       </c>
@@ -5423,6 +5569,9 @@
         <v>343</v>
       </c>
       <c r="BR14" s="25"/>
+      <c r="BT14" t="s">
+        <v>408</v>
+      </c>
       <c r="BW14">
         <v>18</v>
       </c>
@@ -5600,10 +5749,18 @@
       <c r="BE15">
         <v>251</v>
       </c>
-      <c r="BG15" s="57"/>
-      <c r="BH15" s="57"/>
-      <c r="BI15" s="57"/>
-      <c r="BJ15" s="57"/>
+      <c r="BG15" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>411</v>
+      </c>
       <c r="BL15" s="63">
         <v>41227</v>
       </c>
@@ -5623,6 +5780,9 @@
         <v>343</v>
       </c>
       <c r="BR15" s="25"/>
+      <c r="BT15" t="s">
+        <v>408</v>
+      </c>
       <c r="BW15">
         <v>19</v>
       </c>
@@ -5793,10 +5953,18 @@
       <c r="BE16">
         <v>251</v>
       </c>
-      <c r="BG16" s="57"/>
-      <c r="BH16" s="57"/>
-      <c r="BI16" s="57"/>
-      <c r="BJ16" s="57"/>
+      <c r="BG16" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>411</v>
+      </c>
       <c r="BL16" s="63">
         <v>41227</v>
       </c>
@@ -5816,6 +5984,9 @@
         <v>343</v>
       </c>
       <c r="BR16" s="25"/>
+      <c r="BT16" t="s">
+        <v>408</v>
+      </c>
       <c r="BW16">
         <v>19</v>
       </c>
@@ -5986,10 +6157,18 @@
       <c r="BE17">
         <v>251</v>
       </c>
-      <c r="BG17" s="57"/>
-      <c r="BH17" s="57"/>
-      <c r="BI17" s="57"/>
-      <c r="BJ17" s="57"/>
+      <c r="BG17" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>411</v>
+      </c>
       <c r="BL17" s="63">
         <v>41227</v>
       </c>
@@ -6009,6 +6188,9 @@
         <v>343</v>
       </c>
       <c r="BR17" s="25"/>
+      <c r="BT17" t="s">
+        <v>408</v>
+      </c>
       <c r="BW17">
         <v>19</v>
       </c>
@@ -6179,10 +6361,18 @@
       <c r="BE18">
         <v>251</v>
       </c>
-      <c r="BG18" s="57"/>
-      <c r="BH18" s="57"/>
-      <c r="BI18" s="57"/>
-      <c r="BJ18" s="57"/>
+      <c r="BG18" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>411</v>
+      </c>
       <c r="BL18" s="63">
         <v>41227</v>
       </c>
@@ -6202,6 +6392,9 @@
         <v>344</v>
       </c>
       <c r="BR18" s="25"/>
+      <c r="BT18" t="s">
+        <v>408</v>
+      </c>
       <c r="BW18">
         <v>18</v>
       </c>
@@ -6372,10 +6565,18 @@
       <c r="BE19">
         <v>251</v>
       </c>
-      <c r="BG19" s="57"/>
-      <c r="BH19" s="57"/>
-      <c r="BI19" s="57"/>
-      <c r="BJ19" s="57"/>
+      <c r="BG19" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>411</v>
+      </c>
       <c r="BL19" s="63">
         <v>41227</v>
       </c>
@@ -6395,6 +6596,9 @@
         <v>344</v>
       </c>
       <c r="BR19" s="25"/>
+      <c r="BT19" t="s">
+        <v>408</v>
+      </c>
       <c r="BW19">
         <v>18</v>
       </c>
@@ -6565,10 +6769,18 @@
       <c r="BE20">
         <v>251</v>
       </c>
-      <c r="BG20" s="57"/>
-      <c r="BH20" s="57"/>
-      <c r="BI20" s="57"/>
-      <c r="BJ20" s="57"/>
+      <c r="BG20" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>411</v>
+      </c>
       <c r="BL20" s="63">
         <v>41227</v>
       </c>
@@ -6588,6 +6800,9 @@
         <v>344</v>
       </c>
       <c r="BR20" s="25"/>
+      <c r="BT20" t="s">
+        <v>408</v>
+      </c>
       <c r="BW20">
         <v>18</v>
       </c>
@@ -6752,10 +6967,18 @@
       <c r="BE21">
         <v>251</v>
       </c>
-      <c r="BG21" s="57"/>
-      <c r="BH21" s="57"/>
-      <c r="BI21" s="57"/>
-      <c r="BJ21" s="57"/>
+      <c r="BG21" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>411</v>
+      </c>
       <c r="BL21" s="63">
         <v>41233</v>
       </c>
@@ -6775,6 +6998,9 @@
         <v>345</v>
       </c>
       <c r="BR21" s="25"/>
+      <c r="BT21" t="s">
+        <v>408</v>
+      </c>
       <c r="BW21">
         <v>3.8</v>
       </c>
@@ -6945,10 +7171,18 @@
       <c r="BE22">
         <v>251</v>
       </c>
-      <c r="BG22" s="57"/>
-      <c r="BH22" s="57"/>
-      <c r="BI22" s="57"/>
-      <c r="BJ22" s="57"/>
+      <c r="BG22" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>411</v>
+      </c>
       <c r="BL22" s="63">
         <v>41233</v>
       </c>
@@ -6968,6 +7202,9 @@
         <v>345</v>
       </c>
       <c r="BR22" s="25"/>
+      <c r="BT22" t="s">
+        <v>408</v>
+      </c>
       <c r="BW22">
         <v>3.8</v>
       </c>
@@ -7138,10 +7375,18 @@
       <c r="BE23">
         <v>251</v>
       </c>
-      <c r="BG23" s="57"/>
-      <c r="BH23" s="57"/>
-      <c r="BI23" s="57"/>
-      <c r="BJ23" s="57"/>
+      <c r="BG23" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>411</v>
+      </c>
       <c r="BL23" s="63">
         <v>41233</v>
       </c>
@@ -7161,6 +7406,9 @@
         <v>345</v>
       </c>
       <c r="BR23" s="25"/>
+      <c r="BT23" t="s">
+        <v>408</v>
+      </c>
       <c r="BW23">
         <v>3.8</v>
       </c>
@@ -7331,10 +7579,18 @@
       <c r="BE24">
         <v>251</v>
       </c>
-      <c r="BG24" s="57"/>
-      <c r="BH24" s="57"/>
-      <c r="BI24" s="57"/>
-      <c r="BJ24" s="57"/>
+      <c r="BG24" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>411</v>
+      </c>
       <c r="BL24" s="63">
         <v>41233</v>
       </c>
@@ -7354,6 +7610,9 @@
         <v>347</v>
       </c>
       <c r="BR24" s="25"/>
+      <c r="BT24" t="s">
+        <v>408</v>
+      </c>
       <c r="BW24">
         <v>5.5</v>
       </c>
@@ -7524,10 +7783,18 @@
       <c r="BE25">
         <v>251</v>
       </c>
-      <c r="BG25" s="57"/>
-      <c r="BH25" s="57"/>
-      <c r="BI25" s="57"/>
-      <c r="BJ25" s="57"/>
+      <c r="BG25" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>411</v>
+      </c>
       <c r="BL25" s="63">
         <v>41233</v>
       </c>
@@ -7547,6 +7814,9 @@
         <v>347</v>
       </c>
       <c r="BR25" s="25"/>
+      <c r="BT25" t="s">
+        <v>408</v>
+      </c>
       <c r="BW25">
         <v>5.5</v>
       </c>
@@ -7711,10 +7981,18 @@
       <c r="BE26">
         <v>251</v>
       </c>
-      <c r="BG26" s="57"/>
-      <c r="BH26" s="57"/>
-      <c r="BI26" s="57"/>
-      <c r="BJ26" s="57"/>
+      <c r="BG26" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>411</v>
+      </c>
       <c r="BL26" s="63">
         <v>41233</v>
       </c>
@@ -7734,6 +8012,9 @@
         <v>347</v>
       </c>
       <c r="BR26" s="25"/>
+      <c r="BT26" t="s">
+        <v>408</v>
+      </c>
       <c r="BW26">
         <v>5.5</v>
       </c>
@@ -7904,10 +8185,18 @@
       <c r="BE27">
         <v>251</v>
       </c>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="57"/>
-      <c r="BI27" s="57"/>
-      <c r="BJ27" s="57"/>
+      <c r="BG27" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>411</v>
+      </c>
       <c r="BL27" s="63">
         <v>41233</v>
       </c>
@@ -7927,6 +8216,9 @@
         <v>346</v>
       </c>
       <c r="BR27" s="25"/>
+      <c r="BT27" t="s">
+        <v>408</v>
+      </c>
       <c r="BW27">
         <v>6.5</v>
       </c>
@@ -8091,10 +8383,18 @@
       <c r="BE28">
         <v>251</v>
       </c>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
+      <c r="BG28" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>411</v>
+      </c>
       <c r="BL28" s="63">
         <v>41233</v>
       </c>
@@ -8114,6 +8414,9 @@
         <v>346</v>
       </c>
       <c r="BR28" s="25"/>
+      <c r="BT28" t="s">
+        <v>408</v>
+      </c>
       <c r="BW28">
         <v>6.5</v>
       </c>
@@ -8278,10 +8581,18 @@
       <c r="BE29">
         <v>251</v>
       </c>
-      <c r="BG29" s="57"/>
-      <c r="BH29" s="57"/>
-      <c r="BI29" s="57"/>
-      <c r="BJ29" s="57"/>
+      <c r="BG29" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>411</v>
+      </c>
       <c r="BL29" s="63">
         <v>41233</v>
       </c>
@@ -8301,6 +8612,9 @@
         <v>346</v>
       </c>
       <c r="BR29" s="25"/>
+      <c r="BT29" t="s">
+        <v>408</v>
+      </c>
       <c r="BW29">
         <v>6.5</v>
       </c>
@@ -8418,9 +8732,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8438,24 +8762,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34880" windowHeight="23280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="51000" windowHeight="27880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="413">
   <si>
     <t>Country</t>
   </si>
@@ -1294,6 +1294,9 @@
   </si>
   <si>
     <t>shallow marine sediment</t>
+  </si>
+  <si>
+    <t>Sediments were grabbed from a boat in the vincinty of the desalination plants, and sterile spoons used for sampling. The standard Illumina Truseq PCR free kit protocol was used, and the `Standard` setting was chosen with the MiSeq regent kit V2.</t>
   </si>
 </sst>
 </file>
@@ -2676,10 +2679,10 @@
   </sheetPr>
   <dimension ref="A1:CD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="BK5" sqref="BK5"/>
+      <selection pane="bottomLeft" activeCell="BR3" sqref="BR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3071,7 +3074,7 @@
     <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="23">
         <v>1</v>
@@ -3253,7 +3256,12 @@
       <c r="BQ3" t="s">
         <v>341</v>
       </c>
-      <c r="BR3" s="25"/>
+      <c r="BR3" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>46</v>
+      </c>
       <c r="BT3" t="s">
         <v>408</v>
       </c>
@@ -3282,7 +3290,7 @@
     <row r="4" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="23">
         <v>2</v>
@@ -3458,7 +3466,12 @@
       <c r="BQ4" t="s">
         <v>341</v>
       </c>
-      <c r="BR4" s="25"/>
+      <c r="BR4" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>46</v>
+      </c>
       <c r="BT4" t="s">
         <v>408</v>
       </c>
@@ -3487,7 +3500,7 @@
     <row r="5" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="23">
         <v>3</v>
@@ -3669,7 +3682,12 @@
       <c r="BQ5" t="s">
         <v>341</v>
       </c>
-      <c r="BR5" s="25"/>
+      <c r="BR5" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>46</v>
+      </c>
       <c r="BT5" t="s">
         <v>408</v>
       </c>
@@ -3698,7 +3716,7 @@
     <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="23">
         <v>4</v>
@@ -3880,7 +3898,12 @@
       <c r="BQ6" t="s">
         <v>340</v>
       </c>
-      <c r="BR6" s="25"/>
+      <c r="BR6" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>46</v>
+      </c>
       <c r="BT6" t="s">
         <v>408</v>
       </c>
@@ -3909,7 +3932,7 @@
     <row r="7" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="23">
         <v>5</v>
@@ -4091,7 +4114,12 @@
       <c r="BQ7" t="s">
         <v>340</v>
       </c>
-      <c r="BR7" s="25"/>
+      <c r="BR7" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>46</v>
+      </c>
       <c r="BT7" t="s">
         <v>408</v>
       </c>
@@ -4120,7 +4148,7 @@
     <row r="8" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="23">
         <v>6</v>
@@ -4302,7 +4330,12 @@
       <c r="BQ8" t="s">
         <v>340</v>
       </c>
-      <c r="BR8" s="25"/>
+      <c r="BR8" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>46</v>
+      </c>
       <c r="BT8" t="s">
         <v>408</v>
       </c>
@@ -4331,7 +4364,7 @@
     <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="23">
         <v>7</v>
@@ -4513,7 +4546,12 @@
       <c r="BQ9" t="s">
         <v>342</v>
       </c>
-      <c r="BR9" s="25"/>
+      <c r="BR9" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>46</v>
+      </c>
       <c r="BT9" t="s">
         <v>408</v>
       </c>
@@ -4542,7 +4580,7 @@
     <row r="10" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="23">
         <v>8</v>
@@ -4724,7 +4762,12 @@
       <c r="BQ10" t="s">
         <v>342</v>
       </c>
-      <c r="BR10" s="25"/>
+      <c r="BR10" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>46</v>
+      </c>
       <c r="BT10" t="s">
         <v>408</v>
       </c>
@@ -4753,7 +4796,7 @@
     <row r="11" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="23">
         <v>9</v>
@@ -4935,7 +4978,12 @@
       <c r="BQ11" t="s">
         <v>342</v>
       </c>
-      <c r="BR11" s="25"/>
+      <c r="BR11" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>46</v>
+      </c>
       <c r="BT11" t="s">
         <v>408</v>
       </c>
@@ -4964,7 +5012,7 @@
     <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="23">
         <v>10</v>
@@ -5146,7 +5194,12 @@
       <c r="BQ12" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BR12" s="25"/>
+      <c r="BR12" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>46</v>
+      </c>
       <c r="BT12" t="s">
         <v>408</v>
       </c>
@@ -5175,7 +5228,7 @@
     <row r="13" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="23">
         <v>11</v>
@@ -5357,7 +5410,12 @@
       <c r="BQ13" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BR13" s="25"/>
+      <c r="BR13" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>46</v>
+      </c>
       <c r="BT13" t="s">
         <v>408</v>
       </c>
@@ -5386,7 +5444,7 @@
     <row r="14" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="23">
         <v>12</v>
@@ -5568,7 +5626,12 @@
       <c r="BQ14" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BR14" s="25"/>
+      <c r="BR14" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>46</v>
+      </c>
       <c r="BT14" t="s">
         <v>408</v>
       </c>
@@ -5597,7 +5660,7 @@
     <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="23">
         <v>13</v>
@@ -5779,7 +5842,12 @@
       <c r="BQ15" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BR15" s="25"/>
+      <c r="BR15" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>46</v>
+      </c>
       <c r="BT15" t="s">
         <v>408</v>
       </c>
@@ -5808,7 +5876,7 @@
     <row r="16" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="23">
         <v>14</v>
@@ -5983,7 +6051,12 @@
       <c r="BQ16" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BR16" s="25"/>
+      <c r="BR16" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>46</v>
+      </c>
       <c r="BT16" t="s">
         <v>408</v>
       </c>
@@ -6012,7 +6085,7 @@
     <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="23">
         <v>15</v>
@@ -6187,7 +6260,12 @@
       <c r="BQ17" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BR17" s="25"/>
+      <c r="BR17" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>46</v>
+      </c>
       <c r="BT17" t="s">
         <v>408</v>
       </c>
@@ -6216,7 +6294,7 @@
     <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="23">
         <v>16</v>
@@ -6391,7 +6469,12 @@
       <c r="BQ18" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="BR18" s="25"/>
+      <c r="BR18" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>46</v>
+      </c>
       <c r="BT18" t="s">
         <v>408</v>
       </c>
@@ -6420,7 +6503,7 @@
     <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="23">
         <v>17</v>
@@ -6595,7 +6678,12 @@
       <c r="BQ19" t="s">
         <v>344</v>
       </c>
-      <c r="BR19" s="25"/>
+      <c r="BR19" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>46</v>
+      </c>
       <c r="BT19" t="s">
         <v>408</v>
       </c>
@@ -6624,7 +6712,7 @@
     <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="23">
         <v>18</v>
@@ -6799,7 +6887,12 @@
       <c r="BQ20" t="s">
         <v>344</v>
       </c>
-      <c r="BR20" s="25"/>
+      <c r="BR20" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>46</v>
+      </c>
       <c r="BT20" t="s">
         <v>408</v>
       </c>
@@ -6828,7 +6921,7 @@
     <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="23">
         <v>19</v>
@@ -6997,7 +7090,12 @@
       <c r="BQ21" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="BR21" s="25"/>
+      <c r="BR21" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>46</v>
+      </c>
       <c r="BT21" t="s">
         <v>408</v>
       </c>
@@ -7026,7 +7124,7 @@
     <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="23">
         <v>20</v>
@@ -7201,7 +7299,12 @@
       <c r="BQ22" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="BR22" s="25"/>
+      <c r="BR22" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>46</v>
+      </c>
       <c r="BT22" t="s">
         <v>408</v>
       </c>
@@ -7230,7 +7333,7 @@
     <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="23">
         <v>21</v>
@@ -7405,7 +7508,12 @@
       <c r="BQ23" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="BR23" s="25"/>
+      <c r="BR23" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>46</v>
+      </c>
       <c r="BT23" t="s">
         <v>408</v>
       </c>
@@ -7434,7 +7542,7 @@
     <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="23">
         <v>22</v>
@@ -7609,7 +7717,12 @@
       <c r="BQ24" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="BR24" s="25"/>
+      <c r="BR24" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>46</v>
+      </c>
       <c r="BT24" t="s">
         <v>408</v>
       </c>
@@ -7638,7 +7751,7 @@
     <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="23">
         <v>23</v>
@@ -7813,7 +7926,12 @@
       <c r="BQ25" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="BR25" s="25"/>
+      <c r="BR25" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>46</v>
+      </c>
       <c r="BT25" t="s">
         <v>408</v>
       </c>
@@ -7842,7 +7960,7 @@
     <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="23">
         <v>24</v>
@@ -8011,7 +8129,12 @@
       <c r="BQ26" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="BR26" s="25"/>
+      <c r="BR26" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>46</v>
+      </c>
       <c r="BT26" t="s">
         <v>408</v>
       </c>
@@ -8040,7 +8163,7 @@
     <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="23">
         <v>25</v>
@@ -8215,7 +8338,12 @@
       <c r="BQ27" t="s">
         <v>346</v>
       </c>
-      <c r="BR27" s="25"/>
+      <c r="BR27" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>46</v>
+      </c>
       <c r="BT27" t="s">
         <v>408</v>
       </c>
@@ -8244,7 +8372,7 @@
     <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="23">
         <v>26</v>
@@ -8413,7 +8541,12 @@
       <c r="BQ28" t="s">
         <v>346</v>
       </c>
-      <c r="BR28" s="25"/>
+      <c r="BR28" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>46</v>
+      </c>
       <c r="BT28" t="s">
         <v>408</v>
       </c>
@@ -8442,7 +8575,7 @@
     <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" s="23">
         <v>27</v>
@@ -8611,7 +8744,12 @@
       <c r="BQ29" t="s">
         <v>346</v>
       </c>
-      <c r="BR29" s="25"/>
+      <c r="BR29" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>46</v>
+      </c>
       <c r="BT29" t="s">
         <v>408</v>
       </c>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="435">
   <si>
     <t>Country</t>
   </si>
@@ -1297,6 +1297,72 @@
   </si>
   <si>
     <t>Sediments were grabbed from a boat in the vincinty of the desalination plants, and sterile spoons used for sampling. The standard Illumina Truseq PCR free kit protocol was used, and the `Standard` setting was chosen with the MiSeq regent kit V2.</t>
+  </si>
+  <si>
+    <t>SAMN07139183</t>
+  </si>
+  <si>
+    <t>SAMN07139184</t>
+  </si>
+  <si>
+    <t>SAMN07139185</t>
+  </si>
+  <si>
+    <t>SAMN07139186</t>
+  </si>
+  <si>
+    <t>SAMN07139187</t>
+  </si>
+  <si>
+    <t>SAMN07139188</t>
+  </si>
+  <si>
+    <t>SAMN07139189</t>
+  </si>
+  <si>
+    <t>SAMN07139190</t>
+  </si>
+  <si>
+    <t>SAMN07139191</t>
+  </si>
+  <si>
+    <t>SAMN07139192</t>
+  </si>
+  <si>
+    <t>SAMN07139193</t>
+  </si>
+  <si>
+    <t>SAMN07139194</t>
+  </si>
+  <si>
+    <t>SAMN07139195</t>
+  </si>
+  <si>
+    <t>SAMN07139196</t>
+  </si>
+  <si>
+    <t>SAMN07139197</t>
+  </si>
+  <si>
+    <t>SAMN07139198</t>
+  </si>
+  <si>
+    <t>SAMN07139199</t>
+  </si>
+  <si>
+    <t>SAMN07139200</t>
+  </si>
+  <si>
+    <t>SAMN07139201</t>
+  </si>
+  <si>
+    <t>SAMN07139202</t>
+  </si>
+  <si>
+    <t>SAMN07139203</t>
+  </si>
+  <si>
+    <t>SAMN07139204</t>
   </si>
 </sst>
 </file>
@@ -2679,10 +2745,10 @@
   </sheetPr>
   <dimension ref="A1:CD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="BR3" sqref="BR3"/>
+      <selection pane="bottomLeft" activeCell="BX28" sqref="BX28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3265,6 +3331,9 @@
       <c r="BT3" t="s">
         <v>408</v>
       </c>
+      <c r="BU3" t="s">
+        <v>413</v>
+      </c>
       <c r="BW3">
         <v>1.5</v>
       </c>
@@ -3472,9 +3541,6 @@
       <c r="BS4" t="s">
         <v>46</v>
       </c>
-      <c r="BT4" t="s">
-        <v>408</v>
-      </c>
       <c r="BW4">
         <v>1.5</v>
       </c>
@@ -3691,6 +3757,9 @@
       <c r="BT5" t="s">
         <v>408</v>
       </c>
+      <c r="BU5" t="s">
+        <v>414</v>
+      </c>
       <c r="BW5">
         <v>1.5</v>
       </c>
@@ -3907,6 +3976,9 @@
       <c r="BT6" t="s">
         <v>408</v>
       </c>
+      <c r="BU6" t="s">
+        <v>415</v>
+      </c>
       <c r="BW6">
         <v>10</v>
       </c>
@@ -4123,6 +4195,9 @@
       <c r="BT7" t="s">
         <v>408</v>
       </c>
+      <c r="BU7" t="s">
+        <v>416</v>
+      </c>
       <c r="BW7">
         <v>10</v>
       </c>
@@ -4339,6 +4414,9 @@
       <c r="BT8" t="s">
         <v>408</v>
       </c>
+      <c r="BU8" t="s">
+        <v>417</v>
+      </c>
       <c r="BW8">
         <v>10</v>
       </c>
@@ -4555,6 +4633,9 @@
       <c r="BT9" t="s">
         <v>408</v>
       </c>
+      <c r="BU9" t="s">
+        <v>418</v>
+      </c>
       <c r="BW9">
         <v>5</v>
       </c>
@@ -4771,6 +4852,9 @@
       <c r="BT10" t="s">
         <v>408</v>
       </c>
+      <c r="BU10" t="s">
+        <v>419</v>
+      </c>
       <c r="BW10">
         <v>5</v>
       </c>
@@ -4987,6 +5071,9 @@
       <c r="BT11" t="s">
         <v>408</v>
       </c>
+      <c r="BU11" t="s">
+        <v>420</v>
+      </c>
       <c r="BW11">
         <v>5</v>
       </c>
@@ -5203,6 +5290,9 @@
       <c r="BT12" t="s">
         <v>408</v>
       </c>
+      <c r="BU12" t="s">
+        <v>421</v>
+      </c>
       <c r="BW12">
         <v>18</v>
       </c>
@@ -5419,6 +5509,9 @@
       <c r="BT13" t="s">
         <v>408</v>
       </c>
+      <c r="BU13" t="s">
+        <v>422</v>
+      </c>
       <c r="BW13">
         <v>18</v>
       </c>
@@ -5635,6 +5728,9 @@
       <c r="BT14" t="s">
         <v>408</v>
       </c>
+      <c r="BU14" t="s">
+        <v>423</v>
+      </c>
       <c r="BW14">
         <v>18</v>
       </c>
@@ -5851,6 +5947,9 @@
       <c r="BT15" t="s">
         <v>408</v>
       </c>
+      <c r="BU15" t="s">
+        <v>424</v>
+      </c>
       <c r="BW15">
         <v>19</v>
       </c>
@@ -6060,6 +6159,9 @@
       <c r="BT16" t="s">
         <v>408</v>
       </c>
+      <c r="BU16" t="s">
+        <v>425</v>
+      </c>
       <c r="BW16">
         <v>19</v>
       </c>
@@ -6269,6 +6371,9 @@
       <c r="BT17" t="s">
         <v>408</v>
       </c>
+      <c r="BU17" t="s">
+        <v>426</v>
+      </c>
       <c r="BW17">
         <v>19</v>
       </c>
@@ -6478,6 +6583,9 @@
       <c r="BT18" t="s">
         <v>408</v>
       </c>
+      <c r="BU18" t="s">
+        <v>427</v>
+      </c>
       <c r="BW18">
         <v>18</v>
       </c>
@@ -6687,6 +6795,9 @@
       <c r="BT19" t="s">
         <v>408</v>
       </c>
+      <c r="BU19" t="s">
+        <v>428</v>
+      </c>
       <c r="BW19">
         <v>18</v>
       </c>
@@ -6896,6 +7007,9 @@
       <c r="BT20" t="s">
         <v>408</v>
       </c>
+      <c r="BU20" t="s">
+        <v>429</v>
+      </c>
       <c r="BW20">
         <v>18</v>
       </c>
@@ -7096,9 +7210,6 @@
       <c r="BS21" t="s">
         <v>46</v>
       </c>
-      <c r="BT21" t="s">
-        <v>408</v>
-      </c>
       <c r="BW21">
         <v>3.8</v>
       </c>
@@ -7308,6 +7419,9 @@
       <c r="BT22" t="s">
         <v>408</v>
       </c>
+      <c r="BU22" t="s">
+        <v>430</v>
+      </c>
       <c r="BW22">
         <v>3.8</v>
       </c>
@@ -7517,6 +7631,9 @@
       <c r="BT23" t="s">
         <v>408</v>
       </c>
+      <c r="BU23" t="s">
+        <v>431</v>
+      </c>
       <c r="BW23">
         <v>3.8</v>
       </c>
@@ -7726,6 +7843,9 @@
       <c r="BT24" t="s">
         <v>408</v>
       </c>
+      <c r="BU24" t="s">
+        <v>432</v>
+      </c>
       <c r="BW24">
         <v>5.5</v>
       </c>
@@ -7935,6 +8055,9 @@
       <c r="BT25" t="s">
         <v>408</v>
       </c>
+      <c r="BU25" t="s">
+        <v>433</v>
+      </c>
       <c r="BW25">
         <v>5.5</v>
       </c>
@@ -8135,9 +8258,6 @@
       <c r="BS26" t="s">
         <v>46</v>
       </c>
-      <c r="BT26" t="s">
-        <v>408</v>
-      </c>
       <c r="BW26">
         <v>5.5</v>
       </c>
@@ -8347,6 +8467,9 @@
       <c r="BT27" t="s">
         <v>408</v>
       </c>
+      <c r="BU27" t="s">
+        <v>434</v>
+      </c>
       <c r="BW27">
         <v>6.5</v>
       </c>
@@ -8547,9 +8670,6 @@
       <c r="BS28" t="s">
         <v>46</v>
       </c>
-      <c r="BT28" t="s">
-        <v>408</v>
-      </c>
       <c r="BW28">
         <v>6.5</v>
       </c>
@@ -8749,9 +8869,6 @@
       </c>
       <c r="BS29" t="s">
         <v>46</v>
-      </c>
-      <c r="BT29" t="s">
-        <v>408</v>
       </c>
       <c r="BW29">
         <v>6.5</v>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="461">
   <si>
     <t>Country</t>
   </si>
@@ -1363,6 +1363,84 @@
   </si>
   <si>
     <t>SAMN07139204</t>
+  </si>
+  <si>
+    <t>AS prox 1</t>
+  </si>
+  <si>
+    <t>AS prox 2</t>
+  </si>
+  <si>
+    <t>AS prox 3</t>
+  </si>
+  <si>
+    <t>AS mid 1</t>
+  </si>
+  <si>
+    <t>AS mid 2</t>
+  </si>
+  <si>
+    <t>AS mid 3</t>
+  </si>
+  <si>
+    <t>AS dist 1</t>
+  </si>
+  <si>
+    <t>SO prox 1</t>
+  </si>
+  <si>
+    <t>SO prox 2</t>
+  </si>
+  <si>
+    <t>SO prox 3</t>
+  </si>
+  <si>
+    <t>SO mid 1</t>
+  </si>
+  <si>
+    <t>SO dist 1</t>
+  </si>
+  <si>
+    <t>SO mid 2</t>
+  </si>
+  <si>
+    <t>SO mid 3</t>
+  </si>
+  <si>
+    <t>SO dist 2</t>
+  </si>
+  <si>
+    <t>SO dist 3</t>
+  </si>
+  <si>
+    <t>HA prox 1</t>
+  </si>
+  <si>
+    <t>HA prox 2</t>
+  </si>
+  <si>
+    <t>HA prox 3</t>
+  </si>
+  <si>
+    <t>HA mid 1</t>
+  </si>
+  <si>
+    <t>HA dist 1</t>
+  </si>
+  <si>
+    <t>HA mid 2</t>
+  </si>
+  <si>
+    <t>HA mid 3</t>
+  </si>
+  <si>
+    <t>HA dist 2</t>
+  </si>
+  <si>
+    <t>HA dist 3</t>
+  </si>
+  <si>
+    <t>Label (less than 10 characters)</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1684,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="304">
+  <cellStyleXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1899,6 +1977,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2070,7 +2149,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="304">
+  <cellStyles count="305">
     <cellStyle name="Excel Built-in Normal" xfId="267"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2239,6 +2318,7 @@
     <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2743,12 +2823,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CD51"/>
+  <dimension ref="A1:CE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="BX28" sqref="BX28"/>
+      <selection pane="bottomLeft" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2776,65 +2856,66 @@
     <col min="23" max="23" width="13.83203125" style="16" customWidth="1"/>
     <col min="24" max="24" width="13.1640625" style="16" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="33" customWidth="1"/>
-    <col min="26" max="26" width="9.83203125" customWidth="1"/>
-    <col min="27" max="27" width="25.5" style="33" customWidth="1"/>
-    <col min="28" max="28" width="20.1640625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="22" style="19" customWidth="1"/>
-    <col min="30" max="30" width="17.83203125" style="33" customWidth="1"/>
-    <col min="31" max="31" width="21.5" style="16" customWidth="1"/>
-    <col min="32" max="32" width="27.6640625" style="20" customWidth="1"/>
-    <col min="33" max="33" width="9.83203125" customWidth="1"/>
-    <col min="34" max="34" width="11" customWidth="1"/>
-    <col min="35" max="35" width="13.5" style="2" customWidth="1"/>
-    <col min="36" max="36" width="9.1640625" customWidth="1"/>
-    <col min="37" max="37" width="14.33203125" style="2" customWidth="1"/>
-    <col min="38" max="38" width="15.83203125" style="2" customWidth="1"/>
-    <col min="39" max="39" width="8.5" customWidth="1"/>
-    <col min="40" max="40" width="10.33203125" style="15" customWidth="1"/>
-    <col min="41" max="41" width="10.33203125" customWidth="1"/>
-    <col min="42" max="42" width="11.5" customWidth="1"/>
-    <col min="43" max="43" width="28.33203125" customWidth="1"/>
-    <col min="44" max="44" width="12.1640625" style="42" customWidth="1"/>
-    <col min="45" max="45" width="32.83203125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="12.83203125" style="42" customWidth="1"/>
-    <col min="47" max="47" width="35.6640625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="10.1640625" customWidth="1"/>
-    <col min="49" max="49" width="12.5" customWidth="1"/>
-    <col min="50" max="50" width="15" customWidth="1"/>
-    <col min="51" max="51" width="10.83203125" customWidth="1"/>
-    <col min="52" max="52" width="14" customWidth="1"/>
-    <col min="53" max="53" width="13.1640625" customWidth="1"/>
-    <col min="54" max="54" width="15.6640625" customWidth="1"/>
-    <col min="55" max="55" width="11.6640625" customWidth="1"/>
-    <col min="56" max="56" width="12.1640625" customWidth="1"/>
-    <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="10.1640625" customWidth="1"/>
-    <col min="59" max="59" width="29.5" customWidth="1"/>
-    <col min="60" max="60" width="34.83203125" customWidth="1"/>
-    <col min="61" max="61" width="29.6640625" customWidth="1"/>
-    <col min="62" max="62" width="26.33203125" customWidth="1"/>
-    <col min="63" max="63" width="8.6640625" customWidth="1"/>
-    <col min="64" max="65" width="15.5" customWidth="1"/>
-    <col min="66" max="66" width="13.6640625" style="11" customWidth="1"/>
-    <col min="67" max="67" width="13.1640625" style="11" customWidth="1"/>
-    <col min="68" max="68" width="13.1640625" style="66" customWidth="1"/>
-    <col min="69" max="69" width="28" style="16" customWidth="1"/>
-    <col min="70" max="70" width="31.33203125" style="16" customWidth="1"/>
-    <col min="71" max="71" width="9" customWidth="1"/>
-    <col min="72" max="72" width="16.5" customWidth="1"/>
-    <col min="73" max="73" width="16" customWidth="1"/>
-    <col min="74" max="74" width="9.5" customWidth="1"/>
-    <col min="75" max="75" width="11" style="22" customWidth="1"/>
-    <col min="76" max="76" width="11" style="70" customWidth="1"/>
-    <col min="77" max="77" width="13" style="70" customWidth="1"/>
-    <col min="78" max="78" width="11.6640625" style="22" customWidth="1"/>
-    <col min="79" max="79" width="12.6640625" style="22" customWidth="1"/>
-    <col min="80" max="80" width="13.5" style="22" customWidth="1"/>
-    <col min="81" max="81" width="20.83203125" style="22" customWidth="1"/>
-    <col min="82" max="82" width="9.6640625" customWidth="1"/>
+    <col min="26" max="26" width="13.1640625" style="33" customWidth="1"/>
+    <col min="27" max="27" width="9.83203125" customWidth="1"/>
+    <col min="28" max="28" width="25.5" style="33" customWidth="1"/>
+    <col min="29" max="29" width="20.1640625" style="16" customWidth="1"/>
+    <col min="30" max="30" width="22" style="19" customWidth="1"/>
+    <col min="31" max="31" width="17.83203125" style="33" customWidth="1"/>
+    <col min="32" max="32" width="21.5" style="16" customWidth="1"/>
+    <col min="33" max="33" width="27.6640625" style="20" customWidth="1"/>
+    <col min="34" max="34" width="9.83203125" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
+    <col min="36" max="36" width="13.5" style="2" customWidth="1"/>
+    <col min="37" max="37" width="9.1640625" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="15.83203125" style="2" customWidth="1"/>
+    <col min="40" max="40" width="8.5" customWidth="1"/>
+    <col min="41" max="41" width="10.33203125" style="15" customWidth="1"/>
+    <col min="42" max="42" width="10.33203125" customWidth="1"/>
+    <col min="43" max="43" width="11.5" customWidth="1"/>
+    <col min="44" max="44" width="28.33203125" customWidth="1"/>
+    <col min="45" max="45" width="12.1640625" style="42" customWidth="1"/>
+    <col min="46" max="46" width="32.83203125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="12.83203125" style="42" customWidth="1"/>
+    <col min="48" max="48" width="35.6640625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1640625" customWidth="1"/>
+    <col min="50" max="50" width="12.5" customWidth="1"/>
+    <col min="51" max="51" width="15" customWidth="1"/>
+    <col min="52" max="52" width="10.83203125" customWidth="1"/>
+    <col min="53" max="53" width="14" customWidth="1"/>
+    <col min="54" max="54" width="13.1640625" customWidth="1"/>
+    <col min="55" max="55" width="15.6640625" customWidth="1"/>
+    <col min="56" max="56" width="11.6640625" customWidth="1"/>
+    <col min="57" max="57" width="12.1640625" customWidth="1"/>
+    <col min="58" max="58" width="13" customWidth="1"/>
+    <col min="59" max="59" width="10.1640625" customWidth="1"/>
+    <col min="60" max="60" width="29.5" customWidth="1"/>
+    <col min="61" max="61" width="34.83203125" customWidth="1"/>
+    <col min="62" max="62" width="29.6640625" customWidth="1"/>
+    <col min="63" max="63" width="26.33203125" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="66" width="15.5" customWidth="1"/>
+    <col min="67" max="67" width="13.6640625" style="11" customWidth="1"/>
+    <col min="68" max="68" width="13.1640625" style="11" customWidth="1"/>
+    <col min="69" max="69" width="13.1640625" style="66" customWidth="1"/>
+    <col min="70" max="70" width="28" style="16" customWidth="1"/>
+    <col min="71" max="71" width="31.33203125" style="16" customWidth="1"/>
+    <col min="72" max="72" width="9" customWidth="1"/>
+    <col min="73" max="73" width="16.5" customWidth="1"/>
+    <col min="74" max="74" width="16" customWidth="1"/>
+    <col min="75" max="75" width="9.5" customWidth="1"/>
+    <col min="76" max="76" width="11" style="22" customWidth="1"/>
+    <col min="77" max="77" width="11" style="70" customWidth="1"/>
+    <col min="78" max="78" width="13" style="70" customWidth="1"/>
+    <col min="79" max="79" width="11.6640625" style="22" customWidth="1"/>
+    <col min="80" max="80" width="12.6640625" style="22" customWidth="1"/>
+    <col min="81" max="81" width="13.5" style="22" customWidth="1"/>
+    <col min="82" max="82" width="20.83203125" style="22" customWidth="1"/>
+    <col min="83" max="83" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -2858,26 +2939,26 @@
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
       <c r="Y1" s="34"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="5"/>
+      <c r="Z1" s="34"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="3"/>
       <c r="AL1" s="5"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="3"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="7"/>
-      <c r="AW1" s="3"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="3"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="7"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
@@ -2885,37 +2966,38 @@
       <c r="BB1" s="3"/>
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
-      <c r="BE1" s="10"/>
-      <c r="BG1" s="73" t="s">
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="10"/>
+      <c r="BH1" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="BH1" s="73"/>
       <c r="BI1" s="73"/>
       <c r="BJ1" s="73"/>
-      <c r="BL1" s="73" t="s">
+      <c r="BK1" s="73"/>
+      <c r="BM1" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="BM1" s="73"/>
       <c r="BN1" s="73"/>
       <c r="BO1" s="73"/>
       <c r="BP1" s="73"/>
       <c r="BQ1" s="73"/>
       <c r="BR1" s="73"/>
-      <c r="BT1" s="73" t="s">
+      <c r="BS1" s="73"/>
+      <c r="BU1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="BU1" s="73"/>
-      <c r="BW1" s="8" t="s">
+      <c r="BV1" s="73"/>
+      <c r="BX1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BX1" s="67"/>
       <c r="BY1" s="67"/>
-      <c r="BZ1" s="21"/>
+      <c r="BZ1" s="67"/>
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
     </row>
-    <row r="2" spans="1:82" s="53" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" s="53" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>46</v>
       </c>
@@ -2983,163 +3065,166 @@
       <c r="Y2" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="43" t="s">
+      <c r="Z2" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AC2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AD2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AE2" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AF2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AG2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AJ2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AK2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AL2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="43" t="s">
+      <c r="AM2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="43" t="s">
+      <c r="AN2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="47" t="s">
+      <c r="AO2" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AP2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="43" t="s">
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="43" t="s">
+      <c r="AS2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="43" t="s">
+      <c r="AT2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AU2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AV2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="43" t="s">
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="AY2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="43" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AZ2" s="43" t="s">
+      <c r="BA2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="BA2" s="43" t="s">
+      <c r="BB2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="BB2" s="43" t="s">
+      <c r="BC2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="43" t="s">
+      <c r="BD2" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="BD2" s="43" t="s">
+      <c r="BE2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="BE2" s="43" t="s">
+      <c r="BF2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="BF2" s="48"/>
-      <c r="BG2" s="49" t="s">
+      <c r="BG2" s="48"/>
+      <c r="BH2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="BH2" s="49" t="s">
+      <c r="BI2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="BI2" s="49" t="s">
+      <c r="BJ2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="BJ2" s="49" t="s">
+      <c r="BK2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="50" t="s">
+      <c r="BL2" s="48"/>
+      <c r="BM2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="BM2" s="50" t="s">
+      <c r="BN2" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="BN2" s="50" t="s">
+      <c r="BO2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="50" t="s">
+      <c r="BP2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="BP2" s="50" t="s">
+      <c r="BQ2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="BQ2" s="50" t="s">
+      <c r="BR2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="BR2" s="50" t="s">
+      <c r="BS2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BS2" s="48"/>
-      <c r="BT2" s="51" t="s">
+      <c r="BT2" s="48"/>
+      <c r="BU2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="BU2" s="51" t="s">
+      <c r="BV2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="BV2" s="48"/>
-      <c r="BW2" s="52" t="s">
+      <c r="BW2" s="48"/>
+      <c r="BX2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="BX2" s="52" t="s">
+      <c r="BY2" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="BY2" s="52" t="s">
+      <c r="BZ2" s="52" t="s">
         <v>401</v>
       </c>
-      <c r="BZ2" s="52" t="s">
+      <c r="CA2" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="CA2" s="52" t="s">
+      <c r="CB2" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="CB2" s="52" t="s">
+      <c r="CC2" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="CC2" s="52" t="s">
+      <c r="CD2" s="52" t="s">
         <v>406</v>
       </c>
-      <c r="CD2" s="48"/>
+      <c r="CE2" s="48"/>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BS3,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B3" s="23">
@@ -3206,157 +3291,160 @@
       <c r="Y3" s="33">
         <v>1</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="33" t="s">
+      <c r="Z3" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AC3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="56" t="s">
+      <c r="AD3" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AE3" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AF3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF3" s="56" t="s">
+      <c r="AG3" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3" s="59" t="s">
+      <c r="AH3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="AI3" s="59" t="s">
+      <c r="AJ3" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="AJ3" s="59" t="s">
+      <c r="AK3" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="AK3" s="59" t="s">
+      <c r="AL3" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="61" t="s">
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="AN3" s="71">
+      <c r="AO3" s="71">
         <v>27.8</v>
       </c>
-      <c r="AO3" s="62">
+      <c r="AP3" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>246</v>
       </c>
-      <c r="AR3" s="42" t="s">
+      <c r="AS3" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT3" s="42" t="s">
+      <c r="AU3" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV3" t="s">
-        <v>46</v>
-      </c>
       <c r="AW3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX3" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>9</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>10</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>64</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>11</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>70</v>
-      </c>
-      <c r="BD3">
-        <v>251</v>
       </c>
       <c r="BE3">
         <v>251</v>
       </c>
-      <c r="BG3" s="57" t="s">
+      <c r="BF3">
+        <v>251</v>
+      </c>
+      <c r="BH3" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>409</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>410</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>411</v>
       </c>
-      <c r="BL3" s="63">
+      <c r="BM3" s="63">
         <v>41226</v>
       </c>
-      <c r="BM3" s="64" t="s">
+      <c r="BN3" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="BN3" s="65">
+      <c r="BO3" s="65">
         <v>31.63212</v>
       </c>
-      <c r="BO3" s="65">
+      <c r="BP3" s="65">
         <v>34.5167</v>
       </c>
-      <c r="BP3" s="42" t="s">
+      <c r="BQ3" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BR3" t="s">
         <v>341</v>
       </c>
-      <c r="BR3" s="25" t="s">
+      <c r="BS3" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS3" t="s">
-        <v>46</v>
-      </c>
       <c r="BT3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU3" t="s">
         <v>408</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BV3" t="s">
         <v>413</v>
       </c>
-      <c r="BW3">
+      <c r="BX3">
         <v>1.5</v>
       </c>
-      <c r="BX3" s="42" t="s">
+      <c r="BY3" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="BY3" s="42">
+      <c r="BZ3" s="42">
         <v>0</v>
       </c>
-      <c r="BZ3">
+      <c r="CA3">
         <v>42.3</v>
       </c>
-      <c r="CA3">
+      <c r="CB3">
         <v>31.81</v>
       </c>
-      <c r="CB3">
+      <c r="CC3">
         <v>584.20399999999995</v>
       </c>
-      <c r="CC3">
+      <c r="CD3">
         <v>114.9</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3421,149 +3509,152 @@
       <c r="Y4" s="33">
         <v>1</v>
       </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="33" t="s">
+      <c r="Z4" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AC4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC4" s="56" t="s">
+      <c r="AD4" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AE4" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE4" s="16" t="s">
+      <c r="AF4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF4" s="56" t="s">
+      <c r="AG4" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH4" s="59" t="s">
+      <c r="AH4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="AI4" s="59" t="s">
+      <c r="AJ4" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="AJ4" s="59" t="s">
+      <c r="AK4" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="AK4" s="59" t="s">
+      <c r="AL4" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="61" t="s">
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="62">
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>246</v>
       </c>
-      <c r="AR4" s="42" t="s">
+      <c r="AS4" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT4" s="42" t="s">
+      <c r="AU4" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV4" t="s">
-        <v>46</v>
-      </c>
       <c r="AW4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX4" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>9</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>64</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>70</v>
-      </c>
-      <c r="BD4">
-        <v>251</v>
       </c>
       <c r="BE4">
         <v>251</v>
       </c>
-      <c r="BG4" s="57" t="s">
+      <c r="BF4">
+        <v>251</v>
+      </c>
+      <c r="BH4" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>409</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>410</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>411</v>
       </c>
-      <c r="BL4" s="63">
+      <c r="BM4" s="63">
         <v>41226</v>
       </c>
-      <c r="BM4" s="64" t="s">
+      <c r="BN4" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="BN4" s="65">
+      <c r="BO4" s="65">
         <v>31.63212</v>
       </c>
-      <c r="BO4" s="65">
+      <c r="BP4" s="65">
         <v>34.5167</v>
       </c>
-      <c r="BP4" s="42" t="s">
+      <c r="BQ4" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BR4" t="s">
         <v>341</v>
       </c>
-      <c r="BR4" s="25" t="s">
+      <c r="BS4" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW4">
+      <c r="BT4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX4">
         <v>1.5</v>
       </c>
-      <c r="BX4" s="42" t="s">
+      <c r="BY4" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="BY4" s="42">
+      <c r="BZ4" s="42">
         <v>0</v>
       </c>
-      <c r="BZ4">
+      <c r="CA4">
         <v>42.3</v>
       </c>
-      <c r="CA4">
+      <c r="CB4">
         <v>31.81</v>
       </c>
-      <c r="CB4">
+      <c r="CC4">
         <v>584.20399999999995</v>
       </c>
-      <c r="CC4">
+      <c r="CD4">
         <v>114.9</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3632,157 +3723,160 @@
       <c r="Y5" s="33">
         <v>1</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="33" t="s">
+      <c r="Z5" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AC5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="56" t="s">
+      <c r="AD5" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD5" s="33" t="s">
+      <c r="AE5" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE5" s="16" t="s">
+      <c r="AF5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF5" s="56" t="s">
+      <c r="AG5" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH5" s="59" t="s">
+      <c r="AH5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="AI5" s="59" t="s">
+      <c r="AJ5" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="AJ5" s="59" t="s">
+      <c r="AK5" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="AK5" s="59" t="s">
+      <c r="AL5" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="61" t="s">
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="AN5" s="71">
+      <c r="AO5" s="71">
         <v>32.799999999999997</v>
       </c>
-      <c r="AO5" s="62">
+      <c r="AP5" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>246</v>
       </c>
-      <c r="AR5" s="42" t="s">
+      <c r="AS5" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT5" s="42" t="s">
+      <c r="AU5" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV5" t="s">
-        <v>46</v>
-      </c>
       <c r="AW5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX5" t="s">
         <v>8</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>9</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>10</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>64</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>11</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>70</v>
-      </c>
-      <c r="BD5">
-        <v>251</v>
       </c>
       <c r="BE5">
         <v>251</v>
       </c>
-      <c r="BG5" s="57" t="s">
+      <c r="BF5">
+        <v>251</v>
+      </c>
+      <c r="BH5" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>409</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>410</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>411</v>
       </c>
-      <c r="BL5" s="63">
+      <c r="BM5" s="63">
         <v>41226</v>
       </c>
-      <c r="BM5" s="64" t="s">
+      <c r="BN5" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="BN5" s="65">
+      <c r="BO5" s="65">
         <v>31.63212</v>
       </c>
-      <c r="BO5" s="65">
+      <c r="BP5" s="65">
         <v>34.5167</v>
       </c>
-      <c r="BP5" s="42" t="s">
+      <c r="BQ5" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BR5" t="s">
         <v>341</v>
       </c>
-      <c r="BR5" s="25" t="s">
+      <c r="BS5" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS5" t="s">
-        <v>46</v>
-      </c>
       <c r="BT5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU5" t="s">
         <v>408</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BV5" t="s">
         <v>414</v>
       </c>
-      <c r="BW5">
+      <c r="BX5">
         <v>1.5</v>
       </c>
-      <c r="BX5" s="42" t="s">
+      <c r="BY5" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="BY5" s="42">
+      <c r="BZ5" s="42">
         <v>0</v>
       </c>
-      <c r="BZ5">
+      <c r="CA5">
         <v>42.3</v>
       </c>
-      <c r="CA5">
+      <c r="CB5">
         <v>31.81</v>
       </c>
-      <c r="CB5">
+      <c r="CC5">
         <v>584.20399999999995</v>
       </c>
-      <c r="CC5">
+      <c r="CD5">
         <v>114.9</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3851,157 +3945,160 @@
       <c r="Y6" s="33">
         <v>2</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="33" t="s">
+      <c r="Z6" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB6" s="16" t="s">
+      <c r="AC6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC6" s="56" t="s">
+      <c r="AD6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD6" s="33" t="s">
+      <c r="AE6" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE6" s="16" t="s">
+      <c r="AF6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF6" s="56" t="s">
+      <c r="AG6" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH6" s="59" t="s">
+      <c r="AH6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI6" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="AI6" s="59" t="s">
+      <c r="AJ6" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="AJ6" s="59" t="s">
+      <c r="AK6" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="AK6" s="59" t="s">
+      <c r="AL6" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="61" t="s">
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="AN6" s="71">
+      <c r="AO6" s="71">
         <v>42.6</v>
       </c>
-      <c r="AO6" s="62">
+      <c r="AP6" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>246</v>
       </c>
-      <c r="AR6" s="42" t="s">
+      <c r="AS6" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT6" s="42" t="s">
+      <c r="AU6" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AV6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV6" t="s">
-        <v>46</v>
-      </c>
       <c r="AW6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX6" t="s">
         <v>8</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>9</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>10</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>64</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>11</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>70</v>
-      </c>
-      <c r="BD6">
-        <v>251</v>
       </c>
       <c r="BE6">
         <v>251</v>
       </c>
-      <c r="BG6" s="57" t="s">
+      <c r="BF6">
+        <v>251</v>
+      </c>
+      <c r="BH6" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>409</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>410</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BK6" t="s">
         <v>411</v>
       </c>
-      <c r="BL6" s="63">
+      <c r="BM6" s="63">
         <v>41226</v>
       </c>
-      <c r="BM6" s="64" t="s">
+      <c r="BN6" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="BN6" s="65">
+      <c r="BO6" s="65">
         <v>31.6341</v>
       </c>
-      <c r="BO6" s="65">
+      <c r="BP6" s="65">
         <v>34.51144</v>
       </c>
-      <c r="BP6" s="42" t="s">
+      <c r="BQ6" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BR6" t="s">
         <v>340</v>
       </c>
-      <c r="BR6" s="25" t="s">
+      <c r="BS6" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS6" t="s">
-        <v>46</v>
-      </c>
       <c r="BT6" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU6" t="s">
         <v>408</v>
       </c>
-      <c r="BU6" t="s">
+      <c r="BV6" t="s">
         <v>415</v>
       </c>
-      <c r="BW6">
+      <c r="BX6">
         <v>10</v>
       </c>
-      <c r="BX6" s="68" t="s">
+      <c r="BY6" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="BY6" s="68">
+      <c r="BZ6" s="68">
         <v>545.16</v>
       </c>
-      <c r="BZ6">
+      <c r="CA6">
         <v>39.6</v>
       </c>
-      <c r="CA6">
+      <c r="CB6">
         <v>24.87</v>
       </c>
-      <c r="CB6">
+      <c r="CC6">
         <v>209.97499999999999</v>
       </c>
-      <c r="CC6">
+      <c r="CD6">
         <v>99.7</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4070,157 +4167,160 @@
       <c r="Y7" s="33">
         <v>2</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="33" t="s">
+      <c r="Z7" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB7" s="16" t="s">
+      <c r="AC7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC7" s="56" t="s">
+      <c r="AD7" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD7" s="33" t="s">
+      <c r="AE7" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" s="16" t="s">
+      <c r="AF7" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF7" s="56" t="s">
+      <c r="AG7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH7" s="59" t="s">
+      <c r="AH7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI7" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="AI7" s="59" t="s">
+      <c r="AJ7" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="AJ7" s="59" t="s">
+      <c r="AK7" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="AK7" s="59" t="s">
+      <c r="AL7" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="61" t="s">
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="AN7" s="71">
+      <c r="AO7" s="71">
         <v>41.6</v>
       </c>
-      <c r="AO7" s="62">
+      <c r="AP7" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>246</v>
       </c>
-      <c r="AR7" s="42" t="s">
+      <c r="AS7" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT7" s="42" t="s">
+      <c r="AU7" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU7" s="1" t="s">
+      <c r="AV7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV7" t="s">
-        <v>46</v>
-      </c>
       <c r="AW7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX7" t="s">
         <v>8</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>9</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>10</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>64</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>11</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>70</v>
-      </c>
-      <c r="BD7">
-        <v>251</v>
       </c>
       <c r="BE7">
         <v>251</v>
       </c>
-      <c r="BG7" s="57" t="s">
+      <c r="BF7">
+        <v>251</v>
+      </c>
+      <c r="BH7" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>409</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>410</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BK7" t="s">
         <v>411</v>
       </c>
-      <c r="BL7" s="63">
+      <c r="BM7" s="63">
         <v>41226</v>
       </c>
-      <c r="BM7" s="64" t="s">
+      <c r="BN7" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="BN7" s="65">
+      <c r="BO7" s="65">
         <v>31.6341</v>
       </c>
-      <c r="BO7" s="65">
+      <c r="BP7" s="65">
         <v>34.51144</v>
       </c>
-      <c r="BP7" s="42" t="s">
+      <c r="BQ7" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BR7" t="s">
         <v>340</v>
       </c>
-      <c r="BR7" s="25" t="s">
+      <c r="BS7" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS7" t="s">
-        <v>46</v>
-      </c>
       <c r="BT7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU7" t="s">
         <v>408</v>
       </c>
-      <c r="BU7" t="s">
+      <c r="BV7" t="s">
         <v>416</v>
       </c>
-      <c r="BW7">
+      <c r="BX7">
         <v>10</v>
       </c>
-      <c r="BX7" s="69" t="s">
+      <c r="BY7" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY7" s="69">
+      <c r="BZ7" s="69">
         <v>545.16</v>
       </c>
-      <c r="BZ7">
+      <c r="CA7">
         <v>39.6</v>
       </c>
-      <c r="CA7">
+      <c r="CB7">
         <v>24.87</v>
       </c>
-      <c r="CB7">
+      <c r="CC7">
         <v>209.97499999999999</v>
       </c>
-      <c r="CC7">
+      <c r="CD7">
         <v>99.7</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4289,157 +4389,160 @@
       <c r="Y8" s="33">
         <v>2</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="33" t="s">
+      <c r="Z8" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AC8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC8" s="56" t="s">
+      <c r="AD8" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD8" s="33" t="s">
+      <c r="AE8" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE8" s="16" t="s">
+      <c r="AF8" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF8" s="56" t="s">
+      <c r="AG8" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH8" s="59" t="s">
+      <c r="AH8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI8" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="AI8" s="59" t="s">
+      <c r="AJ8" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="AJ8" s="59" t="s">
+      <c r="AK8" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="AK8" s="59" t="s">
+      <c r="AL8" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="61" t="s">
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="AN8" s="71">
+      <c r="AO8" s="71">
         <v>32.200000000000003</v>
       </c>
-      <c r="AO8" s="62">
+      <c r="AP8" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>246</v>
       </c>
-      <c r="AR8" s="42" t="s">
+      <c r="AS8" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AT8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT8" s="42" t="s">
+      <c r="AU8" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU8" s="1" t="s">
+      <c r="AV8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV8" t="s">
-        <v>46</v>
-      </c>
       <c r="AW8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX8" t="s">
         <v>8</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>9</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>10</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>64</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>11</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>70</v>
-      </c>
-      <c r="BD8">
-        <v>251</v>
       </c>
       <c r="BE8">
         <v>251</v>
       </c>
-      <c r="BG8" s="57" t="s">
+      <c r="BF8">
+        <v>251</v>
+      </c>
+      <c r="BH8" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BI8" t="s">
         <v>409</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BJ8" t="s">
         <v>410</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BK8" t="s">
         <v>411</v>
       </c>
-      <c r="BL8" s="63">
+      <c r="BM8" s="63">
         <v>41226</v>
       </c>
-      <c r="BM8" s="64" t="s">
+      <c r="BN8" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="BN8" s="65">
+      <c r="BO8" s="65">
         <v>31.6341</v>
       </c>
-      <c r="BO8" s="65">
+      <c r="BP8" s="65">
         <v>34.51144</v>
       </c>
-      <c r="BP8" s="42" t="s">
+      <c r="BQ8" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="BR8" t="s">
         <v>340</v>
       </c>
-      <c r="BR8" s="25" t="s">
+      <c r="BS8" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS8" t="s">
-        <v>46</v>
-      </c>
       <c r="BT8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU8" t="s">
         <v>408</v>
       </c>
-      <c r="BU8" t="s">
+      <c r="BV8" t="s">
         <v>417</v>
       </c>
-      <c r="BW8">
+      <c r="BX8">
         <v>10</v>
       </c>
-      <c r="BX8" s="69" t="s">
+      <c r="BY8" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY8" s="69">
+      <c r="BZ8" s="69">
         <v>545.16</v>
       </c>
-      <c r="BZ8">
+      <c r="CA8">
         <v>39.6</v>
       </c>
-      <c r="CA8">
+      <c r="CB8">
         <v>24.87</v>
       </c>
-      <c r="CB8">
+      <c r="CC8">
         <v>209.97499999999999</v>
       </c>
-      <c r="CC8">
+      <c r="CD8">
         <v>99.7</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4508,157 +4611,160 @@
       <c r="Y9" s="33">
         <v>3</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="33" t="s">
+      <c r="Z9" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB9" s="16" t="s">
+      <c r="AC9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC9" s="56" t="s">
+      <c r="AD9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD9" s="33" t="s">
+      <c r="AE9" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE9" s="16" t="s">
+      <c r="AF9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF9" s="56" t="s">
+      <c r="AG9" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH9" s="59" t="s">
+      <c r="AH9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI9" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="AI9" s="59" t="s">
+      <c r="AJ9" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="AJ9" s="59" t="s">
+      <c r="AK9" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="AK9" s="59" t="s">
+      <c r="AL9" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="AL9" s="59"/>
-      <c r="AM9" s="61" t="s">
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="AN9" s="71">
+      <c r="AO9" s="71">
         <v>33.4</v>
       </c>
-      <c r="AO9" s="62">
+      <c r="AP9" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AR9" t="s">
         <v>246</v>
       </c>
-      <c r="AR9" s="42" t="s">
+      <c r="AS9" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS9" s="1" t="s">
+      <c r="AT9" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT9" s="42" t="s">
+      <c r="AU9" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU9" s="1" t="s">
+      <c r="AV9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV9" t="s">
-        <v>46</v>
-      </c>
       <c r="AW9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX9" t="s">
         <v>8</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>9</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>10</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>64</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BB9" t="s">
         <v>11</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
         <v>70</v>
-      </c>
-      <c r="BD9">
-        <v>251</v>
       </c>
       <c r="BE9">
         <v>251</v>
       </c>
-      <c r="BG9" s="57" t="s">
+      <c r="BF9">
+        <v>251</v>
+      </c>
+      <c r="BH9" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>409</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BJ9" t="s">
         <v>410</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BK9" t="s">
         <v>411</v>
       </c>
-      <c r="BL9" s="63">
+      <c r="BM9" s="63">
         <v>41226</v>
       </c>
-      <c r="BM9" s="64" t="s">
+      <c r="BN9" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="BN9" s="65">
+      <c r="BO9" s="65">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO9" s="65">
+      <c r="BP9" s="65">
         <v>34.543559999999999</v>
       </c>
-      <c r="BP9" s="42" t="s">
+      <c r="BQ9" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ9" t="s">
+      <c r="BR9" t="s">
         <v>342</v>
       </c>
-      <c r="BR9" s="25" t="s">
+      <c r="BS9" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS9" t="s">
-        <v>46</v>
-      </c>
       <c r="BT9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU9" t="s">
         <v>408</v>
       </c>
-      <c r="BU9" t="s">
+      <c r="BV9" t="s">
         <v>418</v>
       </c>
-      <c r="BW9">
+      <c r="BX9">
         <v>5</v>
       </c>
-      <c r="BX9" s="69" t="s">
+      <c r="BY9" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY9" s="69">
+      <c r="BZ9" s="69">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ9">
+      <c r="CA9">
         <v>39.6</v>
       </c>
-      <c r="CA9">
+      <c r="CB9">
         <v>24.92</v>
       </c>
-      <c r="CB9">
+      <c r="CC9">
         <v>210.3</v>
       </c>
-      <c r="CC9">
+      <c r="CD9">
         <v>100.9</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4727,157 +4833,160 @@
       <c r="Y10" s="33">
         <v>3</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="33" t="s">
+      <c r="Z10" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB10" s="16" t="s">
+      <c r="AC10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC10" s="56" t="s">
+      <c r="AD10" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD10" s="33" t="s">
+      <c r="AE10" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE10" s="16" t="s">
+      <c r="AF10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF10" s="56" t="s">
+      <c r="AG10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH10" s="59" t="s">
+      <c r="AH10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI10" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="AI10" s="59" t="s">
+      <c r="AJ10" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="AJ10" s="59" t="s">
+      <c r="AK10" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="AK10" s="59" t="s">
+      <c r="AL10" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="AL10" s="59"/>
-      <c r="AM10" s="61" t="s">
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="AN10" s="71">
+      <c r="AO10" s="71">
         <v>39</v>
       </c>
-      <c r="AO10" s="62">
+      <c r="AP10" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AR10" t="s">
         <v>246</v>
       </c>
-      <c r="AR10" s="42" t="s">
+      <c r="AS10" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS10" s="1" t="s">
+      <c r="AT10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT10" s="42" t="s">
+      <c r="AU10" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU10" s="1" t="s">
+      <c r="AV10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV10" t="s">
-        <v>46</v>
-      </c>
       <c r="AW10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX10" t="s">
         <v>8</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>9</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>10</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>64</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>11</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>70</v>
-      </c>
-      <c r="BD10">
-        <v>251</v>
       </c>
       <c r="BE10">
         <v>251</v>
       </c>
-      <c r="BG10" s="57" t="s">
+      <c r="BF10">
+        <v>251</v>
+      </c>
+      <c r="BH10" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>409</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
         <v>410</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>411</v>
       </c>
-      <c r="BL10" s="63">
+      <c r="BM10" s="63">
         <v>41226</v>
       </c>
-      <c r="BM10" s="64" t="s">
+      <c r="BN10" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="BN10" s="65">
+      <c r="BO10" s="65">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO10" s="65">
+      <c r="BP10" s="65">
         <v>34.543559999999999</v>
       </c>
-      <c r="BP10" s="42" t="s">
+      <c r="BQ10" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BR10" t="s">
         <v>342</v>
       </c>
-      <c r="BR10" s="25" t="s">
+      <c r="BS10" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS10" t="s">
-        <v>46</v>
-      </c>
       <c r="BT10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU10" t="s">
         <v>408</v>
       </c>
-      <c r="BU10" t="s">
+      <c r="BV10" t="s">
         <v>419</v>
       </c>
-      <c r="BW10">
+      <c r="BX10">
         <v>5</v>
       </c>
-      <c r="BX10" s="69" t="s">
+      <c r="BY10" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY10" s="69">
+      <c r="BZ10" s="69">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ10">
+      <c r="CA10">
         <v>39.6</v>
       </c>
-      <c r="CA10">
+      <c r="CB10">
         <v>24.92</v>
       </c>
-      <c r="CB10">
+      <c r="CC10">
         <v>210.3</v>
       </c>
-      <c r="CC10">
+      <c r="CD10">
         <v>100.9</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4946,157 +5055,160 @@
       <c r="Y11" s="33">
         <v>3</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="33" t="s">
+      <c r="Z11" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB11" s="16" t="s">
+      <c r="AC11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC11" s="56" t="s">
+      <c r="AD11" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD11" s="33" t="s">
+      <c r="AE11" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE11" s="16" t="s">
+      <c r="AF11" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF11" s="56" t="s">
+      <c r="AG11" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH11" s="59" t="s">
+      <c r="AH11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI11" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="AI11" s="59" t="s">
+      <c r="AJ11" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="AJ11" s="59" t="s">
+      <c r="AK11" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="AK11" s="59" t="s">
+      <c r="AL11" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="AL11" s="59"/>
-      <c r="AM11" s="61" t="s">
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="AN11" s="71">
+      <c r="AO11" s="71">
         <v>27.6</v>
       </c>
-      <c r="AO11" s="62">
+      <c r="AP11" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>246</v>
       </c>
-      <c r="AR11" s="42" t="s">
+      <c r="AS11" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS11" s="1" t="s">
+      <c r="AT11" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT11" s="42" t="s">
+      <c r="AU11" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU11" s="1" t="s">
+      <c r="AV11" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV11" t="s">
-        <v>46</v>
-      </c>
       <c r="AW11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX11" t="s">
         <v>8</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>9</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>10</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>64</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BB11" t="s">
         <v>11</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
         <v>70</v>
-      </c>
-      <c r="BD11">
-        <v>251</v>
       </c>
       <c r="BE11">
         <v>251</v>
       </c>
-      <c r="BG11" s="57" t="s">
+      <c r="BF11">
+        <v>251</v>
+      </c>
+      <c r="BH11" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BI11" t="s">
         <v>409</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BJ11" t="s">
         <v>410</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BK11" t="s">
         <v>411</v>
       </c>
-      <c r="BL11" s="63">
+      <c r="BM11" s="63">
         <v>41226</v>
       </c>
-      <c r="BM11" s="64" t="s">
+      <c r="BN11" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="BN11" s="65">
+      <c r="BO11" s="65">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO11" s="65">
+      <c r="BP11" s="65">
         <v>34.543559999999999</v>
       </c>
-      <c r="BP11" s="42" t="s">
+      <c r="BQ11" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ11" t="s">
+      <c r="BR11" t="s">
         <v>342</v>
       </c>
-      <c r="BR11" s="25" t="s">
+      <c r="BS11" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS11" t="s">
-        <v>46</v>
-      </c>
       <c r="BT11" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU11" t="s">
         <v>408</v>
       </c>
-      <c r="BU11" t="s">
+      <c r="BV11" t="s">
         <v>420</v>
       </c>
-      <c r="BW11">
+      <c r="BX11">
         <v>5</v>
       </c>
-      <c r="BX11" s="69" t="s">
+      <c r="BY11" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY11" s="69">
+      <c r="BZ11" s="69">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ11">
+      <c r="CA11">
         <v>39.6</v>
       </c>
-      <c r="CA11">
+      <c r="CB11">
         <v>24.92</v>
       </c>
-      <c r="CB11">
+      <c r="CC11">
         <v>210.3</v>
       </c>
-      <c r="CC11">
+      <c r="CD11">
         <v>100.9</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5165,157 +5277,160 @@
       <c r="Y12" s="33">
         <v>4</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="33" t="s">
+      <c r="Z12" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB12" s="16" t="s">
+      <c r="AC12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC12" s="56" t="s">
+      <c r="AD12" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD12" s="33" t="s">
+      <c r="AE12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AF12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF12" s="56" t="s">
+      <c r="AG12" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH12" s="59" t="s">
+      <c r="AH12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI12" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="AI12" s="59" t="s">
+      <c r="AJ12" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AJ12" s="59" t="s">
+      <c r="AK12" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="AK12" s="59" t="s">
+      <c r="AL12" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="61" t="s">
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="AN12" s="71">
+      <c r="AO12" s="71">
         <v>32</v>
       </c>
-      <c r="AO12" s="62">
+      <c r="AP12" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
         <v>246</v>
       </c>
-      <c r="AR12" s="42" t="s">
+      <c r="AS12" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS12" s="1" t="s">
+      <c r="AT12" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT12" s="42" t="s">
+      <c r="AU12" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU12" s="1" t="s">
+      <c r="AV12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV12" t="s">
-        <v>46</v>
-      </c>
       <c r="AW12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX12" t="s">
         <v>8</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>9</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>10</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>64</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
         <v>11</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>70</v>
-      </c>
-      <c r="BD12">
-        <v>251</v>
       </c>
       <c r="BE12">
         <v>251</v>
       </c>
-      <c r="BG12" s="57" t="s">
+      <c r="BF12">
+        <v>251</v>
+      </c>
+      <c r="BH12" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>409</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
         <v>410</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BK12" t="s">
         <v>411</v>
       </c>
-      <c r="BL12" s="63">
+      <c r="BM12" s="63">
         <v>41227</v>
       </c>
-      <c r="BM12" s="64" t="s">
+      <c r="BN12" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="BN12" s="65">
+      <c r="BO12" s="65">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO12" s="65">
+      <c r="BP12" s="65">
         <v>34.68862</v>
       </c>
-      <c r="BP12" s="42" t="s">
+      <c r="BQ12" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ12" s="58" t="s">
+      <c r="BR12" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BR12" s="25" t="s">
+      <c r="BS12" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS12" t="s">
-        <v>46</v>
-      </c>
       <c r="BT12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU12" t="s">
         <v>408</v>
       </c>
-      <c r="BU12" t="s">
+      <c r="BV12" t="s">
         <v>421</v>
       </c>
-      <c r="BW12">
+      <c r="BX12">
         <v>18</v>
       </c>
-      <c r="BX12" s="69" t="s">
+      <c r="BY12" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY12" s="42">
+      <c r="BZ12" s="42">
         <v>102.78</v>
       </c>
-      <c r="BZ12">
+      <c r="CA12">
         <v>40.799999999999997</v>
       </c>
-      <c r="CA12">
+      <c r="CB12">
         <v>24.88</v>
       </c>
-      <c r="CB12">
+      <c r="CC12">
         <v>160.36000000000001</v>
       </c>
-      <c r="CC12">
+      <c r="CD12">
         <v>99.74</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5384,157 +5499,160 @@
       <c r="Y13" s="33">
         <v>4</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="33" t="s">
+      <c r="Z13" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB13" s="16" t="s">
+      <c r="AC13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC13" s="56" t="s">
+      <c r="AD13" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD13" s="33" t="s">
+      <c r="AE13" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE13" s="16" t="s">
+      <c r="AF13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF13" s="56" t="s">
+      <c r="AG13" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH13" s="59" t="s">
+      <c r="AH13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI13" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="AI13" s="59" t="s">
+      <c r="AJ13" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="AJ13" s="59" t="s">
+      <c r="AK13" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="AK13" s="59" t="s">
+      <c r="AL13" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="61" t="s">
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="AN13" s="71">
+      <c r="AO13" s="71">
         <v>45.6</v>
       </c>
-      <c r="AO13" s="62">
+      <c r="AP13" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AR13" t="s">
         <v>246</v>
       </c>
-      <c r="AR13" s="42" t="s">
+      <c r="AS13" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS13" s="1" t="s">
+      <c r="AT13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT13" s="42" t="s">
+      <c r="AU13" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU13" s="1" t="s">
+      <c r="AV13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV13" t="s">
-        <v>46</v>
-      </c>
       <c r="AW13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX13" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>9</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>10</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>64</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>11</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>70</v>
-      </c>
-      <c r="BD13">
-        <v>251</v>
       </c>
       <c r="BE13">
         <v>251</v>
       </c>
-      <c r="BG13" s="57" t="s">
+      <c r="BF13">
+        <v>251</v>
+      </c>
+      <c r="BH13" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BI13" t="s">
         <v>409</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BJ13" t="s">
         <v>410</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>411</v>
       </c>
-      <c r="BL13" s="63">
+      <c r="BM13" s="63">
         <v>41227</v>
       </c>
-      <c r="BM13" s="64" t="s">
+      <c r="BN13" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="BN13" s="65">
+      <c r="BO13" s="65">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO13" s="65">
+      <c r="BP13" s="65">
         <v>34.68862</v>
       </c>
-      <c r="BP13" s="42" t="s">
+      <c r="BQ13" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ13" s="58" t="s">
+      <c r="BR13" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BR13" s="25" t="s">
+      <c r="BS13" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS13" t="s">
-        <v>46</v>
-      </c>
       <c r="BT13" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU13" t="s">
         <v>408</v>
       </c>
-      <c r="BU13" t="s">
+      <c r="BV13" t="s">
         <v>422</v>
       </c>
-      <c r="BW13">
+      <c r="BX13">
         <v>18</v>
       </c>
-      <c r="BX13" s="69" t="s">
+      <c r="BY13" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY13" s="42">
+      <c r="BZ13" s="42">
         <v>102.78</v>
       </c>
-      <c r="BZ13">
+      <c r="CA13">
         <v>40.799999999999997</v>
       </c>
-      <c r="CA13">
+      <c r="CB13">
         <v>24.88</v>
       </c>
-      <c r="CB13">
+      <c r="CC13">
         <v>160.36000000000001</v>
       </c>
-      <c r="CC13">
+      <c r="CD13">
         <v>99.74</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5603,157 +5721,160 @@
       <c r="Y14" s="33">
         <v>4</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="33" t="s">
+      <c r="Z14" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB14" s="16" t="s">
+      <c r="AC14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC14" s="56" t="s">
+      <c r="AD14" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD14" s="33" t="s">
+      <c r="AE14" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE14" s="16" t="s">
+      <c r="AF14" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF14" s="56" t="s">
+      <c r="AG14" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH14" s="59" t="s">
+      <c r="AH14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI14" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="AI14" s="59" t="s">
+      <c r="AJ14" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="AJ14" s="59" t="s">
+      <c r="AK14" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="AK14" s="59" t="s">
+      <c r="AL14" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="61" t="s">
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="AN14" s="71">
+      <c r="AO14" s="71">
         <v>30</v>
       </c>
-      <c r="AO14" s="62">
+      <c r="AP14" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AR14" t="s">
         <v>246</v>
       </c>
-      <c r="AR14" s="42" t="s">
+      <c r="AS14" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS14" s="1" t="s">
+      <c r="AT14" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT14" s="42" t="s">
+      <c r="AU14" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU14" s="1" t="s">
+      <c r="AV14" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV14" t="s">
-        <v>46</v>
-      </c>
       <c r="AW14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX14" t="s">
         <v>8</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>9</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>10</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
         <v>64</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BB14" t="s">
         <v>11</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BC14" t="s">
         <v>70</v>
-      </c>
-      <c r="BD14">
-        <v>251</v>
       </c>
       <c r="BE14">
         <v>251</v>
       </c>
-      <c r="BG14" s="57" t="s">
+      <c r="BF14">
+        <v>251</v>
+      </c>
+      <c r="BH14" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BI14" t="s">
         <v>409</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BJ14" t="s">
         <v>410</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BK14" t="s">
         <v>411</v>
       </c>
-      <c r="BL14" s="63">
+      <c r="BM14" s="63">
         <v>41227</v>
       </c>
-      <c r="BM14" s="64" t="s">
+      <c r="BN14" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="BN14" s="65">
+      <c r="BO14" s="65">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO14" s="65">
+      <c r="BP14" s="65">
         <v>34.68862</v>
       </c>
-      <c r="BP14" s="42" t="s">
+      <c r="BQ14" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ14" s="58" t="s">
+      <c r="BR14" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BR14" s="25" t="s">
+      <c r="BS14" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS14" t="s">
-        <v>46</v>
-      </c>
       <c r="BT14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU14" t="s">
         <v>408</v>
       </c>
-      <c r="BU14" t="s">
+      <c r="BV14" t="s">
         <v>423</v>
       </c>
-      <c r="BW14">
+      <c r="BX14">
         <v>18</v>
       </c>
-      <c r="BX14" s="69" t="s">
+      <c r="BY14" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY14" s="42">
+      <c r="BZ14" s="42">
         <v>102.78</v>
       </c>
-      <c r="BZ14">
+      <c r="CA14">
         <v>40.799999999999997</v>
       </c>
-      <c r="CA14">
+      <c r="CB14">
         <v>24.88</v>
       </c>
-      <c r="CB14">
+      <c r="CC14">
         <v>160.36000000000001</v>
       </c>
-      <c r="CC14">
+      <c r="CD14">
         <v>99.74</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5822,157 +5943,160 @@
       <c r="Y15" s="33">
         <v>5</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="33" t="s">
+      <c r="Z15" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB15" s="16" t="s">
+      <c r="AC15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC15" s="56" t="s">
+      <c r="AD15" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD15" s="33" t="s">
+      <c r="AE15" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE15" s="16" t="s">
+      <c r="AF15" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF15" s="56" t="s">
+      <c r="AG15" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH15" s="59" t="s">
+      <c r="AH15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI15" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="AI15" s="59" t="s">
+      <c r="AJ15" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="AJ15" s="59" t="s">
+      <c r="AK15" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="AK15" s="59" t="s">
+      <c r="AL15" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="61" t="s">
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="AN15" s="71">
+      <c r="AO15" s="71">
         <v>38.799999999999997</v>
       </c>
-      <c r="AO15" s="62">
+      <c r="AP15" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AR15" t="s">
         <v>246</v>
       </c>
-      <c r="AR15" s="42" t="s">
+      <c r="AS15" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS15" s="1" t="s">
+      <c r="AT15" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT15" s="42" t="s">
+      <c r="AU15" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU15" s="1" t="s">
+      <c r="AV15" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AV15" t="s">
-        <v>46</v>
-      </c>
       <c r="AW15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX15" t="s">
         <v>8</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>9</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>10</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
         <v>64</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BB15" t="s">
         <v>11</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BC15" t="s">
         <v>70</v>
-      </c>
-      <c r="BD15">
-        <v>251</v>
       </c>
       <c r="BE15">
         <v>251</v>
       </c>
-      <c r="BG15" s="57" t="s">
+      <c r="BF15">
+        <v>251</v>
+      </c>
+      <c r="BH15" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BI15" t="s">
         <v>409</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BJ15" t="s">
         <v>410</v>
       </c>
-      <c r="BJ15" t="s">
+      <c r="BK15" t="s">
         <v>411</v>
       </c>
-      <c r="BL15" s="63">
+      <c r="BM15" s="63">
         <v>41227</v>
       </c>
-      <c r="BM15" s="64" t="s">
+      <c r="BN15" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="BN15" s="65">
+      <c r="BO15" s="65">
         <v>31.94068</v>
       </c>
-      <c r="BO15" s="65">
+      <c r="BP15" s="65">
         <v>34.687379999999997</v>
       </c>
-      <c r="BP15" s="42" t="s">
+      <c r="BQ15" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ15" s="58" t="s">
+      <c r="BR15" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BR15" s="25" t="s">
+      <c r="BS15" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS15" t="s">
-        <v>46</v>
-      </c>
       <c r="BT15" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU15" t="s">
         <v>408</v>
       </c>
-      <c r="BU15" t="s">
+      <c r="BV15" t="s">
         <v>424</v>
       </c>
-      <c r="BW15">
+      <c r="BX15">
         <v>19</v>
       </c>
-      <c r="BX15" s="69" t="s">
+      <c r="BY15" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY15" s="68">
+      <c r="BZ15" s="68">
         <v>130.54</v>
       </c>
-      <c r="BZ15">
+      <c r="CA15">
         <v>40.5</v>
       </c>
-      <c r="CA15">
+      <c r="CB15">
         <v>24.85</v>
       </c>
-      <c r="CB15">
+      <c r="CC15">
         <v>163.64500000000001</v>
       </c>
-      <c r="CC15">
+      <c r="CD15">
         <v>99.39</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6039,152 +6163,155 @@
       <c r="Y16" s="33">
         <v>5</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="33" t="s">
+      <c r="Z16" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB16" s="16" t="s">
+      <c r="AC16" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC16" s="56" t="s">
+      <c r="AD16" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD16" s="33" t="s">
+      <c r="AE16" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE16" s="16" t="s">
+      <c r="AF16" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF16" s="56" t="s">
+      <c r="AG16" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="59" t="s">
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="AI16" s="59" t="s">
+      <c r="AJ16" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="AJ16" s="59" t="s">
+      <c r="AK16" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="AK16" s="59" t="s">
+      <c r="AL16" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="AL16" s="59"/>
-      <c r="AM16" s="61" t="s">
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="AN16" s="71">
+      <c r="AO16" s="71">
         <v>34.4</v>
       </c>
-      <c r="AO16" s="62">
+      <c r="AP16" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AR16" t="s">
         <v>246</v>
       </c>
-      <c r="AR16" s="42" t="s">
+      <c r="AS16" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS16" s="1" t="s">
+      <c r="AT16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT16" s="42" t="s">
+      <c r="AU16" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU16" s="1" t="s">
+      <c r="AV16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>8</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>9</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>10</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BA16" t="s">
         <v>64</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BB16" t="s">
         <v>11</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BC16" t="s">
         <v>70</v>
-      </c>
-      <c r="BD16">
-        <v>251</v>
       </c>
       <c r="BE16">
         <v>251</v>
       </c>
-      <c r="BG16" s="57" t="s">
+      <c r="BF16">
+        <v>251</v>
+      </c>
+      <c r="BH16" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
         <v>409</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BJ16" t="s">
         <v>410</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BK16" t="s">
         <v>411</v>
       </c>
-      <c r="BL16" s="63">
+      <c r="BM16" s="63">
         <v>41227</v>
       </c>
-      <c r="BM16" s="64" t="s">
+      <c r="BN16" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="BN16" s="65">
+      <c r="BO16" s="65">
         <v>31.94068</v>
       </c>
-      <c r="BO16" s="65">
+      <c r="BP16" s="65">
         <v>34.687379999999997</v>
       </c>
-      <c r="BP16" s="42" t="s">
+      <c r="BQ16" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ16" s="58" t="s">
+      <c r="BR16" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BR16" s="25" t="s">
+      <c r="BS16" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS16" t="s">
-        <v>46</v>
-      </c>
       <c r="BT16" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU16" t="s">
         <v>408</v>
       </c>
-      <c r="BU16" t="s">
+      <c r="BV16" t="s">
         <v>425</v>
       </c>
-      <c r="BW16">
+      <c r="BX16">
         <v>19</v>
       </c>
-      <c r="BX16" s="69" t="s">
+      <c r="BY16" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY16" s="69">
+      <c r="BZ16" s="69">
         <v>130.54</v>
       </c>
-      <c r="BZ16">
+      <c r="CA16">
         <v>40.5</v>
       </c>
-      <c r="CA16">
+      <c r="CB16">
         <v>24.85</v>
       </c>
-      <c r="CB16">
+      <c r="CC16">
         <v>163.64500000000001</v>
       </c>
-      <c r="CC16">
+      <c r="CD16">
         <v>99.39</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6251,152 +6378,155 @@
       <c r="Y17" s="33">
         <v>5</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="33" t="s">
+      <c r="Z17" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB17" s="16" t="s">
+      <c r="AC17" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC17" s="56" t="s">
+      <c r="AD17" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD17" s="33" t="s">
+      <c r="AE17" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE17" s="16" t="s">
+      <c r="AF17" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF17" s="56" t="s">
+      <c r="AG17" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="59" t="s">
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="AI17" s="59" t="s">
+      <c r="AJ17" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="AJ17" s="59" t="s">
+      <c r="AK17" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="AK17" s="59" t="s">
+      <c r="AL17" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="AL17" s="59"/>
-      <c r="AM17" s="61" t="s">
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="AN17" s="71">
+      <c r="AO17" s="71">
         <v>35.6</v>
       </c>
-      <c r="AO17" s="62">
+      <c r="AP17" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>246</v>
       </c>
-      <c r="AR17" s="42" t="s">
+      <c r="AS17" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS17" s="1" t="s">
+      <c r="AT17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT17" s="42" t="s">
+      <c r="AU17" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU17" s="1" t="s">
+      <c r="AV17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>8</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>9</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>10</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>64</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>11</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>70</v>
-      </c>
-      <c r="BD17">
-        <v>251</v>
       </c>
       <c r="BE17">
         <v>251</v>
       </c>
-      <c r="BG17" s="57" t="s">
+      <c r="BF17">
+        <v>251</v>
+      </c>
+      <c r="BH17" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>409</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>410</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>411</v>
       </c>
-      <c r="BL17" s="63">
+      <c r="BM17" s="63">
         <v>41227</v>
       </c>
-      <c r="BM17" s="64" t="s">
+      <c r="BN17" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="BN17" s="65">
+      <c r="BO17" s="65">
         <v>31.94068</v>
       </c>
-      <c r="BO17" s="65">
+      <c r="BP17" s="65">
         <v>34.687379999999997</v>
       </c>
-      <c r="BP17" s="42" t="s">
+      <c r="BQ17" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ17" s="58" t="s">
+      <c r="BR17" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BR17" s="25" t="s">
+      <c r="BS17" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS17" t="s">
-        <v>46</v>
-      </c>
       <c r="BT17" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU17" t="s">
         <v>408</v>
       </c>
-      <c r="BU17" t="s">
+      <c r="BV17" t="s">
         <v>426</v>
       </c>
-      <c r="BW17">
+      <c r="BX17">
         <v>19</v>
       </c>
-      <c r="BX17" s="69" t="s">
+      <c r="BY17" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY17" s="69">
+      <c r="BZ17" s="69">
         <v>130.54</v>
       </c>
-      <c r="BZ17">
+      <c r="CA17">
         <v>40.5</v>
       </c>
-      <c r="CA17">
+      <c r="CB17">
         <v>24.85</v>
       </c>
-      <c r="CB17">
+      <c r="CC17">
         <v>163.64500000000001</v>
       </c>
-      <c r="CC17">
+      <c r="CD17">
         <v>99.39</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6463,152 +6593,155 @@
       <c r="Y18" s="33">
         <v>6</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="33" t="s">
+      <c r="Z18" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB18" s="16" t="s">
+      <c r="AC18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC18" s="56" t="s">
+      <c r="AD18" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD18" s="33" t="s">
+      <c r="AE18" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE18" s="16" t="s">
+      <c r="AF18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF18" s="56" t="s">
+      <c r="AG18" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="59" t="s">
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="AI18" s="59" t="s">
+      <c r="AJ18" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="AJ18" s="59" t="s">
+      <c r="AK18" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="AK18" s="59" t="s">
+      <c r="AL18" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="61" t="s">
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="AN18" s="71">
+      <c r="AO18" s="71">
         <v>37.200000000000003</v>
       </c>
-      <c r="AO18" s="62">
+      <c r="AP18" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AR18" t="s">
         <v>246</v>
       </c>
-      <c r="AR18" s="42" t="s">
+      <c r="AS18" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS18" s="1" t="s">
+      <c r="AT18" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT18" s="42" t="s">
+      <c r="AU18" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU18" s="1" t="s">
+      <c r="AV18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>8</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>9</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>10</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BA18" t="s">
         <v>64</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BB18" t="s">
         <v>11</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BC18" t="s">
         <v>70</v>
-      </c>
-      <c r="BD18">
-        <v>251</v>
       </c>
       <c r="BE18">
         <v>251</v>
       </c>
-      <c r="BG18" s="57" t="s">
+      <c r="BF18">
+        <v>251</v>
+      </c>
+      <c r="BH18" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH18" t="s">
+      <c r="BI18" t="s">
         <v>409</v>
       </c>
-      <c r="BI18" t="s">
+      <c r="BJ18" t="s">
         <v>410</v>
       </c>
-      <c r="BJ18" t="s">
+      <c r="BK18" t="s">
         <v>411</v>
       </c>
-      <c r="BL18" s="63">
+      <c r="BM18" s="63">
         <v>41227</v>
       </c>
-      <c r="BM18" s="64" t="s">
+      <c r="BN18" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="BN18" s="65">
+      <c r="BO18" s="65">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO18" s="65">
+      <c r="BP18" s="65">
         <v>34.68336</v>
       </c>
-      <c r="BP18" s="42" t="s">
+      <c r="BQ18" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ18" s="58" t="s">
+      <c r="BR18" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="BR18" s="25" t="s">
+      <c r="BS18" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS18" t="s">
-        <v>46</v>
-      </c>
       <c r="BT18" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU18" t="s">
         <v>408</v>
       </c>
-      <c r="BU18" t="s">
+      <c r="BV18" t="s">
         <v>427</v>
       </c>
-      <c r="BW18">
+      <c r="BX18">
         <v>18</v>
       </c>
-      <c r="BX18" s="69" t="s">
+      <c r="BY18" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY18" s="69">
+      <c r="BZ18" s="69">
         <v>1196.8399999999999</v>
       </c>
-      <c r="BZ18">
+      <c r="CA18">
         <v>39.6</v>
       </c>
-      <c r="CA18">
+      <c r="CB18">
         <v>24.45</v>
       </c>
-      <c r="CB18">
+      <c r="CC18">
         <v>163.03299999999999</v>
       </c>
-      <c r="CC18">
+      <c r="CD18">
         <v>99.2</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6675,152 +6808,155 @@
       <c r="Y19" s="33">
         <v>6</v>
       </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="33" t="s">
+      <c r="Z19" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB19" s="16" t="s">
+      <c r="AC19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC19" s="56" t="s">
+      <c r="AD19" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD19" s="33" t="s">
+      <c r="AE19" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE19" s="16" t="s">
+      <c r="AF19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF19" s="56" t="s">
+      <c r="AG19" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="59" t="s">
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="AI19" s="59" t="s">
+      <c r="AJ19" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="AJ19" s="59" t="s">
+      <c r="AK19" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="AK19" s="59" t="s">
+      <c r="AL19" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="61" t="s">
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="AN19" s="71">
+      <c r="AO19" s="71">
         <v>34.6</v>
       </c>
-      <c r="AO19" s="62">
+      <c r="AP19" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AR19" t="s">
         <v>246</v>
       </c>
-      <c r="AR19" s="42" t="s">
+      <c r="AS19" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS19" s="1" t="s">
+      <c r="AT19" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT19" s="42" t="s">
+      <c r="AU19" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU19" s="1" t="s">
+      <c r="AV19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AX19" t="s">
         <v>8</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AY19" t="s">
         <v>9</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="AZ19" t="s">
         <v>10</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BA19" t="s">
         <v>64</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BB19" t="s">
         <v>11</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BC19" t="s">
         <v>70</v>
-      </c>
-      <c r="BD19">
-        <v>251</v>
       </c>
       <c r="BE19">
         <v>251</v>
       </c>
-      <c r="BG19" s="57" t="s">
+      <c r="BF19">
+        <v>251</v>
+      </c>
+      <c r="BH19" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH19" t="s">
+      <c r="BI19" t="s">
         <v>409</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BJ19" t="s">
         <v>410</v>
       </c>
-      <c r="BJ19" t="s">
+      <c r="BK19" t="s">
         <v>411</v>
       </c>
-      <c r="BL19" s="63">
+      <c r="BM19" s="63">
         <v>41227</v>
       </c>
-      <c r="BM19" s="64" t="s">
+      <c r="BN19" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="BN19" s="65">
+      <c r="BO19" s="65">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO19" s="65">
+      <c r="BP19" s="65">
         <v>34.68336</v>
       </c>
-      <c r="BP19" s="42" t="s">
+      <c r="BQ19" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ19" t="s">
+      <c r="BR19" t="s">
         <v>344</v>
       </c>
-      <c r="BR19" s="25" t="s">
+      <c r="BS19" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS19" t="s">
-        <v>46</v>
-      </c>
       <c r="BT19" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU19" t="s">
         <v>408</v>
       </c>
-      <c r="BU19" t="s">
+      <c r="BV19" t="s">
         <v>428</v>
       </c>
-      <c r="BW19">
+      <c r="BX19">
         <v>18</v>
       </c>
-      <c r="BX19" s="69" t="s">
+      <c r="BY19" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY19" s="69">
+      <c r="BZ19" s="69">
         <v>1196.8399999999999</v>
       </c>
-      <c r="BZ19">
+      <c r="CA19">
         <v>39.6</v>
       </c>
-      <c r="CA19">
+      <c r="CB19">
         <v>24.45</v>
       </c>
-      <c r="CB19">
+      <c r="CC19">
         <v>163.03299999999999</v>
       </c>
-      <c r="CC19">
+      <c r="CD19">
         <v>99.2</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6887,152 +7023,155 @@
       <c r="Y20" s="33">
         <v>6</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="33" t="s">
+      <c r="Z20" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB20" s="16" t="s">
+      <c r="AC20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC20" s="56" t="s">
+      <c r="AD20" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD20" s="33" t="s">
+      <c r="AE20" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE20" s="16" t="s">
+      <c r="AF20" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF20" s="56" t="s">
+      <c r="AG20" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="59" t="s">
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="AI20" s="59" t="s">
+      <c r="AJ20" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="AJ20" s="59" t="s">
+      <c r="AK20" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="AK20" s="59" t="s">
+      <c r="AL20" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="61" t="s">
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="AN20" s="71">
+      <c r="AO20" s="71">
         <v>34.799999999999997</v>
       </c>
-      <c r="AO20" s="62">
+      <c r="AP20" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AR20" t="s">
         <v>246</v>
       </c>
-      <c r="AR20" s="42" t="s">
+      <c r="AS20" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS20" s="1" t="s">
+      <c r="AT20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT20" s="42" t="s">
+      <c r="AU20" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU20" s="1" t="s">
+      <c r="AV20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AX20" t="s">
         <v>8</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AY20" t="s">
         <v>9</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="AZ20" t="s">
         <v>10</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BA20" t="s">
         <v>64</v>
       </c>
-      <c r="BA20" t="s">
+      <c r="BB20" t="s">
         <v>11</v>
       </c>
-      <c r="BB20" t="s">
+      <c r="BC20" t="s">
         <v>70</v>
-      </c>
-      <c r="BD20">
-        <v>251</v>
       </c>
       <c r="BE20">
         <v>251</v>
       </c>
-      <c r="BG20" s="57" t="s">
+      <c r="BF20">
+        <v>251</v>
+      </c>
+      <c r="BH20" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH20" t="s">
+      <c r="BI20" t="s">
         <v>409</v>
       </c>
-      <c r="BI20" t="s">
+      <c r="BJ20" t="s">
         <v>410</v>
       </c>
-      <c r="BJ20" t="s">
+      <c r="BK20" t="s">
         <v>411</v>
       </c>
-      <c r="BL20" s="63">
+      <c r="BM20" s="63">
         <v>41227</v>
       </c>
-      <c r="BM20" s="64" t="s">
+      <c r="BN20" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="BN20" s="65">
+      <c r="BO20" s="65">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO20" s="65">
+      <c r="BP20" s="65">
         <v>34.68336</v>
       </c>
-      <c r="BP20" s="42" t="s">
+      <c r="BQ20" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ20" t="s">
+      <c r="BR20" t="s">
         <v>344</v>
       </c>
-      <c r="BR20" s="25" t="s">
+      <c r="BS20" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS20" t="s">
-        <v>46</v>
-      </c>
       <c r="BT20" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU20" t="s">
         <v>408</v>
       </c>
-      <c r="BU20" t="s">
+      <c r="BV20" t="s">
         <v>429</v>
       </c>
-      <c r="BW20">
+      <c r="BX20">
         <v>18</v>
       </c>
-      <c r="BX20" s="69" t="s">
+      <c r="BY20" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY20" s="69">
+      <c r="BZ20" s="69">
         <v>1196.8399999999999</v>
       </c>
-      <c r="BZ20">
+      <c r="CA20">
         <v>39.6</v>
       </c>
-      <c r="CA20">
+      <c r="CB20">
         <v>24.45</v>
       </c>
-      <c r="CB20">
+      <c r="CC20">
         <v>163.03299999999999</v>
       </c>
-      <c r="CC20">
+      <c r="CD20">
         <v>99.2</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7095,144 +7234,147 @@
       <c r="Y21" s="33">
         <v>7</v>
       </c>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="33" t="s">
+      <c r="Z21" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB21" s="16" t="s">
+      <c r="AC21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC21" s="56" t="s">
+      <c r="AD21" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD21" s="33" t="s">
+      <c r="AE21" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE21" s="16" t="s">
+      <c r="AF21" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF21" s="56" t="s">
+      <c r="AG21" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="59" t="s">
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="AI21" s="59" t="s">
+      <c r="AJ21" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="AJ21" s="59" t="s">
+      <c r="AK21" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="AK21" s="59" t="s">
+      <c r="AL21" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="61" t="s">
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="AN21" s="71"/>
-      <c r="AO21" s="62">
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AR21" t="s">
         <v>246</v>
       </c>
-      <c r="AR21" s="42" t="s">
+      <c r="AS21" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS21" s="1" t="s">
+      <c r="AT21" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT21" s="42" t="s">
+      <c r="AU21" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU21" s="1" t="s">
+      <c r="AV21" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AX21" t="s">
         <v>8</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="AY21" t="s">
         <v>9</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="AZ21" t="s">
         <v>10</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BA21" t="s">
         <v>64</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BB21" t="s">
         <v>11</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BC21" t="s">
         <v>70</v>
-      </c>
-      <c r="BD21">
-        <v>251</v>
       </c>
       <c r="BE21">
         <v>251</v>
       </c>
-      <c r="BG21" s="57" t="s">
+      <c r="BF21">
+        <v>251</v>
+      </c>
+      <c r="BH21" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH21" t="s">
+      <c r="BI21" t="s">
         <v>409</v>
       </c>
-      <c r="BI21" t="s">
+      <c r="BJ21" t="s">
         <v>410</v>
       </c>
-      <c r="BJ21" t="s">
+      <c r="BK21" t="s">
         <v>411</v>
       </c>
-      <c r="BL21" s="63">
+      <c r="BM21" s="63">
         <v>41233</v>
       </c>
-      <c r="BM21" s="64" t="s">
+      <c r="BN21" s="64" t="s">
         <v>333</v>
       </c>
-      <c r="BN21" s="65">
+      <c r="BO21" s="65">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO21" s="65">
+      <c r="BP21" s="65">
         <v>34.882582999999997</v>
       </c>
-      <c r="BP21" s="42" t="s">
+      <c r="BQ21" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ21" s="58" t="s">
+      <c r="BR21" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="BR21" s="25" t="s">
+      <c r="BS21" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS21" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW21">
+      <c r="BT21" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX21">
         <v>3.8</v>
       </c>
-      <c r="BX21" s="42" t="s">
+      <c r="BY21" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="BY21" s="42">
+      <c r="BZ21" s="42">
         <v>0</v>
       </c>
-      <c r="BZ21">
+      <c r="CA21">
         <v>41.04</v>
       </c>
-      <c r="CA21">
+      <c r="CB21">
         <v>25.24</v>
       </c>
-      <c r="CB21">
+      <c r="CC21">
         <v>237.71</v>
       </c>
-      <c r="CC21">
+      <c r="CD21">
         <v>105.6</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7299,152 +7441,155 @@
       <c r="Y22" s="33">
         <v>7</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="33" t="s">
+      <c r="Z22" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB22" s="16" t="s">
+      <c r="AC22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC22" s="56" t="s">
+      <c r="AD22" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD22" s="33" t="s">
+      <c r="AE22" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE22" s="16" t="s">
+      <c r="AF22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF22" s="56" t="s">
+      <c r="AG22" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="59" t="s">
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="AI22" s="59" t="s">
+      <c r="AJ22" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="AJ22" s="59" t="s">
+      <c r="AK22" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="AK22" s="59" t="s">
+      <c r="AL22" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="61" t="s">
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AN22" s="71">
+      <c r="AO22" s="71">
         <v>29.4</v>
       </c>
-      <c r="AO22" s="62">
+      <c r="AP22" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AR22" t="s">
         <v>246</v>
       </c>
-      <c r="AR22" s="42" t="s">
+      <c r="AS22" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS22" s="1" t="s">
+      <c r="AT22" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT22" s="42" t="s">
+      <c r="AU22" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU22" s="1" t="s">
+      <c r="AV22" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>8</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>9</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>10</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>64</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BB22" t="s">
         <v>11</v>
       </c>
-      <c r="BB22" t="s">
+      <c r="BC22" t="s">
         <v>70</v>
-      </c>
-      <c r="BD22">
-        <v>251</v>
       </c>
       <c r="BE22">
         <v>251</v>
       </c>
-      <c r="BG22" s="57" t="s">
+      <c r="BF22">
+        <v>251</v>
+      </c>
+      <c r="BH22" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH22" t="s">
+      <c r="BI22" t="s">
         <v>409</v>
       </c>
-      <c r="BI22" t="s">
+      <c r="BJ22" t="s">
         <v>410</v>
       </c>
-      <c r="BJ22" t="s">
+      <c r="BK22" t="s">
         <v>411</v>
       </c>
-      <c r="BL22" s="63">
+      <c r="BM22" s="63">
         <v>41233</v>
       </c>
-      <c r="BM22" s="64" t="s">
+      <c r="BN22" s="64" t="s">
         <v>333</v>
       </c>
-      <c r="BN22" s="65">
+      <c r="BO22" s="65">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO22" s="65">
+      <c r="BP22" s="65">
         <v>34.882582999999997</v>
       </c>
-      <c r="BP22" s="42" t="s">
+      <c r="BQ22" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ22" s="58" t="s">
+      <c r="BR22" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="BR22" s="25" t="s">
+      <c r="BS22" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS22" t="s">
-        <v>46</v>
-      </c>
       <c r="BT22" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU22" t="s">
         <v>408</v>
       </c>
-      <c r="BU22" t="s">
+      <c r="BV22" t="s">
         <v>430</v>
       </c>
-      <c r="BW22">
+      <c r="BX22">
         <v>3.8</v>
       </c>
-      <c r="BX22" s="42" t="s">
+      <c r="BY22" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="BY22" s="42">
+      <c r="BZ22" s="42">
         <v>0</v>
       </c>
-      <c r="BZ22">
+      <c r="CA22">
         <v>41.04</v>
       </c>
-      <c r="CA22">
+      <c r="CB22">
         <v>25.24</v>
       </c>
-      <c r="CB22">
+      <c r="CC22">
         <v>237.71</v>
       </c>
-      <c r="CC22">
+      <c r="CD22">
         <v>105.6</v>
       </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7511,152 +7656,155 @@
       <c r="Y23" s="33">
         <v>7</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="33" t="s">
+      <c r="Z23" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB23" s="16" t="s">
+      <c r="AC23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC23" s="56" t="s">
+      <c r="AD23" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD23" s="33" t="s">
+      <c r="AE23" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE23" s="16" t="s">
+      <c r="AF23" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF23" s="56" t="s">
+      <c r="AG23" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="59" t="s">
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="AI23" s="59" t="s">
+      <c r="AJ23" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="AJ23" s="59" t="s">
+      <c r="AK23" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="AK23" s="59" t="s">
+      <c r="AL23" s="59" t="s">
         <v>309</v>
       </c>
-      <c r="AL23" s="59"/>
-      <c r="AM23" s="61" t="s">
+      <c r="AM23" s="59"/>
+      <c r="AN23" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AN23" s="71">
+      <c r="AO23" s="71">
         <v>20.2</v>
       </c>
-      <c r="AO23" s="62">
+      <c r="AP23" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AR23" t="s">
         <v>246</v>
       </c>
-      <c r="AR23" s="42" t="s">
+      <c r="AS23" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS23" s="1" t="s">
+      <c r="AT23" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT23" s="42" t="s">
+      <c r="AU23" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU23" s="1" t="s">
+      <c r="AV23" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AY23" t="s">
         <v>9</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>10</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>64</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BB23" t="s">
         <v>11</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BC23" t="s">
         <v>70</v>
-      </c>
-      <c r="BD23">
-        <v>251</v>
       </c>
       <c r="BE23">
         <v>251</v>
       </c>
-      <c r="BG23" s="57" t="s">
+      <c r="BF23">
+        <v>251</v>
+      </c>
+      <c r="BH23" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH23" t="s">
+      <c r="BI23" t="s">
         <v>409</v>
       </c>
-      <c r="BI23" t="s">
+      <c r="BJ23" t="s">
         <v>410</v>
       </c>
-      <c r="BJ23" t="s">
+      <c r="BK23" t="s">
         <v>411</v>
       </c>
-      <c r="BL23" s="63">
+      <c r="BM23" s="63">
         <v>41233</v>
       </c>
-      <c r="BM23" s="64" t="s">
+      <c r="BN23" s="64" t="s">
         <v>333</v>
       </c>
-      <c r="BN23" s="65">
+      <c r="BO23" s="65">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO23" s="65">
+      <c r="BP23" s="65">
         <v>34.882582999999997</v>
       </c>
-      <c r="BP23" s="42" t="s">
+      <c r="BQ23" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ23" s="58" t="s">
+      <c r="BR23" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="BR23" s="25" t="s">
+      <c r="BS23" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS23" t="s">
-        <v>46</v>
-      </c>
       <c r="BT23" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU23" t="s">
         <v>408</v>
       </c>
-      <c r="BU23" t="s">
+      <c r="BV23" t="s">
         <v>431</v>
       </c>
-      <c r="BW23">
+      <c r="BX23">
         <v>3.8</v>
       </c>
-      <c r="BX23" s="42" t="s">
+      <c r="BY23" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="BY23" s="42">
+      <c r="BZ23" s="42">
         <v>0</v>
       </c>
-      <c r="BZ23">
+      <c r="CA23">
         <v>41.04</v>
       </c>
-      <c r="CA23">
+      <c r="CB23">
         <v>25.24</v>
       </c>
-      <c r="CB23">
+      <c r="CC23">
         <v>237.71</v>
       </c>
-      <c r="CC23">
+      <c r="CD23">
         <v>105.6</v>
       </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7723,152 +7871,155 @@
       <c r="Y24" s="33">
         <v>8</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="33" t="s">
+      <c r="Z24" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB24" s="16" t="s">
+      <c r="AC24" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC24" s="56" t="s">
+      <c r="AD24" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD24" s="33" t="s">
+      <c r="AE24" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE24" s="16" t="s">
+      <c r="AF24" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF24" s="56" t="s">
+      <c r="AG24" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="59" t="s">
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="AI24" s="59" t="s">
+      <c r="AJ24" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="AJ24" s="59" t="s">
+      <c r="AK24" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="AK24" s="59" t="s">
+      <c r="AL24" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="61" t="s">
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="AN24" s="71">
+      <c r="AO24" s="71">
         <v>43.6</v>
       </c>
-      <c r="AO24" s="62">
+      <c r="AP24" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AR24" t="s">
         <v>246</v>
       </c>
-      <c r="AR24" s="42" t="s">
+      <c r="AS24" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS24" s="1" t="s">
+      <c r="AT24" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT24" s="42" t="s">
+      <c r="AU24" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU24" s="1" t="s">
+      <c r="AV24" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AX24" t="s">
         <v>8</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AY24" t="s">
         <v>9</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="AZ24" t="s">
         <v>10</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BA24" t="s">
         <v>64</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BB24" t="s">
         <v>11</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BC24" t="s">
         <v>70</v>
-      </c>
-      <c r="BD24">
-        <v>251</v>
       </c>
       <c r="BE24">
         <v>251</v>
       </c>
-      <c r="BG24" s="57" t="s">
+      <c r="BF24">
+        <v>251</v>
+      </c>
+      <c r="BH24" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH24" t="s">
+      <c r="BI24" t="s">
         <v>409</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BJ24" t="s">
         <v>410</v>
       </c>
-      <c r="BJ24" t="s">
+      <c r="BK24" t="s">
         <v>411</v>
       </c>
-      <c r="BL24" s="63">
+      <c r="BM24" s="63">
         <v>41233</v>
       </c>
-      <c r="BM24" s="64" t="s">
+      <c r="BN24" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="BN24" s="65">
+      <c r="BO24" s="65">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO24" s="65">
+      <c r="BP24" s="65">
         <v>34.879339999999999</v>
       </c>
-      <c r="BP24" s="42" t="s">
+      <c r="BQ24" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ24" s="58" t="s">
+      <c r="BR24" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="BR24" s="25" t="s">
+      <c r="BS24" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS24" t="s">
-        <v>46</v>
-      </c>
       <c r="BT24" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU24" t="s">
         <v>408</v>
       </c>
-      <c r="BU24" t="s">
+      <c r="BV24" t="s">
         <v>432</v>
       </c>
-      <c r="BW24">
+      <c r="BX24">
         <v>5.5</v>
       </c>
-      <c r="BX24" s="69" t="s">
+      <c r="BY24" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY24" s="68">
+      <c r="BZ24" s="68">
         <v>338.21</v>
       </c>
-      <c r="BZ24">
+      <c r="CA24">
         <v>39.4</v>
       </c>
-      <c r="CA24">
+      <c r="CB24">
         <v>23.09</v>
       </c>
-      <c r="CB24">
+      <c r="CC24">
         <v>197.125</v>
       </c>
-      <c r="CC24">
+      <c r="CD24">
         <v>100.05</v>
       </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7935,152 +8086,155 @@
       <c r="Y25" s="33">
         <v>8</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="33" t="s">
+      <c r="Z25" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB25" s="16" t="s">
+      <c r="AC25" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC25" s="56" t="s">
+      <c r="AD25" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD25" s="33" t="s">
+      <c r="AE25" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE25" s="16" t="s">
+      <c r="AF25" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF25" s="56" t="s">
+      <c r="AG25" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="59" t="s">
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="AI25" s="59" t="s">
+      <c r="AJ25" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="AJ25" s="59" t="s">
+      <c r="AK25" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="AK25" s="59" t="s">
+      <c r="AL25" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="61" t="s">
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="AN25" s="71">
+      <c r="AO25" s="71">
         <v>15.9</v>
       </c>
-      <c r="AO25" s="62">
+      <c r="AP25" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AR25" t="s">
         <v>246</v>
       </c>
-      <c r="AR25" s="42" t="s">
+      <c r="AS25" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS25" s="1" t="s">
+      <c r="AT25" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT25" s="42" t="s">
+      <c r="AU25" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU25" s="1" t="s">
+      <c r="AV25" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>8</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AY25" t="s">
         <v>9</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>10</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>64</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BB25" t="s">
         <v>11</v>
       </c>
-      <c r="BB25" t="s">
+      <c r="BC25" t="s">
         <v>70</v>
-      </c>
-      <c r="BD25">
-        <v>251</v>
       </c>
       <c r="BE25">
         <v>251</v>
       </c>
-      <c r="BG25" s="57" t="s">
+      <c r="BF25">
+        <v>251</v>
+      </c>
+      <c r="BH25" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH25" t="s">
+      <c r="BI25" t="s">
         <v>409</v>
       </c>
-      <c r="BI25" t="s">
+      <c r="BJ25" t="s">
         <v>410</v>
       </c>
-      <c r="BJ25" t="s">
+      <c r="BK25" t="s">
         <v>411</v>
       </c>
-      <c r="BL25" s="63">
+      <c r="BM25" s="63">
         <v>41233</v>
       </c>
-      <c r="BM25" s="64" t="s">
+      <c r="BN25" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="BN25" s="65">
+      <c r="BO25" s="65">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO25" s="65">
+      <c r="BP25" s="65">
         <v>34.879339999999999</v>
       </c>
-      <c r="BP25" s="42" t="s">
+      <c r="BQ25" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ25" s="58" t="s">
+      <c r="BR25" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="BR25" s="25" t="s">
+      <c r="BS25" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS25" t="s">
-        <v>46</v>
-      </c>
       <c r="BT25" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU25" t="s">
         <v>408</v>
       </c>
-      <c r="BU25" t="s">
+      <c r="BV25" t="s">
         <v>433</v>
       </c>
-      <c r="BW25">
+      <c r="BX25">
         <v>5.5</v>
       </c>
-      <c r="BX25" s="69" t="s">
+      <c r="BY25" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY25" s="69">
+      <c r="BZ25" s="69">
         <v>338.21</v>
       </c>
-      <c r="BZ25">
+      <c r="CA25">
         <v>39.4</v>
       </c>
-      <c r="CA25">
+      <c r="CB25">
         <v>23.09</v>
       </c>
-      <c r="CB25">
+      <c r="CC25">
         <v>197.125</v>
       </c>
-      <c r="CC25">
+      <c r="CD25">
         <v>100.05</v>
       </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8143,144 +8297,147 @@
       <c r="Y26" s="33">
         <v>8</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="33" t="s">
+      <c r="Z26" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB26" s="16" t="s">
+      <c r="AC26" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC26" s="56" t="s">
+      <c r="AD26" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD26" s="33" t="s">
+      <c r="AE26" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE26" s="16" t="s">
+      <c r="AF26" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF26" s="56" t="s">
+      <c r="AG26" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="59" t="s">
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="AI26" s="59" t="s">
+      <c r="AJ26" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="AJ26" s="59" t="s">
+      <c r="AK26" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="AK26" s="59" t="s">
+      <c r="AL26" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="61" t="s">
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="AN26" s="71"/>
-      <c r="AO26" s="62">
+      <c r="AO26" s="71"/>
+      <c r="AP26" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>246</v>
       </c>
-      <c r="AR26" s="42" t="s">
+      <c r="AS26" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS26" s="1" t="s">
+      <c r="AT26" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT26" s="42" t="s">
+      <c r="AU26" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU26" s="1" t="s">
+      <c r="AV26" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>8</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AY26" t="s">
         <v>9</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>10</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>64</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>11</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>70</v>
-      </c>
-      <c r="BD26">
-        <v>251</v>
       </c>
       <c r="BE26">
         <v>251</v>
       </c>
-      <c r="BG26" s="57" t="s">
+      <c r="BF26">
+        <v>251</v>
+      </c>
+      <c r="BH26" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH26" t="s">
+      <c r="BI26" t="s">
         <v>409</v>
       </c>
-      <c r="BI26" t="s">
+      <c r="BJ26" t="s">
         <v>410</v>
       </c>
-      <c r="BJ26" t="s">
+      <c r="BK26" t="s">
         <v>411</v>
       </c>
-      <c r="BL26" s="63">
+      <c r="BM26" s="63">
         <v>41233</v>
       </c>
-      <c r="BM26" s="64" t="s">
+      <c r="BN26" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="BN26" s="65">
+      <c r="BO26" s="65">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO26" s="65">
+      <c r="BP26" s="65">
         <v>34.879339999999999</v>
       </c>
-      <c r="BP26" s="42" t="s">
+      <c r="BQ26" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ26" s="58" t="s">
+      <c r="BR26" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="BR26" s="25" t="s">
+      <c r="BS26" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS26" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW26">
+      <c r="BT26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX26">
         <v>5.5</v>
       </c>
-      <c r="BX26" s="69" t="s">
+      <c r="BY26" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY26" s="69">
+      <c r="BZ26" s="69">
         <v>338.21</v>
       </c>
-      <c r="BZ26">
+      <c r="CA26">
         <v>39.4</v>
       </c>
-      <c r="CA26">
+      <c r="CB26">
         <v>23.09</v>
       </c>
-      <c r="CB26">
+      <c r="CC26">
         <v>197.125</v>
       </c>
-      <c r="CC26">
+      <c r="CD26">
         <v>100.05</v>
       </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8347,152 +8504,155 @@
       <c r="Y27" s="33">
         <v>9</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="33" t="s">
+      <c r="Z27" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB27" s="16" t="s">
+      <c r="AC27" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC27" s="56" t="s">
+      <c r="AD27" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD27" s="33" t="s">
+      <c r="AE27" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE27" s="16" t="s">
+      <c r="AF27" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF27" s="56" t="s">
+      <c r="AG27" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="59" t="s">
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="AI27" s="59" t="s">
+      <c r="AJ27" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="AJ27" s="59" t="s">
+      <c r="AK27" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="AK27" s="59" t="s">
+      <c r="AL27" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="61" t="s">
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="AN27" s="71">
+      <c r="AO27" s="71">
         <v>39.799999999999997</v>
       </c>
-      <c r="AO27" s="62">
+      <c r="AP27" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ27" t="s">
+      <c r="AR27" t="s">
         <v>246</v>
       </c>
-      <c r="AR27" s="42" t="s">
+      <c r="AS27" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS27" s="1" t="s">
+      <c r="AT27" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT27" s="42" t="s">
+      <c r="AU27" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU27" s="1" t="s">
+      <c r="AV27" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AX27" t="s">
         <v>8</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="AY27" t="s">
         <v>9</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="AZ27" t="s">
         <v>10</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BA27" t="s">
         <v>64</v>
       </c>
-      <c r="BA27" t="s">
+      <c r="BB27" t="s">
         <v>11</v>
       </c>
-      <c r="BB27" t="s">
+      <c r="BC27" t="s">
         <v>70</v>
-      </c>
-      <c r="BD27">
-        <v>251</v>
       </c>
       <c r="BE27">
         <v>251</v>
       </c>
-      <c r="BG27" s="57" t="s">
+      <c r="BF27">
+        <v>251</v>
+      </c>
+      <c r="BH27" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH27" t="s">
+      <c r="BI27" t="s">
         <v>409</v>
       </c>
-      <c r="BI27" t="s">
+      <c r="BJ27" t="s">
         <v>410</v>
       </c>
-      <c r="BJ27" t="s">
+      <c r="BK27" t="s">
         <v>411</v>
       </c>
-      <c r="BL27" s="63">
+      <c r="BM27" s="63">
         <v>41233</v>
       </c>
-      <c r="BM27" s="64" t="s">
+      <c r="BN27" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="BN27" s="65">
+      <c r="BO27" s="65">
         <v>32.42868</v>
       </c>
-      <c r="BO27" s="65">
+      <c r="BP27" s="65">
         <v>34.870280000000001</v>
       </c>
-      <c r="BP27" s="42" t="s">
+      <c r="BQ27" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ27" t="s">
+      <c r="BR27" t="s">
         <v>346</v>
       </c>
-      <c r="BR27" s="25" t="s">
+      <c r="BS27" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS27" t="s">
-        <v>46</v>
-      </c>
       <c r="BT27" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU27" t="s">
         <v>408</v>
       </c>
-      <c r="BU27" t="s">
+      <c r="BV27" t="s">
         <v>434</v>
       </c>
-      <c r="BW27">
+      <c r="BX27">
         <v>6.5</v>
       </c>
-      <c r="BX27" s="69" t="s">
+      <c r="BY27" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY27" s="69">
+      <c r="BZ27" s="69">
         <v>4192.68</v>
       </c>
-      <c r="BZ27">
+      <c r="CA27">
         <v>39.5</v>
       </c>
-      <c r="CA27">
+      <c r="CB27">
         <v>22.5</v>
       </c>
-      <c r="CB27">
+      <c r="CC27">
         <v>201.655</v>
       </c>
-      <c r="CC27">
+      <c r="CD27">
         <v>98.32</v>
       </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8555,144 +8715,147 @@
       <c r="Y28" s="33">
         <v>9</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="33" t="s">
+      <c r="Z28" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB28" s="16" t="s">
+      <c r="AC28" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC28" s="56" t="s">
+      <c r="AD28" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD28" s="33" t="s">
+      <c r="AE28" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE28" s="16" t="s">
+      <c r="AF28" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF28" s="56" t="s">
+      <c r="AG28" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="59" t="s">
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="AI28" s="59" t="s">
+      <c r="AJ28" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="AJ28" s="59" t="s">
+      <c r="AK28" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="AK28" s="59" t="s">
+      <c r="AL28" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="61" t="s">
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="AN28" s="71"/>
-      <c r="AO28" s="62">
+      <c r="AO28" s="71"/>
+      <c r="AP28" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AR28" t="s">
         <v>246</v>
       </c>
-      <c r="AR28" s="42" t="s">
+      <c r="AS28" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS28" s="1" t="s">
+      <c r="AT28" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT28" s="42" t="s">
+      <c r="AU28" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU28" s="1" t="s">
+      <c r="AV28" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AX28" t="s">
         <v>8</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="AY28" t="s">
         <v>9</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="AZ28" t="s">
         <v>10</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BA28" t="s">
         <v>64</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BB28" t="s">
         <v>11</v>
       </c>
-      <c r="BB28" t="s">
+      <c r="BC28" t="s">
         <v>70</v>
-      </c>
-      <c r="BD28">
-        <v>251</v>
       </c>
       <c r="BE28">
         <v>251</v>
       </c>
-      <c r="BG28" s="57" t="s">
+      <c r="BF28">
+        <v>251</v>
+      </c>
+      <c r="BH28" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH28" t="s">
+      <c r="BI28" t="s">
         <v>409</v>
       </c>
-      <c r="BI28" t="s">
+      <c r="BJ28" t="s">
         <v>410</v>
       </c>
-      <c r="BJ28" t="s">
+      <c r="BK28" t="s">
         <v>411</v>
       </c>
-      <c r="BL28" s="63">
+      <c r="BM28" s="63">
         <v>41233</v>
       </c>
-      <c r="BM28" s="64" t="s">
+      <c r="BN28" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="BN28" s="65">
+      <c r="BO28" s="65">
         <v>32.42868</v>
       </c>
-      <c r="BO28" s="65">
+      <c r="BP28" s="65">
         <v>34.870280000000001</v>
       </c>
-      <c r="BP28" s="42" t="s">
+      <c r="BQ28" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ28" t="s">
+      <c r="BR28" t="s">
         <v>346</v>
       </c>
-      <c r="BR28" s="25" t="s">
+      <c r="BS28" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS28" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW28">
+      <c r="BT28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX28">
         <v>6.5</v>
       </c>
-      <c r="BX28" s="69" t="s">
+      <c r="BY28" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY28" s="69">
+      <c r="BZ28" s="69">
         <v>4192.68</v>
       </c>
-      <c r="BZ28">
+      <c r="CA28">
         <v>39.5</v>
       </c>
-      <c r="CA28">
+      <c r="CB28">
         <v>22.5</v>
       </c>
-      <c r="CB28">
+      <c r="CC28">
         <v>201.655</v>
       </c>
-      <c r="CC28">
+      <c r="CD28">
         <v>98.32</v>
       </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8755,251 +8918,244 @@
       <c r="Y29" s="33">
         <v>9</v>
       </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="33" t="s">
+      <c r="Z29" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AB29" s="16" t="s">
+      <c r="AC29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC29" s="56" t="s">
+      <c r="AD29" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD29" s="33" t="s">
+      <c r="AE29" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AE29" s="16" t="s">
+      <c r="AF29" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF29" s="56" t="s">
+      <c r="AG29" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="59" t="s">
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="AI29" s="59" t="s">
+      <c r="AJ29" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="AJ29" s="59" t="s">
+      <c r="AK29" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="AK29" s="59" t="s">
+      <c r="AL29" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="61" t="s">
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="AN29" s="71"/>
-      <c r="AO29" s="62">
+      <c r="AO29" s="71"/>
+      <c r="AP29" s="62">
         <v>0.01</v>
       </c>
-      <c r="AQ29" t="s">
+      <c r="AR29" t="s">
         <v>246</v>
       </c>
-      <c r="AR29" s="42" t="s">
+      <c r="AS29" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="AS29" s="1" t="s">
+      <c r="AT29" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AT29" s="42" t="s">
+      <c r="AU29" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="AU29" s="1" t="s">
+      <c r="AV29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AX29" t="s">
         <v>8</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="AY29" t="s">
         <v>9</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="AZ29" t="s">
         <v>10</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BA29" t="s">
         <v>64</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BB29" t="s">
         <v>11</v>
       </c>
-      <c r="BB29" t="s">
+      <c r="BC29" t="s">
         <v>70</v>
-      </c>
-      <c r="BD29">
-        <v>251</v>
       </c>
       <c r="BE29">
         <v>251</v>
       </c>
-      <c r="BG29" s="57" t="s">
+      <c r="BF29">
+        <v>251</v>
+      </c>
+      <c r="BH29" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="BH29" t="s">
+      <c r="BI29" t="s">
         <v>409</v>
       </c>
-      <c r="BI29" t="s">
+      <c r="BJ29" t="s">
         <v>410</v>
       </c>
-      <c r="BJ29" t="s">
+      <c r="BK29" t="s">
         <v>411</v>
       </c>
-      <c r="BL29" s="63">
+      <c r="BM29" s="63">
         <v>41233</v>
       </c>
-      <c r="BM29" s="64" t="s">
+      <c r="BN29" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="BN29" s="65">
+      <c r="BO29" s="65">
         <v>32.42868</v>
       </c>
-      <c r="BO29" s="65">
+      <c r="BP29" s="65">
         <v>34.870280000000001</v>
       </c>
-      <c r="BP29" s="42" t="s">
+      <c r="BQ29" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BQ29" t="s">
+      <c r="BR29" t="s">
         <v>346</v>
       </c>
-      <c r="BR29" s="25" t="s">
+      <c r="BS29" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="BS29" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW29">
+      <c r="BT29" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX29">
         <v>6.5</v>
       </c>
-      <c r="BX29" s="69" t="s">
+      <c r="BY29" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="BY29" s="69">
+      <c r="BZ29" s="69">
         <v>4192.68</v>
       </c>
-      <c r="BZ29">
+      <c r="CA29">
         <v>39.5</v>
       </c>
-      <c r="CA29">
+      <c r="CB29">
         <v>22.5</v>
       </c>
-      <c r="CB29">
+      <c r="CC29">
         <v>201.655</v>
       </c>
-      <c r="CC29">
+      <c r="CD29">
         <v>98.32</v>
       </c>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="AN30" s="72"/>
-      <c r="AO30" s="13"/>
+    <row r="30" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="AO30" s="72"/>
+      <c r="AP30" s="13"/>
     </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="AN31" s="72"/>
-      <c r="AO31" s="13"/>
+    <row r="31" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="AO31" s="72"/>
+      <c r="AP31" s="13"/>
     </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="AO32" s="13"/>
-      <c r="BM32" s="64"/>
+    <row r="32" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="AP32" s="13"/>
+      <c r="BN32" s="64"/>
     </row>
-    <row r="33" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO33" s="13"/>
-      <c r="BM33" s="64"/>
-      <c r="BQ33" s="65"/>
+    <row r="33" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP33" s="13"/>
+      <c r="BN33" s="64"/>
       <c r="BR33" s="65"/>
+      <c r="BS33" s="65"/>
     </row>
-    <row r="34" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO34" s="13"/>
-      <c r="BM34" s="64"/>
-      <c r="BQ34" s="65"/>
+    <row r="34" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP34" s="13"/>
+      <c r="BN34" s="64"/>
       <c r="BR34" s="65"/>
+      <c r="BS34" s="65"/>
     </row>
-    <row r="35" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO35" s="13"/>
-      <c r="BM35" s="64"/>
-      <c r="BQ35" s="65"/>
+    <row r="35" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP35" s="13"/>
+      <c r="BN35" s="64"/>
       <c r="BR35" s="65"/>
+      <c r="BS35" s="65"/>
     </row>
-    <row r="36" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO36" s="13"/>
-      <c r="BM36" s="64"/>
-      <c r="BQ36" s="65"/>
+    <row r="36" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP36" s="13"/>
+      <c r="BN36" s="64"/>
       <c r="BR36" s="65"/>
+      <c r="BS36" s="65"/>
     </row>
-    <row r="37" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO37" s="13"/>
-      <c r="BM37" s="64"/>
-      <c r="BQ37" s="65"/>
+    <row r="37" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP37" s="13"/>
+      <c r="BN37" s="64"/>
       <c r="BR37" s="65"/>
+      <c r="BS37" s="65"/>
     </row>
-    <row r="38" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO38" s="13"/>
-      <c r="BM38" s="64"/>
-      <c r="BQ38" s="65"/>
+    <row r="38" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP38" s="13"/>
+      <c r="BN38" s="64"/>
       <c r="BR38" s="65"/>
+      <c r="BS38" s="65"/>
     </row>
-    <row r="39" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO39" s="13"/>
-      <c r="BQ39" s="65"/>
+    <row r="39" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP39" s="13"/>
       <c r="BR39" s="65"/>
+      <c r="BS39" s="65"/>
     </row>
-    <row r="40" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO40" s="13"/>
-      <c r="BQ40" s="65"/>
+    <row r="40" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP40" s="13"/>
       <c r="BR40" s="65"/>
+      <c r="BS40" s="65"/>
     </row>
-    <row r="41" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO41" s="13"/>
-      <c r="BQ41" s="65"/>
+    <row r="41" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP41" s="13"/>
       <c r="BR41" s="65"/>
+      <c r="BS41" s="65"/>
     </row>
-    <row r="42" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO42" s="13"/>
+    <row r="42" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP42" s="13"/>
     </row>
-    <row r="43" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO43" s="13"/>
+    <row r="43" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP43" s="13"/>
     </row>
-    <row r="44" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO44" s="13"/>
+    <row r="44" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP44" s="13"/>
     </row>
-    <row r="45" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO45" s="13"/>
+    <row r="45" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP45" s="13"/>
     </row>
-    <row r="46" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO46" s="13"/>
+    <row r="46" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP46" s="13"/>
     </row>
-    <row r="47" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO47" s="13"/>
+    <row r="47" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP47" s="13"/>
     </row>
-    <row r="48" spans="41:70" x14ac:dyDescent="0.2">
-      <c r="AO48" s="13"/>
+    <row r="48" spans="42:71" x14ac:dyDescent="0.2">
+      <c r="AP48" s="13"/>
     </row>
-    <row r="49" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO49" s="13"/>
+    <row r="49" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP49" s="13"/>
     </row>
-    <row r="50" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO50" s="13"/>
+    <row r="50" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP50" s="13"/>
     </row>
-    <row r="51" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO51" s="13"/>
+    <row r="51" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP51" s="13"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -9017,9 +9173,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -9027,11 +9183,21 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BL1:BR1"/>
-    <mergeCell ref="BT1:BU1"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BM1:BS1"/>
+    <mergeCell ref="BU1:BV1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A3:A1048576">
@@ -9057,10 +9223,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="AC3" r:id="rId1"/>
-    <hyperlink ref="AF3" r:id="rId2"/>
-    <hyperlink ref="AF4:AF29" r:id="rId3" display="jan.pawlowski@unige.ch"/>
-    <hyperlink ref="AC4:AC29" r:id="rId4" display="lucas@sinclair.bio"/>
+    <hyperlink ref="AD3" r:id="rId1"/>
+    <hyperlink ref="AG3" r:id="rId2"/>
+    <hyperlink ref="AG4:AG29" r:id="rId3" display="jan.pawlowski@unige.ch"/>
+    <hyperlink ref="AD4:AD29" r:id="rId4" display="lucas@sinclair.bio"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="463">
   <si>
     <t>Country</t>
   </si>
@@ -1441,6 +1441,12 @@
   </si>
   <si>
     <t>Label (less than 10 characters)</t>
+  </si>
+  <si>
+    <t>AS dist 2</t>
+  </si>
+  <si>
+    <t>AS dist 3</t>
   </si>
 </sst>
 </file>
@@ -2828,7 +2834,7 @@
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AA7" sqref="AA7"/>
+      <selection pane="bottomLeft" activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4834,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="Z10" s="33" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="33" t="s">
@@ -5056,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="Z11" s="33" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="33" t="s">
@@ -9153,9 +9159,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -9173,24 +9189,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/unige/desalt/metadata.xlsx
+++ b/metadata/excel/projects/unige/desalt/metadata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,22 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="51000" windowHeight="27880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51120" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -2831,10 +2828,10 @@
   </sheetPr>
   <dimension ref="A1:CE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="137" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="Z41" sqref="Z41"/>
+      <selection pane="bottomLeft" activeCell="BZ3" sqref="BZ3:BZ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3435,7 +3432,7 @@
         <v>337</v>
       </c>
       <c r="BZ3" s="42">
-        <v>0</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="CA3">
         <v>42.3</v>
@@ -3645,7 +3642,7 @@
         <v>337</v>
       </c>
       <c r="BZ4" s="42">
-        <v>0</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="CA4">
         <v>42.3</v>
@@ -3867,7 +3864,7 @@
         <v>337</v>
       </c>
       <c r="BZ5" s="42">
-        <v>0</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="CA5">
         <v>42.3</v>
@@ -4089,7 +4086,7 @@
         <v>338</v>
       </c>
       <c r="BZ6" s="68">
-        <v>545.16</v>
+        <v>694.57</v>
       </c>
       <c r="CA6">
         <v>39.6</v>
@@ -4311,7 +4308,7 @@
         <v>338</v>
       </c>
       <c r="BZ7" s="69">
-        <v>545.16</v>
+        <v>694.57</v>
       </c>
       <c r="CA7">
         <v>39.6</v>
@@ -4533,7 +4530,7 @@
         <v>338</v>
       </c>
       <c r="BZ8" s="69">
-        <v>545.16</v>
+        <v>694.57</v>
       </c>
       <c r="CA8">
         <v>39.6</v>
@@ -4755,7 +4752,7 @@
         <v>338</v>
       </c>
       <c r="BZ9" s="69">
-        <v>5080.2700000000004</v>
+        <v>5022.16</v>
       </c>
       <c r="CA9">
         <v>39.6</v>
@@ -4977,7 +4974,7 @@
         <v>338</v>
       </c>
       <c r="BZ10" s="69">
-        <v>5080.2700000000004</v>
+        <v>5022.16</v>
       </c>
       <c r="CA10">
         <v>39.6</v>
@@ -5199,7 +5196,7 @@
         <v>338</v>
       </c>
       <c r="BZ11" s="69">
-        <v>5080.2700000000004</v>
+        <v>5022.16</v>
       </c>
       <c r="CA11">
         <v>39.6</v>
@@ -7365,7 +7362,7 @@
         <v>337</v>
       </c>
       <c r="BZ21" s="42">
-        <v>0</v>
+        <v>118.45</v>
       </c>
       <c r="CA21">
         <v>41.04</v>
@@ -7580,7 +7577,7 @@
         <v>337</v>
       </c>
       <c r="BZ22" s="42">
-        <v>0</v>
+        <v>118.45</v>
       </c>
       <c r="CA22">
         <v>41.04</v>
@@ -7795,7 +7792,7 @@
         <v>337</v>
       </c>
       <c r="BZ23" s="42">
-        <v>0</v>
+        <v>118.45</v>
       </c>
       <c r="CA23">
         <v>41.04</v>
@@ -8010,7 +8007,7 @@
         <v>338</v>
       </c>
       <c r="BZ24" s="68">
-        <v>338.21</v>
+        <v>454.75</v>
       </c>
       <c r="CA24">
         <v>39.4</v>
@@ -8225,7 +8222,7 @@
         <v>338</v>
       </c>
       <c r="BZ25" s="69">
-        <v>338.21</v>
+        <v>454.75</v>
       </c>
       <c r="CA25">
         <v>39.4</v>
@@ -8428,7 +8425,7 @@
         <v>338</v>
       </c>
       <c r="BZ26" s="69">
-        <v>338.21</v>
+        <v>454.75</v>
       </c>
       <c r="CA26">
         <v>39.4</v>
@@ -8643,7 +8640,7 @@
         <v>338</v>
       </c>
       <c r="BZ27" s="69">
-        <v>4192.68</v>
+        <v>4288.6400000000003</v>
       </c>
       <c r="CA27">
         <v>39.5</v>
@@ -8846,7 +8843,7 @@
         <v>338</v>
       </c>
       <c r="BZ28" s="69">
-        <v>4192.68</v>
+        <v>4288.6400000000003</v>
       </c>
       <c r="CA28">
         <v>39.5</v>
@@ -9049,7 +9046,7 @@
         <v>338</v>
       </c>
       <c r="BZ29" s="69">
-        <v>4192.68</v>
+        <v>4288.6400000000003</v>
       </c>
       <c r="CA29">
         <v>39.5</v>
@@ -9159,19 +9156,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -9189,14 +9176,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
